--- a/Wireless/LORD MicroStrain Wireless Configuration.xlsx
+++ b/Wireless/LORD MicroStrain Wireless Configuration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wireless Node Config" sheetId="3" r:id="rId1"/>
@@ -2685,9 +2685,6 @@
     <t>The minimum wake interval is internally limited to 1 second (a value of 7680), and the maximum wake interval is limited to approximately 15 seconds (a value of 512). Any values outside of this range will be automatically truncated.</t>
   </si>
   <si>
-    <t>LORD MicroStrain Base Station EEPROM Map  -  10/19/2015</t>
-  </si>
-  <si>
     <t>Calibration Coefficients</t>
   </si>
   <si>
@@ -3049,9 +3046,6 @@
   </si>
   <si>
     <t>Acceleration threshold for inactivity in G's</t>
-  </si>
-  <si>
-    <t>LORD MicroStrain Wireless Node EEPROM Map  -  10/23/2015</t>
   </si>
   <si>
     <t>Bootloader</t>
@@ -3204,10 +3198,16 @@
     <t>0 for standard angle mode, 1 for distributed angle mode, 2 for raw gauge strain mode.</t>
   </si>
   <si>
-    <t>Whether the beacon is echoed over the port (2) or not (0).</t>
-  </si>
-  <si>
-    <t>[0, 2]</t>
+    <t>[0-3]</t>
+  </si>
+  <si>
+    <t>Controls beacon echos over the port (0 = off, 1 = echo rx, 2 = echo tx, 3 = echo both)</t>
+  </si>
+  <si>
+    <t>LORD MicroStrain Base Station EEPROM Map  -  12/03/2015</t>
+  </si>
+  <si>
+    <t>LORD MicroStrain Wireless Node EEPROM Map  -  12/03/2015</t>
   </si>
 </sst>
 </file>
@@ -3806,12 +3806,6 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3847,6 +3841,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4643,7 +4643,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C264" sqref="C264"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4657,39 +4657,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>841</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="A1" s="76" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="76" t="s">
-        <v>779</v>
+      <c r="H2" s="74" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4699,12 +4699,12 @@
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="77"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4874,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4970,7 +4970,7 @@
       <c r="D14" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="74"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="70" t="s">
         <v>8</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="69"/>
-      <c r="E15" s="75"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="71"/>
       <c r="G15" s="73"/>
       <c r="H15" s="65"/>
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5172,7 +5172,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5226,7 +5226,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5251,7 +5251,7 @@
         <v>7</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5276,7 +5276,7 @@
         <v>8</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5301,7 +5301,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5434,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5484,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5511,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5586,7 +5586,7 @@
         <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5748,7 +5748,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5775,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5825,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5850,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5927,7 +5927,7 @@
         <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5952,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5977,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6027,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6052,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6077,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6129,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6211,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6236,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6383,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6450,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6490,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6532,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6639,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6746,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6878,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6918,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6945,7 +6945,7 @@
         <v>0xE6</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>10</v>
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6970,7 +6970,7 @@
         <v>0xE8</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>10</v>
@@ -6983,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6995,7 +6995,7 @@
         <v>0xEA</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>10</v>
@@ -7008,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7020,7 +7020,7 @@
         <v>0xEC</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>10</v>
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7045,7 +7045,7 @@
         <v>0xEE</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>10</v>
@@ -7058,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7070,7 +7070,7 @@
         <v>0xF0</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>10</v>
@@ -7083,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7095,7 +7095,7 @@
         <v>0xF6</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>10</v>
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7151,16 +7151,16 @@
         <v>10</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G106" s="9">
         <v>1</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7185,7 +7185,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7210,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7235,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7262,7 +7262,7 @@
         <v>7</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7287,7 +7287,7 @@
         <v>7</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7312,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7337,7 +7337,7 @@
         <v>7</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7362,7 +7362,7 @@
         <v>7</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7389,7 +7389,7 @@
         <v>7</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7414,7 +7414,7 @@
         <v>7</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7439,7 +7439,7 @@
         <v>7</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7464,7 +7464,7 @@
         <v>7</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7491,7 +7491,7 @@
         <v>8</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7516,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7541,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7566,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7591,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7616,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7641,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7666,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7691,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7716,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7741,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7766,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7816,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7841,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7866,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7891,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7941,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7966,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7991,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8016,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8041,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8066,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8091,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8116,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8166,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8241,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8266,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8316,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8366,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8416,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8441,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8506,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="H160" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="H162" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8586,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="H164" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8626,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8666,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8706,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="H170" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8746,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="H172" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8786,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="H176" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8866,7 +8866,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8906,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="H180" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8946,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="H182" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8986,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9026,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="H186" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="H188" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9106,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="H190" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9146,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="H192" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9186,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="H194" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="H196" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="H198" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9306,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="H200" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9346,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="H202" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9386,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="H204" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="H206" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9466,7 +9466,7 @@
         <v>1</v>
       </c>
       <c r="H208" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9506,7 +9506,7 @@
         <v>1</v>
       </c>
       <c r="H210" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="H212" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9586,7 +9586,7 @@
         <v>1</v>
       </c>
       <c r="H214" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9626,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="H216" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="H218" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9706,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="H220" s="64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9748,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9775,7 +9775,7 @@
         <v>1</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9802,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9814,20 +9814,20 @@
         <v>0x2AA</v>
       </c>
       <c r="C225" s="44" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E225" s="45"/>
       <c r="F225" s="46" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G225" s="47">
         <v>7</v>
       </c>
       <c r="H225" s="43" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9839,22 +9839,22 @@
         <v>0x2AC</v>
       </c>
       <c r="C226" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226" s="7">
+        <v>1</v>
+      </c>
+      <c r="F226" s="8" t="s">
         <v>789</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E226" s="7">
-        <v>1</v>
-      </c>
-      <c r="F226" s="8" t="s">
-        <v>790</v>
       </c>
       <c r="G226" s="9">
         <v>7</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9866,20 +9866,20 @@
         <v>0x2AE</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E227" s="7"/>
       <c r="F227" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G227" s="9">
         <v>7</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9891,20 +9891,20 @@
         <v>0x2B0</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E228" s="7"/>
       <c r="F228" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G228" s="9">
         <v>7</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9916,20 +9916,20 @@
         <v>0x2BC</v>
       </c>
       <c r="C229" s="66" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D229" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E229" s="68"/>
       <c r="F229" s="70" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G229" s="72">
         <v>7</v>
       </c>
       <c r="H229" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9956,20 +9956,20 @@
         <v>0x2C0</v>
       </c>
       <c r="C231" s="66" t="s">
+        <v>812</v>
+      </c>
+      <c r="D231" s="68" t="s">
         <v>813</v>
-      </c>
-      <c r="D231" s="68" t="s">
-        <v>814</v>
       </c>
       <c r="E231" s="68"/>
       <c r="F231" s="70" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G231" s="72">
         <v>7</v>
       </c>
       <c r="H231" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -9996,20 +9996,20 @@
         <v>0x2C4</v>
       </c>
       <c r="C233" s="66" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D233" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E233" s="68"/>
       <c r="F233" s="70" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G233" s="72">
         <v>7</v>
       </c>
       <c r="H233" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10036,20 +10036,20 @@
         <v>0x2C8</v>
       </c>
       <c r="C235" s="66" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D235" s="68" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E235" s="68"/>
       <c r="F235" s="70" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G235" s="72">
         <v>7</v>
       </c>
       <c r="H235" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10076,20 +10076,20 @@
         <v>0x2CC</v>
       </c>
       <c r="C237" s="66" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D237" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E237" s="68"/>
       <c r="F237" s="70" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G237" s="72">
         <v>10</v>
       </c>
       <c r="H237" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10116,20 +10116,20 @@
         <v>0x2D0</v>
       </c>
       <c r="C239" s="66" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D239" s="68" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E239" s="68"/>
       <c r="F239" s="70" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G239" s="72">
         <v>10</v>
       </c>
       <c r="H239" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10156,20 +10156,20 @@
         <v>0x2D4</v>
       </c>
       <c r="C241" s="66" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D241" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E241" s="68"/>
       <c r="F241" s="70" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G241" s="72">
         <v>10</v>
       </c>
       <c r="H241" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10196,20 +10196,20 @@
         <v>0x2D8</v>
       </c>
       <c r="C243" s="66" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D243" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E243" s="68"/>
       <c r="F243" s="70" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G243" s="72">
         <v>10</v>
       </c>
       <c r="H243" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10236,20 +10236,20 @@
         <v>0x2DC</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E245" s="7"/>
       <c r="F245" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G245" s="9">
         <v>10</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10261,20 +10261,20 @@
         <v>0x2DE</v>
       </c>
       <c r="C246" s="66" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D246" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E246" s="68"/>
       <c r="F246" s="70" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G246" s="72">
         <v>7</v>
       </c>
       <c r="H246" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10301,20 +10301,20 @@
         <v>0x2E2</v>
       </c>
       <c r="C248" s="66" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D248" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E248" s="68"/>
       <c r="F248" s="70" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G248" s="72">
         <v>7</v>
       </c>
       <c r="H248" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10341,20 +10341,20 @@
         <v>0x2E6</v>
       </c>
       <c r="C250" s="66" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D250" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E250" s="68"/>
       <c r="F250" s="70" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G250" s="72">
         <v>7</v>
       </c>
       <c r="H250" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10381,22 +10381,22 @@
         <v>0x2EA</v>
       </c>
       <c r="C252" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F252" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="D252" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E252" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="F252" s="8" t="s">
-        <v>887</v>
-      </c>
       <c r="G252" s="9">
         <v>10</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10408,22 +10408,22 @@
         <v>0x2EC</v>
       </c>
       <c r="C253" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="D253" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E253" s="7" t="s">
+      <c r="F253" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="F253" s="8" t="s">
-        <v>800</v>
-      </c>
       <c r="G253" s="9">
         <v>10</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10435,20 +10435,20 @@
         <v>0x2EE</v>
       </c>
       <c r="C254" s="66" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D254" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E254" s="68"/>
       <c r="F254" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G254" s="72">
         <v>10</v>
       </c>
       <c r="H254" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10475,20 +10475,20 @@
         <v>0x2F2</v>
       </c>
       <c r="C256" s="66" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D256" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E256" s="68"/>
       <c r="F256" s="70" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G256" s="72">
         <v>10</v>
       </c>
       <c r="H256" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10515,20 +10515,20 @@
         <v>0x30E</v>
       </c>
       <c r="C258" s="66" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D258" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E258" s="68"/>
       <c r="F258" s="70" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G258" s="72">
         <v>10</v>
       </c>
       <c r="H258" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10555,20 +10555,20 @@
         <v>0x312</v>
       </c>
       <c r="C260" s="66" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D260" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E260" s="68"/>
       <c r="F260" s="70" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G260" s="72">
         <v>10</v>
       </c>
       <c r="H260" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10595,20 +10595,20 @@
         <v>0x316</v>
       </c>
       <c r="C262" s="66" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D262" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E262" s="68"/>
       <c r="F262" s="70" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G262" s="72">
         <v>10</v>
       </c>
       <c r="H262" s="64" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10635,22 +10635,22 @@
         <v>0x33A</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D264" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G264" s="9">
         <v>10</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10662,22 +10662,22 @@
         <v>0x342</v>
       </c>
       <c r="C265" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="F265" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D265" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E265" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="F265" s="8" t="s">
-        <v>831</v>
-      </c>
       <c r="G265" s="9">
         <v>10</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10689,20 +10689,20 @@
         <v>0x344</v>
       </c>
       <c r="C266" s="66" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D266" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E266" s="68"/>
       <c r="F266" s="70" t="s">
+        <v>832</v>
+      </c>
+      <c r="G266" s="72">
+        <v>10</v>
+      </c>
+      <c r="H266" s="64" t="s">
         <v>833</v>
-      </c>
-      <c r="G266" s="72">
-        <v>10</v>
-      </c>
-      <c r="H266" s="64" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10729,20 +10729,20 @@
         <v>0x348</v>
       </c>
       <c r="C268" s="66" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D268" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E268" s="68"/>
       <c r="F268" s="70" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G268" s="72">
         <v>10</v>
       </c>
       <c r="H268" s="64" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10769,20 +10769,20 @@
         <v>0x34C</v>
       </c>
       <c r="C270" s="66" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D270" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E270" s="68"/>
       <c r="F270" s="70" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G270" s="72">
         <v>10</v>
       </c>
       <c r="H270" s="64" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10809,20 +10809,20 @@
         <v>0x350</v>
       </c>
       <c r="C272" s="66" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D272" s="68" t="s">
         <v>52</v>
       </c>
       <c r="E272" s="68"/>
       <c r="F272" s="70" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G272" s="72">
         <v>10</v>
       </c>
       <c r="H272" s="64" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10849,22 +10849,22 @@
         <v>0x354</v>
       </c>
       <c r="C274" s="49" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D274" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E274" s="50" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F274" s="51" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G274" s="52">
         <v>10</v>
       </c>
       <c r="H274" s="54" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10876,22 +10876,22 @@
         <v>0x406</v>
       </c>
       <c r="C275" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="D275" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E275" s="7" t="s">
-        <v>845</v>
-      </c>
       <c r="F275" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G275" s="9">
         <v>10</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10903,7 +10903,7 @@
         <v>0x408</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>10</v>
@@ -10912,13 +10912,13 @@
         <v>11</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G276" s="9">
         <v>10</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10930,22 +10930,22 @@
         <v>0x40A</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G277" s="9">
         <v>10</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10957,22 +10957,22 @@
         <v>0x40C</v>
       </c>
       <c r="C278" s="66" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D278" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E278" s="86" t="s">
-        <v>848</v>
+      <c r="E278" s="84" t="s">
+        <v>846</v>
       </c>
       <c r="F278" s="70" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G278" s="72">
         <v>10</v>
       </c>
       <c r="H278" s="64" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="C279" s="67"/>
       <c r="D279" s="69"/>
-      <c r="E279" s="87"/>
+      <c r="E279" s="85"/>
       <c r="F279" s="71"/>
       <c r="G279" s="73"/>
       <c r="H279" s="65"/>
@@ -10999,22 +10999,22 @@
         <v>0x410</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G280" s="9">
         <v>10</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -11755,9 +11755,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -11773,39 +11773,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>719</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="A1" s="76" t="s">
+        <v>888</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="76" t="s">
-        <v>779</v>
+      <c r="H2" s="74" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11815,12 +11815,12 @@
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="77"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -11844,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11877,16 +11877,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G6" s="9">
-        <v>1</v>
+        <v>3.34</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11911,7 +11911,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11936,7 +11936,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11963,7 +11963,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11990,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12044,7 +12044,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12071,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12098,7 +12098,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12125,7 +12125,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12175,7 +12175,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12200,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12227,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12252,7 +12252,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12277,7 +12277,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12302,7 +12302,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12327,7 +12327,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12367,7 +12367,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12407,7 +12407,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12432,7 +12432,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12457,7 +12457,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12497,7 +12497,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12537,7 +12537,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12562,7 +12562,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12587,7 +12587,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12627,7 +12627,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12667,7 +12667,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12692,7 +12692,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12717,7 +12717,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12757,7 +12757,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12797,7 +12797,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12822,7 +12822,7 @@
         <v>3</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12847,7 +12847,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12887,7 +12887,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12927,7 +12927,7 @@
         <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12952,7 +12952,7 @@
         <v>3</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12977,7 +12977,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13017,7 +13017,7 @@
         <v>3</v>
       </c>
       <c r="H55" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13057,7 +13057,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13082,7 +13082,7 @@
         <v>3</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13107,7 +13107,7 @@
         <v>3</v>
       </c>
       <c r="H59" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13147,7 +13147,7 @@
         <v>3</v>
       </c>
       <c r="H61" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13187,7 +13187,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13212,7 +13212,7 @@
         <v>3</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13237,7 +13237,7 @@
         <v>3</v>
       </c>
       <c r="H65" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13277,7 +13277,7 @@
         <v>3</v>
       </c>
       <c r="H67" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13319,7 +13319,7 @@
         <v>3</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13344,7 +13344,7 @@
         <v>3</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13371,7 +13371,7 @@
         <v>3</v>
       </c>
       <c r="H71" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13413,7 +13413,7 @@
         <v>3</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13438,7 +13438,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13465,7 +13465,7 @@
         <v>3</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13490,7 +13490,7 @@
         <v>2.27</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13515,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13533,16 +13533,16 @@
         <v>10</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G78" s="9">
         <v>1</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13567,7 +13567,7 @@
         <v>3</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13594,7 +13594,7 @@
         <v>3</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13619,7 +13619,7 @@
         <v>3</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13646,7 +13646,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13671,7 +13671,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13698,7 +13698,7 @@
         <v>3</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13723,7 +13723,7 @@
         <v>3</v>
       </c>
       <c r="H85" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13763,7 +13763,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13805,7 +13805,7 @@
         <v>3</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13817,22 +13817,22 @@
         <v>0x406</v>
       </c>
       <c r="C90" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>845</v>
-      </c>
       <c r="F90" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G90" s="9">
         <v>10</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13844,7 +13844,7 @@
         <v>0x408</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>10</v>
@@ -13853,13 +13853,13 @@
         <v>11</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G91" s="9">
         <v>10</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13871,22 +13871,22 @@
         <v>0x40A</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G92" s="9">
         <v>10</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13898,22 +13898,22 @@
         <v>0x40C</v>
       </c>
       <c r="C93" s="66" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D93" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="86" t="s">
-        <v>848</v>
+      <c r="E93" s="84" t="s">
+        <v>846</v>
       </c>
       <c r="F93" s="70" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G93" s="72">
         <v>10</v>
       </c>
       <c r="H93" s="64" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13926,7 +13926,7 @@
       </c>
       <c r="C94" s="67"/>
       <c r="D94" s="69"/>
-      <c r="E94" s="87"/>
+      <c r="E94" s="85"/>
       <c r="F94" s="71"/>
       <c r="G94" s="73"/>
       <c r="H94" s="65"/>
@@ -13940,22 +13940,22 @@
         <v>0x410</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G95" s="9">
         <v>10</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -14149,7 +14149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C407"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A398" sqref="A398:C398"/>
     </sheetView>
   </sheetViews>
@@ -15377,13 +15377,13 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="99" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B152" s="100"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="101" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B153" s="102"/>
     </row>
@@ -16563,14 +16563,14 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="96" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B329" s="97"/>
       <c r="C329" s="98"/>
     </row>
     <row r="330" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="129" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B330" s="130"/>
       <c r="C330" s="131"/>
@@ -16582,7 +16582,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="132" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B332" s="133"/>
       <c r="C332" s="134"/>
@@ -16594,7 +16594,7 @@
     </row>
     <row r="334" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="112" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B334" s="113"/>
       <c r="C334" s="114"/>
@@ -16606,7 +16606,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="132" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B336" s="133"/>
       <c r="C336" s="134"/>
@@ -16622,25 +16622,25 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="B338" s="17" t="s">
         <v>725</v>
-      </c>
-      <c r="B338" s="17" t="s">
-        <v>726</v>
       </c>
       <c r="C338" s="27"/>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="24" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C339" s="27"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="24" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B340" s="17" t="s">
         <v>52</v>
@@ -16649,7 +16649,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="24" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B341" s="17" t="s">
         <v>52</v>
@@ -16663,14 +16663,14 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="123" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B343" s="124"/>
       <c r="C343" s="125"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="118" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B344" s="119"/>
       <c r="C344" s="120"/>
@@ -16691,10 +16691,10 @@
         <v>0</v>
       </c>
       <c r="B346" s="41" t="s">
+        <v>731</v>
+      </c>
+      <c r="C346" s="27" t="s">
         <v>732</v>
-      </c>
-      <c r="C346" s="27" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -16702,10 +16702,10 @@
         <v>4</v>
       </c>
       <c r="B347" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="C347" s="27" t="s">
         <v>734</v>
-      </c>
-      <c r="C347" s="27" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -16715,14 +16715,14 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="123" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B349" s="124"/>
       <c r="C349" s="125"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="118" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B350" s="119"/>
       <c r="C350" s="120"/>
@@ -16743,10 +16743,10 @@
         <v>0</v>
       </c>
       <c r="B352" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="C352" s="27" t="s">
         <v>738</v>
-      </c>
-      <c r="C352" s="27" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -16754,10 +16754,10 @@
         <v>1</v>
       </c>
       <c r="B353" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="C353" s="27" t="s">
         <v>740</v>
-      </c>
-      <c r="C353" s="27" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -16765,7 +16765,7 @@
         <v>2</v>
       </c>
       <c r="B354" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C354" s="27"/>
     </row>
@@ -16774,7 +16774,7 @@
         <v>3</v>
       </c>
       <c r="B355" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C355" s="27"/>
     </row>
@@ -16783,7 +16783,7 @@
         <v>4</v>
       </c>
       <c r="B356" s="17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C356" s="27"/>
     </row>
@@ -16792,7 +16792,7 @@
         <v>5</v>
       </c>
       <c r="B357" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C357" s="27"/>
     </row>
@@ -16801,7 +16801,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="17" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C358" s="27"/>
     </row>
@@ -16810,7 +16810,7 @@
         <v>7</v>
       </c>
       <c r="B359" s="17" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C359" s="27"/>
     </row>
@@ -16819,7 +16819,7 @@
         <v>8</v>
       </c>
       <c r="B360" s="17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C360" s="27"/>
     </row>
@@ -16828,7 +16828,7 @@
         <v>9</v>
       </c>
       <c r="B361" s="17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C361" s="27"/>
     </row>
@@ -16837,7 +16837,7 @@
         <v>10</v>
       </c>
       <c r="B362" s="17" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C362" s="27"/>
     </row>
@@ -16846,7 +16846,7 @@
         <v>11</v>
       </c>
       <c r="B363" s="17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C363" s="27"/>
     </row>
@@ -16855,7 +16855,7 @@
         <v>12</v>
       </c>
       <c r="B364" s="17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C364" s="27"/>
     </row>
@@ -16864,7 +16864,7 @@
         <v>13</v>
       </c>
       <c r="B365" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C365" s="27"/>
     </row>
@@ -16873,7 +16873,7 @@
         <v>14</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C366" s="27"/>
     </row>
@@ -16882,7 +16882,7 @@
         <v>15</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C367" s="27"/>
     </row>
@@ -16891,7 +16891,7 @@
         <v>16</v>
       </c>
       <c r="B368" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C368" s="27"/>
     </row>
@@ -16900,7 +16900,7 @@
         <v>17</v>
       </c>
       <c r="B369" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C369" s="27"/>
     </row>
@@ -16909,7 +16909,7 @@
         <v>18</v>
       </c>
       <c r="B370" s="17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C370" s="27"/>
     </row>
@@ -16918,7 +16918,7 @@
         <v>19</v>
       </c>
       <c r="B371" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C371" s="27"/>
     </row>
@@ -16927,7 +16927,7 @@
         <v>20</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C372" s="27"/>
     </row>
@@ -16936,7 +16936,7 @@
         <v>21</v>
       </c>
       <c r="B373" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C373" s="27"/>
     </row>
@@ -16945,7 +16945,7 @@
         <v>22</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C374" s="27"/>
     </row>
@@ -16954,7 +16954,7 @@
         <v>23</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C375" s="27"/>
     </row>
@@ -16963,7 +16963,7 @@
         <v>24</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C376" s="27"/>
     </row>
@@ -16972,7 +16972,7 @@
         <v>25</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C377" s="27"/>
     </row>
@@ -16981,7 +16981,7 @@
         <v>26</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C378" s="27"/>
     </row>
@@ -16990,7 +16990,7 @@
         <v>27</v>
       </c>
       <c r="B379" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C379" s="27"/>
     </row>
@@ -16999,7 +16999,7 @@
         <v>28</v>
       </c>
       <c r="B380" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C380" s="27"/>
     </row>
@@ -17008,7 +17008,7 @@
         <v>29</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C381" s="27"/>
     </row>
@@ -17017,7 +17017,7 @@
         <v>30</v>
       </c>
       <c r="B382" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C382" s="27"/>
     </row>
@@ -17026,7 +17026,7 @@
         <v>31</v>
       </c>
       <c r="B383" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C383" s="27"/>
     </row>
@@ -17035,7 +17035,7 @@
         <v>32</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C384" s="27"/>
     </row>
@@ -17044,7 +17044,7 @@
         <v>33</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C385" s="27"/>
     </row>
@@ -17053,34 +17053,34 @@
         <v>34</v>
       </c>
       <c r="B386" s="18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C386" s="28"/>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="96" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B388" s="97"/>
       <c r="C388" s="98"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="118" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B389" s="119"/>
       <c r="C389" s="120"/>
     </row>
     <row r="390" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="112" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B390" s="113"/>
       <c r="C390" s="114"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="22" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B391" s="142" t="s">
         <v>4</v>
@@ -17089,37 +17089,37 @@
     </row>
     <row r="392" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="48" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B392" s="130" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C392" s="131"/>
     </row>
     <row r="393" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="48" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B393" s="130" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C393" s="131"/>
     </row>
     <row r="394" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="48" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B394" s="130" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C394" s="131"/>
     </row>
     <row r="395" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="48" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B395" s="130" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C395" s="131"/>
     </row>
@@ -17130,49 +17130,49 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="96" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B398" s="97"/>
       <c r="C398" s="98"/>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="118" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B399" s="119"/>
       <c r="C399" s="120"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="118" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B400" s="119"/>
       <c r="C400" s="120"/>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="112" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B401" s="113"/>
       <c r="C401" s="114"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="112" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B402" s="113"/>
       <c r="C402" s="114"/>
     </row>
     <row r="403" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="112" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B403" s="113"/>
       <c r="C403" s="114"/>
     </row>
     <row r="404" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="112" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B404" s="113"/>
       <c r="C404" s="114"/>

--- a/Wireless/LORD MicroStrain Wireless Configuration.xlsx
+++ b/Wireless/LORD MicroStrain Wireless Configuration.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Projects\Github\Protocols\Wireless\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Projects\LXRS SDK\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Wireless Node Config" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="892">
   <si>
     <t>EEPROM Address</t>
   </si>
@@ -2486,6 +2486,9 @@
     </r>
   </si>
   <si>
+    <t>For Nodes with FW &lt; 10.0 BaseStations with FW &lt; 4.0:</t>
+  </si>
+  <si>
     <t>Major.Minor</t>
   </si>
   <si>
@@ -3201,16 +3204,25 @@
     <t>Controls beacon echos over the port (0 = off, 1 = echo rx, 2 = echo tx, 3 = echo both)</t>
   </si>
   <si>
-    <t>LORD MicroStrain Base Station EEPROM Map  -  12/03/2015</t>
-  </si>
-  <si>
-    <t>LORD MicroStrain Wireless Node EEPROM Map  -  12/03/2015</t>
+    <t>LORD MicroStrain Wireless Node EEPROM Map  -  02/23/2016</t>
+  </si>
+  <si>
+    <t>LORD MicroStrain Base Station EEPROM Map  -  02/23/2016</t>
+  </si>
+  <si>
+    <t>Diagnostic Packet control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enables or disables the Diagnostic Packet. A value of 0 disables the packet. Any other value is the interval in seconds. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3584,7 +3596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4006,6 +4018,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4636,11 +4651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4686,7 +4701,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4725,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4750,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4775,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4798,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4821,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4844,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4871,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4898,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4923,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4950,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -4975,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="74" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5017,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5042,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5067,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5092,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5117,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5144,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5169,7 +5184,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5196,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5223,7 +5238,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5248,7 +5263,7 @@
         <v>7</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5273,7 +5288,7 @@
         <v>8</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5298,7 +5313,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5325,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5350,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5377,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5404,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5431,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5454,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5481,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5508,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5531,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5558,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5583,7 +5598,7 @@
         <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5610,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5637,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5664,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5691,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5718,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5745,7 +5760,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5772,7 +5787,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5797,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5822,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5847,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5872,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5899,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5924,7 +5939,7 @@
         <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5949,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5974,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5999,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6024,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6049,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6074,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6101,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6126,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6166,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6208,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6233,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6273,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6315,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6340,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6380,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6422,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6447,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6470,7 +6485,7 @@
         <v>186</v>
       </c>
       <c r="B76" s="5" t="str">
-        <f t="shared" ref="B76:B148" si="1" xml:space="preserve"> "0x" &amp; DEC2HEX(A76)</f>
+        <f t="shared" ref="B76:B149" si="1" xml:space="preserve"> "0x" &amp; DEC2HEX(A76)</f>
         <v>0xBA</v>
       </c>
       <c r="C76" s="76" t="s">
@@ -6487,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6529,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6554,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6594,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6636,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6661,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6701,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6743,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6768,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6808,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6850,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6875,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6915,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6942,7 +6957,7 @@
         <v>0xE6</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>10</v>
@@ -6955,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6967,7 +6982,7 @@
         <v>0xE8</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>10</v>
@@ -6980,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -6992,7 +7007,7 @@
         <v>0xEA</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>10</v>
@@ -7005,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7017,7 +7032,7 @@
         <v>0xEC</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>10</v>
@@ -7030,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7042,7 +7057,7 @@
         <v>0xEE</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>10</v>
@@ -7055,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7067,7 +7082,7 @@
         <v>0xF0</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>10</v>
@@ -7080,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7092,7 +7107,7 @@
         <v>0xF6</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>10</v>
@@ -7105,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7130,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7148,16 +7163,16 @@
         <v>10</v>
       </c>
       <c r="E106" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="F106" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="F106" s="8" t="s">
-        <v>775</v>
-      </c>
       <c r="G106" s="9">
         <v>1</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7182,7 +7197,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7207,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7232,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7259,7 +7274,7 @@
         <v>7</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7284,7 +7299,7 @@
         <v>7</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7309,7 +7324,7 @@
         <v>7</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7334,7 +7349,7 @@
         <v>7</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7359,7 +7374,7 @@
         <v>7</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7386,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7411,7 +7426,7 @@
         <v>7</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7436,7 +7451,7 @@
         <v>7</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7461,7 +7476,7 @@
         <v>7</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -7488,3530 +7503,3553 @@
         <v>8</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B120" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x132</v>
+        <v>0x12C</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>295</v>
+        <v>890</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="7"/>
+      <c r="E120" s="12"/>
       <c r="F120" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G120" s="9">
-        <v>1</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>782</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="G120" s="144">
+        <v>10.309570000000001</v>
+      </c>
+      <c r="H120" s="5"/>
     </row>
     <row r="121" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B121" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x148</v>
+        <v>0x132</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G121" s="9">
         <v>1</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B122" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x14A</v>
+        <v>0x148</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G122" s="9">
         <v>1</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B123" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x14C</v>
+        <v>0x14A</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G123" s="9">
         <v>1</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B124" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x14E</v>
+        <v>0x14C</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G124" s="9">
         <v>1</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B125" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x150</v>
+        <v>0x14E</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G125" s="9">
         <v>1</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B126" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x152</v>
+        <v>0x150</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G126" s="9">
         <v>1</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B127" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x154</v>
+        <v>0x152</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G127" s="9">
         <v>1</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B128" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x156</v>
+        <v>0x154</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G128" s="9">
         <v>1</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B129" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x158</v>
+        <v>0x156</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G129" s="9">
         <v>1</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B130" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x15A</v>
+        <v>0x158</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G130" s="9">
         <v>1</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B131" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x15C</v>
+        <v>0x15A</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G131" s="9">
         <v>1</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B132" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x15E</v>
+        <v>0x15C</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G132" s="9">
         <v>1</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B133" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x160</v>
+        <v>0x15E</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G133" s="9">
         <v>1</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B134" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x162</v>
+        <v>0x160</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G134" s="9">
         <v>1</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B135" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x164</v>
+        <v>0x162</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G135" s="9">
         <v>1</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B136" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x166</v>
+        <v>0x164</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G136" s="9">
         <v>1</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B137" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x168</v>
+        <v>0x166</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G137" s="9">
         <v>1</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B138" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x16A</v>
+        <v>0x168</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G138" s="9">
         <v>1</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B139" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x16C</v>
+        <v>0x16A</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G139" s="9">
         <v>1</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B140" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x16E</v>
+        <v>0x16C</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G140" s="9">
         <v>1</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B141" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x170</v>
+        <v>0x16E</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G141" s="9">
         <v>1</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B142" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x172</v>
+        <v>0x170</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G142" s="9">
         <v>1</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B143" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x174</v>
+        <v>0x172</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G143" s="9">
         <v>1</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B144" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x176</v>
+        <v>0x174</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G144" s="9">
         <v>1</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B145" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x178</v>
+        <v>0x176</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G145" s="9">
         <v>1</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B146" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x17A</v>
+        <v>0x178</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G146" s="9">
         <v>1</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B147" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x17C</v>
+        <v>0x17A</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G147" s="9">
         <v>1</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B148" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0x17E</v>
+        <v>0x17C</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G148" s="9">
         <v>1</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B149" s="5" t="str">
-        <f t="shared" ref="B149:B257" si="2" xml:space="preserve"> "0x" &amp; DEC2HEX(A149)</f>
-        <v>0x180</v>
+        <f t="shared" si="1"/>
+        <v>0x17E</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G149" s="9">
         <v>1</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
+        <v>384</v>
+      </c>
+      <c r="B150" s="5" t="str">
+        <f t="shared" ref="B150:B258" si="2" xml:space="preserve"> "0x" &amp; DEC2HEX(A150)</f>
+        <v>0x180</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="7"/>
+      <c r="F150" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="G150" s="9">
+        <v>1</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="5">
         <v>386</v>
       </c>
-      <c r="B150" s="5" t="str">
+      <c r="B151" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x182</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D150" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="7"/>
-      <c r="F150" s="8" t="s">
+      <c r="D151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="7"/>
+      <c r="F151" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="G150" s="9">
-        <v>1</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="5">
+      <c r="G151" s="9">
+        <v>1</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
         <v>388</v>
       </c>
-      <c r="B151" s="5" t="str">
+      <c r="B152" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x184</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C152" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="8" t="s">
+      <c r="D152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="7"/>
+      <c r="F152" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="G151" s="9">
-        <v>1</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="5">
+      <c r="G152" s="9">
+        <v>1</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="5">
         <v>390</v>
       </c>
-      <c r="B152" s="5" t="str">
+      <c r="B153" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x186</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152" s="7"/>
-      <c r="F152" s="8" t="s">
+      <c r="D153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="7"/>
+      <c r="F153" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="G152" s="9">
-        <v>1</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="5">
+      <c r="G153" s="9">
+        <v>1</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
         <v>392</v>
       </c>
-      <c r="B153" s="5" t="str">
+      <c r="B154" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x188</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D153" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E153" s="7"/>
-      <c r="F153" s="8" t="s">
+      <c r="D154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="G153" s="9">
-        <v>1</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="5">
+      <c r="G154" s="9">
+        <v>1</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="5">
         <v>394</v>
       </c>
-      <c r="B154" s="5" t="str">
+      <c r="B155" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x18A</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154" s="7"/>
-      <c r="F154" s="8" t="s">
+      <c r="D155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="7"/>
+      <c r="F155" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="G154" s="9">
-        <v>1</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="5">
+      <c r="G155" s="9">
+        <v>1</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
         <v>396</v>
       </c>
-      <c r="B155" s="5" t="str">
+      <c r="B156" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x18C</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D155" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" s="7"/>
-      <c r="F155" s="8" t="s">
+      <c r="D156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="7"/>
+      <c r="F156" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="G155" s="9">
-        <v>1</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="5">
+      <c r="G156" s="9">
+        <v>1</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
         <v>398</v>
       </c>
-      <c r="B156" s="5" t="str">
+      <c r="B157" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x18E</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D156" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="8" t="s">
+      <c r="D157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="7"/>
+      <c r="F157" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G156" s="9">
-        <v>1</v>
-      </c>
-      <c r="H156" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="5">
+      <c r="G157" s="9">
+        <v>1</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
         <v>440</v>
       </c>
-      <c r="B157" s="5" t="str">
+      <c r="B158" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x1B8</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D157" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157" s="7"/>
-      <c r="F157" s="8" t="s">
+      <c r="D158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="7"/>
+      <c r="F158" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G157" s="9">
-        <v>1</v>
-      </c>
-      <c r="H157" s="5" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="5">
+      <c r="G158" s="9">
+        <v>1</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
         <v>512</v>
       </c>
-      <c r="B158" s="5" t="str">
+      <c r="B159" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x200</v>
       </c>
-      <c r="C158" s="76" t="s">
+      <c r="C159" s="76" t="s">
         <v>373</v>
       </c>
-      <c r="D158" s="78" t="s">
+      <c r="D159" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E158" s="78"/>
-      <c r="F158" s="82" t="s">
+      <c r="E159" s="78"/>
+      <c r="F159" s="82" t="s">
         <v>375</v>
       </c>
-      <c r="G158" s="84">
-        <v>1</v>
-      </c>
-      <c r="H158" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="5">
+      <c r="G159" s="84">
+        <v>1</v>
+      </c>
+      <c r="H159" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
         <v>514</v>
       </c>
-      <c r="B159" s="5" t="str">
+      <c r="B160" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x202</v>
       </c>
-      <c r="C159" s="77"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="79"/>
-      <c r="F159" s="83"/>
-      <c r="G159" s="85"/>
-      <c r="H159" s="75"/>
-    </row>
-    <row r="160" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="5">
-        <v>516</v>
-      </c>
-      <c r="B160" s="5" t="str">
-        <f t="shared" ref="B160:B161" si="3" xml:space="preserve"> "0x" &amp; DEC2HEX(A160)</f>
-        <v>0x204</v>
-      </c>
-      <c r="C160" s="76" t="s">
-        <v>374</v>
-      </c>
-      <c r="D160" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E160" s="78"/>
-      <c r="F160" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="G160" s="84">
-        <v>1</v>
-      </c>
-      <c r="H160" s="74" t="s">
-        <v>785</v>
-      </c>
+      <c r="C160" s="77"/>
+      <c r="D160" s="79"/>
+      <c r="E160" s="79"/>
+      <c r="F160" s="83"/>
+      <c r="G160" s="85"/>
+      <c r="H160" s="75"/>
     </row>
     <row r="161" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
+        <v>516</v>
+      </c>
+      <c r="B161" s="5" t="str">
+        <f t="shared" ref="B161:B162" si="3" xml:space="preserve"> "0x" &amp; DEC2HEX(A161)</f>
+        <v>0x204</v>
+      </c>
+      <c r="C161" s="76" t="s">
+        <v>374</v>
+      </c>
+      <c r="D161" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E161" s="78"/>
+      <c r="F161" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="G161" s="84">
+        <v>1</v>
+      </c>
+      <c r="H161" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="5">
         <v>518</v>
       </c>
-      <c r="B161" s="5" t="str">
+      <c r="B162" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x206</v>
       </c>
-      <c r="C161" s="77"/>
-      <c r="D161" s="79"/>
-      <c r="E161" s="79"/>
-      <c r="F161" s="83"/>
-      <c r="G161" s="85"/>
-      <c r="H161" s="75"/>
-    </row>
-    <row r="162" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="5">
-        <v>520</v>
-      </c>
-      <c r="B162" s="5" t="str">
-        <f t="shared" ref="B162:B163" si="4" xml:space="preserve"> "0x" &amp; DEC2HEX(A162)</f>
-        <v>0x208</v>
-      </c>
-      <c r="C162" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="D162" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E162" s="78"/>
-      <c r="F162" s="82" t="s">
-        <v>379</v>
-      </c>
-      <c r="G162" s="84">
-        <v>1</v>
-      </c>
-      <c r="H162" s="74" t="s">
-        <v>785</v>
-      </c>
+      <c r="C162" s="77"/>
+      <c r="D162" s="79"/>
+      <c r="E162" s="79"/>
+      <c r="F162" s="83"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="75"/>
     </row>
     <row r="163" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
+        <v>520</v>
+      </c>
+      <c r="B163" s="5" t="str">
+        <f t="shared" ref="B163:B164" si="4" xml:space="preserve"> "0x" &amp; DEC2HEX(A163)</f>
+        <v>0x208</v>
+      </c>
+      <c r="C163" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="D163" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E163" s="78"/>
+      <c r="F163" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="G163" s="84">
+        <v>1</v>
+      </c>
+      <c r="H163" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
         <v>522</v>
       </c>
-      <c r="B163" s="5" t="str">
+      <c r="B164" s="5" t="str">
         <f t="shared" si="4"/>
         <v>0x20A</v>
       </c>
-      <c r="C163" s="77"/>
-      <c r="D163" s="79"/>
-      <c r="E163" s="79"/>
-      <c r="F163" s="83"/>
-      <c r="G163" s="85"/>
-      <c r="H163" s="75"/>
-    </row>
-    <row r="164" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="5">
-        <v>524</v>
-      </c>
-      <c r="B164" s="5" t="str">
-        <f t="shared" ref="B164:B169" si="5" xml:space="preserve"> "0x" &amp; DEC2HEX(A164)</f>
-        <v>0x20C</v>
-      </c>
-      <c r="C164" s="76" t="s">
-        <v>378</v>
-      </c>
-      <c r="D164" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E164" s="78"/>
-      <c r="F164" s="82" t="s">
-        <v>386</v>
-      </c>
-      <c r="G164" s="84">
-        <v>1</v>
-      </c>
-      <c r="H164" s="74" t="s">
-        <v>785</v>
-      </c>
+      <c r="C164" s="77"/>
+      <c r="D164" s="79"/>
+      <c r="E164" s="79"/>
+      <c r="F164" s="83"/>
+      <c r="G164" s="85"/>
+      <c r="H164" s="75"/>
     </row>
     <row r="165" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
+        <v>524</v>
+      </c>
+      <c r="B165" s="5" t="str">
+        <f t="shared" ref="B165:B170" si="5" xml:space="preserve"> "0x" &amp; DEC2HEX(A165)</f>
+        <v>0x20C</v>
+      </c>
+      <c r="C165" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="D165" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E165" s="78"/>
+      <c r="F165" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="G165" s="84">
+        <v>1</v>
+      </c>
+      <c r="H165" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
         <v>526</v>
       </c>
-      <c r="B165" s="5" t="str">
+      <c r="B166" s="5" t="str">
         <f t="shared" si="5"/>
         <v>0x20E</v>
       </c>
-      <c r="C165" s="77"/>
-      <c r="D165" s="79"/>
-      <c r="E165" s="79"/>
-      <c r="F165" s="83"/>
-      <c r="G165" s="85"/>
-      <c r="H165" s="75"/>
-    </row>
-    <row r="166" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="5">
+      <c r="C166" s="77"/>
+      <c r="D166" s="79"/>
+      <c r="E166" s="79"/>
+      <c r="F166" s="83"/>
+      <c r="G166" s="85"/>
+      <c r="H166" s="75"/>
+    </row>
+    <row r="167" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
         <v>528</v>
       </c>
-      <c r="B166" s="5" t="str">
+      <c r="B167" s="5" t="str">
         <f t="shared" si="5"/>
         <v>0x210</v>
       </c>
-      <c r="C166" s="76" t="s">
+      <c r="C167" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="D166" s="78" t="s">
+      <c r="D167" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E166" s="78"/>
-      <c r="F166" s="82" t="s">
+      <c r="E167" s="78"/>
+      <c r="F167" s="82" t="s">
         <v>387</v>
       </c>
-      <c r="G166" s="84">
-        <v>1</v>
-      </c>
-      <c r="H166" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="5">
+      <c r="G167" s="84">
+        <v>1</v>
+      </c>
+      <c r="H167" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
         <v>530</v>
       </c>
-      <c r="B167" s="5" t="str">
+      <c r="B168" s="5" t="str">
         <f t="shared" si="5"/>
         <v>0x212</v>
       </c>
-      <c r="C167" s="77"/>
-      <c r="D167" s="79"/>
-      <c r="E167" s="79"/>
-      <c r="F167" s="83"/>
-      <c r="G167" s="85"/>
-      <c r="H167" s="75"/>
-    </row>
-    <row r="168" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="5">
+      <c r="C168" s="77"/>
+      <c r="D168" s="79"/>
+      <c r="E168" s="79"/>
+      <c r="F168" s="83"/>
+      <c r="G168" s="85"/>
+      <c r="H168" s="75"/>
+    </row>
+    <row r="169" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
         <v>532</v>
       </c>
-      <c r="B168" s="5" t="str">
+      <c r="B169" s="5" t="str">
         <f t="shared" si="5"/>
         <v>0x214</v>
       </c>
-      <c r="C168" s="76" t="s">
+      <c r="C169" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="D168" s="78" t="s">
+      <c r="D169" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E168" s="78"/>
-      <c r="F168" s="82" t="s">
+      <c r="E169" s="78"/>
+      <c r="F169" s="82" t="s">
         <v>388</v>
       </c>
-      <c r="G168" s="84">
-        <v>1</v>
-      </c>
-      <c r="H168" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="5">
+      <c r="G169" s="84">
+        <v>1</v>
+      </c>
+      <c r="H169" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
         <v>534</v>
       </c>
-      <c r="B169" s="5" t="str">
+      <c r="B170" s="5" t="str">
         <f t="shared" si="5"/>
         <v>0x216</v>
       </c>
-      <c r="C169" s="77"/>
-      <c r="D169" s="79"/>
-      <c r="E169" s="79"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="85"/>
-      <c r="H169" s="75"/>
-    </row>
-    <row r="170" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="5">
-        <v>536</v>
-      </c>
-      <c r="B170" s="5" t="str">
-        <f t="shared" ref="B170:B175" si="6" xml:space="preserve"> "0x" &amp; DEC2HEX(A170)</f>
-        <v>0x218</v>
-      </c>
-      <c r="C170" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="D170" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E170" s="78"/>
-      <c r="F170" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="G170" s="84">
-        <v>1</v>
-      </c>
-      <c r="H170" s="74" t="s">
-        <v>785</v>
-      </c>
+      <c r="C170" s="77"/>
+      <c r="D170" s="79"/>
+      <c r="E170" s="79"/>
+      <c r="F170" s="83"/>
+      <c r="G170" s="85"/>
+      <c r="H170" s="75"/>
     </row>
     <row r="171" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
+        <v>536</v>
+      </c>
+      <c r="B171" s="5" t="str">
+        <f t="shared" ref="B171:B176" si="6" xml:space="preserve"> "0x" &amp; DEC2HEX(A171)</f>
+        <v>0x218</v>
+      </c>
+      <c r="C171" s="76" t="s">
+        <v>382</v>
+      </c>
+      <c r="D171" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E171" s="78"/>
+      <c r="F171" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="G171" s="84">
+        <v>1</v>
+      </c>
+      <c r="H171" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
         <v>538</v>
       </c>
-      <c r="B171" s="5" t="str">
+      <c r="B172" s="5" t="str">
         <f t="shared" si="6"/>
         <v>0x21A</v>
       </c>
-      <c r="C171" s="77"/>
-      <c r="D171" s="79"/>
-      <c r="E171" s="79"/>
-      <c r="F171" s="83"/>
-      <c r="G171" s="85"/>
-      <c r="H171" s="75"/>
-    </row>
-    <row r="172" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="5">
+      <c r="C172" s="77"/>
+      <c r="D172" s="79"/>
+      <c r="E172" s="79"/>
+      <c r="F172" s="83"/>
+      <c r="G172" s="85"/>
+      <c r="H172" s="75"/>
+    </row>
+    <row r="173" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
         <v>540</v>
       </c>
-      <c r="B172" s="5" t="str">
+      <c r="B173" s="5" t="str">
         <f t="shared" si="6"/>
         <v>0x21C</v>
       </c>
-      <c r="C172" s="76" t="s">
+      <c r="C173" s="76" t="s">
         <v>383</v>
       </c>
-      <c r="D172" s="78" t="s">
+      <c r="D173" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E172" s="78"/>
-      <c r="F172" s="82" t="s">
+      <c r="E173" s="78"/>
+      <c r="F173" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="G172" s="84">
-        <v>1</v>
-      </c>
-      <c r="H172" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="5">
+      <c r="G173" s="84">
+        <v>1</v>
+      </c>
+      <c r="H173" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
         <v>542</v>
       </c>
-      <c r="B173" s="5" t="str">
+      <c r="B174" s="5" t="str">
         <f t="shared" si="6"/>
         <v>0x21E</v>
       </c>
-      <c r="C173" s="77"/>
-      <c r="D173" s="79"/>
-      <c r="E173" s="79"/>
-      <c r="F173" s="83"/>
-      <c r="G173" s="85"/>
-      <c r="H173" s="75"/>
-    </row>
-    <row r="174" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="5">
+      <c r="C174" s="77"/>
+      <c r="D174" s="79"/>
+      <c r="E174" s="79"/>
+      <c r="F174" s="83"/>
+      <c r="G174" s="85"/>
+      <c r="H174" s="75"/>
+    </row>
+    <row r="175" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="5">
         <v>544</v>
       </c>
-      <c r="B174" s="5" t="str">
+      <c r="B175" s="5" t="str">
         <f t="shared" si="6"/>
         <v>0x220</v>
       </c>
-      <c r="C174" s="76" t="s">
+      <c r="C175" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="D174" s="78" t="s">
+      <c r="D175" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E174" s="78"/>
-      <c r="F174" s="82" t="s">
+      <c r="E175" s="78"/>
+      <c r="F175" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="G174" s="84">
-        <v>1</v>
-      </c>
-      <c r="H174" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="5">
+      <c r="G175" s="84">
+        <v>1</v>
+      </c>
+      <c r="H175" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="5">
         <v>546</v>
       </c>
-      <c r="B175" s="5" t="str">
+      <c r="B176" s="5" t="str">
         <f t="shared" si="6"/>
         <v>0x222</v>
       </c>
-      <c r="C175" s="77"/>
-      <c r="D175" s="79"/>
-      <c r="E175" s="79"/>
-      <c r="F175" s="83"/>
-      <c r="G175" s="85"/>
-      <c r="H175" s="75"/>
-    </row>
-    <row r="176" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="5">
-        <v>548</v>
-      </c>
-      <c r="B176" s="5" t="str">
-        <f t="shared" ref="B176:B195" si="7" xml:space="preserve"> "0x" &amp; DEC2HEX(A176)</f>
-        <v>0x224</v>
-      </c>
-      <c r="C176" s="76" t="s">
-        <v>385</v>
-      </c>
-      <c r="D176" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E176" s="78"/>
-      <c r="F176" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="G176" s="84">
-        <v>1</v>
-      </c>
-      <c r="H176" s="74" t="s">
-        <v>785</v>
-      </c>
+      <c r="C176" s="77"/>
+      <c r="D176" s="79"/>
+      <c r="E176" s="79"/>
+      <c r="F176" s="83"/>
+      <c r="G176" s="85"/>
+      <c r="H176" s="75"/>
     </row>
     <row r="177" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
+        <v>548</v>
+      </c>
+      <c r="B177" s="5" t="str">
+        <f t="shared" ref="B177:B196" si="7" xml:space="preserve"> "0x" &amp; DEC2HEX(A177)</f>
+        <v>0x224</v>
+      </c>
+      <c r="C177" s="76" t="s">
+        <v>385</v>
+      </c>
+      <c r="D177" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E177" s="78"/>
+      <c r="F177" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="G177" s="84">
+        <v>1</v>
+      </c>
+      <c r="H177" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
         <v>550</v>
       </c>
-      <c r="B177" s="5" t="str">
+      <c r="B178" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x226</v>
       </c>
-      <c r="C177" s="77"/>
-      <c r="D177" s="79"/>
-      <c r="E177" s="79"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="85"/>
-      <c r="H177" s="75"/>
-    </row>
-    <row r="178" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="5">
+      <c r="C178" s="77"/>
+      <c r="D178" s="79"/>
+      <c r="E178" s="79"/>
+      <c r="F178" s="83"/>
+      <c r="G178" s="85"/>
+      <c r="H178" s="75"/>
+    </row>
+    <row r="179" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
         <v>552</v>
       </c>
-      <c r="B178" s="5" t="str">
+      <c r="B179" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x228</v>
       </c>
-      <c r="C178" s="76" t="s">
+      <c r="C179" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="D178" s="78" t="s">
+      <c r="D179" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E178" s="78"/>
-      <c r="F178" s="82" t="s">
+      <c r="E179" s="78"/>
+      <c r="F179" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="G178" s="84">
-        <v>1</v>
-      </c>
-      <c r="H178" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="5">
+      <c r="G179" s="84">
+        <v>1</v>
+      </c>
+      <c r="H179" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
         <v>554</v>
       </c>
-      <c r="B179" s="5" t="str">
+      <c r="B180" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x22A</v>
       </c>
-      <c r="C179" s="77"/>
-      <c r="D179" s="79"/>
-      <c r="E179" s="79"/>
-      <c r="F179" s="83"/>
-      <c r="G179" s="85"/>
-      <c r="H179" s="75"/>
-    </row>
-    <row r="180" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="5">
+      <c r="C180" s="77"/>
+      <c r="D180" s="79"/>
+      <c r="E180" s="79"/>
+      <c r="F180" s="83"/>
+      <c r="G180" s="85"/>
+      <c r="H180" s="75"/>
+    </row>
+    <row r="181" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="5">
         <v>556</v>
       </c>
-      <c r="B180" s="5" t="str">
+      <c r="B181" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x22C</v>
       </c>
-      <c r="C180" s="76" t="s">
+      <c r="C181" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="D180" s="78" t="s">
+      <c r="D181" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E180" s="78"/>
-      <c r="F180" s="82" t="s">
+      <c r="E181" s="78"/>
+      <c r="F181" s="82" t="s">
         <v>412</v>
       </c>
-      <c r="G180" s="84">
-        <v>1</v>
-      </c>
-      <c r="H180" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="5">
+      <c r="G181" s="84">
+        <v>1</v>
+      </c>
+      <c r="H181" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
         <v>558</v>
       </c>
-      <c r="B181" s="5" t="str">
+      <c r="B182" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x22E</v>
       </c>
-      <c r="C181" s="77"/>
-      <c r="D181" s="79"/>
-      <c r="E181" s="79"/>
-      <c r="F181" s="83"/>
-      <c r="G181" s="85"/>
-      <c r="H181" s="75"/>
-    </row>
-    <row r="182" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="5">
+      <c r="C182" s="77"/>
+      <c r="D182" s="79"/>
+      <c r="E182" s="79"/>
+      <c r="F182" s="83"/>
+      <c r="G182" s="85"/>
+      <c r="H182" s="75"/>
+    </row>
+    <row r="183" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
         <v>560</v>
       </c>
-      <c r="B182" s="5" t="str">
+      <c r="B183" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x230</v>
       </c>
-      <c r="C182" s="76" t="s">
+      <c r="C183" s="76" t="s">
         <v>396</v>
       </c>
-      <c r="D182" s="78" t="s">
+      <c r="D183" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E182" s="78"/>
-      <c r="F182" s="82" t="s">
+      <c r="E183" s="78"/>
+      <c r="F183" s="82" t="s">
         <v>404</v>
       </c>
-      <c r="G182" s="84">
-        <v>1</v>
-      </c>
-      <c r="H182" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="5">
+      <c r="G183" s="84">
+        <v>1</v>
+      </c>
+      <c r="H183" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
         <v>562</v>
       </c>
-      <c r="B183" s="5" t="str">
+      <c r="B184" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x232</v>
       </c>
-      <c r="C183" s="77"/>
-      <c r="D183" s="79"/>
-      <c r="E183" s="79"/>
-      <c r="F183" s="83"/>
-      <c r="G183" s="85"/>
-      <c r="H183" s="75"/>
-    </row>
-    <row r="184" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="5">
+      <c r="C184" s="77"/>
+      <c r="D184" s="79"/>
+      <c r="E184" s="79"/>
+      <c r="F184" s="83"/>
+      <c r="G184" s="85"/>
+      <c r="H184" s="75"/>
+    </row>
+    <row r="185" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
         <v>564</v>
       </c>
-      <c r="B184" s="5" t="str">
+      <c r="B185" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x234</v>
       </c>
-      <c r="C184" s="76" t="s">
+      <c r="C185" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="D184" s="78" t="s">
+      <c r="D185" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E184" s="78"/>
-      <c r="F184" s="82" t="s">
+      <c r="E185" s="78"/>
+      <c r="F185" s="82" t="s">
         <v>405</v>
       </c>
-      <c r="G184" s="84">
-        <v>1</v>
-      </c>
-      <c r="H184" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="5">
+      <c r="G185" s="84">
+        <v>1</v>
+      </c>
+      <c r="H185" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="5">
         <v>566</v>
       </c>
-      <c r="B185" s="5" t="str">
+      <c r="B186" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x236</v>
       </c>
-      <c r="C185" s="77"/>
-      <c r="D185" s="79"/>
-      <c r="E185" s="79"/>
-      <c r="F185" s="83"/>
-      <c r="G185" s="85"/>
-      <c r="H185" s="75"/>
-    </row>
-    <row r="186" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="5">
+      <c r="C186" s="77"/>
+      <c r="D186" s="79"/>
+      <c r="E186" s="79"/>
+      <c r="F186" s="83"/>
+      <c r="G186" s="85"/>
+      <c r="H186" s="75"/>
+    </row>
+    <row r="187" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
         <v>568</v>
       </c>
-      <c r="B186" s="5" t="str">
+      <c r="B187" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x238</v>
       </c>
-      <c r="C186" s="76" t="s">
+      <c r="C187" s="76" t="s">
         <v>398</v>
       </c>
-      <c r="D186" s="78" t="s">
+      <c r="D187" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E186" s="78"/>
-      <c r="F186" s="82" t="s">
+      <c r="E187" s="78"/>
+      <c r="F187" s="82" t="s">
         <v>406</v>
       </c>
-      <c r="G186" s="84">
-        <v>1</v>
-      </c>
-      <c r="H186" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="5">
+      <c r="G187" s="84">
+        <v>1</v>
+      </c>
+      <c r="H187" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="5">
         <v>570</v>
       </c>
-      <c r="B187" s="5" t="str">
+      <c r="B188" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x23A</v>
       </c>
-      <c r="C187" s="77"/>
-      <c r="D187" s="79"/>
-      <c r="E187" s="79"/>
-      <c r="F187" s="83"/>
-      <c r="G187" s="85"/>
-      <c r="H187" s="75"/>
-    </row>
-    <row r="188" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="5">
+      <c r="C188" s="77"/>
+      <c r="D188" s="79"/>
+      <c r="E188" s="79"/>
+      <c r="F188" s="83"/>
+      <c r="G188" s="85"/>
+      <c r="H188" s="75"/>
+    </row>
+    <row r="189" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
         <v>572</v>
       </c>
-      <c r="B188" s="5" t="str">
+      <c r="B189" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x23C</v>
       </c>
-      <c r="C188" s="76" t="s">
+      <c r="C189" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="D188" s="78" t="s">
+      <c r="D189" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E188" s="78"/>
-      <c r="F188" s="82" t="s">
+      <c r="E189" s="78"/>
+      <c r="F189" s="82" t="s">
         <v>407</v>
       </c>
-      <c r="G188" s="84">
-        <v>1</v>
-      </c>
-      <c r="H188" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="5">
+      <c r="G189" s="84">
+        <v>1</v>
+      </c>
+      <c r="H189" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
         <v>574</v>
       </c>
-      <c r="B189" s="5" t="str">
+      <c r="B190" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x23E</v>
       </c>
-      <c r="C189" s="77"/>
-      <c r="D189" s="79"/>
-      <c r="E189" s="79"/>
-      <c r="F189" s="83"/>
-      <c r="G189" s="85"/>
-      <c r="H189" s="75"/>
-    </row>
-    <row r="190" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="5">
+      <c r="C190" s="77"/>
+      <c r="D190" s="79"/>
+      <c r="E190" s="79"/>
+      <c r="F190" s="83"/>
+      <c r="G190" s="85"/>
+      <c r="H190" s="75"/>
+    </row>
+    <row r="191" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
         <v>576</v>
       </c>
-      <c r="B190" s="5" t="str">
+      <c r="B191" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x240</v>
       </c>
-      <c r="C190" s="76" t="s">
+      <c r="C191" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="D190" s="78" t="s">
+      <c r="D191" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E190" s="78"/>
-      <c r="F190" s="82" t="s">
+      <c r="E191" s="78"/>
+      <c r="F191" s="82" t="s">
         <v>408</v>
       </c>
-      <c r="G190" s="84">
-        <v>1</v>
-      </c>
-      <c r="H190" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="5">
+      <c r="G191" s="84">
+        <v>1</v>
+      </c>
+      <c r="H191" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
         <v>578</v>
       </c>
-      <c r="B191" s="5" t="str">
+      <c r="B192" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x242</v>
       </c>
-      <c r="C191" s="77"/>
-      <c r="D191" s="79"/>
-      <c r="E191" s="79"/>
-      <c r="F191" s="83"/>
-      <c r="G191" s="85"/>
-      <c r="H191" s="75"/>
-    </row>
-    <row r="192" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="5">
+      <c r="C192" s="77"/>
+      <c r="D192" s="79"/>
+      <c r="E192" s="79"/>
+      <c r="F192" s="83"/>
+      <c r="G192" s="85"/>
+      <c r="H192" s="75"/>
+    </row>
+    <row r="193" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="5">
         <v>580</v>
       </c>
-      <c r="B192" s="5" t="str">
+      <c r="B193" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x244</v>
       </c>
-      <c r="C192" s="76" t="s">
+      <c r="C193" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="D192" s="78" t="s">
+      <c r="D193" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E192" s="78"/>
-      <c r="F192" s="82" t="s">
+      <c r="E193" s="78"/>
+      <c r="F193" s="82" t="s">
         <v>409</v>
       </c>
-      <c r="G192" s="84">
-        <v>1</v>
-      </c>
-      <c r="H192" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="5">
+      <c r="G193" s="84">
+        <v>1</v>
+      </c>
+      <c r="H193" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
         <v>582</v>
       </c>
-      <c r="B193" s="5" t="str">
+      <c r="B194" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x246</v>
       </c>
-      <c r="C193" s="77"/>
-      <c r="D193" s="79"/>
-      <c r="E193" s="79"/>
-      <c r="F193" s="83"/>
-      <c r="G193" s="85"/>
-      <c r="H193" s="75"/>
-    </row>
-    <row r="194" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="5">
+      <c r="C194" s="77"/>
+      <c r="D194" s="79"/>
+      <c r="E194" s="79"/>
+      <c r="F194" s="83"/>
+      <c r="G194" s="85"/>
+      <c r="H194" s="75"/>
+    </row>
+    <row r="195" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="5">
         <v>584</v>
       </c>
-      <c r="B194" s="5" t="str">
+      <c r="B195" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x248</v>
       </c>
-      <c r="C194" s="76" t="s">
+      <c r="C195" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="D194" s="78" t="s">
+      <c r="D195" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E194" s="78"/>
-      <c r="F194" s="82" t="s">
+      <c r="E195" s="78"/>
+      <c r="F195" s="82" t="s">
         <v>410</v>
       </c>
-      <c r="G194" s="84">
-        <v>1</v>
-      </c>
-      <c r="H194" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="5">
+      <c r="G195" s="84">
+        <v>1</v>
+      </c>
+      <c r="H195" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
         <v>586</v>
       </c>
-      <c r="B195" s="5" t="str">
+      <c r="B196" s="5" t="str">
         <f t="shared" si="7"/>
         <v>0x24A</v>
       </c>
-      <c r="C195" s="77"/>
-      <c r="D195" s="79"/>
-      <c r="E195" s="79"/>
-      <c r="F195" s="83"/>
-      <c r="G195" s="85"/>
-      <c r="H195" s="75"/>
-    </row>
-    <row r="196" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="5">
-        <v>588</v>
-      </c>
-      <c r="B196" s="5" t="str">
-        <f t="shared" ref="B196:B215" si="8" xml:space="preserve"> "0x" &amp; DEC2HEX(A196)</f>
-        <v>0x24C</v>
-      </c>
-      <c r="C196" s="76" t="s">
-        <v>403</v>
-      </c>
-      <c r="D196" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E196" s="78"/>
-      <c r="F196" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="G196" s="84">
-        <v>1</v>
-      </c>
-      <c r="H196" s="74" t="s">
-        <v>785</v>
-      </c>
+      <c r="C196" s="77"/>
+      <c r="D196" s="79"/>
+      <c r="E196" s="79"/>
+      <c r="F196" s="83"/>
+      <c r="G196" s="85"/>
+      <c r="H196" s="75"/>
     </row>
     <row r="197" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
+        <v>588</v>
+      </c>
+      <c r="B197" s="5" t="str">
+        <f t="shared" ref="B197:B216" si="8" xml:space="preserve"> "0x" &amp; DEC2HEX(A197)</f>
+        <v>0x24C</v>
+      </c>
+      <c r="C197" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="D197" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E197" s="78"/>
+      <c r="F197" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="G197" s="84">
+        <v>1</v>
+      </c>
+      <c r="H197" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="5">
         <v>590</v>
       </c>
-      <c r="B197" s="5" t="str">
+      <c r="B198" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x24E</v>
       </c>
-      <c r="C197" s="77"/>
-      <c r="D197" s="79"/>
-      <c r="E197" s="79"/>
-      <c r="F197" s="83"/>
-      <c r="G197" s="85"/>
-      <c r="H197" s="75"/>
-    </row>
-    <row r="198" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="5">
+      <c r="C198" s="77"/>
+      <c r="D198" s="79"/>
+      <c r="E198" s="79"/>
+      <c r="F198" s="83"/>
+      <c r="G198" s="85"/>
+      <c r="H198" s="75"/>
+    </row>
+    <row r="199" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="5">
         <v>592</v>
       </c>
-      <c r="B198" s="5" t="str">
+      <c r="B199" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x250</v>
       </c>
-      <c r="C198" s="76" t="s">
+      <c r="C199" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="D198" s="78" t="s">
+      <c r="D199" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E198" s="78"/>
-      <c r="F198" s="82" t="s">
+      <c r="E199" s="78"/>
+      <c r="F199" s="82" t="s">
         <v>414</v>
       </c>
-      <c r="G198" s="84">
-        <v>1</v>
-      </c>
-      <c r="H198" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="5">
+      <c r="G199" s="84">
+        <v>1</v>
+      </c>
+      <c r="H199" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="5">
         <v>594</v>
       </c>
-      <c r="B199" s="5" t="str">
+      <c r="B200" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x252</v>
       </c>
-      <c r="C199" s="77"/>
-      <c r="D199" s="79"/>
-      <c r="E199" s="79"/>
-      <c r="F199" s="83"/>
-      <c r="G199" s="85"/>
-      <c r="H199" s="75"/>
-    </row>
-    <row r="200" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="5">
+      <c r="C200" s="77"/>
+      <c r="D200" s="79"/>
+      <c r="E200" s="79"/>
+      <c r="F200" s="83"/>
+      <c r="G200" s="85"/>
+      <c r="H200" s="75"/>
+    </row>
+    <row r="201" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="5">
         <v>596</v>
       </c>
-      <c r="B200" s="5" t="str">
+      <c r="B201" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x254</v>
       </c>
-      <c r="C200" s="76" t="s">
+      <c r="C201" s="76" t="s">
         <v>415</v>
       </c>
-      <c r="D200" s="78" t="s">
+      <c r="D201" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E200" s="78"/>
-      <c r="F200" s="82" t="s">
+      <c r="E201" s="78"/>
+      <c r="F201" s="82" t="s">
         <v>424</v>
       </c>
-      <c r="G200" s="84">
-        <v>1</v>
-      </c>
-      <c r="H200" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="5">
+      <c r="G201" s="84">
+        <v>1</v>
+      </c>
+      <c r="H201" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="5">
         <v>598</v>
       </c>
-      <c r="B201" s="5" t="str">
+      <c r="B202" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x256</v>
       </c>
-      <c r="C201" s="77"/>
-      <c r="D201" s="79"/>
-      <c r="E201" s="79"/>
-      <c r="F201" s="83"/>
-      <c r="G201" s="85"/>
-      <c r="H201" s="75"/>
-    </row>
-    <row r="202" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="5">
+      <c r="C202" s="77"/>
+      <c r="D202" s="79"/>
+      <c r="E202" s="79"/>
+      <c r="F202" s="83"/>
+      <c r="G202" s="85"/>
+      <c r="H202" s="75"/>
+    </row>
+    <row r="203" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="5">
         <v>600</v>
       </c>
-      <c r="B202" s="5" t="str">
+      <c r="B203" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x258</v>
       </c>
-      <c r="C202" s="76" t="s">
+      <c r="C203" s="76" t="s">
         <v>416</v>
       </c>
-      <c r="D202" s="78" t="s">
+      <c r="D203" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E202" s="78"/>
-      <c r="F202" s="82" t="s">
+      <c r="E203" s="78"/>
+      <c r="F203" s="82" t="s">
         <v>425</v>
       </c>
-      <c r="G202" s="84">
-        <v>1</v>
-      </c>
-      <c r="H202" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="5">
+      <c r="G203" s="84">
+        <v>1</v>
+      </c>
+      <c r="H203" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="5">
         <v>602</v>
       </c>
-      <c r="B203" s="5" t="str">
+      <c r="B204" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x25A</v>
       </c>
-      <c r="C203" s="77"/>
-      <c r="D203" s="79"/>
-      <c r="E203" s="79"/>
-      <c r="F203" s="83"/>
-      <c r="G203" s="85"/>
-      <c r="H203" s="75"/>
-    </row>
-    <row r="204" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="5">
+      <c r="C204" s="77"/>
+      <c r="D204" s="79"/>
+      <c r="E204" s="79"/>
+      <c r="F204" s="83"/>
+      <c r="G204" s="85"/>
+      <c r="H204" s="75"/>
+    </row>
+    <row r="205" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="5">
         <v>604</v>
       </c>
-      <c r="B204" s="5" t="str">
+      <c r="B205" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x25C</v>
       </c>
-      <c r="C204" s="76" t="s">
+      <c r="C205" s="76" t="s">
         <v>417</v>
       </c>
-      <c r="D204" s="78" t="s">
+      <c r="D205" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E204" s="78"/>
-      <c r="F204" s="82" t="s">
+      <c r="E205" s="78"/>
+      <c r="F205" s="82" t="s">
         <v>426</v>
       </c>
-      <c r="G204" s="84">
-        <v>1</v>
-      </c>
-      <c r="H204" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="5">
+      <c r="G205" s="84">
+        <v>1</v>
+      </c>
+      <c r="H205" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="5">
         <v>606</v>
       </c>
-      <c r="B205" s="5" t="str">
+      <c r="B206" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x25E</v>
       </c>
-      <c r="C205" s="77"/>
-      <c r="D205" s="79"/>
-      <c r="E205" s="79"/>
-      <c r="F205" s="83"/>
-      <c r="G205" s="85"/>
-      <c r="H205" s="75"/>
-    </row>
-    <row r="206" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="5">
+      <c r="C206" s="77"/>
+      <c r="D206" s="79"/>
+      <c r="E206" s="79"/>
+      <c r="F206" s="83"/>
+      <c r="G206" s="85"/>
+      <c r="H206" s="75"/>
+    </row>
+    <row r="207" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="5">
         <v>608</v>
       </c>
-      <c r="B206" s="5" t="str">
+      <c r="B207" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x260</v>
       </c>
-      <c r="C206" s="76" t="s">
+      <c r="C207" s="76" t="s">
         <v>418</v>
       </c>
-      <c r="D206" s="78" t="s">
+      <c r="D207" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E206" s="78"/>
-      <c r="F206" s="82" t="s">
+      <c r="E207" s="78"/>
+      <c r="F207" s="82" t="s">
         <v>427</v>
       </c>
-      <c r="G206" s="84">
-        <v>1</v>
-      </c>
-      <c r="H206" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="5">
+      <c r="G207" s="84">
+        <v>1</v>
+      </c>
+      <c r="H207" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="5">
         <v>610</v>
       </c>
-      <c r="B207" s="5" t="str">
+      <c r="B208" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x262</v>
       </c>
-      <c r="C207" s="77"/>
-      <c r="D207" s="79"/>
-      <c r="E207" s="79"/>
-      <c r="F207" s="83"/>
-      <c r="G207" s="85"/>
-      <c r="H207" s="75"/>
-    </row>
-    <row r="208" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="5">
+      <c r="C208" s="77"/>
+      <c r="D208" s="79"/>
+      <c r="E208" s="79"/>
+      <c r="F208" s="83"/>
+      <c r="G208" s="85"/>
+      <c r="H208" s="75"/>
+    </row>
+    <row r="209" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="5">
         <v>612</v>
       </c>
-      <c r="B208" s="5" t="str">
+      <c r="B209" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x264</v>
       </c>
-      <c r="C208" s="76" t="s">
+      <c r="C209" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="D208" s="78" t="s">
+      <c r="D209" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E208" s="78"/>
-      <c r="F208" s="82" t="s">
+      <c r="E209" s="78"/>
+      <c r="F209" s="82" t="s">
         <v>428</v>
       </c>
-      <c r="G208" s="84">
-        <v>1</v>
-      </c>
-      <c r="H208" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="5">
+      <c r="G209" s="84">
+        <v>1</v>
+      </c>
+      <c r="H209" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="5">
         <v>614</v>
       </c>
-      <c r="B209" s="5" t="str">
+      <c r="B210" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x266</v>
       </c>
-      <c r="C209" s="77"/>
-      <c r="D209" s="79"/>
-      <c r="E209" s="79"/>
-      <c r="F209" s="83"/>
-      <c r="G209" s="85"/>
-      <c r="H209" s="75"/>
-    </row>
-    <row r="210" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="5">
+      <c r="C210" s="77"/>
+      <c r="D210" s="79"/>
+      <c r="E210" s="79"/>
+      <c r="F210" s="83"/>
+      <c r="G210" s="85"/>
+      <c r="H210" s="75"/>
+    </row>
+    <row r="211" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="5">
         <v>616</v>
       </c>
-      <c r="B210" s="5" t="str">
+      <c r="B211" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x268</v>
       </c>
-      <c r="C210" s="76" t="s">
+      <c r="C211" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="D210" s="78" t="s">
+      <c r="D211" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E210" s="78"/>
-      <c r="F210" s="82" t="s">
+      <c r="E211" s="78"/>
+      <c r="F211" s="82" t="s">
         <v>429</v>
       </c>
-      <c r="G210" s="84">
-        <v>1</v>
-      </c>
-      <c r="H210" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="5">
+      <c r="G211" s="84">
+        <v>1</v>
+      </c>
+      <c r="H211" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="5">
         <v>618</v>
       </c>
-      <c r="B211" s="5" t="str">
+      <c r="B212" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x26A</v>
       </c>
-      <c r="C211" s="77"/>
-      <c r="D211" s="79"/>
-      <c r="E211" s="79"/>
-      <c r="F211" s="83"/>
-      <c r="G211" s="85"/>
-      <c r="H211" s="75"/>
-    </row>
-    <row r="212" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="5">
+      <c r="C212" s="77"/>
+      <c r="D212" s="79"/>
+      <c r="E212" s="79"/>
+      <c r="F212" s="83"/>
+      <c r="G212" s="85"/>
+      <c r="H212" s="75"/>
+    </row>
+    <row r="213" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="5">
         <v>620</v>
       </c>
-      <c r="B212" s="5" t="str">
+      <c r="B213" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x26C</v>
       </c>
-      <c r="C212" s="76" t="s">
+      <c r="C213" s="76" t="s">
         <v>421</v>
       </c>
-      <c r="D212" s="78" t="s">
+      <c r="D213" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E212" s="78"/>
-      <c r="F212" s="82" t="s">
+      <c r="E213" s="78"/>
+      <c r="F213" s="82" t="s">
         <v>430</v>
       </c>
-      <c r="G212" s="84">
-        <v>1</v>
-      </c>
-      <c r="H212" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="5">
+      <c r="G213" s="84">
+        <v>1</v>
+      </c>
+      <c r="H213" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="5">
         <v>622</v>
       </c>
-      <c r="B213" s="5" t="str">
+      <c r="B214" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x26E</v>
       </c>
-      <c r="C213" s="77"/>
-      <c r="D213" s="79"/>
-      <c r="E213" s="79"/>
-      <c r="F213" s="83"/>
-      <c r="G213" s="85"/>
-      <c r="H213" s="75"/>
-    </row>
-    <row r="214" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="5">
+      <c r="C214" s="77"/>
+      <c r="D214" s="79"/>
+      <c r="E214" s="79"/>
+      <c r="F214" s="83"/>
+      <c r="G214" s="85"/>
+      <c r="H214" s="75"/>
+    </row>
+    <row r="215" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="5">
         <v>624</v>
       </c>
-      <c r="B214" s="5" t="str">
+      <c r="B215" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x270</v>
       </c>
-      <c r="C214" s="76" t="s">
+      <c r="C215" s="76" t="s">
         <v>422</v>
       </c>
-      <c r="D214" s="78" t="s">
+      <c r="D215" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E214" s="78"/>
-      <c r="F214" s="82" t="s">
+      <c r="E215" s="78"/>
+      <c r="F215" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="G214" s="84">
-        <v>1</v>
-      </c>
-      <c r="H214" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="5">
+      <c r="G215" s="84">
+        <v>1</v>
+      </c>
+      <c r="H215" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="5">
         <v>626</v>
       </c>
-      <c r="B215" s="5" t="str">
+      <c r="B216" s="5" t="str">
         <f t="shared" si="8"/>
         <v>0x272</v>
       </c>
-      <c r="C215" s="77"/>
-      <c r="D215" s="79"/>
-      <c r="E215" s="79"/>
-      <c r="F215" s="83"/>
-      <c r="G215" s="85"/>
-      <c r="H215" s="75"/>
-    </row>
-    <row r="216" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="5">
-        <v>628</v>
-      </c>
-      <c r="B216" s="5" t="str">
-        <f t="shared" ref="B216:B217" si="9" xml:space="preserve"> "0x" &amp; DEC2HEX(A216)</f>
-        <v>0x274</v>
-      </c>
-      <c r="C216" s="76" t="s">
-        <v>423</v>
-      </c>
-      <c r="D216" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E216" s="78"/>
-      <c r="F216" s="82" t="s">
-        <v>432</v>
-      </c>
-      <c r="G216" s="84">
-        <v>1</v>
-      </c>
-      <c r="H216" s="74" t="s">
-        <v>785</v>
-      </c>
+      <c r="C216" s="77"/>
+      <c r="D216" s="79"/>
+      <c r="E216" s="79"/>
+      <c r="F216" s="83"/>
+      <c r="G216" s="85"/>
+      <c r="H216" s="75"/>
     </row>
     <row r="217" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
+        <v>628</v>
+      </c>
+      <c r="B217" s="5" t="str">
+        <f t="shared" ref="B217:B218" si="9" xml:space="preserve"> "0x" &amp; DEC2HEX(A217)</f>
+        <v>0x274</v>
+      </c>
+      <c r="C217" s="76" t="s">
+        <v>423</v>
+      </c>
+      <c r="D217" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E217" s="78"/>
+      <c r="F217" s="82" t="s">
+        <v>432</v>
+      </c>
+      <c r="G217" s="84">
+        <v>1</v>
+      </c>
+      <c r="H217" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="5">
         <v>630</v>
       </c>
-      <c r="B217" s="5" t="str">
+      <c r="B218" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0x276</v>
       </c>
-      <c r="C217" s="77"/>
-      <c r="D217" s="79"/>
-      <c r="E217" s="79"/>
-      <c r="F217" s="83"/>
-      <c r="G217" s="85"/>
-      <c r="H217" s="75"/>
-    </row>
-    <row r="218" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="5">
+      <c r="C218" s="77"/>
+      <c r="D218" s="79"/>
+      <c r="E218" s="79"/>
+      <c r="F218" s="83"/>
+      <c r="G218" s="85"/>
+      <c r="H218" s="75"/>
+    </row>
+    <row r="219" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="5">
         <v>632</v>
       </c>
-      <c r="B218" s="5" t="str">
+      <c r="B219" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x278</v>
       </c>
-      <c r="C218" s="76" t="s">
+      <c r="C219" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="D218" s="78" t="s">
+      <c r="D219" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E218" s="78"/>
-      <c r="F218" s="82" t="s">
+      <c r="E219" s="78"/>
+      <c r="F219" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="G218" s="84">
-        <v>1</v>
-      </c>
-      <c r="H218" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="5">
+      <c r="G219" s="84">
+        <v>1</v>
+      </c>
+      <c r="H219" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="5">
         <v>634</v>
       </c>
-      <c r="B219" s="5" t="str">
+      <c r="B220" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x27A</v>
       </c>
-      <c r="C219" s="77"/>
-      <c r="D219" s="79"/>
-      <c r="E219" s="79"/>
-      <c r="F219" s="83"/>
-      <c r="G219" s="85"/>
-      <c r="H219" s="75"/>
-    </row>
-    <row r="220" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="5">
+      <c r="C220" s="77"/>
+      <c r="D220" s="79"/>
+      <c r="E220" s="79"/>
+      <c r="F220" s="83"/>
+      <c r="G220" s="85"/>
+      <c r="H220" s="75"/>
+    </row>
+    <row r="221" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="5">
         <v>636</v>
       </c>
-      <c r="B220" s="5" t="str">
+      <c r="B221" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x27C</v>
       </c>
-      <c r="C220" s="76" t="s">
+      <c r="C221" s="76" t="s">
         <v>435</v>
       </c>
-      <c r="D220" s="78" t="s">
+      <c r="D221" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E220" s="78"/>
-      <c r="F220" s="82" t="s">
+      <c r="E221" s="78"/>
+      <c r="F221" s="82" t="s">
         <v>436</v>
       </c>
-      <c r="G220" s="84">
-        <v>1</v>
-      </c>
-      <c r="H220" s="74" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="5">
+      <c r="G221" s="84">
+        <v>1</v>
+      </c>
+      <c r="H221" s="74" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="5">
         <v>638</v>
       </c>
-      <c r="B221" s="5" t="str">
+      <c r="B222" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x27E</v>
       </c>
-      <c r="C221" s="77"/>
-      <c r="D221" s="79"/>
-      <c r="E221" s="79"/>
-      <c r="F221" s="83"/>
-      <c r="G221" s="85"/>
-      <c r="H221" s="75"/>
-    </row>
-    <row r="222" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="5">
+      <c r="C222" s="77"/>
+      <c r="D222" s="79"/>
+      <c r="E222" s="79"/>
+      <c r="F222" s="83"/>
+      <c r="G222" s="85"/>
+      <c r="H222" s="75"/>
+    </row>
+    <row r="223" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="5">
         <v>640</v>
       </c>
-      <c r="B222" s="5" t="str">
+      <c r="B223" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x280</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C223" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D222" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E222" s="7" t="s">
+      <c r="D223" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F222" s="8" t="s">
+      <c r="F223" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="G222" s="9">
-        <v>1</v>
-      </c>
-      <c r="H222" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="5">
+      <c r="G223" s="9">
+        <v>1</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="5">
         <v>642</v>
       </c>
-      <c r="B223" s="5" t="str">
+      <c r="B224" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x282</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="C224" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D223" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E223" s="7" t="s">
+      <c r="D224" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F223" s="8" t="s">
+      <c r="F224" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="G223" s="9">
-        <v>1</v>
-      </c>
-      <c r="H223" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="5">
+      <c r="G224" s="9">
+        <v>1</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="5">
         <v>644</v>
       </c>
-      <c r="B224" s="5" t="str">
+      <c r="B225" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x284</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="C225" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D224" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E224" s="7" t="s">
+      <c r="D225" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F224" s="8" t="s">
+      <c r="F225" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G224" s="9">
-        <v>1</v>
-      </c>
-      <c r="H224" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="5">
+      <c r="G225" s="9">
+        <v>1</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="5">
         <v>682</v>
       </c>
-      <c r="B225" s="43" t="str">
+      <c r="B226" s="43" t="str">
         <f t="shared" si="2"/>
         <v>0x2AA</v>
       </c>
-      <c r="C225" s="44" t="s">
-        <v>803</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E225" s="45"/>
-      <c r="F225" s="46" t="s">
+      <c r="C226" s="44" t="s">
         <v>804</v>
       </c>
-      <c r="G225" s="47">
+      <c r="D226" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226" s="45"/>
+      <c r="F226" s="46" t="s">
+        <v>805</v>
+      </c>
+      <c r="G226" s="47">
         <v>7</v>
       </c>
-      <c r="H225" s="43" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="5">
+      <c r="H226" s="43" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="5">
         <v>684</v>
       </c>
-      <c r="B226" s="5" t="str">
+      <c r="B227" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2AC</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E226" s="7">
-        <v>1</v>
-      </c>
-      <c r="F226" s="8" t="s">
+      <c r="C227" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="G226" s="9">
+      <c r="D227" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" s="7">
+        <v>1</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="G227" s="9">
         <v>7</v>
       </c>
-      <c r="H226" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="5">
+      <c r="H227" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="5">
         <v>686</v>
       </c>
-      <c r="B227" s="5" t="str">
+      <c r="B228" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2AE</v>
       </c>
-      <c r="C227" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E227" s="7"/>
-      <c r="F227" s="8" t="s">
+      <c r="C228" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="G227" s="9">
+      <c r="D228" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" s="7"/>
+      <c r="F228" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="G228" s="9">
         <v>7</v>
       </c>
-      <c r="H227" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="5">
+      <c r="H228" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="5">
         <v>688</v>
       </c>
-      <c r="B228" s="5" t="str">
+      <c r="B229" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2B0</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E228" s="7"/>
-      <c r="F228" s="8" t="s">
+      <c r="C229" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="G228" s="9">
+      <c r="D229" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" s="7"/>
+      <c r="F229" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="G229" s="9">
         <v>7</v>
       </c>
-      <c r="H228" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="5">
+      <c r="H229" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="5">
         <v>700</v>
       </c>
-      <c r="B229" s="5" t="str">
+      <c r="B230" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2BC</v>
       </c>
-      <c r="C229" s="76" t="s">
-        <v>809</v>
-      </c>
-      <c r="D229" s="78" t="s">
+      <c r="C230" s="76" t="s">
+        <v>810</v>
+      </c>
+      <c r="D230" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E229" s="78"/>
-      <c r="F229" s="82" t="s">
-        <v>810</v>
-      </c>
-      <c r="G229" s="84">
+      <c r="E230" s="78"/>
+      <c r="F230" s="82" t="s">
+        <v>811</v>
+      </c>
+      <c r="G230" s="84">
         <v>7</v>
       </c>
-      <c r="H229" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="5">
+      <c r="H230" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="5">
         <v>702</v>
       </c>
-      <c r="B230" s="5" t="str">
+      <c r="B231" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2BE</v>
       </c>
-      <c r="C230" s="77"/>
-      <c r="D230" s="79"/>
-      <c r="E230" s="79"/>
-      <c r="F230" s="83"/>
-      <c r="G230" s="85"/>
-      <c r="H230" s="75"/>
-    </row>
-    <row r="231" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="5">
+      <c r="C231" s="77"/>
+      <c r="D231" s="79"/>
+      <c r="E231" s="79"/>
+      <c r="F231" s="83"/>
+      <c r="G231" s="85"/>
+      <c r="H231" s="75"/>
+    </row>
+    <row r="232" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="5">
         <v>704</v>
       </c>
-      <c r="B231" s="5" t="str">
+      <c r="B232" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2C0</v>
       </c>
-      <c r="C231" s="76" t="s">
-        <v>811</v>
-      </c>
-      <c r="D231" s="78" t="s">
+      <c r="C232" s="76" t="s">
         <v>812</v>
       </c>
-      <c r="E231" s="78"/>
-      <c r="F231" s="82" t="s">
+      <c r="D232" s="78" t="s">
         <v>813</v>
       </c>
-      <c r="G231" s="84">
+      <c r="E232" s="78"/>
+      <c r="F232" s="82" t="s">
+        <v>814</v>
+      </c>
+      <c r="G232" s="84">
         <v>7</v>
       </c>
-      <c r="H231" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="5">
+      <c r="H232" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="5">
         <v>706</v>
       </c>
-      <c r="B232" s="5" t="str">
+      <c r="B233" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2C2</v>
       </c>
-      <c r="C232" s="77"/>
-      <c r="D232" s="79"/>
-      <c r="E232" s="79"/>
-      <c r="F232" s="83"/>
-      <c r="G232" s="85"/>
-      <c r="H232" s="75"/>
-    </row>
-    <row r="233" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="5">
+      <c r="C233" s="77"/>
+      <c r="D233" s="79"/>
+      <c r="E233" s="79"/>
+      <c r="F233" s="83"/>
+      <c r="G233" s="85"/>
+      <c r="H233" s="75"/>
+    </row>
+    <row r="234" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="5">
         <v>708</v>
       </c>
-      <c r="B233" s="5" t="str">
+      <c r="B234" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2C4</v>
       </c>
-      <c r="C233" s="76" t="s">
-        <v>814</v>
-      </c>
-      <c r="D233" s="78" t="s">
+      <c r="C234" s="76" t="s">
+        <v>815</v>
+      </c>
+      <c r="D234" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E233" s="78"/>
-      <c r="F233" s="82" t="s">
-        <v>818</v>
-      </c>
-      <c r="G233" s="84">
+      <c r="E234" s="78"/>
+      <c r="F234" s="82" t="s">
+        <v>819</v>
+      </c>
+      <c r="G234" s="84">
         <v>7</v>
       </c>
-      <c r="H233" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="5">
+      <c r="H234" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="5">
         <v>710</v>
       </c>
-      <c r="B234" s="5" t="str">
+      <c r="B235" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2C6</v>
       </c>
-      <c r="C234" s="77"/>
-      <c r="D234" s="79"/>
-      <c r="E234" s="79"/>
-      <c r="F234" s="83"/>
-      <c r="G234" s="85"/>
-      <c r="H234" s="75"/>
-    </row>
-    <row r="235" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="5">
+      <c r="C235" s="77"/>
+      <c r="D235" s="79"/>
+      <c r="E235" s="79"/>
+      <c r="F235" s="83"/>
+      <c r="G235" s="85"/>
+      <c r="H235" s="75"/>
+    </row>
+    <row r="236" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="5">
         <v>712</v>
       </c>
-      <c r="B235" s="5" t="str">
+      <c r="B236" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2C8</v>
       </c>
-      <c r="C235" s="76" t="s">
-        <v>815</v>
-      </c>
-      <c r="D235" s="78" t="s">
-        <v>812</v>
-      </c>
-      <c r="E235" s="78"/>
-      <c r="F235" s="82" t="s">
-        <v>819</v>
-      </c>
-      <c r="G235" s="84">
+      <c r="C236" s="76" t="s">
+        <v>816</v>
+      </c>
+      <c r="D236" s="78" t="s">
+        <v>813</v>
+      </c>
+      <c r="E236" s="78"/>
+      <c r="F236" s="82" t="s">
+        <v>820</v>
+      </c>
+      <c r="G236" s="84">
         <v>7</v>
       </c>
-      <c r="H235" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="5">
+      <c r="H236" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="5">
         <v>714</v>
       </c>
-      <c r="B236" s="5" t="str">
+      <c r="B237" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2CA</v>
       </c>
-      <c r="C236" s="77"/>
-      <c r="D236" s="79"/>
-      <c r="E236" s="79"/>
-      <c r="F236" s="83"/>
-      <c r="G236" s="85"/>
-      <c r="H236" s="75"/>
-    </row>
-    <row r="237" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="5">
+      <c r="C237" s="77"/>
+      <c r="D237" s="79"/>
+      <c r="E237" s="79"/>
+      <c r="F237" s="83"/>
+      <c r="G237" s="85"/>
+      <c r="H237" s="75"/>
+    </row>
+    <row r="238" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="5">
         <v>716</v>
       </c>
-      <c r="B237" s="5" t="str">
+      <c r="B238" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2CC</v>
       </c>
-      <c r="C237" s="76" t="s">
-        <v>816</v>
-      </c>
-      <c r="D237" s="78" t="s">
+      <c r="C238" s="76" t="s">
+        <v>817</v>
+      </c>
+      <c r="D238" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E237" s="78"/>
-      <c r="F237" s="82" t="s">
-        <v>820</v>
-      </c>
-      <c r="G237" s="84">
-        <v>10</v>
-      </c>
-      <c r="H237" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="5">
+      <c r="E238" s="78"/>
+      <c r="F238" s="82" t="s">
+        <v>821</v>
+      </c>
+      <c r="G238" s="84">
+        <v>10</v>
+      </c>
+      <c r="H238" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="5">
         <v>718</v>
       </c>
-      <c r="B238" s="5" t="str">
+      <c r="B239" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2CE</v>
       </c>
-      <c r="C238" s="77"/>
-      <c r="D238" s="79"/>
-      <c r="E238" s="79"/>
-      <c r="F238" s="83"/>
-      <c r="G238" s="85"/>
-      <c r="H238" s="75"/>
-    </row>
-    <row r="239" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="5">
+      <c r="C239" s="77"/>
+      <c r="D239" s="79"/>
+      <c r="E239" s="79"/>
+      <c r="F239" s="83"/>
+      <c r="G239" s="85"/>
+      <c r="H239" s="75"/>
+    </row>
+    <row r="240" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="5">
         <v>720</v>
       </c>
-      <c r="B239" s="5" t="str">
+      <c r="B240" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2D0</v>
       </c>
-      <c r="C239" s="76" t="s">
-        <v>817</v>
-      </c>
-      <c r="D239" s="78" t="s">
-        <v>812</v>
-      </c>
-      <c r="E239" s="78"/>
-      <c r="F239" s="82" t="s">
-        <v>821</v>
-      </c>
-      <c r="G239" s="84">
-        <v>10</v>
-      </c>
-      <c r="H239" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="5">
+      <c r="C240" s="76" t="s">
+        <v>818</v>
+      </c>
+      <c r="D240" s="78" t="s">
+        <v>813</v>
+      </c>
+      <c r="E240" s="78"/>
+      <c r="F240" s="82" t="s">
+        <v>822</v>
+      </c>
+      <c r="G240" s="84">
+        <v>10</v>
+      </c>
+      <c r="H240" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="5">
         <v>722</v>
       </c>
-      <c r="B240" s="5" t="str">
+      <c r="B241" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2D2</v>
       </c>
-      <c r="C240" s="77"/>
-      <c r="D240" s="79"/>
-      <c r="E240" s="79"/>
-      <c r="F240" s="83"/>
-      <c r="G240" s="85"/>
-      <c r="H240" s="75"/>
-    </row>
-    <row r="241" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="5">
+      <c r="C241" s="77"/>
+      <c r="D241" s="79"/>
+      <c r="E241" s="79"/>
+      <c r="F241" s="83"/>
+      <c r="G241" s="85"/>
+      <c r="H241" s="75"/>
+    </row>
+    <row r="242" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="5">
         <v>724</v>
       </c>
-      <c r="B241" s="5" t="str">
+      <c r="B242" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2D4</v>
       </c>
-      <c r="C241" s="76" t="s">
-        <v>822</v>
-      </c>
-      <c r="D241" s="78" t="s">
+      <c r="C242" s="76" t="s">
+        <v>823</v>
+      </c>
+      <c r="D242" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E241" s="78"/>
-      <c r="F241" s="82" t="s">
-        <v>822</v>
-      </c>
-      <c r="G241" s="84">
-        <v>10</v>
-      </c>
-      <c r="H241" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="5">
+      <c r="E242" s="78"/>
+      <c r="F242" s="82" t="s">
+        <v>823</v>
+      </c>
+      <c r="G242" s="84">
+        <v>10</v>
+      </c>
+      <c r="H242" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="5">
         <v>726</v>
       </c>
-      <c r="B242" s="5" t="str">
+      <c r="B243" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2D6</v>
       </c>
-      <c r="C242" s="77"/>
-      <c r="D242" s="79"/>
-      <c r="E242" s="79"/>
-      <c r="F242" s="83"/>
-      <c r="G242" s="85"/>
-      <c r="H242" s="75"/>
-    </row>
-    <row r="243" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="5">
+      <c r="C243" s="77"/>
+      <c r="D243" s="79"/>
+      <c r="E243" s="79"/>
+      <c r="F243" s="83"/>
+      <c r="G243" s="85"/>
+      <c r="H243" s="75"/>
+    </row>
+    <row r="244" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="5">
         <v>728</v>
       </c>
-      <c r="B243" s="5" t="str">
+      <c r="B244" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2D8</v>
       </c>
-      <c r="C243" s="76" t="s">
-        <v>823</v>
-      </c>
-      <c r="D243" s="78" t="s">
+      <c r="C244" s="76" t="s">
+        <v>824</v>
+      </c>
+      <c r="D244" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E243" s="78"/>
-      <c r="F243" s="82" t="s">
-        <v>823</v>
-      </c>
-      <c r="G243" s="84">
-        <v>10</v>
-      </c>
-      <c r="H243" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="5">
+      <c r="E244" s="78"/>
+      <c r="F244" s="82" t="s">
+        <v>824</v>
+      </c>
+      <c r="G244" s="84">
+        <v>10</v>
+      </c>
+      <c r="H244" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="5">
         <v>730</v>
       </c>
-      <c r="B244" s="5" t="str">
+      <c r="B245" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2DA</v>
       </c>
-      <c r="C244" s="77"/>
-      <c r="D244" s="79"/>
-      <c r="E244" s="79"/>
-      <c r="F244" s="83"/>
-      <c r="G244" s="85"/>
-      <c r="H244" s="75"/>
-    </row>
-    <row r="245" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="5">
+      <c r="C245" s="77"/>
+      <c r="D245" s="79"/>
+      <c r="E245" s="79"/>
+      <c r="F245" s="83"/>
+      <c r="G245" s="85"/>
+      <c r="H245" s="75"/>
+    </row>
+    <row r="246" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="5">
         <v>732</v>
       </c>
-      <c r="B245" s="5" t="str">
+      <c r="B246" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2DC</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E245" s="7"/>
-      <c r="F245" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="G245" s="9">
-        <v>10</v>
-      </c>
-      <c r="H245" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="5">
+      <c r="C246" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" s="7"/>
+      <c r="F246" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="G246" s="9">
+        <v>10</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="5">
         <v>734</v>
       </c>
-      <c r="B246" s="5" t="str">
+      <c r="B247" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2DE</v>
       </c>
-      <c r="C246" s="76" t="s">
-        <v>793</v>
-      </c>
-      <c r="D246" s="78" t="s">
+      <c r="C247" s="76" t="s">
+        <v>794</v>
+      </c>
+      <c r="D247" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E246" s="78"/>
-      <c r="F246" s="82" t="s">
+      <c r="E247" s="78"/>
+      <c r="F247" s="82" t="s">
+        <v>791</v>
+      </c>
+      <c r="G247" s="84">
+        <v>7</v>
+      </c>
+      <c r="H247" s="74" t="s">
         <v>790</v>
       </c>
-      <c r="G246" s="84">
-        <v>7</v>
-      </c>
-      <c r="H246" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="5">
+    </row>
+    <row r="248" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="5">
         <v>736</v>
       </c>
-      <c r="B247" s="5" t="str">
+      <c r="B248" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2E0</v>
       </c>
-      <c r="C247" s="77"/>
-      <c r="D247" s="79"/>
-      <c r="E247" s="79"/>
-      <c r="F247" s="83"/>
-      <c r="G247" s="85"/>
-      <c r="H247" s="75"/>
-    </row>
-    <row r="248" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="5">
+      <c r="C248" s="77"/>
+      <c r="D248" s="79"/>
+      <c r="E248" s="79"/>
+      <c r="F248" s="83"/>
+      <c r="G248" s="85"/>
+      <c r="H248" s="75"/>
+    </row>
+    <row r="249" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="5">
         <v>738</v>
       </c>
-      <c r="B248" s="5" t="str">
+      <c r="B249" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2E2</v>
       </c>
-      <c r="C248" s="76" t="s">
-        <v>794</v>
-      </c>
-      <c r="D248" s="78" t="s">
+      <c r="C249" s="76" t="s">
+        <v>795</v>
+      </c>
+      <c r="D249" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E248" s="78"/>
-      <c r="F248" s="82" t="s">
-        <v>791</v>
-      </c>
-      <c r="G248" s="84">
+      <c r="E249" s="78"/>
+      <c r="F249" s="82" t="s">
+        <v>792</v>
+      </c>
+      <c r="G249" s="84">
         <v>7</v>
       </c>
-      <c r="H248" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="5">
+      <c r="H249" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="5">
         <v>740</v>
       </c>
-      <c r="B249" s="5" t="str">
+      <c r="B250" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2E4</v>
       </c>
-      <c r="C249" s="77"/>
-      <c r="D249" s="79"/>
-      <c r="E249" s="79"/>
-      <c r="F249" s="83"/>
-      <c r="G249" s="85"/>
-      <c r="H249" s="75"/>
-    </row>
-    <row r="250" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="5">
+      <c r="C250" s="77"/>
+      <c r="D250" s="79"/>
+      <c r="E250" s="79"/>
+      <c r="F250" s="83"/>
+      <c r="G250" s="85"/>
+      <c r="H250" s="75"/>
+    </row>
+    <row r="251" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="5">
         <v>742</v>
       </c>
-      <c r="B250" s="5" t="str">
+      <c r="B251" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2E6</v>
       </c>
-      <c r="C250" s="76" t="s">
-        <v>795</v>
-      </c>
-      <c r="D250" s="78" t="s">
+      <c r="C251" s="76" t="s">
+        <v>796</v>
+      </c>
+      <c r="D251" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E250" s="78"/>
-      <c r="F250" s="82" t="s">
-        <v>792</v>
-      </c>
-      <c r="G250" s="84">
+      <c r="E251" s="78"/>
+      <c r="F251" s="82" t="s">
+        <v>793</v>
+      </c>
+      <c r="G251" s="84">
         <v>7</v>
       </c>
-      <c r="H250" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="5">
+      <c r="H251" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="5">
         <v>744</v>
       </c>
-      <c r="B251" s="5" t="str">
+      <c r="B252" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2E8</v>
       </c>
-      <c r="C251" s="77"/>
-      <c r="D251" s="79"/>
-      <c r="E251" s="79"/>
-      <c r="F251" s="83"/>
-      <c r="G251" s="85"/>
-      <c r="H251" s="75"/>
-    </row>
-    <row r="252" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="5">
+      <c r="C252" s="77"/>
+      <c r="D252" s="79"/>
+      <c r="E252" s="79"/>
+      <c r="F252" s="83"/>
+      <c r="G252" s="85"/>
+      <c r="H252" s="75"/>
+    </row>
+    <row r="253" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="5">
         <v>746</v>
       </c>
-      <c r="B252" s="5" t="str">
+      <c r="B253" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2EA</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="D252" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E252" s="7" t="s">
+      <c r="C253" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="F252" s="8" t="s">
+      <c r="D253" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="G252" s="9">
-        <v>10</v>
-      </c>
-      <c r="H252" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="5">
+      <c r="F253" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="G253" s="9">
+        <v>10</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="5">
         <v>748</v>
       </c>
-      <c r="B253" s="5" t="str">
+      <c r="B254" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2EC</v>
       </c>
-      <c r="C253" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="D253" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E253" s="7" t="s">
+      <c r="C254" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="F253" s="8" t="s">
+      <c r="D254" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E254" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="G253" s="9">
-        <v>10</v>
-      </c>
-      <c r="H253" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="5">
+      <c r="F254" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="G254" s="9">
+        <v>10</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="5">
         <v>750</v>
       </c>
-      <c r="B254" s="5" t="str">
+      <c r="B255" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2EE</v>
       </c>
-      <c r="C254" s="76" t="s">
-        <v>799</v>
-      </c>
-      <c r="D254" s="78" t="s">
+      <c r="C255" s="76" t="s">
+        <v>800</v>
+      </c>
+      <c r="D255" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E254" s="78"/>
-      <c r="F254" s="82" t="s">
-        <v>800</v>
-      </c>
-      <c r="G254" s="84">
-        <v>10</v>
-      </c>
-      <c r="H254" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="5">
+      <c r="E255" s="78"/>
+      <c r="F255" s="82" t="s">
+        <v>801</v>
+      </c>
+      <c r="G255" s="84">
+        <v>10</v>
+      </c>
+      <c r="H255" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="5">
         <v>752</v>
       </c>
-      <c r="B255" s="5" t="str">
+      <c r="B256" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2F0</v>
       </c>
-      <c r="C255" s="77"/>
-      <c r="D255" s="79"/>
-      <c r="E255" s="79"/>
-      <c r="F255" s="83"/>
-      <c r="G255" s="85"/>
-      <c r="H255" s="75"/>
-    </row>
-    <row r="256" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="5">
+      <c r="C256" s="77"/>
+      <c r="D256" s="79"/>
+      <c r="E256" s="79"/>
+      <c r="F256" s="83"/>
+      <c r="G256" s="85"/>
+      <c r="H256" s="75"/>
+    </row>
+    <row r="257" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="5">
         <v>754</v>
       </c>
-      <c r="B256" s="5" t="str">
+      <c r="B257" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2F2</v>
       </c>
-      <c r="C256" s="76" t="s">
-        <v>801</v>
-      </c>
-      <c r="D256" s="78" t="s">
+      <c r="C257" s="76" t="s">
+        <v>802</v>
+      </c>
+      <c r="D257" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E256" s="78"/>
-      <c r="F256" s="82" t="s">
-        <v>802</v>
-      </c>
-      <c r="G256" s="84">
-        <v>10</v>
-      </c>
-      <c r="H256" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="5">
+      <c r="E257" s="78"/>
+      <c r="F257" s="82" t="s">
+        <v>803</v>
+      </c>
+      <c r="G257" s="84">
+        <v>10</v>
+      </c>
+      <c r="H257" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="5">
         <v>756</v>
       </c>
-      <c r="B257" s="5" t="str">
+      <c r="B258" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0x2F4</v>
       </c>
-      <c r="C257" s="77"/>
-      <c r="D257" s="79"/>
-      <c r="E257" s="79"/>
-      <c r="F257" s="83"/>
-      <c r="G257" s="85"/>
-      <c r="H257" s="75"/>
-    </row>
-    <row r="258" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="5">
-        <v>782</v>
-      </c>
-      <c r="B258" s="5" t="str">
-        <f t="shared" ref="B258:B271" si="10" xml:space="preserve"> "0x" &amp; DEC2HEX(A258)</f>
-        <v>0x30E</v>
-      </c>
-      <c r="C258" s="76" t="s">
-        <v>825</v>
-      </c>
-      <c r="D258" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E258" s="78"/>
-      <c r="F258" s="82" t="s">
-        <v>825</v>
-      </c>
-      <c r="G258" s="84">
-        <v>10</v>
-      </c>
-      <c r="H258" s="74" t="s">
-        <v>789</v>
-      </c>
+      <c r="C258" s="77"/>
+      <c r="D258" s="79"/>
+      <c r="E258" s="79"/>
+      <c r="F258" s="83"/>
+      <c r="G258" s="85"/>
+      <c r="H258" s="75"/>
     </row>
     <row r="259" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
+        <v>782</v>
+      </c>
+      <c r="B259" s="5" t="str">
+        <f t="shared" ref="B259:B272" si="10" xml:space="preserve"> "0x" &amp; DEC2HEX(A259)</f>
+        <v>0x30E</v>
+      </c>
+      <c r="C259" s="76" t="s">
+        <v>826</v>
+      </c>
+      <c r="D259" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E259" s="78"/>
+      <c r="F259" s="82" t="s">
+        <v>826</v>
+      </c>
+      <c r="G259" s="84">
+        <v>10</v>
+      </c>
+      <c r="H259" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="5">
         <v>784</v>
       </c>
-      <c r="B259" s="5" t="str">
+      <c r="B260" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x310</v>
       </c>
-      <c r="C259" s="77"/>
-      <c r="D259" s="79"/>
-      <c r="E259" s="79"/>
-      <c r="F259" s="83"/>
-      <c r="G259" s="85"/>
-      <c r="H259" s="75"/>
-    </row>
-    <row r="260" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="5">
+      <c r="C260" s="77"/>
+      <c r="D260" s="79"/>
+      <c r="E260" s="79"/>
+      <c r="F260" s="83"/>
+      <c r="G260" s="85"/>
+      <c r="H260" s="75"/>
+    </row>
+    <row r="261" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="5">
         <v>786</v>
       </c>
-      <c r="B260" s="5" t="str">
+      <c r="B261" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x312</v>
       </c>
-      <c r="C260" s="76" t="s">
-        <v>826</v>
-      </c>
-      <c r="D260" s="78" t="s">
+      <c r="C261" s="76" t="s">
+        <v>827</v>
+      </c>
+      <c r="D261" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E260" s="78"/>
-      <c r="F260" s="82" t="s">
-        <v>826</v>
-      </c>
-      <c r="G260" s="84">
-        <v>10</v>
-      </c>
-      <c r="H260" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="5">
+      <c r="E261" s="78"/>
+      <c r="F261" s="82" t="s">
+        <v>827</v>
+      </c>
+      <c r="G261" s="84">
+        <v>10</v>
+      </c>
+      <c r="H261" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="5">
         <v>788</v>
       </c>
-      <c r="B261" s="5" t="str">
+      <c r="B262" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x314</v>
       </c>
-      <c r="C261" s="77"/>
-      <c r="D261" s="79"/>
-      <c r="E261" s="79"/>
-      <c r="F261" s="83"/>
-      <c r="G261" s="85"/>
-      <c r="H261" s="75"/>
-    </row>
-    <row r="262" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="5">
+      <c r="C262" s="77"/>
+      <c r="D262" s="79"/>
+      <c r="E262" s="79"/>
+      <c r="F262" s="83"/>
+      <c r="G262" s="85"/>
+      <c r="H262" s="75"/>
+    </row>
+    <row r="263" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="5">
         <v>790</v>
       </c>
-      <c r="B262" s="5" t="str">
+      <c r="B263" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x316</v>
       </c>
-      <c r="C262" s="76" t="s">
-        <v>827</v>
-      </c>
-      <c r="D262" s="78" t="s">
+      <c r="C263" s="76" t="s">
+        <v>828</v>
+      </c>
+      <c r="D263" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E262" s="78"/>
-      <c r="F262" s="82" t="s">
-        <v>827</v>
-      </c>
-      <c r="G262" s="84">
-        <v>10</v>
-      </c>
-      <c r="H262" s="74" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="5">
+      <c r="E263" s="78"/>
+      <c r="F263" s="82" t="s">
+        <v>828</v>
+      </c>
+      <c r="G263" s="84">
+        <v>10</v>
+      </c>
+      <c r="H263" s="74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="5">
         <v>792</v>
       </c>
-      <c r="B263" s="5" t="str">
+      <c r="B264" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x318</v>
       </c>
-      <c r="C263" s="77"/>
-      <c r="D263" s="79"/>
-      <c r="E263" s="79"/>
-      <c r="F263" s="83"/>
-      <c r="G263" s="85"/>
-      <c r="H263" s="75"/>
-    </row>
-    <row r="264" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="5">
+      <c r="C264" s="77"/>
+      <c r="D264" s="79"/>
+      <c r="E264" s="79"/>
+      <c r="F264" s="83"/>
+      <c r="G264" s="85"/>
+      <c r="H264" s="75"/>
+    </row>
+    <row r="265" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="5">
         <v>826</v>
       </c>
-      <c r="B264" s="5" t="str">
+      <c r="B265" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x33A</v>
       </c>
-      <c r="C264" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="D264" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E264" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="F264" s="8" t="s">
+      <c r="C265" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="G264" s="9">
-        <v>10</v>
-      </c>
-      <c r="H264" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="5">
+      <c r="D265" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="G265" s="9">
+        <v>10</v>
+      </c>
+      <c r="H265" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="5">
         <v>834</v>
       </c>
-      <c r="B265" s="5" t="str">
+      <c r="B266" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x342</v>
       </c>
-      <c r="C265" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="D265" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E265" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="F265" s="8" t="s">
+      <c r="C266" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="G265" s="9">
-        <v>10</v>
-      </c>
-      <c r="H265" s="5" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="5">
+      <c r="D266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="G266" s="9">
+        <v>10</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="5">
         <v>836</v>
       </c>
-      <c r="B266" s="5" t="str">
+      <c r="B267" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x344</v>
       </c>
-      <c r="C266" s="76" t="s">
-        <v>830</v>
-      </c>
-      <c r="D266" s="78" t="s">
+      <c r="C267" s="76" t="s">
+        <v>831</v>
+      </c>
+      <c r="D267" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E266" s="78"/>
-      <c r="F266" s="82" t="s">
-        <v>831</v>
-      </c>
-      <c r="G266" s="84">
-        <v>10</v>
-      </c>
-      <c r="H266" s="74" t="s">
+      <c r="E267" s="78"/>
+      <c r="F267" s="82" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="5">
+      <c r="G267" s="84">
+        <v>10</v>
+      </c>
+      <c r="H267" s="74" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="5">
         <v>838</v>
       </c>
-      <c r="B267" s="5" t="str">
+      <c r="B268" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x346</v>
       </c>
-      <c r="C267" s="77"/>
-      <c r="D267" s="79"/>
-      <c r="E267" s="79"/>
-      <c r="F267" s="83"/>
-      <c r="G267" s="85"/>
-      <c r="H267" s="75"/>
-    </row>
-    <row r="268" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="5">
+      <c r="C268" s="77"/>
+      <c r="D268" s="79"/>
+      <c r="E268" s="79"/>
+      <c r="F268" s="83"/>
+      <c r="G268" s="85"/>
+      <c r="H268" s="75"/>
+    </row>
+    <row r="269" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="5">
         <v>840</v>
       </c>
-      <c r="B268" s="5" t="str">
+      <c r="B269" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x348</v>
       </c>
-      <c r="C268" s="76" t="s">
+      <c r="C269" s="76" t="s">
+        <v>834</v>
+      </c>
+      <c r="D269" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E269" s="78"/>
+      <c r="F269" s="82" t="s">
+        <v>835</v>
+      </c>
+      <c r="G269" s="84">
+        <v>10</v>
+      </c>
+      <c r="H269" s="74" t="s">
         <v>833</v>
       </c>
-      <c r="D268" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E268" s="78"/>
-      <c r="F268" s="82" t="s">
-        <v>834</v>
-      </c>
-      <c r="G268" s="84">
-        <v>10</v>
-      </c>
-      <c r="H268" s="74" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="5">
+    </row>
+    <row r="270" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="5">
         <v>842</v>
       </c>
-      <c r="B269" s="5" t="str">
+      <c r="B270" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x34A</v>
       </c>
-      <c r="C269" s="77"/>
-      <c r="D269" s="79"/>
-      <c r="E269" s="79"/>
-      <c r="F269" s="83"/>
-      <c r="G269" s="85"/>
-      <c r="H269" s="75"/>
-    </row>
-    <row r="270" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="5">
+      <c r="C270" s="77"/>
+      <c r="D270" s="79"/>
+      <c r="E270" s="79"/>
+      <c r="F270" s="83"/>
+      <c r="G270" s="85"/>
+      <c r="H270" s="75"/>
+    </row>
+    <row r="271" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="5">
         <v>844</v>
       </c>
-      <c r="B270" s="5" t="str">
+      <c r="B271" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x34C</v>
       </c>
-      <c r="C270" s="76" t="s">
-        <v>835</v>
-      </c>
-      <c r="D270" s="78" t="s">
+      <c r="C271" s="76" t="s">
+        <v>836</v>
+      </c>
+      <c r="D271" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E270" s="78"/>
-      <c r="F270" s="82" t="s">
-        <v>836</v>
-      </c>
-      <c r="G270" s="84">
-        <v>10</v>
-      </c>
-      <c r="H270" s="74" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="5">
+      <c r="E271" s="78"/>
+      <c r="F271" s="82" t="s">
+        <v>837</v>
+      </c>
+      <c r="G271" s="84">
+        <v>10</v>
+      </c>
+      <c r="H271" s="74" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="5">
         <v>846</v>
       </c>
-      <c r="B271" s="5" t="str">
+      <c r="B272" s="5" t="str">
         <f t="shared" si="10"/>
         <v>0x34E</v>
       </c>
-      <c r="C271" s="77"/>
-      <c r="D271" s="79"/>
-      <c r="E271" s="79"/>
-      <c r="F271" s="83"/>
-      <c r="G271" s="85"/>
-      <c r="H271" s="75"/>
-    </row>
-    <row r="272" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="5">
-        <v>848</v>
-      </c>
-      <c r="B272" s="5" t="str">
-        <f xml:space="preserve"> "0x" &amp; DEC2HEX(A272)</f>
-        <v>0x350</v>
-      </c>
-      <c r="C272" s="76" t="s">
-        <v>837</v>
-      </c>
-      <c r="D272" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E272" s="78"/>
-      <c r="F272" s="82" t="s">
-        <v>838</v>
-      </c>
-      <c r="G272" s="84">
-        <v>10</v>
-      </c>
-      <c r="H272" s="74" t="s">
-        <v>832</v>
-      </c>
+      <c r="C272" s="77"/>
+      <c r="D272" s="79"/>
+      <c r="E272" s="79"/>
+      <c r="F272" s="83"/>
+      <c r="G272" s="85"/>
+      <c r="H272" s="75"/>
     </row>
     <row r="273" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B273" s="5" t="str">
         <f xml:space="preserve"> "0x" &amp; DEC2HEX(A273)</f>
-        <v>0x352</v>
-      </c>
-      <c r="C273" s="77"/>
-      <c r="D273" s="79"/>
-      <c r="E273" s="79"/>
-      <c r="F273" s="83"/>
-      <c r="G273" s="85"/>
-      <c r="H273" s="75"/>
+        <v>0x350</v>
+      </c>
+      <c r="C273" s="76" t="s">
+        <v>838</v>
+      </c>
+      <c r="D273" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E273" s="78"/>
+      <c r="F273" s="82" t="s">
+        <v>839</v>
+      </c>
+      <c r="G273" s="84">
+        <v>10</v>
+      </c>
+      <c r="H273" s="74" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="274" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B274" s="5" t="str">
         <f xml:space="preserve"> "0x" &amp; DEC2HEX(A274)</f>
-        <v>0x354</v>
-      </c>
-      <c r="C274" s="49" t="s">
-        <v>878</v>
-      </c>
-      <c r="D274" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E274" s="50" t="s">
-        <v>786</v>
-      </c>
-      <c r="F274" s="51" t="s">
-        <v>879</v>
-      </c>
-      <c r="G274" s="52">
-        <v>10</v>
-      </c>
-      <c r="H274" s="54" t="s">
-        <v>789</v>
-      </c>
+        <v>0x352</v>
+      </c>
+      <c r="C274" s="77"/>
+      <c r="D274" s="79"/>
+      <c r="E274" s="79"/>
+      <c r="F274" s="83"/>
+      <c r="G274" s="85"/>
+      <c r="H274" s="75"/>
     </row>
     <row r="275" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
-        <v>1030</v>
+        <v>852</v>
       </c>
       <c r="B275" s="5" t="str">
-        <f t="shared" ref="B275:B280" si="11" xml:space="preserve"> "0x" &amp; DEC2HEX(A275)</f>
-        <v>0x406</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>840</v>
+        <f xml:space="preserve"> "0x" &amp; DEC2HEX(A275)</f>
+        <v>0x354</v>
+      </c>
+      <c r="C275" s="49" t="s">
+        <v>879</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E275" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F275" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="G275" s="9">
-        <v>10</v>
-      </c>
-      <c r="H275" s="5" t="s">
-        <v>839</v>
+      <c r="E275" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="F275" s="51" t="s">
+        <v>880</v>
+      </c>
+      <c r="G275" s="52">
+        <v>10</v>
+      </c>
+      <c r="H275" s="54" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5">
+        <v>1030</v>
+      </c>
+      <c r="B276" s="5" t="str">
+        <f t="shared" ref="B276:B281" si="11" xml:space="preserve"> "0x" &amp; DEC2HEX(A276)</f>
+        <v>0x406</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="F276" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="G276" s="9">
+        <v>10</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="5">
         <v>1032</v>
       </c>
-      <c r="B276" s="5" t="str">
+      <c r="B277" s="5" t="str">
         <f t="shared" si="11"/>
         <v>0x408</v>
       </c>
-      <c r="C276" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="D276" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E276" s="12" t="s">
+      <c r="C277" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E277" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F276" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="G276" s="9">
-        <v>10</v>
-      </c>
-      <c r="H276" s="5" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="5">
+      <c r="F277" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="G277" s="9">
+        <v>10</v>
+      </c>
+      <c r="H277" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="5">
         <v>1034</v>
       </c>
-      <c r="B277" s="5" t="str">
+      <c r="B278" s="5" t="str">
         <f t="shared" si="11"/>
         <v>0x40A</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="D277" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E277" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="F277" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="G277" s="9">
-        <v>10</v>
-      </c>
-      <c r="H277" s="5" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="5">
+      <c r="C278" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F278" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="G278" s="9">
+        <v>10</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="5">
         <v>1036</v>
       </c>
-      <c r="B278" s="5" t="str">
+      <c r="B279" s="5" t="str">
         <f t="shared" si="11"/>
         <v>0x40C</v>
       </c>
-      <c r="C278" s="76" t="s">
-        <v>863</v>
-      </c>
-      <c r="D278" s="78" t="s">
+      <c r="C279" s="76" t="s">
+        <v>864</v>
+      </c>
+      <c r="D279" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E278" s="80" t="s">
-        <v>845</v>
-      </c>
-      <c r="F278" s="82" t="s">
+      <c r="E279" s="80" t="s">
         <v>846</v>
       </c>
-      <c r="G278" s="84">
-        <v>10</v>
-      </c>
-      <c r="H278" s="74" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="5">
+      <c r="F279" s="82" t="s">
+        <v>847</v>
+      </c>
+      <c r="G279" s="84">
+        <v>10</v>
+      </c>
+      <c r="H279" s="74" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="5">
         <v>1034</v>
       </c>
-      <c r="B279" s="5" t="str">
+      <c r="B280" s="5" t="str">
         <f t="shared" si="11"/>
         <v>0x40A</v>
       </c>
-      <c r="C279" s="77"/>
-      <c r="D279" s="79"/>
-      <c r="E279" s="81"/>
-      <c r="F279" s="83"/>
-      <c r="G279" s="85"/>
-      <c r="H279" s="75"/>
-    </row>
-    <row r="280" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="5">
+      <c r="C280" s="77"/>
+      <c r="D280" s="79"/>
+      <c r="E280" s="81"/>
+      <c r="F280" s="83"/>
+      <c r="G280" s="85"/>
+      <c r="H280" s="75"/>
+    </row>
+    <row r="281" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="5">
         <v>1040</v>
       </c>
-      <c r="B280" s="5" t="str">
+      <c r="B281" s="5" t="str">
         <f t="shared" si="11"/>
         <v>0x410</v>
       </c>
-      <c r="C280" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="D280" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="E280" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="F280" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="G280" s="9">
-        <v>10</v>
-      </c>
-      <c r="H280" s="5" t="s">
-        <v>839</v>
+      <c r="C281" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="E281" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F281" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="G281" s="9">
+        <v>10</v>
+      </c>
+      <c r="H281" s="5" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -11019,320 +11057,320 @@
     <sortCondition ref="A4:A204"/>
   </sortState>
   <mergeCells count="428">
-    <mergeCell ref="H270:H271"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="D272:D273"/>
-    <mergeCell ref="E272:E273"/>
-    <mergeCell ref="F272:F273"/>
-    <mergeCell ref="G272:G273"/>
-    <mergeCell ref="H272:H273"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="D270:D271"/>
-    <mergeCell ref="E270:E271"/>
-    <mergeCell ref="F270:F271"/>
-    <mergeCell ref="G270:G271"/>
-    <mergeCell ref="H266:H267"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="F268:F269"/>
-    <mergeCell ref="G268:G269"/>
-    <mergeCell ref="H268:H269"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="F266:F267"/>
-    <mergeCell ref="G266:G267"/>
-    <mergeCell ref="H260:H261"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="E262:E263"/>
-    <mergeCell ref="F262:F263"/>
-    <mergeCell ref="G262:G263"/>
-    <mergeCell ref="H262:H263"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="F260:F261"/>
-    <mergeCell ref="G260:G261"/>
-    <mergeCell ref="H256:H257"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="D258:D259"/>
-    <mergeCell ref="E258:E259"/>
-    <mergeCell ref="F258:F259"/>
-    <mergeCell ref="G258:G259"/>
-    <mergeCell ref="H258:H259"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="E256:E257"/>
-    <mergeCell ref="F256:F257"/>
-    <mergeCell ref="G256:G257"/>
-    <mergeCell ref="H250:H251"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="G254:G255"/>
-    <mergeCell ref="H254:H255"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="F250:F251"/>
-    <mergeCell ref="E250:E251"/>
-    <mergeCell ref="G250:G251"/>
-    <mergeCell ref="H246:H247"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="E248:E249"/>
-    <mergeCell ref="F248:F249"/>
-    <mergeCell ref="G248:G249"/>
-    <mergeCell ref="H248:H249"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="F246:F247"/>
-    <mergeCell ref="G246:G247"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="E241:E242"/>
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="G241:G242"/>
-    <mergeCell ref="H237:H238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="E239:E240"/>
-    <mergeCell ref="F239:F240"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="E237:E238"/>
-    <mergeCell ref="F237:F238"/>
-    <mergeCell ref="G237:G238"/>
-    <mergeCell ref="H233:H234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="E235:E236"/>
-    <mergeCell ref="F235:F236"/>
-    <mergeCell ref="G235:G236"/>
-    <mergeCell ref="H235:H236"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="E233:E234"/>
-    <mergeCell ref="F233:F234"/>
-    <mergeCell ref="G233:G234"/>
-    <mergeCell ref="H229:H230"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="F231:F232"/>
-    <mergeCell ref="G231:G232"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="F229:F230"/>
-    <mergeCell ref="G229:G230"/>
-    <mergeCell ref="H218:H219"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="E220:E221"/>
-    <mergeCell ref="F220:F221"/>
-    <mergeCell ref="G220:G221"/>
-    <mergeCell ref="H220:H221"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="G218:G219"/>
-    <mergeCell ref="H216:H217"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="G198:G199"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="G216:G217"/>
-    <mergeCell ref="H212:H213"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="G214:G215"/>
-    <mergeCell ref="H214:H215"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="G212:G213"/>
-    <mergeCell ref="H208:H209"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="G210:G211"/>
-    <mergeCell ref="H210:H211"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="H204:H205"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="G206:G207"/>
-    <mergeCell ref="H206:H207"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="G204:G205"/>
-    <mergeCell ref="H200:H201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="G202:G203"/>
-    <mergeCell ref="H202:H203"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="H196:H197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="G196:G197"/>
-    <mergeCell ref="H192:H193"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="G194:G195"/>
-    <mergeCell ref="H194:H195"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="G192:G193"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="H190:H191"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="H184:H185"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="G186:G187"/>
-    <mergeCell ref="H186:H187"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="G182:G183"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="G180:G181"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="G164:G165"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="G162:G163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="G160:G161"/>
+    <mergeCell ref="H271:H272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="F273:F274"/>
+    <mergeCell ref="G273:G274"/>
+    <mergeCell ref="H273:H274"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="F271:F272"/>
+    <mergeCell ref="G271:G272"/>
+    <mergeCell ref="H267:H268"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="E269:E270"/>
+    <mergeCell ref="F269:F270"/>
+    <mergeCell ref="G269:G270"/>
+    <mergeCell ref="H269:H270"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="E267:E268"/>
+    <mergeCell ref="F267:F268"/>
+    <mergeCell ref="G267:G268"/>
+    <mergeCell ref="H261:H262"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="E263:E264"/>
+    <mergeCell ref="F263:F264"/>
+    <mergeCell ref="G263:G264"/>
+    <mergeCell ref="H263:H264"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="E261:E262"/>
+    <mergeCell ref="F261:F262"/>
+    <mergeCell ref="G261:G262"/>
+    <mergeCell ref="H257:H258"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="E259:E260"/>
+    <mergeCell ref="F259:F260"/>
+    <mergeCell ref="G259:G260"/>
+    <mergeCell ref="H259:H260"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="E257:E258"/>
+    <mergeCell ref="F257:F258"/>
+    <mergeCell ref="G257:G258"/>
+    <mergeCell ref="H251:H252"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="F255:F256"/>
+    <mergeCell ref="G255:G256"/>
+    <mergeCell ref="H255:H256"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="F251:F252"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="G251:G252"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="F249:F250"/>
+    <mergeCell ref="G249:G250"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="E247:E248"/>
+    <mergeCell ref="F247:F248"/>
+    <mergeCell ref="G247:G248"/>
+    <mergeCell ref="H242:H243"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="E244:E245"/>
+    <mergeCell ref="F244:F245"/>
+    <mergeCell ref="G244:G245"/>
+    <mergeCell ref="H244:H245"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="D242:D243"/>
+    <mergeCell ref="E242:E243"/>
+    <mergeCell ref="F242:F243"/>
+    <mergeCell ref="G242:G243"/>
+    <mergeCell ref="H238:H239"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="G240:G241"/>
+    <mergeCell ref="H240:H241"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="F238:F239"/>
+    <mergeCell ref="G238:G239"/>
+    <mergeCell ref="H234:H235"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="G236:G237"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="F234:F235"/>
+    <mergeCell ref="G234:G235"/>
+    <mergeCell ref="H230:H231"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="G232:G233"/>
+    <mergeCell ref="H232:H233"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="D230:D231"/>
+    <mergeCell ref="E230:E231"/>
+    <mergeCell ref="F230:F231"/>
+    <mergeCell ref="G230:G231"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="H177:H178"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
     <mergeCell ref="G96:G97"/>
     <mergeCell ref="H96:H97"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="G158:G159"/>
-    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="H159:H160"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="D96:D97"/>
     <mergeCell ref="E96:E97"/>
@@ -11431,12 +11469,12 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="E278:E279"/>
-    <mergeCell ref="F278:F279"/>
-    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="H279:H280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="F279:F280"/>
+    <mergeCell ref="G279:G280"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="D59:D60"/>
@@ -11448,12 +11486,12 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
   </mergeCells>
-  <conditionalFormatting sqref="D222">
+  <conditionalFormatting sqref="D223">
     <cfRule type="containsText" dxfId="66" priority="54" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D222)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D223)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D222)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
@@ -11474,30 +11512,30 @@
       <formula>NOT(ISERROR(SEARCH("uint16",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D223">
+  <conditionalFormatting sqref="D224">
     <cfRule type="containsText" dxfId="60" priority="50" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D223)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D224)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D223">
+  <conditionalFormatting sqref="D224">
     <cfRule type="containsText" dxfId="59" priority="51" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D223)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D224)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="52" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D223)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D224)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D118:D157">
+  <conditionalFormatting sqref="D118:D158">
     <cfRule type="containsText" dxfId="57" priority="83" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D118)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D224">
+  <conditionalFormatting sqref="D225">
     <cfRule type="containsText" dxfId="56" priority="47" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D224)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D225)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D118:D157">
+  <conditionalFormatting sqref="D118:D158">
     <cfRule type="containsText" dxfId="55" priority="84" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D118)))</formula>
     </cfRule>
@@ -11505,212 +11543,212 @@
       <formula>NOT(ISERROR(SEARCH("uint16",D118)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D158 D160 D162 D164 D166 D168 D170 D172 D174 D176 D178 D180 D182 D184 D186 D188 D190 D192 D194 D196 D198 D200 D202 D204 D206 D208 D210 D212 D214 D216">
+  <conditionalFormatting sqref="D159 D161 D163 D165 D167 D169 D171 D173 D175 D177 D179 D181 D183 D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209 D211 D213 D215 D217">
     <cfRule type="containsText" dxfId="53" priority="80" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D158)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D159)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D158 D160 D162 D164 D166 D168 D170 D172 D174 D176 D178 D180 D182 D184 D186 D188 D190 D192 D194 D196 D198 D200 D202 D204 D206 D208 D210 D212 D214 D216">
+  <conditionalFormatting sqref="D159 D161 D163 D165 D167 D169 D171 D173 D175 D177 D179 D181 D183 D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209 D211 D213 D215 D217">
     <cfRule type="containsText" dxfId="52" priority="81" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D158)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D159)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="82" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D158)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D159)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
+  <conditionalFormatting sqref="D219">
     <cfRule type="containsText" dxfId="50" priority="59" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D218)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D219)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
+  <conditionalFormatting sqref="D219">
     <cfRule type="containsText" dxfId="49" priority="60" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D218)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D219)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="61" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D218)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D219)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D220">
+  <conditionalFormatting sqref="D221">
     <cfRule type="containsText" dxfId="47" priority="56" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D220)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D221)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D220">
+  <conditionalFormatting sqref="D221">
     <cfRule type="containsText" dxfId="46" priority="57" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D220)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D221)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="58" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D220)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D221)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D222">
+  <conditionalFormatting sqref="D223">
     <cfRule type="containsText" dxfId="44" priority="53" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D222)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D224">
-    <cfRule type="containsText" dxfId="43" priority="48" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D224)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="49" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D224)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D225">
-    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D225)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D225">
-    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="43" priority="48" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="46" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="42" priority="49" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D226">
-    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D226">
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="39" priority="46" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D227">
-    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D227">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D228">
-    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D228">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D229">
-    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D229">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D229)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D231 D233 D235 D237">
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D231)))</formula>
+  <conditionalFormatting sqref="D230">
+    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D230)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D231 D233 D235 D237">
+  <conditionalFormatting sqref="D230">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D230)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D230)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D232 D234 D236 D238">
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D232)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D232 D234 D236 D238">
     <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D231)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D232)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D231)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D232)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D239 D241 D243 D245:D246 D248 D250 D252:D253">
+  <conditionalFormatting sqref="D240 D242 D244 D246:D247 D249 D251 D253:D254">
     <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D239)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D240)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D239 D241 D243 D245:D246 D248 D250 D252:D253">
+  <conditionalFormatting sqref="D240 D242 D244 D246:D247 D249 D251 D253:D254">
     <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D239)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D239)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D240)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D254 D256 D258 D260 D262 D264">
+  <conditionalFormatting sqref="D255 D257 D259 D261 D263 D265">
     <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D254)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D255)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D254 D256 D258 D260 D262 D264">
+  <conditionalFormatting sqref="D255 D257 D259 D261 D263 D265">
     <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D254)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D255)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D254)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D255)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D265:D266 D268 D270 D272">
+  <conditionalFormatting sqref="D266:D267 D269 D271 D273">
     <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D265)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D266)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D265:D266 D268 D270 D272">
+  <conditionalFormatting sqref="D266:D267 D269 D271 D273">
     <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D265)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D266)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D265)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D266)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D275:D277 D280">
+  <conditionalFormatting sqref="D276:D278 D281">
     <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D276)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D276:D278 D281">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D276)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D276)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D279">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D279)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D279">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D279)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D279)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D275">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D275)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D275:D277 D280">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="float">
+  <conditionalFormatting sqref="D275">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D275)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D275)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D278">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D278)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D278">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D278)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D278)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D274">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D274)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D274">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D274)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -11739,8 +11777,8 @@
     <hyperlink ref="E119" location="Region_Code" display="see notes"/>
     <hyperlink ref="E115" location="Retransmission" display="see notes"/>
     <hyperlink ref="E50" location="Microcontroller_Types" display="see notes"/>
-    <hyperlink ref="E276" location="'Config Values'!A388" display="see notes"/>
-    <hyperlink ref="E278" location="'Config Values'!A398" display="&gt;= 0x20000"/>
+    <hyperlink ref="E277" location="'Config Values'!A388" display="see notes"/>
+    <hyperlink ref="E279" location="'Config Values'!A398" display="&gt;= 0x20000"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11771,7 +11809,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -11802,7 +11840,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11841,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="74" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11874,16 +11912,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G6" s="9">
         <v>3.34</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11908,7 +11946,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11933,7 +11971,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11960,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11987,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12014,7 +12052,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12041,7 +12079,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12068,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12095,7 +12133,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12122,7 +12160,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12147,7 +12185,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12172,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12197,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12224,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12249,7 +12287,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12274,7 +12312,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12299,7 +12337,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12324,7 +12362,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12364,7 +12402,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12404,7 +12442,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12429,7 +12467,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12454,7 +12492,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12494,7 +12532,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12534,7 +12572,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12559,7 +12597,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12584,7 +12622,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12624,7 +12662,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12664,7 +12702,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12689,7 +12727,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12714,7 +12752,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12754,7 +12792,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12794,7 +12832,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12819,7 +12857,7 @@
         <v>3</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12844,7 +12882,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12884,7 +12922,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12924,7 +12962,7 @@
         <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12949,7 +12987,7 @@
         <v>3</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -12974,7 +13012,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13014,7 +13052,7 @@
         <v>3</v>
       </c>
       <c r="H55" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13054,7 +13092,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13079,7 +13117,7 @@
         <v>3</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13104,7 +13142,7 @@
         <v>3</v>
       </c>
       <c r="H59" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13144,7 +13182,7 @@
         <v>3</v>
       </c>
       <c r="H61" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13184,7 +13222,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13209,7 +13247,7 @@
         <v>3</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13234,7 +13272,7 @@
         <v>3</v>
       </c>
       <c r="H65" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13274,7 +13312,7 @@
         <v>3</v>
       </c>
       <c r="H67" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13316,7 +13354,7 @@
         <v>3</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13341,7 +13379,7 @@
         <v>3</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13368,7 +13406,7 @@
         <v>3</v>
       </c>
       <c r="H71" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13410,7 +13448,7 @@
         <v>3</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13435,7 +13473,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13462,7 +13500,7 @@
         <v>3</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13487,7 +13525,7 @@
         <v>2.27</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13512,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13530,16 +13568,16 @@
         <v>10</v>
       </c>
       <c r="E78" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>775</v>
-      </c>
       <c r="G78" s="9">
         <v>1</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13564,7 +13602,7 @@
         <v>3</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13591,7 +13629,7 @@
         <v>3</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13616,7 +13654,7 @@
         <v>3</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13643,7 +13681,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13668,7 +13706,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13695,7 +13733,7 @@
         <v>3</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13720,7 +13758,7 @@
         <v>3</v>
       </c>
       <c r="H85" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13760,7 +13798,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13802,7 +13840,7 @@
         <v>3</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13814,22 +13852,22 @@
         <v>0x406</v>
       </c>
       <c r="C90" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="G90" s="9">
+        <v>10</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>840</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="G90" s="9">
-        <v>10</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13841,7 +13879,7 @@
         <v>0x408</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>10</v>
@@ -13850,13 +13888,13 @@
         <v>11</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G91" s="9">
         <v>10</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13868,22 +13906,22 @@
         <v>0x40A</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G92" s="9">
         <v>10</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13895,22 +13933,22 @@
         <v>0x40C</v>
       </c>
       <c r="C93" s="76" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D93" s="78" t="s">
         <v>7</v>
       </c>
       <c r="E93" s="80" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F93" s="82" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G93" s="84">
         <v>10</v>
       </c>
       <c r="H93" s="74" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13937,22 +13975,22 @@
         <v>0x410</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G95" s="9">
         <v>10</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -14146,8 +14184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292:B292"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A398" sqref="A398:C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15374,13 +15412,13 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="139" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B152" s="140"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="115" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B153" s="116"/>
     </row>
@@ -16367,7 +16405,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="133" t="s">
-        <v>544</v>
+        <v>701</v>
       </c>
       <c r="B292" s="134"/>
       <c r="C292" s="27"/>
@@ -16381,14 +16419,14 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="36" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B294" s="29"/>
       <c r="C294" s="27"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="99" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B295" s="100"/>
       <c r="C295" s="101"/>
@@ -16402,7 +16440,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="127" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B297" s="128"/>
       <c r="C297" s="27"/>
@@ -16414,28 +16452,28 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="127" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B299" s="128"/>
       <c r="C299" s="27"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="130" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B300" s="131"/>
       <c r="C300" s="28"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="102" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B303" s="103"/>
       <c r="C303" s="104"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="105" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B304" s="106"/>
       <c r="C304" s="107"/>
@@ -16447,7 +16485,7 @@
     </row>
     <row r="306" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="99" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B306" s="100"/>
       <c r="C306" s="101"/>
@@ -16461,14 +16499,14 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="127" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B308" s="128"/>
       <c r="C308" s="129"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="130" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B309" s="131"/>
       <c r="C309" s="132"/>
@@ -16482,7 +16520,7 @@
     </row>
     <row r="313" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="96" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B313" s="97"/>
       <c r="C313" s="98"/>
@@ -16508,14 +16546,14 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="121" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B319" s="122"/>
       <c r="C319" s="123"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="124" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B320" s="125"/>
       <c r="C320" s="126"/>
@@ -16527,14 +16565,14 @@
     </row>
     <row r="322" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="99" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B322" s="100"/>
       <c r="C322" s="101"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="40" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B323" s="17"/>
       <c r="C323" s="27"/>
@@ -16546,28 +16584,28 @@
     </row>
     <row r="325" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="99" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B325" s="100"/>
       <c r="C325" s="101"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="117" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B326" s="118"/>
       <c r="C326" s="119"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="102" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B329" s="103"/>
       <c r="C329" s="104"/>
     </row>
     <row r="330" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="120" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B330" s="108"/>
       <c r="C330" s="109"/>
@@ -16579,7 +16617,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="121" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B332" s="122"/>
       <c r="C332" s="123"/>
@@ -16591,7 +16629,7 @@
     </row>
     <row r="334" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="99" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B334" s="100"/>
       <c r="C334" s="101"/>
@@ -16603,7 +16641,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="121" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B336" s="122"/>
       <c r="C336" s="123"/>
@@ -16619,25 +16657,25 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="24" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B338" s="17" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C338" s="27"/>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="B339" s="17" t="s">
         <v>725</v>
-      </c>
-      <c r="B339" s="17" t="s">
-        <v>724</v>
       </c>
       <c r="C339" s="27"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="24" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B340" s="17" t="s">
         <v>52</v>
@@ -16646,7 +16684,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="24" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B341" s="17" t="s">
         <v>52</v>
@@ -16660,14 +16698,14 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="112" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B343" s="113"/>
       <c r="C343" s="114"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="105" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B344" s="106"/>
       <c r="C344" s="107"/>
@@ -16688,10 +16726,10 @@
         <v>0</v>
       </c>
       <c r="B346" s="41" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C346" s="27" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -16699,10 +16737,10 @@
         <v>4</v>
       </c>
       <c r="B347" s="41" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C347" s="27" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -16712,14 +16750,14 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="112" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B349" s="113"/>
       <c r="C349" s="114"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="105" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B350" s="106"/>
       <c r="C350" s="107"/>
@@ -16740,10 +16778,10 @@
         <v>0</v>
       </c>
       <c r="B352" s="17" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C352" s="27" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -16751,10 +16789,10 @@
         <v>1</v>
       </c>
       <c r="B353" s="17" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C353" s="27" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -16762,7 +16800,7 @@
         <v>2</v>
       </c>
       <c r="B354" s="17" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C354" s="27"/>
     </row>
@@ -16771,7 +16809,7 @@
         <v>3</v>
       </c>
       <c r="B355" s="17" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C355" s="27"/>
     </row>
@@ -16780,7 +16818,7 @@
         <v>4</v>
       </c>
       <c r="B356" s="17" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C356" s="27"/>
     </row>
@@ -16789,7 +16827,7 @@
         <v>5</v>
       </c>
       <c r="B357" s="17" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C357" s="27"/>
     </row>
@@ -16798,7 +16836,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C358" s="27"/>
     </row>
@@ -16807,7 +16845,7 @@
         <v>7</v>
       </c>
       <c r="B359" s="17" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C359" s="27"/>
     </row>
@@ -16816,7 +16854,7 @@
         <v>8</v>
       </c>
       <c r="B360" s="17" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C360" s="27"/>
     </row>
@@ -16825,7 +16863,7 @@
         <v>9</v>
       </c>
       <c r="B361" s="17" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C361" s="27"/>
     </row>
@@ -16834,7 +16872,7 @@
         <v>10</v>
       </c>
       <c r="B362" s="17" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C362" s="27"/>
     </row>
@@ -16843,7 +16881,7 @@
         <v>11</v>
       </c>
       <c r="B363" s="17" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C363" s="27"/>
     </row>
@@ -16852,7 +16890,7 @@
         <v>12</v>
       </c>
       <c r="B364" s="17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C364" s="27"/>
     </row>
@@ -16861,7 +16899,7 @@
         <v>13</v>
       </c>
       <c r="B365" s="17" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C365" s="27"/>
     </row>
@@ -16870,7 +16908,7 @@
         <v>14</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C366" s="27"/>
     </row>
@@ -16879,7 +16917,7 @@
         <v>15</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C367" s="27"/>
     </row>
@@ -16888,7 +16926,7 @@
         <v>16</v>
       </c>
       <c r="B368" s="17" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C368" s="27"/>
     </row>
@@ -16897,7 +16935,7 @@
         <v>17</v>
       </c>
       <c r="B369" s="17" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C369" s="27"/>
     </row>
@@ -16906,7 +16944,7 @@
         <v>18</v>
       </c>
       <c r="B370" s="17" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C370" s="27"/>
     </row>
@@ -16915,7 +16953,7 @@
         <v>19</v>
       </c>
       <c r="B371" s="17" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C371" s="27"/>
     </row>
@@ -16924,7 +16962,7 @@
         <v>20</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C372" s="27"/>
     </row>
@@ -16933,7 +16971,7 @@
         <v>21</v>
       </c>
       <c r="B373" s="17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C373" s="27"/>
     </row>
@@ -16942,7 +16980,7 @@
         <v>22</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C374" s="27"/>
     </row>
@@ -16951,7 +16989,7 @@
         <v>23</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C375" s="27"/>
     </row>
@@ -16960,7 +16998,7 @@
         <v>24</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C376" s="27"/>
     </row>
@@ -16969,7 +17007,7 @@
         <v>25</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C377" s="27"/>
     </row>
@@ -16978,7 +17016,7 @@
         <v>26</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C378" s="27"/>
     </row>
@@ -16987,7 +17025,7 @@
         <v>27</v>
       </c>
       <c r="B379" s="17" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C379" s="27"/>
     </row>
@@ -16996,7 +17034,7 @@
         <v>28</v>
       </c>
       <c r="B380" s="17" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C380" s="27"/>
     </row>
@@ -17005,7 +17043,7 @@
         <v>29</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C381" s="27"/>
     </row>
@@ -17014,7 +17052,7 @@
         <v>30</v>
       </c>
       <c r="B382" s="17" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C382" s="27"/>
     </row>
@@ -17023,7 +17061,7 @@
         <v>31</v>
       </c>
       <c r="B383" s="17" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C383" s="27"/>
     </row>
@@ -17032,7 +17070,7 @@
         <v>32</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C384" s="27"/>
     </row>
@@ -17041,7 +17079,7 @@
         <v>33</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C385" s="27"/>
     </row>
@@ -17050,34 +17088,34 @@
         <v>34</v>
       </c>
       <c r="B386" s="18" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C386" s="28"/>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="102" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B388" s="103"/>
       <c r="C388" s="104"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="105" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B389" s="106"/>
       <c r="C389" s="107"/>
     </row>
     <row r="390" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="99" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B390" s="100"/>
       <c r="C390" s="101"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="22" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B391" s="110" t="s">
         <v>4</v>
@@ -17086,37 +17124,37 @@
     </row>
     <row r="392" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="48" t="s">
+        <v>856</v>
+      </c>
+      <c r="B392" s="108" t="s">
         <v>855</v>
-      </c>
-      <c r="B392" s="108" t="s">
-        <v>854</v>
       </c>
       <c r="C392" s="109"/>
     </row>
     <row r="393" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="48" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B393" s="108" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C393" s="109"/>
     </row>
     <row r="394" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="48" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B394" s="108" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C394" s="109"/>
     </row>
     <row r="395" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="48" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B395" s="108" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C395" s="109"/>
     </row>
@@ -17127,49 +17165,49 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="102" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B398" s="103"/>
       <c r="C398" s="104"/>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="105" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B399" s="106"/>
       <c r="C399" s="107"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="105" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B400" s="106"/>
       <c r="C400" s="107"/>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="99" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B401" s="100"/>
       <c r="C401" s="101"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="99" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B402" s="100"/>
       <c r="C402" s="101"/>
     </row>
     <row r="403" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="99" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B403" s="100"/>
       <c r="C403" s="101"/>
     </row>
     <row r="404" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="99" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B404" s="100"/>
       <c r="C404" s="101"/>

--- a/Wireless/LORD MicroStrain Wireless Configuration.xlsx
+++ b/Wireless/LORD MicroStrain Wireless Configuration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Wireless Node Config" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="992">
   <si>
     <t>EEPROM Address</t>
   </si>
@@ -3894,7 +3894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4167,9 +4167,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4192,16 +4189,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4210,16 +4213,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4258,11 +4255,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4271,22 +4268,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4300,22 +4291,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4325,90 +4307,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4431,6 +4329,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5093,8 +5084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A478" sqref="A478:E478"/>
       <selection pane="bottomLeft" activeCell="C63" sqref="C63:C64"/>
     </sheetView>
@@ -5105,43 +5096,43 @@
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="120" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="102" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="101" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>990</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="112" t="s">
         <v>767</v>
       </c>
     </row>
@@ -5152,12 +5143,12 @@
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="114"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="113"/>
     </row>
     <row r="4" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5177,7 +5168,7 @@
       <c r="F4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="97">
+      <c r="G4" s="96">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -5202,7 +5193,7 @@
       <c r="F5" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="97">
+      <c r="G5" s="96">
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -5227,7 +5218,7 @@
       <c r="F6" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="97">
+      <c r="G6" s="96">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -5250,7 +5241,7 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="97">
+      <c r="G7" s="96">
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -5273,7 +5264,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="97">
+      <c r="G8" s="96">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -5296,7 +5287,7 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="97">
+      <c r="G9" s="96">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -5323,7 +5314,7 @@
       <c r="F10" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="96">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -5350,7 +5341,7 @@
       <c r="F11" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="96">
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -5375,7 +5366,7 @@
       <c r="F12" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="96">
         <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -5402,7 +5393,7 @@
       <c r="F13" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="97">
+      <c r="G13" s="96">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -5417,20 +5408,20 @@
         <f t="shared" si="0"/>
         <v>0x14</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="127"/>
-      <c r="F14" s="107" t="s">
+      <c r="E14" s="126"/>
+      <c r="F14" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="103">
+      <c r="G14" s="110">
         <v>1</v>
       </c>
-      <c r="H14" s="105" t="s">
+      <c r="H14" s="102" t="s">
         <v>772</v>
       </c>
     </row>
@@ -5442,12 +5433,12 @@
         <f t="shared" si="0"/>
         <v>0x16</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="106"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -5469,7 +5460,7 @@
       <c r="F16" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="97">
+      <c r="G16" s="96">
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -5494,7 +5485,7 @@
       <c r="F17" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="97">
+      <c r="G17" s="96">
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -5519,7 +5510,7 @@
       <c r="F18" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="97">
+      <c r="G18" s="96">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -5544,7 +5535,7 @@
       <c r="F19" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="97">
+      <c r="G19" s="96">
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -5569,7 +5560,7 @@
       <c r="F20" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="97">
+      <c r="G20" s="96">
         <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -5596,7 +5587,7 @@
       <c r="F21" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G21" s="97">
+      <c r="G21" s="96">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -5621,7 +5612,7 @@
       <c r="F22" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="97">
+      <c r="G22" s="96">
         <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -5648,7 +5639,7 @@
       <c r="F23" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="G23" s="97">
+      <c r="G23" s="96">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -5675,7 +5666,7 @@
       <c r="F24" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="97">
+      <c r="G24" s="96">
         <v>7</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -5700,7 +5691,7 @@
       <c r="F25" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="97">
+      <c r="G25" s="96">
         <v>7</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -5725,7 +5716,7 @@
       <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="97">
+      <c r="G26" s="96">
         <v>8</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -5750,7 +5741,7 @@
       <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="97">
+      <c r="G27" s="96">
         <v>8</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -5777,7 +5768,7 @@
       <c r="F28" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="97">
+      <c r="G28" s="96">
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -5802,7 +5793,7 @@
       <c r="F29" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G29" s="97">
+      <c r="G29" s="96">
         <v>1</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -5829,7 +5820,7 @@
       <c r="F30" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G30" s="97">
+      <c r="G30" s="96">
         <v>1</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -5856,7 +5847,7 @@
       <c r="F31" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G31" s="97">
+      <c r="G31" s="96">
         <v>1</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -5883,7 +5874,7 @@
       <c r="F32" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G32" s="97">
+      <c r="G32" s="96">
         <v>1</v>
       </c>
       <c r="H32" s="5" t="s">
@@ -5906,7 +5897,7 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="97">
+      <c r="G33" s="96">
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -5933,7 +5924,7 @@
       <c r="F34" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G34" s="97">
+      <c r="G34" s="96">
         <v>1</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -5960,7 +5951,7 @@
       <c r="F35" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="97">
+      <c r="G35" s="96">
         <v>1</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -5983,7 +5974,7 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="97">
+      <c r="G36" s="96">
         <v>1</v>
       </c>
       <c r="H36" s="5" t="s">
@@ -6010,7 +6001,7 @@
       <c r="F37" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G37" s="97">
+      <c r="G37" s="96">
         <v>1</v>
       </c>
       <c r="H37" s="5" t="s">
@@ -6035,7 +6026,7 @@
       <c r="F38" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G38" s="97">
+      <c r="G38" s="96">
         <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -6062,7 +6053,7 @@
       <c r="F39" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="97">
+      <c r="G39" s="96">
         <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
@@ -6089,7 +6080,7 @@
       <c r="F40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="97">
+      <c r="G40" s="96">
         <v>1</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -6116,7 +6107,7 @@
       <c r="F41" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="97">
+      <c r="G41" s="96">
         <v>1</v>
       </c>
       <c r="H41" s="5" t="s">
@@ -6143,7 +6134,7 @@
       <c r="F42" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G42" s="97">
+      <c r="G42" s="96">
         <v>1</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -6170,7 +6161,7 @@
       <c r="F43" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G43" s="97">
+      <c r="G43" s="96">
         <v>1</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -6197,7 +6188,7 @@
       <c r="F44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="97">
+      <c r="G44" s="96">
         <v>4</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -6224,7 +6215,7 @@
       <c r="F45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="97">
+      <c r="G45" s="96">
         <v>4</v>
       </c>
       <c r="H45" s="5" t="s">
@@ -6249,7 +6240,7 @@
       <c r="F46" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="97">
+      <c r="G46" s="96">
         <v>1</v>
       </c>
       <c r="H46" s="5" t="s">
@@ -6274,7 +6265,7 @@
       <c r="F47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="97">
+      <c r="G47" s="96">
         <v>1</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -6299,7 +6290,7 @@
       <c r="F48" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G48" s="97">
+      <c r="G48" s="96">
         <v>1</v>
       </c>
       <c r="H48" s="5" t="s">
@@ -6324,7 +6315,7 @@
       <c r="F49" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="97">
+      <c r="G49" s="96">
         <v>1</v>
       </c>
       <c r="H49" s="5" t="s">
@@ -6351,7 +6342,7 @@
       <c r="F50" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="97">
+      <c r="G50" s="96">
         <v>1</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -6376,7 +6367,7 @@
       <c r="F51" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="97">
+      <c r="G51" s="96">
         <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -6401,7 +6392,7 @@
       <c r="F52" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="G52" s="97">
+      <c r="G52" s="96">
         <v>1</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -6426,7 +6417,7 @@
       <c r="F53" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="G53" s="97">
+      <c r="G53" s="96">
         <v>1</v>
       </c>
       <c r="H53" s="5" t="s">
@@ -6451,7 +6442,7 @@
       <c r="F54" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="G54" s="97">
+      <c r="G54" s="96">
         <v>1</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -6476,7 +6467,7 @@
       <c r="F55" s="8" t="s">
         <v>939</v>
       </c>
-      <c r="G55" s="97">
+      <c r="G55" s="96">
         <v>1</v>
       </c>
       <c r="H55" s="5" t="s">
@@ -6501,7 +6492,7 @@
       <c r="F56" s="8" t="s">
         <v>940</v>
       </c>
-      <c r="G56" s="97">
+      <c r="G56" s="96">
         <v>1</v>
       </c>
       <c r="H56" s="5" t="s">
@@ -6526,7 +6517,7 @@
       <c r="F57" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="G57" s="97">
+      <c r="G57" s="96">
         <v>1</v>
       </c>
       <c r="H57" s="5" t="s">
@@ -6553,7 +6544,7 @@
       <c r="F58" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="G58" s="97">
+      <c r="G58" s="96">
         <v>10</v>
       </c>
       <c r="H58" s="5"/>
@@ -6576,7 +6567,7 @@
       <c r="F59" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="G59" s="97">
+      <c r="G59" s="96">
         <v>10</v>
       </c>
       <c r="H59" s="5" t="s">
@@ -6601,7 +6592,7 @@
       <c r="F60" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="G60" s="97">
+      <c r="G60" s="96">
         <v>10</v>
       </c>
       <c r="H60" s="5" t="s">
@@ -6616,20 +6607,20 @@
         <f t="shared" si="0"/>
         <v>0x8E</v>
       </c>
-      <c r="C61" s="107" t="s">
+      <c r="C61" s="108" t="s">
         <v>984</v>
       </c>
-      <c r="D61" s="109" t="s">
+      <c r="D61" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="111"/>
-      <c r="F61" s="107" t="s">
+      <c r="E61" s="124"/>
+      <c r="F61" s="108" t="s">
         <v>986</v>
       </c>
-      <c r="G61" s="103" t="s">
+      <c r="G61" s="110" t="s">
         <v>985</v>
       </c>
-      <c r="H61" s="105" t="s">
+      <c r="H61" s="102" t="s">
         <v>771</v>
       </c>
     </row>
@@ -6641,12 +6632,12 @@
         <f t="shared" si="0"/>
         <v>0x90</v>
       </c>
-      <c r="C62" s="108"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="106"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="103"/>
     </row>
     <row r="63" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
@@ -6656,20 +6647,20 @@
         <f t="shared" ref="B63:B64" si="1" xml:space="preserve"> "0x" &amp; DEC2HEX(A63)</f>
         <v>0x92</v>
       </c>
-      <c r="C63" s="107" t="s">
+      <c r="C63" s="108" t="s">
         <v>987</v>
       </c>
-      <c r="D63" s="109" t="s">
+      <c r="D63" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="111"/>
-      <c r="F63" s="107" t="s">
+      <c r="E63" s="124"/>
+      <c r="F63" s="108" t="s">
         <v>988</v>
       </c>
-      <c r="G63" s="103" t="s">
+      <c r="G63" s="110" t="s">
         <v>985</v>
       </c>
-      <c r="H63" s="105" t="s">
+      <c r="H63" s="102" t="s">
         <v>771</v>
       </c>
     </row>
@@ -6681,12 +6672,12 @@
         <f t="shared" si="1"/>
         <v>0x94</v>
       </c>
-      <c r="C64" s="108"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="106"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="103"/>
     </row>
     <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
@@ -6708,7 +6699,7 @@
       <c r="F65" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G65" s="97">
+      <c r="G65" s="96">
         <v>1</v>
       </c>
       <c r="H65" s="5" t="s">
@@ -6723,20 +6714,20 @@
         <f t="shared" si="0"/>
         <v>0x98</v>
       </c>
-      <c r="C66" s="125" t="s">
+      <c r="C66" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="D66" s="109" t="s">
+      <c r="D66" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="109"/>
-      <c r="F66" s="107" t="s">
+      <c r="E66" s="106"/>
+      <c r="F66" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="G66" s="103">
+      <c r="G66" s="110">
         <v>1</v>
       </c>
-      <c r="H66" s="105" t="s">
+      <c r="H66" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -6748,12 +6739,12 @@
         <f t="shared" si="0"/>
         <v>0x9A</v>
       </c>
-      <c r="C67" s="126"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="110"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="106"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="103"/>
     </row>
     <row r="68" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
@@ -6763,20 +6754,20 @@
         <f t="shared" si="0"/>
         <v>0x9C</v>
       </c>
-      <c r="C68" s="125" t="s">
+      <c r="C68" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="D68" s="109" t="s">
+      <c r="D68" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="109"/>
-      <c r="F68" s="107" t="s">
+      <c r="E68" s="106"/>
+      <c r="F68" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="G68" s="103">
+      <c r="G68" s="110">
         <v>1</v>
       </c>
-      <c r="H68" s="105" t="s">
+      <c r="H68" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -6788,12 +6779,12 @@
         <f t="shared" si="0"/>
         <v>0x9E</v>
       </c>
-      <c r="C69" s="126"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
-      <c r="F69" s="108"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="106"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="107"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="103"/>
     </row>
     <row r="70" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
@@ -6815,7 +6806,7 @@
       <c r="F70" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G70" s="97">
+      <c r="G70" s="96">
         <v>1</v>
       </c>
       <c r="H70" s="5" t="s">
@@ -6830,20 +6821,20 @@
         <f t="shared" si="0"/>
         <v>0xA2</v>
       </c>
-      <c r="C71" s="125" t="s">
+      <c r="C71" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="D71" s="109" t="s">
+      <c r="D71" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E71" s="109"/>
-      <c r="F71" s="107" t="s">
+      <c r="E71" s="106"/>
+      <c r="F71" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="G71" s="103">
+      <c r="G71" s="110">
         <v>1</v>
       </c>
-      <c r="H71" s="105" t="s">
+      <c r="H71" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -6855,12 +6846,12 @@
         <f t="shared" si="0"/>
         <v>0xA4</v>
       </c>
-      <c r="C72" s="126"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="110"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="106"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="103"/>
     </row>
     <row r="73" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
@@ -6870,20 +6861,20 @@
         <f t="shared" si="0"/>
         <v>0xA6</v>
       </c>
-      <c r="C73" s="125" t="s">
+      <c r="C73" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="D73" s="109" t="s">
+      <c r="D73" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="109"/>
-      <c r="F73" s="107" t="s">
+      <c r="E73" s="106"/>
+      <c r="F73" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="G73" s="103">
+      <c r="G73" s="110">
         <v>1</v>
       </c>
-      <c r="H73" s="105" t="s">
+      <c r="H73" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -6895,12 +6886,12 @@
         <f t="shared" si="0"/>
         <v>0xA8</v>
       </c>
-      <c r="C74" s="126"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="110"/>
-      <c r="F74" s="108"/>
-      <c r="G74" s="104"/>
-      <c r="H74" s="106"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="103"/>
     </row>
     <row r="75" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
@@ -6922,7 +6913,7 @@
       <c r="F75" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G75" s="97">
+      <c r="G75" s="96">
         <v>1</v>
       </c>
       <c r="H75" s="5" t="s">
@@ -6937,20 +6928,20 @@
         <f t="shared" si="0"/>
         <v>0xAC</v>
       </c>
-      <c r="C76" s="125" t="s">
+      <c r="C76" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="109" t="s">
+      <c r="D76" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E76" s="109"/>
-      <c r="F76" s="107" t="s">
+      <c r="E76" s="106"/>
+      <c r="F76" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="103">
+      <c r="G76" s="110">
         <v>1</v>
       </c>
-      <c r="H76" s="105" t="s">
+      <c r="H76" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -6962,12 +6953,12 @@
         <f t="shared" si="0"/>
         <v>0xAE</v>
       </c>
-      <c r="C77" s="126"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="110"/>
-      <c r="F77" s="108"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="106"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="103"/>
     </row>
     <row r="78" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
@@ -6977,20 +6968,20 @@
         <f t="shared" si="0"/>
         <v>0xB0</v>
       </c>
-      <c r="C78" s="125" t="s">
+      <c r="C78" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="D78" s="109" t="s">
+      <c r="D78" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="109"/>
-      <c r="F78" s="107" t="s">
+      <c r="E78" s="106"/>
+      <c r="F78" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="G78" s="103">
+      <c r="G78" s="110">
         <v>1</v>
       </c>
-      <c r="H78" s="105" t="s">
+      <c r="H78" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7002,12 +6993,12 @@
         <f t="shared" si="0"/>
         <v>0xB2</v>
       </c>
-      <c r="C79" s="126"/>
-      <c r="D79" s="110"/>
-      <c r="E79" s="110"/>
-      <c r="F79" s="108"/>
-      <c r="G79" s="104"/>
-      <c r="H79" s="106"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="109"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="103"/>
     </row>
     <row r="80" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
@@ -7029,7 +7020,7 @@
       <c r="F80" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G80" s="97">
+      <c r="G80" s="96">
         <v>1</v>
       </c>
       <c r="H80" s="5" t="s">
@@ -7044,20 +7035,20 @@
         <f t="shared" si="0"/>
         <v>0xB6</v>
       </c>
-      <c r="C81" s="125" t="s">
+      <c r="C81" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="109" t="s">
+      <c r="D81" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E81" s="109"/>
-      <c r="F81" s="107" t="s">
+      <c r="E81" s="106"/>
+      <c r="F81" s="108" t="s">
         <v>231</v>
       </c>
-      <c r="G81" s="103">
+      <c r="G81" s="110">
         <v>1</v>
       </c>
-      <c r="H81" s="105" t="s">
+      <c r="H81" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7069,12 +7060,12 @@
         <f t="shared" si="0"/>
         <v>0xB8</v>
       </c>
-      <c r="C82" s="126"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="110"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="104"/>
-      <c r="H82" s="106"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="107"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="103"/>
     </row>
     <row r="83" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
@@ -7084,20 +7075,20 @@
         <f t="shared" ref="B83:B156" si="2" xml:space="preserve"> "0x" &amp; DEC2HEX(A83)</f>
         <v>0xBA</v>
       </c>
-      <c r="C83" s="125" t="s">
+      <c r="C83" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="D83" s="109" t="s">
+      <c r="D83" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E83" s="109"/>
-      <c r="F83" s="107" t="s">
+      <c r="E83" s="106"/>
+      <c r="F83" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="G83" s="103">
+      <c r="G83" s="110">
         <v>1</v>
       </c>
-      <c r="H83" s="105" t="s">
+      <c r="H83" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7109,12 +7100,12 @@
         <f t="shared" si="2"/>
         <v>0xBC</v>
       </c>
-      <c r="C84" s="126"/>
-      <c r="D84" s="110"/>
-      <c r="E84" s="110"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="104"/>
-      <c r="H84" s="106"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="109"/>
+      <c r="G84" s="111"/>
+      <c r="H84" s="103"/>
     </row>
     <row r="85" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
@@ -7136,7 +7127,7 @@
       <c r="F85" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G85" s="97">
+      <c r="G85" s="96">
         <v>1</v>
       </c>
       <c r="H85" s="5" t="s">
@@ -7151,20 +7142,20 @@
         <f t="shared" si="2"/>
         <v>0xC0</v>
       </c>
-      <c r="C86" s="125" t="s">
+      <c r="C86" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="D86" s="109" t="s">
+      <c r="D86" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E86" s="109"/>
-      <c r="F86" s="107" t="s">
+      <c r="E86" s="106"/>
+      <c r="F86" s="108" t="s">
         <v>237</v>
       </c>
-      <c r="G86" s="103">
+      <c r="G86" s="110">
         <v>1</v>
       </c>
-      <c r="H86" s="105" t="s">
+      <c r="H86" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7176,12 +7167,12 @@
         <f t="shared" si="2"/>
         <v>0xC2</v>
       </c>
-      <c r="C87" s="126"/>
-      <c r="D87" s="110"/>
-      <c r="E87" s="110"/>
-      <c r="F87" s="108"/>
-      <c r="G87" s="104"/>
-      <c r="H87" s="106"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="109"/>
+      <c r="G87" s="111"/>
+      <c r="H87" s="103"/>
     </row>
     <row r="88" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
@@ -7191,20 +7182,20 @@
         <f t="shared" si="2"/>
         <v>0xC4</v>
       </c>
-      <c r="C88" s="125" t="s">
+      <c r="C88" s="104" t="s">
         <v>238</v>
       </c>
-      <c r="D88" s="109" t="s">
+      <c r="D88" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E88" s="109"/>
-      <c r="F88" s="107" t="s">
+      <c r="E88" s="106"/>
+      <c r="F88" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="G88" s="103">
+      <c r="G88" s="110">
         <v>1</v>
       </c>
-      <c r="H88" s="105" t="s">
+      <c r="H88" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7216,12 +7207,12 @@
         <f t="shared" si="2"/>
         <v>0xC6</v>
       </c>
-      <c r="C89" s="126"/>
-      <c r="D89" s="110"/>
-      <c r="E89" s="110"/>
-      <c r="F89" s="108"/>
-      <c r="G89" s="104"/>
-      <c r="H89" s="106"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="107"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="109"/>
+      <c r="G89" s="111"/>
+      <c r="H89" s="103"/>
     </row>
     <row r="90" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
@@ -7243,7 +7234,7 @@
       <c r="F90" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G90" s="97">
+      <c r="G90" s="96">
         <v>1</v>
       </c>
       <c r="H90" s="5" t="s">
@@ -7258,20 +7249,20 @@
         <f t="shared" si="2"/>
         <v>0xCA</v>
       </c>
-      <c r="C91" s="125" t="s">
+      <c r="C91" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="D91" s="109" t="s">
+      <c r="D91" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E91" s="109"/>
-      <c r="F91" s="107" t="s">
+      <c r="E91" s="106"/>
+      <c r="F91" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="G91" s="103">
+      <c r="G91" s="110">
         <v>1</v>
       </c>
-      <c r="H91" s="105" t="s">
+      <c r="H91" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7283,12 +7274,12 @@
         <f t="shared" si="2"/>
         <v>0xCC</v>
       </c>
-      <c r="C92" s="126"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="110"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="104"/>
-      <c r="H92" s="106"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="109"/>
+      <c r="G92" s="111"/>
+      <c r="H92" s="103"/>
     </row>
     <row r="93" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
@@ -7298,20 +7289,20 @@
         <f t="shared" si="2"/>
         <v>0xCE</v>
       </c>
-      <c r="C93" s="125" t="s">
+      <c r="C93" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="D93" s="109" t="s">
+      <c r="D93" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E93" s="109"/>
-      <c r="F93" s="107" t="s">
+      <c r="E93" s="106"/>
+      <c r="F93" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="G93" s="103">
+      <c r="G93" s="110">
         <v>1</v>
       </c>
-      <c r="H93" s="105" t="s">
+      <c r="H93" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7323,12 +7314,12 @@
         <f t="shared" si="2"/>
         <v>0xD0</v>
       </c>
-      <c r="C94" s="126"/>
-      <c r="D94" s="110"/>
-      <c r="E94" s="110"/>
-      <c r="F94" s="108"/>
-      <c r="G94" s="104"/>
-      <c r="H94" s="106"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="107"/>
+      <c r="F94" s="109"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="103"/>
     </row>
     <row r="95" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
@@ -7350,7 +7341,7 @@
       <c r="F95" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G95" s="97">
+      <c r="G95" s="96">
         <v>1</v>
       </c>
       <c r="H95" s="5" t="s">
@@ -7365,20 +7356,20 @@
         <f t="shared" si="2"/>
         <v>0xD4</v>
       </c>
-      <c r="C96" s="125" t="s">
+      <c r="C96" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="D96" s="109" t="s">
+      <c r="D96" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E96" s="109"/>
-      <c r="F96" s="107" t="s">
+      <c r="E96" s="106"/>
+      <c r="F96" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="G96" s="103">
+      <c r="G96" s="110">
         <v>1</v>
       </c>
-      <c r="H96" s="105" t="s">
+      <c r="H96" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7390,12 +7381,12 @@
         <f t="shared" si="2"/>
         <v>0xD6</v>
       </c>
-      <c r="C97" s="126"/>
-      <c r="D97" s="110"/>
-      <c r="E97" s="110"/>
-      <c r="F97" s="108"/>
-      <c r="G97" s="104"/>
-      <c r="H97" s="106"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="107"/>
+      <c r="E97" s="107"/>
+      <c r="F97" s="109"/>
+      <c r="G97" s="111"/>
+      <c r="H97" s="103"/>
     </row>
     <row r="98" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
@@ -7405,20 +7396,20 @@
         <f t="shared" si="2"/>
         <v>0xD8</v>
       </c>
-      <c r="C98" s="125" t="s">
+      <c r="C98" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="D98" s="109" t="s">
+      <c r="D98" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E98" s="109"/>
-      <c r="F98" s="107" t="s">
+      <c r="E98" s="106"/>
+      <c r="F98" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="G98" s="103">
+      <c r="G98" s="110">
         <v>1</v>
       </c>
-      <c r="H98" s="105" t="s">
+      <c r="H98" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7430,12 +7421,12 @@
         <f t="shared" si="2"/>
         <v>0xDA</v>
       </c>
-      <c r="C99" s="126"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="104"/>
-      <c r="H99" s="106"/>
+      <c r="C99" s="105"/>
+      <c r="D99" s="107"/>
+      <c r="E99" s="107"/>
+      <c r="F99" s="109"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="103"/>
     </row>
     <row r="100" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
@@ -7457,7 +7448,7 @@
       <c r="F100" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G100" s="97">
+      <c r="G100" s="96">
         <v>1</v>
       </c>
       <c r="H100" s="5" t="s">
@@ -7472,20 +7463,20 @@
         <f t="shared" si="2"/>
         <v>0xDE</v>
       </c>
-      <c r="C101" s="125" t="s">
+      <c r="C101" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="D101" s="109" t="s">
+      <c r="D101" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E101" s="109"/>
-      <c r="F101" s="107" t="s">
+      <c r="E101" s="106"/>
+      <c r="F101" s="108" t="s">
         <v>255</v>
       </c>
-      <c r="G101" s="103">
+      <c r="G101" s="110">
         <v>1</v>
       </c>
-      <c r="H101" s="105" t="s">
+      <c r="H101" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7497,12 +7488,12 @@
         <f t="shared" si="2"/>
         <v>0xE0</v>
       </c>
-      <c r="C102" s="126"/>
-      <c r="D102" s="110"/>
-      <c r="E102" s="110"/>
-      <c r="F102" s="108"/>
-      <c r="G102" s="104"/>
-      <c r="H102" s="106"/>
+      <c r="C102" s="105"/>
+      <c r="D102" s="107"/>
+      <c r="E102" s="107"/>
+      <c r="F102" s="109"/>
+      <c r="G102" s="111"/>
+      <c r="H102" s="103"/>
     </row>
     <row r="103" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
@@ -7512,20 +7503,20 @@
         <f t="shared" si="2"/>
         <v>0xE2</v>
       </c>
-      <c r="C103" s="125" t="s">
+      <c r="C103" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="D103" s="109" t="s">
+      <c r="D103" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="109"/>
-      <c r="F103" s="107" t="s">
+      <c r="E103" s="106"/>
+      <c r="F103" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="G103" s="103">
+      <c r="G103" s="110">
         <v>1</v>
       </c>
-      <c r="H103" s="105" t="s">
+      <c r="H103" s="102" t="s">
         <v>773</v>
       </c>
     </row>
@@ -7537,12 +7528,12 @@
         <f t="shared" si="2"/>
         <v>0xE4</v>
       </c>
-      <c r="C104" s="126"/>
-      <c r="D104" s="110"/>
-      <c r="E104" s="110"/>
-      <c r="F104" s="108"/>
-      <c r="G104" s="104"/>
-      <c r="H104" s="106"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="109"/>
+      <c r="G104" s="111"/>
+      <c r="H104" s="103"/>
     </row>
     <row r="105" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
@@ -7562,7 +7553,7 @@
       <c r="F105" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G105" s="97">
+      <c r="G105" s="96">
         <v>1</v>
       </c>
       <c r="H105" s="5" t="s">
@@ -7587,7 +7578,7 @@
       <c r="F106" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G106" s="97">
+      <c r="G106" s="96">
         <v>1</v>
       </c>
       <c r="H106" s="5" t="s">
@@ -7612,7 +7603,7 @@
       <c r="F107" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G107" s="97">
+      <c r="G107" s="96">
         <v>1</v>
       </c>
       <c r="H107" s="5" t="s">
@@ -7637,7 +7628,7 @@
       <c r="F108" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G108" s="97">
+      <c r="G108" s="96">
         <v>1</v>
       </c>
       <c r="H108" s="5" t="s">
@@ -7662,7 +7653,7 @@
       <c r="F109" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G109" s="97">
+      <c r="G109" s="96">
         <v>1</v>
       </c>
       <c r="H109" s="5" t="s">
@@ -7687,7 +7678,7 @@
       <c r="F110" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G110" s="97">
+      <c r="G110" s="96">
         <v>1</v>
       </c>
       <c r="H110" s="5" t="s">
@@ -7712,7 +7703,7 @@
       <c r="F111" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G111" s="97">
+      <c r="G111" s="96">
         <v>1</v>
       </c>
       <c r="H111" s="5" t="s">
@@ -7737,7 +7728,7 @@
       <c r="F112" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G112" s="97">
+      <c r="G112" s="96">
         <v>1</v>
       </c>
       <c r="H112" s="5" t="s">
@@ -7764,7 +7755,7 @@
       <c r="F113" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="G113" s="97">
+      <c r="G113" s="96">
         <v>1</v>
       </c>
       <c r="H113" s="5" t="s">
@@ -7789,7 +7780,7 @@
       <c r="F114" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="G114" s="97">
+      <c r="G114" s="96">
         <v>4.9800000000000004</v>
       </c>
       <c r="H114" s="5" t="s">
@@ -7814,7 +7805,7 @@
       <c r="F115" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G115" s="97">
+      <c r="G115" s="96">
         <v>1</v>
       </c>
       <c r="H115" s="5" t="s">
@@ -7839,7 +7830,7 @@
       <c r="F116" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G116" s="97">
+      <c r="G116" s="96">
         <v>1</v>
       </c>
       <c r="H116" s="5" t="s">
@@ -7866,7 +7857,7 @@
       <c r="F117" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G117" s="97">
+      <c r="G117" s="96">
         <v>7</v>
       </c>
       <c r="H117" s="5" t="s">
@@ -7891,7 +7882,7 @@
       <c r="F118" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="G118" s="97">
+      <c r="G118" s="96">
         <v>7</v>
       </c>
       <c r="H118" s="5" t="s">
@@ -7916,7 +7907,7 @@
       <c r="F119" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G119" s="97">
+      <c r="G119" s="96">
         <v>7</v>
       </c>
       <c r="H119" s="5" t="s">
@@ -7941,7 +7932,7 @@
       <c r="F120" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G120" s="97">
+      <c r="G120" s="96">
         <v>7</v>
       </c>
       <c r="H120" s="5" t="s">
@@ -7966,7 +7957,7 @@
       <c r="F121" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="G121" s="97">
+      <c r="G121" s="96">
         <v>7</v>
       </c>
       <c r="H121" s="5" t="s">
@@ -7993,7 +7984,7 @@
       <c r="F122" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="G122" s="97">
+      <c r="G122" s="96">
         <v>7</v>
       </c>
       <c r="H122" s="5" t="s">
@@ -8018,7 +8009,7 @@
       <c r="F123" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="G123" s="97">
+      <c r="G123" s="96">
         <v>7</v>
       </c>
       <c r="H123" s="5" t="s">
@@ -8043,7 +8034,7 @@
       <c r="F124" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G124" s="97">
+      <c r="G124" s="96">
         <v>7</v>
       </c>
       <c r="H124" s="5" t="s">
@@ -8068,7 +8059,7 @@
       <c r="F125" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G125" s="97">
+      <c r="G125" s="96">
         <v>7</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -8095,7 +8086,7 @@
       <c r="F126" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G126" s="97">
+      <c r="G126" s="96">
         <v>8</v>
       </c>
       <c r="H126" s="5" t="s">
@@ -8120,7 +8111,7 @@
       <c r="F127" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="G127" s="97">
+      <c r="G127" s="96">
         <v>10.309570000000001</v>
       </c>
       <c r="H127" s="5"/>
@@ -8143,7 +8134,7 @@
       <c r="F128" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G128" s="97">
+      <c r="G128" s="96">
         <v>1</v>
       </c>
       <c r="H128" s="5" t="s">
@@ -8168,7 +8159,7 @@
       <c r="F129" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="G129" s="97">
+      <c r="G129" s="96">
         <v>1</v>
       </c>
       <c r="H129" s="5" t="s">
@@ -8193,7 +8184,7 @@
       <c r="F130" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="G130" s="97">
+      <c r="G130" s="96">
         <v>1</v>
       </c>
       <c r="H130" s="5" t="s">
@@ -8218,7 +8209,7 @@
       <c r="F131" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="G131" s="97">
+      <c r="G131" s="96">
         <v>1</v>
       </c>
       <c r="H131" s="5" t="s">
@@ -8243,7 +8234,7 @@
       <c r="F132" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="G132" s="97">
+      <c r="G132" s="96">
         <v>1</v>
       </c>
       <c r="H132" s="5" t="s">
@@ -8268,7 +8259,7 @@
       <c r="F133" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G133" s="97">
+      <c r="G133" s="96">
         <v>1</v>
       </c>
       <c r="H133" s="5" t="s">
@@ -8293,7 +8284,7 @@
       <c r="F134" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G134" s="97">
+      <c r="G134" s="96">
         <v>1</v>
       </c>
       <c r="H134" s="5" t="s">
@@ -8318,7 +8309,7 @@
       <c r="F135" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G135" s="97">
+      <c r="G135" s="96">
         <v>1</v>
       </c>
       <c r="H135" s="5" t="s">
@@ -8343,7 +8334,7 @@
       <c r="F136" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="G136" s="97">
+      <c r="G136" s="96">
         <v>1</v>
       </c>
       <c r="H136" s="5" t="s">
@@ -8368,7 +8359,7 @@
       <c r="F137" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="G137" s="97">
+      <c r="G137" s="96">
         <v>1</v>
       </c>
       <c r="H137" s="5" t="s">
@@ -8393,7 +8384,7 @@
       <c r="F138" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="G138" s="97">
+      <c r="G138" s="96">
         <v>1</v>
       </c>
       <c r="H138" s="5" t="s">
@@ -8418,7 +8409,7 @@
       <c r="F139" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="G139" s="97">
+      <c r="G139" s="96">
         <v>1</v>
       </c>
       <c r="H139" s="5" t="s">
@@ -8443,7 +8434,7 @@
       <c r="F140" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="G140" s="97">
+      <c r="G140" s="96">
         <v>1</v>
       </c>
       <c r="H140" s="5" t="s">
@@ -8468,7 +8459,7 @@
       <c r="F141" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="G141" s="97">
+      <c r="G141" s="96">
         <v>1</v>
       </c>
       <c r="H141" s="5" t="s">
@@ -8493,7 +8484,7 @@
       <c r="F142" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="G142" s="97">
+      <c r="G142" s="96">
         <v>1</v>
       </c>
       <c r="H142" s="5" t="s">
@@ -8518,7 +8509,7 @@
       <c r="F143" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="G143" s="97">
+      <c r="G143" s="96">
         <v>1</v>
       </c>
       <c r="H143" s="5" t="s">
@@ -8543,7 +8534,7 @@
       <c r="F144" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="G144" s="97">
+      <c r="G144" s="96">
         <v>1</v>
       </c>
       <c r="H144" s="5" t="s">
@@ -8568,7 +8559,7 @@
       <c r="F145" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="G145" s="97">
+      <c r="G145" s="96">
         <v>1</v>
       </c>
       <c r="H145" s="5" t="s">
@@ -8593,7 +8584,7 @@
       <c r="F146" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="G146" s="97">
+      <c r="G146" s="96">
         <v>1</v>
       </c>
       <c r="H146" s="5" t="s">
@@ -8618,7 +8609,7 @@
       <c r="F147" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="G147" s="97">
+      <c r="G147" s="96">
         <v>1</v>
       </c>
       <c r="H147" s="5" t="s">
@@ -8643,7 +8634,7 @@
       <c r="F148" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="G148" s="97">
+      <c r="G148" s="96">
         <v>1</v>
       </c>
       <c r="H148" s="5" t="s">
@@ -8668,7 +8659,7 @@
       <c r="F149" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="G149" s="97">
+      <c r="G149" s="96">
         <v>1</v>
       </c>
       <c r="H149" s="5" t="s">
@@ -8693,7 +8684,7 @@
       <c r="F150" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="G150" s="97">
+      <c r="G150" s="96">
         <v>1</v>
       </c>
       <c r="H150" s="5" t="s">
@@ -8718,7 +8709,7 @@
       <c r="F151" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="G151" s="97">
+      <c r="G151" s="96">
         <v>1</v>
       </c>
       <c r="H151" s="5" t="s">
@@ -8743,7 +8734,7 @@
       <c r="F152" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="G152" s="97">
+      <c r="G152" s="96">
         <v>1</v>
       </c>
       <c r="H152" s="5" t="s">
@@ -8768,7 +8759,7 @@
       <c r="F153" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G153" s="97">
+      <c r="G153" s="96">
         <v>1</v>
       </c>
       <c r="H153" s="5" t="s">
@@ -8793,7 +8784,7 @@
       <c r="F154" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="G154" s="97">
+      <c r="G154" s="96">
         <v>1</v>
       </c>
       <c r="H154" s="5" t="s">
@@ -8818,7 +8809,7 @@
       <c r="F155" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="G155" s="97">
+      <c r="G155" s="96">
         <v>1</v>
       </c>
       <c r="H155" s="5" t="s">
@@ -8843,7 +8834,7 @@
       <c r="F156" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="G156" s="97">
+      <c r="G156" s="96">
         <v>1</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -8868,7 +8859,7 @@
       <c r="F157" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="G157" s="97">
+      <c r="G157" s="96">
         <v>1</v>
       </c>
       <c r="H157" s="5" t="s">
@@ -8893,7 +8884,7 @@
       <c r="F158" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="G158" s="97">
+      <c r="G158" s="96">
         <v>1</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -8918,7 +8909,7 @@
       <c r="F159" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="G159" s="97">
+      <c r="G159" s="96">
         <v>1</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -8943,7 +8934,7 @@
       <c r="F160" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="G160" s="97">
+      <c r="G160" s="96">
         <v>1</v>
       </c>
       <c r="H160" s="5" t="s">
@@ -8968,7 +8959,7 @@
       <c r="F161" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="G161" s="97">
+      <c r="G161" s="96">
         <v>1</v>
       </c>
       <c r="H161" s="5" t="s">
@@ -8993,7 +8984,7 @@
       <c r="F162" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="G162" s="97">
+      <c r="G162" s="96">
         <v>1</v>
       </c>
       <c r="H162" s="5" t="s">
@@ -9018,7 +9009,7 @@
       <c r="F163" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="G163" s="97">
+      <c r="G163" s="96">
         <v>1</v>
       </c>
       <c r="H163" s="5" t="s">
@@ -9043,7 +9034,7 @@
       <c r="F164" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="G164" s="97">
+      <c r="G164" s="96">
         <v>1</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -9068,7 +9059,7 @@
       <c r="F165" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="G165" s="97">
+      <c r="G165" s="96">
         <v>1</v>
       </c>
       <c r="H165" s="5" t="s">
@@ -9093,7 +9084,7 @@
       <c r="F166" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="G166" s="99">
+      <c r="G166" s="98">
         <v>10</v>
       </c>
       <c r="H166" s="84"/>
@@ -9116,7 +9107,7 @@
       <c r="F167" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="G167" s="99">
+      <c r="G167" s="98">
         <v>10</v>
       </c>
       <c r="H167" s="84"/>
@@ -9139,7 +9130,7 @@
       <c r="F168" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="G168" s="99">
+      <c r="G168" s="98">
         <v>10</v>
       </c>
       <c r="H168" s="84"/>
@@ -9162,7 +9153,7 @@
       <c r="F169" s="87" t="s">
         <v>951</v>
       </c>
-      <c r="G169" s="99">
+      <c r="G169" s="98">
         <v>10</v>
       </c>
       <c r="H169" s="84"/>
@@ -9185,7 +9176,7 @@
       <c r="F170" s="87" t="s">
         <v>952</v>
       </c>
-      <c r="G170" s="99">
+      <c r="G170" s="98">
         <v>10</v>
       </c>
       <c r="H170" s="84"/>
@@ -9208,7 +9199,7 @@
       <c r="F171" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="G171" s="99">
+      <c r="G171" s="98">
         <v>1</v>
       </c>
       <c r="H171" s="84"/>
@@ -9231,7 +9222,7 @@
       <c r="F172" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="G172" s="99">
+      <c r="G172" s="98">
         <v>1</v>
       </c>
       <c r="H172" s="84"/>
@@ -9254,7 +9245,7 @@
       <c r="F173" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="G173" s="99">
+      <c r="G173" s="98">
         <v>1</v>
       </c>
       <c r="H173" s="84"/>
@@ -9277,7 +9268,7 @@
       <c r="F174" s="8" t="s">
         <v>960</v>
       </c>
-      <c r="G174" s="99">
+      <c r="G174" s="98">
         <v>1</v>
       </c>
       <c r="H174" s="84"/>
@@ -9290,20 +9281,20 @@
         <f t="shared" si="3"/>
         <v>0x200</v>
       </c>
-      <c r="C175" s="125" t="s">
+      <c r="C175" s="104" t="s">
         <v>363</v>
       </c>
-      <c r="D175" s="109" t="s">
+      <c r="D175" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E175" s="109"/>
-      <c r="F175" s="107" t="s">
+      <c r="E175" s="106"/>
+      <c r="F175" s="108" t="s">
         <v>365</v>
       </c>
-      <c r="G175" s="103">
+      <c r="G175" s="110">
         <v>1</v>
       </c>
-      <c r="H175" s="105" t="s">
+      <c r="H175" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9315,12 +9306,12 @@
         <f t="shared" si="3"/>
         <v>0x202</v>
       </c>
-      <c r="C176" s="126"/>
-      <c r="D176" s="110"/>
-      <c r="E176" s="110"/>
-      <c r="F176" s="108"/>
-      <c r="G176" s="104"/>
-      <c r="H176" s="106"/>
+      <c r="C176" s="105"/>
+      <c r="D176" s="107"/>
+      <c r="E176" s="107"/>
+      <c r="F176" s="109"/>
+      <c r="G176" s="111"/>
+      <c r="H176" s="103"/>
     </row>
     <row r="177" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
@@ -9330,20 +9321,20 @@
         <f t="shared" ref="B177:B178" si="4" xml:space="preserve"> "0x" &amp; DEC2HEX(A177)</f>
         <v>0x204</v>
       </c>
-      <c r="C177" s="125" t="s">
+      <c r="C177" s="104" t="s">
         <v>364</v>
       </c>
-      <c r="D177" s="109" t="s">
+      <c r="D177" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E177" s="109"/>
-      <c r="F177" s="107" t="s">
+      <c r="E177" s="106"/>
+      <c r="F177" s="108" t="s">
         <v>366</v>
       </c>
-      <c r="G177" s="103">
+      <c r="G177" s="110">
         <v>1</v>
       </c>
-      <c r="H177" s="105" t="s">
+      <c r="H177" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9355,12 +9346,12 @@
         <f t="shared" si="4"/>
         <v>0x206</v>
       </c>
-      <c r="C178" s="126"/>
-      <c r="D178" s="110"/>
-      <c r="E178" s="110"/>
-      <c r="F178" s="108"/>
-      <c r="G178" s="104"/>
-      <c r="H178" s="106"/>
+      <c r="C178" s="105"/>
+      <c r="D178" s="107"/>
+      <c r="E178" s="107"/>
+      <c r="F178" s="109"/>
+      <c r="G178" s="111"/>
+      <c r="H178" s="103"/>
     </row>
     <row r="179" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
@@ -9370,20 +9361,20 @@
         <f t="shared" ref="B179:B180" si="5" xml:space="preserve"> "0x" &amp; DEC2HEX(A179)</f>
         <v>0x208</v>
       </c>
-      <c r="C179" s="125" t="s">
+      <c r="C179" s="104" t="s">
         <v>367</v>
       </c>
-      <c r="D179" s="109" t="s">
+      <c r="D179" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E179" s="109"/>
-      <c r="F179" s="107" t="s">
+      <c r="E179" s="106"/>
+      <c r="F179" s="108" t="s">
         <v>369</v>
       </c>
-      <c r="G179" s="103">
+      <c r="G179" s="110">
         <v>1</v>
       </c>
-      <c r="H179" s="105" t="s">
+      <c r="H179" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9395,12 +9386,12 @@
         <f t="shared" si="5"/>
         <v>0x20A</v>
       </c>
-      <c r="C180" s="126"/>
-      <c r="D180" s="110"/>
-      <c r="E180" s="110"/>
-      <c r="F180" s="108"/>
-      <c r="G180" s="104"/>
-      <c r="H180" s="106"/>
+      <c r="C180" s="105"/>
+      <c r="D180" s="107"/>
+      <c r="E180" s="107"/>
+      <c r="F180" s="109"/>
+      <c r="G180" s="111"/>
+      <c r="H180" s="103"/>
     </row>
     <row r="181" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
@@ -9410,20 +9401,20 @@
         <f t="shared" ref="B181:B186" si="6" xml:space="preserve"> "0x" &amp; DEC2HEX(A181)</f>
         <v>0x20C</v>
       </c>
-      <c r="C181" s="125" t="s">
+      <c r="C181" s="104" t="s">
         <v>368</v>
       </c>
-      <c r="D181" s="109" t="s">
+      <c r="D181" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E181" s="109"/>
-      <c r="F181" s="107" t="s">
+      <c r="E181" s="106"/>
+      <c r="F181" s="108" t="s">
         <v>376</v>
       </c>
-      <c r="G181" s="103">
+      <c r="G181" s="110">
         <v>1</v>
       </c>
-      <c r="H181" s="105" t="s">
+      <c r="H181" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9435,12 +9426,12 @@
         <f t="shared" si="6"/>
         <v>0x20E</v>
       </c>
-      <c r="C182" s="126"/>
-      <c r="D182" s="110"/>
-      <c r="E182" s="110"/>
-      <c r="F182" s="108"/>
-      <c r="G182" s="104"/>
-      <c r="H182" s="106"/>
+      <c r="C182" s="105"/>
+      <c r="D182" s="107"/>
+      <c r="E182" s="107"/>
+      <c r="F182" s="109"/>
+      <c r="G182" s="111"/>
+      <c r="H182" s="103"/>
     </row>
     <row r="183" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
@@ -9450,20 +9441,20 @@
         <f t="shared" si="6"/>
         <v>0x210</v>
       </c>
-      <c r="C183" s="125" t="s">
+      <c r="C183" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="D183" s="109" t="s">
+      <c r="D183" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E183" s="109"/>
-      <c r="F183" s="107" t="s">
+      <c r="E183" s="106"/>
+      <c r="F183" s="108" t="s">
         <v>377</v>
       </c>
-      <c r="G183" s="103">
+      <c r="G183" s="110">
         <v>1</v>
       </c>
-      <c r="H183" s="105" t="s">
+      <c r="H183" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9475,12 +9466,12 @@
         <f t="shared" si="6"/>
         <v>0x212</v>
       </c>
-      <c r="C184" s="126"/>
-      <c r="D184" s="110"/>
-      <c r="E184" s="110"/>
-      <c r="F184" s="108"/>
-      <c r="G184" s="104"/>
-      <c r="H184" s="106"/>
+      <c r="C184" s="105"/>
+      <c r="D184" s="107"/>
+      <c r="E184" s="107"/>
+      <c r="F184" s="109"/>
+      <c r="G184" s="111"/>
+      <c r="H184" s="103"/>
     </row>
     <row r="185" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
@@ -9490,20 +9481,20 @@
         <f t="shared" si="6"/>
         <v>0x214</v>
       </c>
-      <c r="C185" s="125" t="s">
+      <c r="C185" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="D185" s="109" t="s">
+      <c r="D185" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E185" s="109"/>
-      <c r="F185" s="107" t="s">
+      <c r="E185" s="106"/>
+      <c r="F185" s="108" t="s">
         <v>378</v>
       </c>
-      <c r="G185" s="103">
+      <c r="G185" s="110">
         <v>1</v>
       </c>
-      <c r="H185" s="105" t="s">
+      <c r="H185" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9515,12 +9506,12 @@
         <f t="shared" si="6"/>
         <v>0x216</v>
       </c>
-      <c r="C186" s="126"/>
-      <c r="D186" s="110"/>
-      <c r="E186" s="110"/>
-      <c r="F186" s="108"/>
-      <c r="G186" s="104"/>
-      <c r="H186" s="106"/>
+      <c r="C186" s="105"/>
+      <c r="D186" s="107"/>
+      <c r="E186" s="107"/>
+      <c r="F186" s="109"/>
+      <c r="G186" s="111"/>
+      <c r="H186" s="103"/>
     </row>
     <row r="187" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
@@ -9530,20 +9521,20 @@
         <f t="shared" ref="B187:B192" si="7" xml:space="preserve"> "0x" &amp; DEC2HEX(A187)</f>
         <v>0x218</v>
       </c>
-      <c r="C187" s="125" t="s">
+      <c r="C187" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="D187" s="109" t="s">
+      <c r="D187" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E187" s="109"/>
-      <c r="F187" s="107" t="s">
+      <c r="E187" s="106"/>
+      <c r="F187" s="108" t="s">
         <v>379</v>
       </c>
-      <c r="G187" s="103">
+      <c r="G187" s="110">
         <v>1</v>
       </c>
-      <c r="H187" s="105" t="s">
+      <c r="H187" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9555,12 +9546,12 @@
         <f t="shared" si="7"/>
         <v>0x21A</v>
       </c>
-      <c r="C188" s="126"/>
-      <c r="D188" s="110"/>
-      <c r="E188" s="110"/>
-      <c r="F188" s="108"/>
-      <c r="G188" s="104"/>
-      <c r="H188" s="106"/>
+      <c r="C188" s="105"/>
+      <c r="D188" s="107"/>
+      <c r="E188" s="107"/>
+      <c r="F188" s="109"/>
+      <c r="G188" s="111"/>
+      <c r="H188" s="103"/>
     </row>
     <row r="189" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
@@ -9570,20 +9561,20 @@
         <f t="shared" si="7"/>
         <v>0x21C</v>
       </c>
-      <c r="C189" s="125" t="s">
+      <c r="C189" s="104" t="s">
         <v>373</v>
       </c>
-      <c r="D189" s="109" t="s">
+      <c r="D189" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E189" s="109"/>
-      <c r="F189" s="107" t="s">
+      <c r="E189" s="106"/>
+      <c r="F189" s="108" t="s">
         <v>380</v>
       </c>
-      <c r="G189" s="103">
+      <c r="G189" s="110">
         <v>1</v>
       </c>
-      <c r="H189" s="105" t="s">
+      <c r="H189" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9595,12 +9586,12 @@
         <f t="shared" si="7"/>
         <v>0x21E</v>
       </c>
-      <c r="C190" s="126"/>
-      <c r="D190" s="110"/>
-      <c r="E190" s="110"/>
-      <c r="F190" s="108"/>
-      <c r="G190" s="104"/>
-      <c r="H190" s="106"/>
+      <c r="C190" s="105"/>
+      <c r="D190" s="107"/>
+      <c r="E190" s="107"/>
+      <c r="F190" s="109"/>
+      <c r="G190" s="111"/>
+      <c r="H190" s="103"/>
     </row>
     <row r="191" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
@@ -9610,20 +9601,20 @@
         <f t="shared" si="7"/>
         <v>0x220</v>
       </c>
-      <c r="C191" s="125" t="s">
+      <c r="C191" s="104" t="s">
         <v>374</v>
       </c>
-      <c r="D191" s="109" t="s">
+      <c r="D191" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E191" s="109"/>
-      <c r="F191" s="107" t="s">
+      <c r="E191" s="106"/>
+      <c r="F191" s="108" t="s">
         <v>381</v>
       </c>
-      <c r="G191" s="103">
+      <c r="G191" s="110">
         <v>1</v>
       </c>
-      <c r="H191" s="105" t="s">
+      <c r="H191" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9635,12 +9626,12 @@
         <f t="shared" si="7"/>
         <v>0x222</v>
       </c>
-      <c r="C192" s="126"/>
-      <c r="D192" s="110"/>
-      <c r="E192" s="110"/>
-      <c r="F192" s="108"/>
-      <c r="G192" s="104"/>
-      <c r="H192" s="106"/>
+      <c r="C192" s="105"/>
+      <c r="D192" s="107"/>
+      <c r="E192" s="107"/>
+      <c r="F192" s="109"/>
+      <c r="G192" s="111"/>
+      <c r="H192" s="103"/>
     </row>
     <row r="193" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
@@ -9650,20 +9641,20 @@
         <f t="shared" ref="B193:B212" si="8" xml:space="preserve"> "0x" &amp; DEC2HEX(A193)</f>
         <v>0x224</v>
       </c>
-      <c r="C193" s="125" t="s">
+      <c r="C193" s="104" t="s">
         <v>375</v>
       </c>
-      <c r="D193" s="109" t="s">
+      <c r="D193" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E193" s="109"/>
-      <c r="F193" s="107" t="s">
+      <c r="E193" s="106"/>
+      <c r="F193" s="108" t="s">
         <v>382</v>
       </c>
-      <c r="G193" s="103">
+      <c r="G193" s="110">
         <v>1</v>
       </c>
-      <c r="H193" s="105" t="s">
+      <c r="H193" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9675,12 +9666,12 @@
         <f t="shared" si="8"/>
         <v>0x226</v>
       </c>
-      <c r="C194" s="126"/>
-      <c r="D194" s="110"/>
-      <c r="E194" s="110"/>
-      <c r="F194" s="108"/>
-      <c r="G194" s="104"/>
-      <c r="H194" s="106"/>
+      <c r="C194" s="105"/>
+      <c r="D194" s="107"/>
+      <c r="E194" s="107"/>
+      <c r="F194" s="109"/>
+      <c r="G194" s="111"/>
+      <c r="H194" s="103"/>
     </row>
     <row r="195" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
@@ -9690,20 +9681,20 @@
         <f t="shared" si="8"/>
         <v>0x228</v>
       </c>
-      <c r="C195" s="125" t="s">
+      <c r="C195" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="D195" s="109" t="s">
+      <c r="D195" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E195" s="109"/>
-      <c r="F195" s="107" t="s">
+      <c r="E195" s="106"/>
+      <c r="F195" s="108" t="s">
         <v>384</v>
       </c>
-      <c r="G195" s="103">
+      <c r="G195" s="110">
         <v>1</v>
       </c>
-      <c r="H195" s="105" t="s">
+      <c r="H195" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9715,12 +9706,12 @@
         <f t="shared" si="8"/>
         <v>0x22A</v>
       </c>
-      <c r="C196" s="126"/>
-      <c r="D196" s="110"/>
-      <c r="E196" s="110"/>
-      <c r="F196" s="108"/>
-      <c r="G196" s="104"/>
-      <c r="H196" s="106"/>
+      <c r="C196" s="105"/>
+      <c r="D196" s="107"/>
+      <c r="E196" s="107"/>
+      <c r="F196" s="109"/>
+      <c r="G196" s="111"/>
+      <c r="H196" s="103"/>
     </row>
     <row r="197" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
@@ -9730,20 +9721,20 @@
         <f t="shared" si="8"/>
         <v>0x22C</v>
       </c>
-      <c r="C197" s="125" t="s">
+      <c r="C197" s="104" t="s">
         <v>385</v>
       </c>
-      <c r="D197" s="109" t="s">
+      <c r="D197" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E197" s="109"/>
-      <c r="F197" s="107" t="s">
+      <c r="E197" s="106"/>
+      <c r="F197" s="108" t="s">
         <v>402</v>
       </c>
-      <c r="G197" s="103">
+      <c r="G197" s="110">
         <v>1</v>
       </c>
-      <c r="H197" s="105" t="s">
+      <c r="H197" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9755,12 +9746,12 @@
         <f t="shared" si="8"/>
         <v>0x22E</v>
       </c>
-      <c r="C198" s="126"/>
-      <c r="D198" s="110"/>
-      <c r="E198" s="110"/>
-      <c r="F198" s="108"/>
-      <c r="G198" s="104"/>
-      <c r="H198" s="106"/>
+      <c r="C198" s="105"/>
+      <c r="D198" s="107"/>
+      <c r="E198" s="107"/>
+      <c r="F198" s="109"/>
+      <c r="G198" s="111"/>
+      <c r="H198" s="103"/>
     </row>
     <row r="199" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
@@ -9770,20 +9761,20 @@
         <f t="shared" si="8"/>
         <v>0x230</v>
       </c>
-      <c r="C199" s="125" t="s">
+      <c r="C199" s="104" t="s">
         <v>386</v>
       </c>
-      <c r="D199" s="109" t="s">
+      <c r="D199" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E199" s="109"/>
-      <c r="F199" s="107" t="s">
+      <c r="E199" s="106"/>
+      <c r="F199" s="108" t="s">
         <v>394</v>
       </c>
-      <c r="G199" s="103">
+      <c r="G199" s="110">
         <v>1</v>
       </c>
-      <c r="H199" s="105" t="s">
+      <c r="H199" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9795,12 +9786,12 @@
         <f t="shared" si="8"/>
         <v>0x232</v>
       </c>
-      <c r="C200" s="126"/>
-      <c r="D200" s="110"/>
-      <c r="E200" s="110"/>
-      <c r="F200" s="108"/>
-      <c r="G200" s="104"/>
-      <c r="H200" s="106"/>
+      <c r="C200" s="105"/>
+      <c r="D200" s="107"/>
+      <c r="E200" s="107"/>
+      <c r="F200" s="109"/>
+      <c r="G200" s="111"/>
+      <c r="H200" s="103"/>
     </row>
     <row r="201" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
@@ -9810,20 +9801,20 @@
         <f t="shared" si="8"/>
         <v>0x234</v>
       </c>
-      <c r="C201" s="125" t="s">
+      <c r="C201" s="104" t="s">
         <v>387</v>
       </c>
-      <c r="D201" s="109" t="s">
+      <c r="D201" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E201" s="109"/>
-      <c r="F201" s="107" t="s">
+      <c r="E201" s="106"/>
+      <c r="F201" s="108" t="s">
         <v>395</v>
       </c>
-      <c r="G201" s="103">
+      <c r="G201" s="110">
         <v>1</v>
       </c>
-      <c r="H201" s="105" t="s">
+      <c r="H201" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9835,12 +9826,12 @@
         <f t="shared" si="8"/>
         <v>0x236</v>
       </c>
-      <c r="C202" s="126"/>
-      <c r="D202" s="110"/>
-      <c r="E202" s="110"/>
-      <c r="F202" s="108"/>
-      <c r="G202" s="104"/>
-      <c r="H202" s="106"/>
+      <c r="C202" s="105"/>
+      <c r="D202" s="107"/>
+      <c r="E202" s="107"/>
+      <c r="F202" s="109"/>
+      <c r="G202" s="111"/>
+      <c r="H202" s="103"/>
     </row>
     <row r="203" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
@@ -9850,20 +9841,20 @@
         <f t="shared" si="8"/>
         <v>0x238</v>
       </c>
-      <c r="C203" s="125" t="s">
+      <c r="C203" s="104" t="s">
         <v>388</v>
       </c>
-      <c r="D203" s="109" t="s">
+      <c r="D203" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E203" s="109"/>
-      <c r="F203" s="107" t="s">
+      <c r="E203" s="106"/>
+      <c r="F203" s="108" t="s">
         <v>396</v>
       </c>
-      <c r="G203" s="103">
+      <c r="G203" s="110">
         <v>1</v>
       </c>
-      <c r="H203" s="105" t="s">
+      <c r="H203" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9875,12 +9866,12 @@
         <f t="shared" si="8"/>
         <v>0x23A</v>
       </c>
-      <c r="C204" s="126"/>
-      <c r="D204" s="110"/>
-      <c r="E204" s="110"/>
-      <c r="F204" s="108"/>
-      <c r="G204" s="104"/>
-      <c r="H204" s="106"/>
+      <c r="C204" s="105"/>
+      <c r="D204" s="107"/>
+      <c r="E204" s="107"/>
+      <c r="F204" s="109"/>
+      <c r="G204" s="111"/>
+      <c r="H204" s="103"/>
     </row>
     <row r="205" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
@@ -9890,20 +9881,20 @@
         <f t="shared" si="8"/>
         <v>0x23C</v>
       </c>
-      <c r="C205" s="125" t="s">
+      <c r="C205" s="104" t="s">
         <v>389</v>
       </c>
-      <c r="D205" s="109" t="s">
+      <c r="D205" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E205" s="109"/>
-      <c r="F205" s="107" t="s">
+      <c r="E205" s="106"/>
+      <c r="F205" s="108" t="s">
         <v>397</v>
       </c>
-      <c r="G205" s="103">
+      <c r="G205" s="110">
         <v>1</v>
       </c>
-      <c r="H205" s="105" t="s">
+      <c r="H205" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9915,12 +9906,12 @@
         <f t="shared" si="8"/>
         <v>0x23E</v>
       </c>
-      <c r="C206" s="126"/>
-      <c r="D206" s="110"/>
-      <c r="E206" s="110"/>
-      <c r="F206" s="108"/>
-      <c r="G206" s="104"/>
-      <c r="H206" s="106"/>
+      <c r="C206" s="105"/>
+      <c r="D206" s="107"/>
+      <c r="E206" s="107"/>
+      <c r="F206" s="109"/>
+      <c r="G206" s="111"/>
+      <c r="H206" s="103"/>
     </row>
     <row r="207" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
@@ -9930,20 +9921,20 @@
         <f t="shared" si="8"/>
         <v>0x240</v>
       </c>
-      <c r="C207" s="125" t="s">
+      <c r="C207" s="104" t="s">
         <v>390</v>
       </c>
-      <c r="D207" s="109" t="s">
+      <c r="D207" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E207" s="109"/>
-      <c r="F207" s="107" t="s">
+      <c r="E207" s="106"/>
+      <c r="F207" s="108" t="s">
         <v>398</v>
       </c>
-      <c r="G207" s="103">
+      <c r="G207" s="110">
         <v>1</v>
       </c>
-      <c r="H207" s="105" t="s">
+      <c r="H207" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9955,12 +9946,12 @@
         <f t="shared" si="8"/>
         <v>0x242</v>
       </c>
-      <c r="C208" s="126"/>
-      <c r="D208" s="110"/>
-      <c r="E208" s="110"/>
-      <c r="F208" s="108"/>
-      <c r="G208" s="104"/>
-      <c r="H208" s="106"/>
+      <c r="C208" s="105"/>
+      <c r="D208" s="107"/>
+      <c r="E208" s="107"/>
+      <c r="F208" s="109"/>
+      <c r="G208" s="111"/>
+      <c r="H208" s="103"/>
     </row>
     <row r="209" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
@@ -9970,20 +9961,20 @@
         <f t="shared" si="8"/>
         <v>0x244</v>
       </c>
-      <c r="C209" s="125" t="s">
+      <c r="C209" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="D209" s="109" t="s">
+      <c r="D209" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E209" s="109"/>
-      <c r="F209" s="107" t="s">
+      <c r="E209" s="106"/>
+      <c r="F209" s="108" t="s">
         <v>399</v>
       </c>
-      <c r="G209" s="103">
+      <c r="G209" s="110">
         <v>1</v>
       </c>
-      <c r="H209" s="105" t="s">
+      <c r="H209" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9995,12 +9986,12 @@
         <f t="shared" si="8"/>
         <v>0x246</v>
       </c>
-      <c r="C210" s="126"/>
-      <c r="D210" s="110"/>
-      <c r="E210" s="110"/>
-      <c r="F210" s="108"/>
-      <c r="G210" s="104"/>
-      <c r="H210" s="106"/>
+      <c r="C210" s="105"/>
+      <c r="D210" s="107"/>
+      <c r="E210" s="107"/>
+      <c r="F210" s="109"/>
+      <c r="G210" s="111"/>
+      <c r="H210" s="103"/>
     </row>
     <row r="211" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
@@ -10010,20 +10001,20 @@
         <f t="shared" si="8"/>
         <v>0x248</v>
       </c>
-      <c r="C211" s="125" t="s">
+      <c r="C211" s="104" t="s">
         <v>392</v>
       </c>
-      <c r="D211" s="109" t="s">
+      <c r="D211" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E211" s="109"/>
-      <c r="F211" s="107" t="s">
+      <c r="E211" s="106"/>
+      <c r="F211" s="108" t="s">
         <v>400</v>
       </c>
-      <c r="G211" s="103">
+      <c r="G211" s="110">
         <v>1</v>
       </c>
-      <c r="H211" s="105" t="s">
+      <c r="H211" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10035,12 +10026,12 @@
         <f t="shared" si="8"/>
         <v>0x24A</v>
       </c>
-      <c r="C212" s="126"/>
-      <c r="D212" s="110"/>
-      <c r="E212" s="110"/>
-      <c r="F212" s="108"/>
-      <c r="G212" s="104"/>
-      <c r="H212" s="106"/>
+      <c r="C212" s="105"/>
+      <c r="D212" s="107"/>
+      <c r="E212" s="107"/>
+      <c r="F212" s="109"/>
+      <c r="G212" s="111"/>
+      <c r="H212" s="103"/>
     </row>
     <row r="213" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
@@ -10050,20 +10041,20 @@
         <f t="shared" ref="B213:B232" si="9" xml:space="preserve"> "0x" &amp; DEC2HEX(A213)</f>
         <v>0x24C</v>
       </c>
-      <c r="C213" s="125" t="s">
+      <c r="C213" s="104" t="s">
         <v>393</v>
       </c>
-      <c r="D213" s="109" t="s">
+      <c r="D213" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E213" s="109"/>
-      <c r="F213" s="107" t="s">
+      <c r="E213" s="106"/>
+      <c r="F213" s="108" t="s">
         <v>401</v>
       </c>
-      <c r="G213" s="103">
+      <c r="G213" s="110">
         <v>1</v>
       </c>
-      <c r="H213" s="105" t="s">
+      <c r="H213" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10075,12 +10066,12 @@
         <f t="shared" si="9"/>
         <v>0x24E</v>
       </c>
-      <c r="C214" s="126"/>
-      <c r="D214" s="110"/>
-      <c r="E214" s="110"/>
-      <c r="F214" s="108"/>
-      <c r="G214" s="104"/>
-      <c r="H214" s="106"/>
+      <c r="C214" s="105"/>
+      <c r="D214" s="107"/>
+      <c r="E214" s="107"/>
+      <c r="F214" s="109"/>
+      <c r="G214" s="111"/>
+      <c r="H214" s="103"/>
     </row>
     <row r="215" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
@@ -10090,20 +10081,20 @@
         <f t="shared" si="9"/>
         <v>0x250</v>
       </c>
-      <c r="C215" s="125" t="s">
+      <c r="C215" s="104" t="s">
         <v>403</v>
       </c>
-      <c r="D215" s="109" t="s">
+      <c r="D215" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E215" s="109"/>
-      <c r="F215" s="107" t="s">
+      <c r="E215" s="106"/>
+      <c r="F215" s="108" t="s">
         <v>404</v>
       </c>
-      <c r="G215" s="103">
+      <c r="G215" s="110">
         <v>1</v>
       </c>
-      <c r="H215" s="105" t="s">
+      <c r="H215" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10115,12 +10106,12 @@
         <f t="shared" si="9"/>
         <v>0x252</v>
       </c>
-      <c r="C216" s="126"/>
-      <c r="D216" s="110"/>
-      <c r="E216" s="110"/>
-      <c r="F216" s="108"/>
-      <c r="G216" s="104"/>
-      <c r="H216" s="106"/>
+      <c r="C216" s="105"/>
+      <c r="D216" s="107"/>
+      <c r="E216" s="107"/>
+      <c r="F216" s="109"/>
+      <c r="G216" s="111"/>
+      <c r="H216" s="103"/>
     </row>
     <row r="217" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
@@ -10130,20 +10121,20 @@
         <f t="shared" si="9"/>
         <v>0x254</v>
       </c>
-      <c r="C217" s="125" t="s">
+      <c r="C217" s="104" t="s">
         <v>405</v>
       </c>
-      <c r="D217" s="109" t="s">
+      <c r="D217" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E217" s="109"/>
-      <c r="F217" s="107" t="s">
+      <c r="E217" s="106"/>
+      <c r="F217" s="108" t="s">
         <v>414</v>
       </c>
-      <c r="G217" s="103">
+      <c r="G217" s="110">
         <v>1</v>
       </c>
-      <c r="H217" s="105" t="s">
+      <c r="H217" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10155,12 +10146,12 @@
         <f t="shared" si="9"/>
         <v>0x256</v>
       </c>
-      <c r="C218" s="126"/>
-      <c r="D218" s="110"/>
-      <c r="E218" s="110"/>
-      <c r="F218" s="108"/>
-      <c r="G218" s="104"/>
-      <c r="H218" s="106"/>
+      <c r="C218" s="105"/>
+      <c r="D218" s="107"/>
+      <c r="E218" s="107"/>
+      <c r="F218" s="109"/>
+      <c r="G218" s="111"/>
+      <c r="H218" s="103"/>
     </row>
     <row r="219" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
@@ -10170,20 +10161,20 @@
         <f t="shared" si="9"/>
         <v>0x258</v>
       </c>
-      <c r="C219" s="125" t="s">
+      <c r="C219" s="104" t="s">
         <v>406</v>
       </c>
-      <c r="D219" s="109" t="s">
+      <c r="D219" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E219" s="109"/>
-      <c r="F219" s="107" t="s">
+      <c r="E219" s="106"/>
+      <c r="F219" s="108" t="s">
         <v>415</v>
       </c>
-      <c r="G219" s="103">
+      <c r="G219" s="110">
         <v>1</v>
       </c>
-      <c r="H219" s="105" t="s">
+      <c r="H219" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10195,12 +10186,12 @@
         <f t="shared" si="9"/>
         <v>0x25A</v>
       </c>
-      <c r="C220" s="126"/>
-      <c r="D220" s="110"/>
-      <c r="E220" s="110"/>
-      <c r="F220" s="108"/>
-      <c r="G220" s="104"/>
-      <c r="H220" s="106"/>
+      <c r="C220" s="105"/>
+      <c r="D220" s="107"/>
+      <c r="E220" s="107"/>
+      <c r="F220" s="109"/>
+      <c r="G220" s="111"/>
+      <c r="H220" s="103"/>
     </row>
     <row r="221" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
@@ -10210,20 +10201,20 @@
         <f t="shared" si="9"/>
         <v>0x25C</v>
       </c>
-      <c r="C221" s="125" t="s">
+      <c r="C221" s="104" t="s">
         <v>407</v>
       </c>
-      <c r="D221" s="109" t="s">
+      <c r="D221" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E221" s="109"/>
-      <c r="F221" s="107" t="s">
+      <c r="E221" s="106"/>
+      <c r="F221" s="108" t="s">
         <v>416</v>
       </c>
-      <c r="G221" s="103">
+      <c r="G221" s="110">
         <v>1</v>
       </c>
-      <c r="H221" s="105" t="s">
+      <c r="H221" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10235,12 +10226,12 @@
         <f t="shared" si="9"/>
         <v>0x25E</v>
       </c>
-      <c r="C222" s="126"/>
-      <c r="D222" s="110"/>
-      <c r="E222" s="110"/>
-      <c r="F222" s="108"/>
-      <c r="G222" s="104"/>
-      <c r="H222" s="106"/>
+      <c r="C222" s="105"/>
+      <c r="D222" s="107"/>
+      <c r="E222" s="107"/>
+      <c r="F222" s="109"/>
+      <c r="G222" s="111"/>
+      <c r="H222" s="103"/>
     </row>
     <row r="223" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
@@ -10250,20 +10241,20 @@
         <f t="shared" si="9"/>
         <v>0x260</v>
       </c>
-      <c r="C223" s="125" t="s">
+      <c r="C223" s="104" t="s">
         <v>408</v>
       </c>
-      <c r="D223" s="109" t="s">
+      <c r="D223" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E223" s="109"/>
-      <c r="F223" s="107" t="s">
+      <c r="E223" s="106"/>
+      <c r="F223" s="108" t="s">
         <v>417</v>
       </c>
-      <c r="G223" s="103">
+      <c r="G223" s="110">
         <v>1</v>
       </c>
-      <c r="H223" s="105" t="s">
+      <c r="H223" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10275,12 +10266,12 @@
         <f t="shared" si="9"/>
         <v>0x262</v>
       </c>
-      <c r="C224" s="126"/>
-      <c r="D224" s="110"/>
-      <c r="E224" s="110"/>
-      <c r="F224" s="108"/>
-      <c r="G224" s="104"/>
-      <c r="H224" s="106"/>
+      <c r="C224" s="105"/>
+      <c r="D224" s="107"/>
+      <c r="E224" s="107"/>
+      <c r="F224" s="109"/>
+      <c r="G224" s="111"/>
+      <c r="H224" s="103"/>
     </row>
     <row r="225" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
@@ -10290,20 +10281,20 @@
         <f t="shared" si="9"/>
         <v>0x264</v>
       </c>
-      <c r="C225" s="125" t="s">
+      <c r="C225" s="104" t="s">
         <v>409</v>
       </c>
-      <c r="D225" s="109" t="s">
+      <c r="D225" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E225" s="109"/>
-      <c r="F225" s="107" t="s">
+      <c r="E225" s="106"/>
+      <c r="F225" s="108" t="s">
         <v>418</v>
       </c>
-      <c r="G225" s="103">
+      <c r="G225" s="110">
         <v>1</v>
       </c>
-      <c r="H225" s="105" t="s">
+      <c r="H225" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10315,12 +10306,12 @@
         <f t="shared" si="9"/>
         <v>0x266</v>
       </c>
-      <c r="C226" s="126"/>
-      <c r="D226" s="110"/>
-      <c r="E226" s="110"/>
-      <c r="F226" s="108"/>
-      <c r="G226" s="104"/>
-      <c r="H226" s="106"/>
+      <c r="C226" s="105"/>
+      <c r="D226" s="107"/>
+      <c r="E226" s="107"/>
+      <c r="F226" s="109"/>
+      <c r="G226" s="111"/>
+      <c r="H226" s="103"/>
     </row>
     <row r="227" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
@@ -10330,20 +10321,20 @@
         <f t="shared" si="9"/>
         <v>0x268</v>
       </c>
-      <c r="C227" s="125" t="s">
+      <c r="C227" s="104" t="s">
         <v>410</v>
       </c>
-      <c r="D227" s="109" t="s">
+      <c r="D227" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E227" s="109"/>
-      <c r="F227" s="107" t="s">
+      <c r="E227" s="106"/>
+      <c r="F227" s="108" t="s">
         <v>419</v>
       </c>
-      <c r="G227" s="103">
+      <c r="G227" s="110">
         <v>1</v>
       </c>
-      <c r="H227" s="105" t="s">
+      <c r="H227" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10355,12 +10346,12 @@
         <f t="shared" si="9"/>
         <v>0x26A</v>
       </c>
-      <c r="C228" s="126"/>
-      <c r="D228" s="110"/>
-      <c r="E228" s="110"/>
-      <c r="F228" s="108"/>
-      <c r="G228" s="104"/>
-      <c r="H228" s="106"/>
+      <c r="C228" s="105"/>
+      <c r="D228" s="107"/>
+      <c r="E228" s="107"/>
+      <c r="F228" s="109"/>
+      <c r="G228" s="111"/>
+      <c r="H228" s="103"/>
     </row>
     <row r="229" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
@@ -10370,20 +10361,20 @@
         <f t="shared" si="9"/>
         <v>0x26C</v>
       </c>
-      <c r="C229" s="125" t="s">
+      <c r="C229" s="104" t="s">
         <v>411</v>
       </c>
-      <c r="D229" s="109" t="s">
+      <c r="D229" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E229" s="109"/>
-      <c r="F229" s="107" t="s">
+      <c r="E229" s="106"/>
+      <c r="F229" s="108" t="s">
         <v>420</v>
       </c>
-      <c r="G229" s="103">
+      <c r="G229" s="110">
         <v>1</v>
       </c>
-      <c r="H229" s="105" t="s">
+      <c r="H229" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10395,12 +10386,12 @@
         <f t="shared" si="9"/>
         <v>0x26E</v>
       </c>
-      <c r="C230" s="126"/>
-      <c r="D230" s="110"/>
-      <c r="E230" s="110"/>
-      <c r="F230" s="108"/>
-      <c r="G230" s="104"/>
-      <c r="H230" s="106"/>
+      <c r="C230" s="105"/>
+      <c r="D230" s="107"/>
+      <c r="E230" s="107"/>
+      <c r="F230" s="109"/>
+      <c r="G230" s="111"/>
+      <c r="H230" s="103"/>
     </row>
     <row r="231" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
@@ -10410,20 +10401,20 @@
         <f t="shared" si="9"/>
         <v>0x270</v>
       </c>
-      <c r="C231" s="125" t="s">
+      <c r="C231" s="104" t="s">
         <v>412</v>
       </c>
-      <c r="D231" s="109" t="s">
+      <c r="D231" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E231" s="109"/>
-      <c r="F231" s="107" t="s">
+      <c r="E231" s="106"/>
+      <c r="F231" s="108" t="s">
         <v>421</v>
       </c>
-      <c r="G231" s="103">
+      <c r="G231" s="110">
         <v>1</v>
       </c>
-      <c r="H231" s="105" t="s">
+      <c r="H231" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10435,12 +10426,12 @@
         <f t="shared" si="9"/>
         <v>0x272</v>
       </c>
-      <c r="C232" s="126"/>
-      <c r="D232" s="110"/>
-      <c r="E232" s="110"/>
-      <c r="F232" s="108"/>
-      <c r="G232" s="104"/>
-      <c r="H232" s="106"/>
+      <c r="C232" s="105"/>
+      <c r="D232" s="107"/>
+      <c r="E232" s="107"/>
+      <c r="F232" s="109"/>
+      <c r="G232" s="111"/>
+      <c r="H232" s="103"/>
     </row>
     <row r="233" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
@@ -10450,20 +10441,20 @@
         <f t="shared" ref="B233:B234" si="10" xml:space="preserve"> "0x" &amp; DEC2HEX(A233)</f>
         <v>0x274</v>
       </c>
-      <c r="C233" s="125" t="s">
+      <c r="C233" s="104" t="s">
         <v>413</v>
       </c>
-      <c r="D233" s="109" t="s">
+      <c r="D233" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E233" s="109"/>
-      <c r="F233" s="107" t="s">
+      <c r="E233" s="106"/>
+      <c r="F233" s="108" t="s">
         <v>422</v>
       </c>
-      <c r="G233" s="103">
+      <c r="G233" s="110">
         <v>1</v>
       </c>
-      <c r="H233" s="105" t="s">
+      <c r="H233" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10475,12 +10466,12 @@
         <f t="shared" si="10"/>
         <v>0x276</v>
       </c>
-      <c r="C234" s="126"/>
-      <c r="D234" s="110"/>
-      <c r="E234" s="110"/>
-      <c r="F234" s="108"/>
-      <c r="G234" s="104"/>
-      <c r="H234" s="106"/>
+      <c r="C234" s="105"/>
+      <c r="D234" s="107"/>
+      <c r="E234" s="107"/>
+      <c r="F234" s="109"/>
+      <c r="G234" s="111"/>
+      <c r="H234" s="103"/>
     </row>
     <row r="235" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
@@ -10490,20 +10481,20 @@
         <f t="shared" si="3"/>
         <v>0x278</v>
       </c>
-      <c r="C235" s="125" t="s">
+      <c r="C235" s="104" t="s">
         <v>423</v>
       </c>
-      <c r="D235" s="109" t="s">
+      <c r="D235" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E235" s="109"/>
-      <c r="F235" s="107" t="s">
+      <c r="E235" s="106"/>
+      <c r="F235" s="108" t="s">
         <v>424</v>
       </c>
-      <c r="G235" s="103">
+      <c r="G235" s="110">
         <v>1</v>
       </c>
-      <c r="H235" s="105" t="s">
+      <c r="H235" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10515,12 +10506,12 @@
         <f t="shared" si="3"/>
         <v>0x27A</v>
       </c>
-      <c r="C236" s="126"/>
-      <c r="D236" s="110"/>
-      <c r="E236" s="110"/>
-      <c r="F236" s="108"/>
-      <c r="G236" s="104"/>
-      <c r="H236" s="106"/>
+      <c r="C236" s="105"/>
+      <c r="D236" s="107"/>
+      <c r="E236" s="107"/>
+      <c r="F236" s="109"/>
+      <c r="G236" s="111"/>
+      <c r="H236" s="103"/>
     </row>
     <row r="237" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
@@ -10530,20 +10521,20 @@
         <f t="shared" si="3"/>
         <v>0x27C</v>
       </c>
-      <c r="C237" s="125" t="s">
+      <c r="C237" s="104" t="s">
         <v>425</v>
       </c>
-      <c r="D237" s="109" t="s">
+      <c r="D237" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E237" s="109"/>
-      <c r="F237" s="107" t="s">
+      <c r="E237" s="106"/>
+      <c r="F237" s="108" t="s">
         <v>426</v>
       </c>
-      <c r="G237" s="103">
+      <c r="G237" s="110">
         <v>1</v>
       </c>
-      <c r="H237" s="105" t="s">
+      <c r="H237" s="102" t="s">
         <v>775</v>
       </c>
     </row>
@@ -10555,12 +10546,12 @@
         <f t="shared" si="3"/>
         <v>0x27E</v>
       </c>
-      <c r="C238" s="126"/>
-      <c r="D238" s="110"/>
-      <c r="E238" s="110"/>
-      <c r="F238" s="108"/>
-      <c r="G238" s="104"/>
-      <c r="H238" s="106"/>
+      <c r="C238" s="105"/>
+      <c r="D238" s="107"/>
+      <c r="E238" s="107"/>
+      <c r="F238" s="109"/>
+      <c r="G238" s="111"/>
+      <c r="H238" s="103"/>
     </row>
     <row r="239" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
@@ -10582,7 +10573,7 @@
       <c r="F239" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="G239" s="97">
+      <c r="G239" s="96">
         <v>1</v>
       </c>
       <c r="H239" s="5" t="s">
@@ -10609,7 +10600,7 @@
       <c r="F240" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="G240" s="97">
+      <c r="G240" s="96">
         <v>1</v>
       </c>
       <c r="H240" s="5" t="s">
@@ -10636,7 +10627,7 @@
       <c r="F241" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="G241" s="97">
+      <c r="G241" s="96">
         <v>1</v>
       </c>
       <c r="H241" s="5" t="s">
@@ -10661,7 +10652,7 @@
       <c r="F242" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="G242" s="100">
+      <c r="G242" s="99">
         <v>7</v>
       </c>
       <c r="H242" s="41" t="s">
@@ -10688,7 +10679,7 @@
       <c r="F243" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="G243" s="97">
+      <c r="G243" s="96">
         <v>7</v>
       </c>
       <c r="H243" s="5" t="s">
@@ -10713,7 +10704,7 @@
       <c r="F244" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="G244" s="97">
+      <c r="G244" s="96">
         <v>7</v>
       </c>
       <c r="H244" s="5" t="s">
@@ -10738,7 +10729,7 @@
       <c r="F245" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="G245" s="97">
+      <c r="G245" s="96">
         <v>7</v>
       </c>
       <c r="H245" s="5" t="s">
@@ -10753,20 +10744,20 @@
         <f t="shared" si="3"/>
         <v>0x2BC</v>
       </c>
-      <c r="C246" s="125" t="s">
+      <c r="C246" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="D246" s="109" t="s">
+      <c r="D246" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E246" s="109"/>
-      <c r="F246" s="107" t="s">
+      <c r="E246" s="106"/>
+      <c r="F246" s="108" t="s">
         <v>800</v>
       </c>
-      <c r="G246" s="103">
+      <c r="G246" s="110">
         <v>7</v>
       </c>
-      <c r="H246" s="105" t="s">
+      <c r="H246" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10778,12 +10769,12 @@
         <f t="shared" si="3"/>
         <v>0x2BE</v>
       </c>
-      <c r="C247" s="126"/>
-      <c r="D247" s="110"/>
-      <c r="E247" s="110"/>
-      <c r="F247" s="108"/>
-      <c r="G247" s="104"/>
-      <c r="H247" s="106"/>
+      <c r="C247" s="105"/>
+      <c r="D247" s="107"/>
+      <c r="E247" s="107"/>
+      <c r="F247" s="109"/>
+      <c r="G247" s="111"/>
+      <c r="H247" s="103"/>
     </row>
     <row r="248" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
@@ -10793,20 +10784,20 @@
         <f t="shared" si="3"/>
         <v>0x2C0</v>
       </c>
-      <c r="C248" s="125" t="s">
+      <c r="C248" s="104" t="s">
         <v>801</v>
       </c>
-      <c r="D248" s="109" t="s">
+      <c r="D248" s="106" t="s">
         <v>802</v>
       </c>
-      <c r="E248" s="109"/>
-      <c r="F248" s="107" t="s">
+      <c r="E248" s="106"/>
+      <c r="F248" s="108" t="s">
         <v>803</v>
       </c>
-      <c r="G248" s="103">
+      <c r="G248" s="110">
         <v>7</v>
       </c>
-      <c r="H248" s="105" t="s">
+      <c r="H248" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10818,12 +10809,12 @@
         <f t="shared" si="3"/>
         <v>0x2C2</v>
       </c>
-      <c r="C249" s="126"/>
-      <c r="D249" s="110"/>
-      <c r="E249" s="110"/>
-      <c r="F249" s="108"/>
-      <c r="G249" s="104"/>
-      <c r="H249" s="106"/>
+      <c r="C249" s="105"/>
+      <c r="D249" s="107"/>
+      <c r="E249" s="107"/>
+      <c r="F249" s="109"/>
+      <c r="G249" s="111"/>
+      <c r="H249" s="103"/>
     </row>
     <row r="250" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
@@ -10833,20 +10824,20 @@
         <f t="shared" si="3"/>
         <v>0x2C4</v>
       </c>
-      <c r="C250" s="125" t="s">
+      <c r="C250" s="104" t="s">
         <v>804</v>
       </c>
-      <c r="D250" s="109" t="s">
+      <c r="D250" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E250" s="109"/>
-      <c r="F250" s="107" t="s">
+      <c r="E250" s="106"/>
+      <c r="F250" s="108" t="s">
         <v>808</v>
       </c>
-      <c r="G250" s="103">
+      <c r="G250" s="110">
         <v>7</v>
       </c>
-      <c r="H250" s="105" t="s">
+      <c r="H250" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10858,12 +10849,12 @@
         <f t="shared" si="3"/>
         <v>0x2C6</v>
       </c>
-      <c r="C251" s="126"/>
-      <c r="D251" s="110"/>
-      <c r="E251" s="110"/>
-      <c r="F251" s="108"/>
-      <c r="G251" s="104"/>
-      <c r="H251" s="106"/>
+      <c r="C251" s="105"/>
+      <c r="D251" s="107"/>
+      <c r="E251" s="107"/>
+      <c r="F251" s="109"/>
+      <c r="G251" s="111"/>
+      <c r="H251" s="103"/>
     </row>
     <row r="252" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
@@ -10873,20 +10864,20 @@
         <f t="shared" si="3"/>
         <v>0x2C8</v>
       </c>
-      <c r="C252" s="125" t="s">
+      <c r="C252" s="104" t="s">
         <v>805</v>
       </c>
-      <c r="D252" s="109" t="s">
+      <c r="D252" s="106" t="s">
         <v>802</v>
       </c>
-      <c r="E252" s="109"/>
-      <c r="F252" s="107" t="s">
+      <c r="E252" s="106"/>
+      <c r="F252" s="108" t="s">
         <v>809</v>
       </c>
-      <c r="G252" s="103">
+      <c r="G252" s="110">
         <v>7</v>
       </c>
-      <c r="H252" s="105" t="s">
+      <c r="H252" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10898,12 +10889,12 @@
         <f t="shared" si="3"/>
         <v>0x2CA</v>
       </c>
-      <c r="C253" s="126"/>
-      <c r="D253" s="110"/>
-      <c r="E253" s="110"/>
-      <c r="F253" s="108"/>
-      <c r="G253" s="104"/>
-      <c r="H253" s="106"/>
+      <c r="C253" s="105"/>
+      <c r="D253" s="107"/>
+      <c r="E253" s="107"/>
+      <c r="F253" s="109"/>
+      <c r="G253" s="111"/>
+      <c r="H253" s="103"/>
     </row>
     <row r="254" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
@@ -10913,20 +10904,20 @@
         <f t="shared" si="3"/>
         <v>0x2CC</v>
       </c>
-      <c r="C254" s="125" t="s">
+      <c r="C254" s="104" t="s">
         <v>806</v>
       </c>
-      <c r="D254" s="109" t="s">
+      <c r="D254" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E254" s="109"/>
-      <c r="F254" s="107" t="s">
+      <c r="E254" s="106"/>
+      <c r="F254" s="108" t="s">
         <v>810</v>
       </c>
-      <c r="G254" s="103">
-        <v>10</v>
-      </c>
-      <c r="H254" s="105" t="s">
+      <c r="G254" s="110">
+        <v>10</v>
+      </c>
+      <c r="H254" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10938,12 +10929,12 @@
         <f t="shared" si="3"/>
         <v>0x2CE</v>
       </c>
-      <c r="C255" s="126"/>
-      <c r="D255" s="110"/>
-      <c r="E255" s="110"/>
-      <c r="F255" s="108"/>
-      <c r="G255" s="104"/>
-      <c r="H255" s="106"/>
+      <c r="C255" s="105"/>
+      <c r="D255" s="107"/>
+      <c r="E255" s="107"/>
+      <c r="F255" s="109"/>
+      <c r="G255" s="111"/>
+      <c r="H255" s="103"/>
     </row>
     <row r="256" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
@@ -10953,20 +10944,20 @@
         <f t="shared" si="3"/>
         <v>0x2D0</v>
       </c>
-      <c r="C256" s="125" t="s">
+      <c r="C256" s="104" t="s">
         <v>807</v>
       </c>
-      <c r="D256" s="109" t="s">
+      <c r="D256" s="106" t="s">
         <v>802</v>
       </c>
-      <c r="E256" s="109"/>
-      <c r="F256" s="107" t="s">
+      <c r="E256" s="106"/>
+      <c r="F256" s="108" t="s">
         <v>811</v>
       </c>
-      <c r="G256" s="103">
-        <v>10</v>
-      </c>
-      <c r="H256" s="105" t="s">
+      <c r="G256" s="110">
+        <v>10</v>
+      </c>
+      <c r="H256" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10978,12 +10969,12 @@
         <f t="shared" si="3"/>
         <v>0x2D2</v>
       </c>
-      <c r="C257" s="126"/>
-      <c r="D257" s="110"/>
-      <c r="E257" s="110"/>
-      <c r="F257" s="108"/>
-      <c r="G257" s="104"/>
-      <c r="H257" s="106"/>
+      <c r="C257" s="105"/>
+      <c r="D257" s="107"/>
+      <c r="E257" s="107"/>
+      <c r="F257" s="109"/>
+      <c r="G257" s="111"/>
+      <c r="H257" s="103"/>
     </row>
     <row r="258" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
@@ -10993,20 +10984,20 @@
         <f t="shared" si="3"/>
         <v>0x2D4</v>
       </c>
-      <c r="C258" s="125" t="s">
+      <c r="C258" s="104" t="s">
         <v>812</v>
       </c>
-      <c r="D258" s="109" t="s">
+      <c r="D258" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E258" s="109"/>
-      <c r="F258" s="107" t="s">
+      <c r="E258" s="106"/>
+      <c r="F258" s="108" t="s">
         <v>812</v>
       </c>
-      <c r="G258" s="103">
-        <v>10</v>
-      </c>
-      <c r="H258" s="105" t="s">
+      <c r="G258" s="110">
+        <v>10</v>
+      </c>
+      <c r="H258" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11018,12 +11009,12 @@
         <f t="shared" si="3"/>
         <v>0x2D6</v>
       </c>
-      <c r="C259" s="126"/>
-      <c r="D259" s="110"/>
-      <c r="E259" s="110"/>
-      <c r="F259" s="108"/>
-      <c r="G259" s="104"/>
-      <c r="H259" s="106"/>
+      <c r="C259" s="105"/>
+      <c r="D259" s="107"/>
+      <c r="E259" s="107"/>
+      <c r="F259" s="109"/>
+      <c r="G259" s="111"/>
+      <c r="H259" s="103"/>
     </row>
     <row r="260" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
@@ -11033,20 +11024,20 @@
         <f t="shared" si="3"/>
         <v>0x2D8</v>
       </c>
-      <c r="C260" s="125" t="s">
+      <c r="C260" s="104" t="s">
         <v>813</v>
       </c>
-      <c r="D260" s="109" t="s">
+      <c r="D260" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E260" s="109"/>
-      <c r="F260" s="107" t="s">
+      <c r="E260" s="106"/>
+      <c r="F260" s="108" t="s">
         <v>813</v>
       </c>
-      <c r="G260" s="103">
-        <v>10</v>
-      </c>
-      <c r="H260" s="105" t="s">
+      <c r="G260" s="110">
+        <v>10</v>
+      </c>
+      <c r="H260" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11058,12 +11049,12 @@
         <f t="shared" si="3"/>
         <v>0x2DA</v>
       </c>
-      <c r="C261" s="126"/>
-      <c r="D261" s="110"/>
-      <c r="E261" s="110"/>
-      <c r="F261" s="108"/>
-      <c r="G261" s="104"/>
-      <c r="H261" s="106"/>
+      <c r="C261" s="105"/>
+      <c r="D261" s="107"/>
+      <c r="E261" s="107"/>
+      <c r="F261" s="109"/>
+      <c r="G261" s="111"/>
+      <c r="H261" s="103"/>
     </row>
     <row r="262" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
@@ -11083,7 +11074,7 @@
       <c r="F262" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="G262" s="97">
+      <c r="G262" s="96">
         <v>10</v>
       </c>
       <c r="H262" s="5" t="s">
@@ -11098,20 +11089,20 @@
         <f t="shared" si="3"/>
         <v>0x2DE</v>
       </c>
-      <c r="C263" s="125" t="s">
+      <c r="C263" s="104" t="s">
         <v>783</v>
       </c>
-      <c r="D263" s="109" t="s">
+      <c r="D263" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E263" s="109"/>
-      <c r="F263" s="107" t="s">
+      <c r="E263" s="106"/>
+      <c r="F263" s="108" t="s">
         <v>780</v>
       </c>
-      <c r="G263" s="103">
+      <c r="G263" s="110">
         <v>7</v>
       </c>
-      <c r="H263" s="105" t="s">
+      <c r="H263" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11123,12 +11114,12 @@
         <f t="shared" si="3"/>
         <v>0x2E0</v>
       </c>
-      <c r="C264" s="126"/>
-      <c r="D264" s="110"/>
-      <c r="E264" s="110"/>
-      <c r="F264" s="108"/>
-      <c r="G264" s="104"/>
-      <c r="H264" s="106"/>
+      <c r="C264" s="105"/>
+      <c r="D264" s="107"/>
+      <c r="E264" s="107"/>
+      <c r="F264" s="109"/>
+      <c r="G264" s="111"/>
+      <c r="H264" s="103"/>
     </row>
     <row r="265" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
@@ -11138,20 +11129,20 @@
         <f t="shared" si="3"/>
         <v>0x2E2</v>
       </c>
-      <c r="C265" s="125" t="s">
+      <c r="C265" s="104" t="s">
         <v>784</v>
       </c>
-      <c r="D265" s="109" t="s">
+      <c r="D265" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E265" s="109"/>
-      <c r="F265" s="107" t="s">
+      <c r="E265" s="106"/>
+      <c r="F265" s="108" t="s">
         <v>781</v>
       </c>
-      <c r="G265" s="103">
+      <c r="G265" s="110">
         <v>7</v>
       </c>
-      <c r="H265" s="105" t="s">
+      <c r="H265" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11163,12 +11154,12 @@
         <f t="shared" si="3"/>
         <v>0x2E4</v>
       </c>
-      <c r="C266" s="126"/>
-      <c r="D266" s="110"/>
-      <c r="E266" s="110"/>
-      <c r="F266" s="108"/>
-      <c r="G266" s="104"/>
-      <c r="H266" s="106"/>
+      <c r="C266" s="105"/>
+      <c r="D266" s="107"/>
+      <c r="E266" s="107"/>
+      <c r="F266" s="109"/>
+      <c r="G266" s="111"/>
+      <c r="H266" s="103"/>
     </row>
     <row r="267" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
@@ -11178,20 +11169,20 @@
         <f t="shared" si="3"/>
         <v>0x2E6</v>
       </c>
-      <c r="C267" s="125" t="s">
+      <c r="C267" s="104" t="s">
         <v>785</v>
       </c>
-      <c r="D267" s="109" t="s">
+      <c r="D267" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E267" s="109"/>
-      <c r="F267" s="107" t="s">
+      <c r="E267" s="106"/>
+      <c r="F267" s="108" t="s">
         <v>782</v>
       </c>
-      <c r="G267" s="103">
+      <c r="G267" s="110">
         <v>7</v>
       </c>
-      <c r="H267" s="105" t="s">
+      <c r="H267" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11203,12 +11194,12 @@
         <f t="shared" si="3"/>
         <v>0x2E8</v>
       </c>
-      <c r="C268" s="126"/>
-      <c r="D268" s="110"/>
-      <c r="E268" s="110"/>
-      <c r="F268" s="108"/>
-      <c r="G268" s="104"/>
-      <c r="H268" s="106"/>
+      <c r="C268" s="105"/>
+      <c r="D268" s="107"/>
+      <c r="E268" s="107"/>
+      <c r="F268" s="109"/>
+      <c r="G268" s="111"/>
+      <c r="H268" s="103"/>
     </row>
     <row r="269" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
@@ -11230,7 +11221,7 @@
       <c r="F269" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="G269" s="97">
+      <c r="G269" s="96">
         <v>10</v>
       </c>
       <c r="H269" s="5" t="s">
@@ -11257,7 +11248,7 @@
       <c r="F270" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="G270" s="97">
+      <c r="G270" s="96">
         <v>10</v>
       </c>
       <c r="H270" s="5" t="s">
@@ -11272,20 +11263,20 @@
         <f t="shared" si="3"/>
         <v>0x2EE</v>
       </c>
-      <c r="C271" s="125" t="s">
+      <c r="C271" s="104" t="s">
         <v>789</v>
       </c>
-      <c r="D271" s="109" t="s">
+      <c r="D271" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E271" s="109"/>
-      <c r="F271" s="107" t="s">
+      <c r="E271" s="106"/>
+      <c r="F271" s="108" t="s">
         <v>790</v>
       </c>
-      <c r="G271" s="103">
-        <v>10</v>
-      </c>
-      <c r="H271" s="105" t="s">
+      <c r="G271" s="110">
+        <v>10</v>
+      </c>
+      <c r="H271" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11297,12 +11288,12 @@
         <f t="shared" si="3"/>
         <v>0x2F0</v>
       </c>
-      <c r="C272" s="126"/>
-      <c r="D272" s="110"/>
-      <c r="E272" s="110"/>
-      <c r="F272" s="108"/>
-      <c r="G272" s="104"/>
-      <c r="H272" s="106"/>
+      <c r="C272" s="105"/>
+      <c r="D272" s="107"/>
+      <c r="E272" s="107"/>
+      <c r="F272" s="109"/>
+      <c r="G272" s="111"/>
+      <c r="H272" s="103"/>
     </row>
     <row r="273" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
@@ -11312,20 +11303,20 @@
         <f t="shared" si="3"/>
         <v>0x2F2</v>
       </c>
-      <c r="C273" s="125" t="s">
+      <c r="C273" s="104" t="s">
         <v>791</v>
       </c>
-      <c r="D273" s="109" t="s">
+      <c r="D273" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E273" s="109"/>
-      <c r="F273" s="107" t="s">
+      <c r="E273" s="106"/>
+      <c r="F273" s="108" t="s">
         <v>792</v>
       </c>
-      <c r="G273" s="103">
-        <v>10</v>
-      </c>
-      <c r="H273" s="105" t="s">
+      <c r="G273" s="110">
+        <v>10</v>
+      </c>
+      <c r="H273" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11337,12 +11328,12 @@
         <f t="shared" si="3"/>
         <v>0x2F4</v>
       </c>
-      <c r="C274" s="126"/>
-      <c r="D274" s="110"/>
-      <c r="E274" s="110"/>
-      <c r="F274" s="108"/>
-      <c r="G274" s="104"/>
-      <c r="H274" s="106"/>
+      <c r="C274" s="105"/>
+      <c r="D274" s="107"/>
+      <c r="E274" s="107"/>
+      <c r="F274" s="109"/>
+      <c r="G274" s="111"/>
+      <c r="H274" s="103"/>
     </row>
     <row r="275" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
@@ -11352,20 +11343,20 @@
         <f t="shared" ref="B275:B288" si="11" xml:space="preserve"> "0x" &amp; DEC2HEX(A275)</f>
         <v>0x30E</v>
       </c>
-      <c r="C275" s="125" t="s">
+      <c r="C275" s="104" t="s">
         <v>815</v>
       </c>
-      <c r="D275" s="109" t="s">
+      <c r="D275" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E275" s="109"/>
-      <c r="F275" s="107" t="s">
+      <c r="E275" s="106"/>
+      <c r="F275" s="108" t="s">
         <v>815</v>
       </c>
-      <c r="G275" s="103">
-        <v>10</v>
-      </c>
-      <c r="H275" s="105" t="s">
+      <c r="G275" s="110">
+        <v>10</v>
+      </c>
+      <c r="H275" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11377,12 +11368,12 @@
         <f t="shared" si="11"/>
         <v>0x310</v>
       </c>
-      <c r="C276" s="126"/>
-      <c r="D276" s="110"/>
-      <c r="E276" s="110"/>
-      <c r="F276" s="108"/>
-      <c r="G276" s="104"/>
-      <c r="H276" s="106"/>
+      <c r="C276" s="105"/>
+      <c r="D276" s="107"/>
+      <c r="E276" s="107"/>
+      <c r="F276" s="109"/>
+      <c r="G276" s="111"/>
+      <c r="H276" s="103"/>
     </row>
     <row r="277" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
@@ -11392,20 +11383,20 @@
         <f t="shared" si="11"/>
         <v>0x312</v>
       </c>
-      <c r="C277" s="125" t="s">
+      <c r="C277" s="104" t="s">
         <v>816</v>
       </c>
-      <c r="D277" s="109" t="s">
+      <c r="D277" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E277" s="109"/>
-      <c r="F277" s="107" t="s">
+      <c r="E277" s="106"/>
+      <c r="F277" s="108" t="s">
         <v>816</v>
       </c>
-      <c r="G277" s="103">
-        <v>10</v>
-      </c>
-      <c r="H277" s="105" t="s">
+      <c r="G277" s="110">
+        <v>10</v>
+      </c>
+      <c r="H277" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11417,12 +11408,12 @@
         <f t="shared" si="11"/>
         <v>0x314</v>
       </c>
-      <c r="C278" s="126"/>
-      <c r="D278" s="110"/>
-      <c r="E278" s="110"/>
-      <c r="F278" s="108"/>
-      <c r="G278" s="104"/>
-      <c r="H278" s="106"/>
+      <c r="C278" s="105"/>
+      <c r="D278" s="107"/>
+      <c r="E278" s="107"/>
+      <c r="F278" s="109"/>
+      <c r="G278" s="111"/>
+      <c r="H278" s="103"/>
     </row>
     <row r="279" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
@@ -11432,20 +11423,20 @@
         <f t="shared" si="11"/>
         <v>0x316</v>
       </c>
-      <c r="C279" s="125" t="s">
+      <c r="C279" s="104" t="s">
         <v>817</v>
       </c>
-      <c r="D279" s="109" t="s">
+      <c r="D279" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E279" s="109"/>
-      <c r="F279" s="107" t="s">
+      <c r="E279" s="106"/>
+      <c r="F279" s="108" t="s">
         <v>817</v>
       </c>
-      <c r="G279" s="103">
-        <v>10</v>
-      </c>
-      <c r="H279" s="105" t="s">
+      <c r="G279" s="110">
+        <v>10</v>
+      </c>
+      <c r="H279" s="102" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11457,12 +11448,12 @@
         <f t="shared" si="11"/>
         <v>0x318</v>
       </c>
-      <c r="C280" s="126"/>
-      <c r="D280" s="110"/>
-      <c r="E280" s="110"/>
-      <c r="F280" s="108"/>
-      <c r="G280" s="104"/>
-      <c r="H280" s="106"/>
+      <c r="C280" s="105"/>
+      <c r="D280" s="107"/>
+      <c r="E280" s="107"/>
+      <c r="F280" s="109"/>
+      <c r="G280" s="111"/>
+      <c r="H280" s="103"/>
     </row>
     <row r="281" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
@@ -11484,7 +11475,7 @@
       <c r="F281" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="G281" s="97">
+      <c r="G281" s="96">
         <v>10</v>
       </c>
       <c r="H281" s="5" t="s">
@@ -11511,7 +11502,7 @@
       <c r="F282" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="G282" s="97">
+      <c r="G282" s="96">
         <v>10</v>
       </c>
       <c r="H282" s="5" t="s">
@@ -11526,20 +11517,20 @@
         <f t="shared" si="11"/>
         <v>0x344</v>
       </c>
-      <c r="C283" s="125" t="s">
+      <c r="C283" s="104" t="s">
         <v>820</v>
       </c>
-      <c r="D283" s="109" t="s">
+      <c r="D283" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E283" s="109"/>
-      <c r="F283" s="107" t="s">
+      <c r="E283" s="106"/>
+      <c r="F283" s="108" t="s">
         <v>821</v>
       </c>
-      <c r="G283" s="103">
-        <v>10</v>
-      </c>
-      <c r="H283" s="105" t="s">
+      <c r="G283" s="110">
+        <v>10</v>
+      </c>
+      <c r="H283" s="102" t="s">
         <v>822</v>
       </c>
     </row>
@@ -11551,12 +11542,12 @@
         <f t="shared" si="11"/>
         <v>0x346</v>
       </c>
-      <c r="C284" s="126"/>
-      <c r="D284" s="110"/>
-      <c r="E284" s="110"/>
-      <c r="F284" s="108"/>
-      <c r="G284" s="104"/>
-      <c r="H284" s="106"/>
+      <c r="C284" s="105"/>
+      <c r="D284" s="107"/>
+      <c r="E284" s="107"/>
+      <c r="F284" s="109"/>
+      <c r="G284" s="111"/>
+      <c r="H284" s="103"/>
     </row>
     <row r="285" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
@@ -11566,20 +11557,20 @@
         <f t="shared" si="11"/>
         <v>0x348</v>
       </c>
-      <c r="C285" s="125" t="s">
+      <c r="C285" s="104" t="s">
         <v>823</v>
       </c>
-      <c r="D285" s="109" t="s">
+      <c r="D285" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E285" s="109"/>
-      <c r="F285" s="107" t="s">
+      <c r="E285" s="106"/>
+      <c r="F285" s="108" t="s">
         <v>824</v>
       </c>
-      <c r="G285" s="103">
-        <v>10</v>
-      </c>
-      <c r="H285" s="105" t="s">
+      <c r="G285" s="110">
+        <v>10</v>
+      </c>
+      <c r="H285" s="102" t="s">
         <v>822</v>
       </c>
     </row>
@@ -11591,12 +11582,12 @@
         <f t="shared" si="11"/>
         <v>0x34A</v>
       </c>
-      <c r="C286" s="126"/>
-      <c r="D286" s="110"/>
-      <c r="E286" s="110"/>
-      <c r="F286" s="108"/>
-      <c r="G286" s="104"/>
-      <c r="H286" s="106"/>
+      <c r="C286" s="105"/>
+      <c r="D286" s="107"/>
+      <c r="E286" s="107"/>
+      <c r="F286" s="109"/>
+      <c r="G286" s="111"/>
+      <c r="H286" s="103"/>
     </row>
     <row r="287" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
@@ -11606,20 +11597,20 @@
         <f t="shared" si="11"/>
         <v>0x34C</v>
       </c>
-      <c r="C287" s="125" t="s">
+      <c r="C287" s="104" t="s">
         <v>825</v>
       </c>
-      <c r="D287" s="109" t="s">
+      <c r="D287" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E287" s="109"/>
-      <c r="F287" s="107" t="s">
+      <c r="E287" s="106"/>
+      <c r="F287" s="108" t="s">
         <v>826</v>
       </c>
-      <c r="G287" s="103">
-        <v>10</v>
-      </c>
-      <c r="H287" s="105" t="s">
+      <c r="G287" s="110">
+        <v>10</v>
+      </c>
+      <c r="H287" s="102" t="s">
         <v>822</v>
       </c>
     </row>
@@ -11631,12 +11622,12 @@
         <f t="shared" si="11"/>
         <v>0x34E</v>
       </c>
-      <c r="C288" s="126"/>
-      <c r="D288" s="110"/>
-      <c r="E288" s="110"/>
-      <c r="F288" s="108"/>
-      <c r="G288" s="104"/>
-      <c r="H288" s="106"/>
+      <c r="C288" s="105"/>
+      <c r="D288" s="107"/>
+      <c r="E288" s="107"/>
+      <c r="F288" s="109"/>
+      <c r="G288" s="111"/>
+      <c r="H288" s="103"/>
     </row>
     <row r="289" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
@@ -11646,20 +11637,20 @@
         <f xml:space="preserve"> "0x" &amp; DEC2HEX(A289)</f>
         <v>0x350</v>
       </c>
-      <c r="C289" s="125" t="s">
+      <c r="C289" s="104" t="s">
         <v>827</v>
       </c>
-      <c r="D289" s="109" t="s">
+      <c r="D289" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E289" s="109"/>
-      <c r="F289" s="107" t="s">
+      <c r="E289" s="106"/>
+      <c r="F289" s="108" t="s">
         <v>828</v>
       </c>
-      <c r="G289" s="103">
-        <v>10</v>
-      </c>
-      <c r="H289" s="105" t="s">
+      <c r="G289" s="110">
+        <v>10</v>
+      </c>
+      <c r="H289" s="102" t="s">
         <v>822</v>
       </c>
     </row>
@@ -11671,12 +11662,12 @@
         <f xml:space="preserve"> "0x" &amp; DEC2HEX(A290)</f>
         <v>0x352</v>
       </c>
-      <c r="C290" s="126"/>
-      <c r="D290" s="110"/>
-      <c r="E290" s="110"/>
-      <c r="F290" s="108"/>
-      <c r="G290" s="104"/>
-      <c r="H290" s="106"/>
+      <c r="C290" s="105"/>
+      <c r="D290" s="107"/>
+      <c r="E290" s="107"/>
+      <c r="F290" s="109"/>
+      <c r="G290" s="111"/>
+      <c r="H290" s="103"/>
     </row>
     <row r="291" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
@@ -11698,7 +11689,7 @@
       <c r="F291" s="48" t="s">
         <v>869</v>
       </c>
-      <c r="G291" s="101">
+      <c r="G291" s="100">
         <v>10</v>
       </c>
       <c r="H291" s="50" t="s">
@@ -11725,7 +11716,7 @@
       <c r="F292" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="G292" s="97">
+      <c r="G292" s="96">
         <v>10</v>
       </c>
       <c r="H292" s="5" t="s">
@@ -11752,7 +11743,7 @@
       <c r="F293" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="G293" s="97">
+      <c r="G293" s="96">
         <v>10</v>
       </c>
       <c r="H293" s="5" t="s">
@@ -11779,7 +11770,7 @@
       <c r="F294" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="G294" s="97">
+      <c r="G294" s="96">
         <v>10</v>
       </c>
       <c r="H294" s="5" t="s">
@@ -11794,22 +11785,22 @@
         <f t="shared" si="12"/>
         <v>0x40C</v>
       </c>
-      <c r="C295" s="125" t="s">
+      <c r="C295" s="104" t="s">
         <v>853</v>
       </c>
-      <c r="D295" s="109" t="s">
+      <c r="D295" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E295" s="111" t="s">
+      <c r="E295" s="124" t="s">
         <v>835</v>
       </c>
-      <c r="F295" s="107" t="s">
+      <c r="F295" s="108" t="s">
         <v>836</v>
       </c>
-      <c r="G295" s="103">
-        <v>10</v>
-      </c>
-      <c r="H295" s="105" t="s">
+      <c r="G295" s="110">
+        <v>10</v>
+      </c>
+      <c r="H295" s="102" t="s">
         <v>829</v>
       </c>
     </row>
@@ -11821,12 +11812,12 @@
         <f t="shared" si="12"/>
         <v>0x40A</v>
       </c>
-      <c r="C296" s="126"/>
-      <c r="D296" s="110"/>
-      <c r="E296" s="112"/>
-      <c r="F296" s="108"/>
-      <c r="G296" s="104"/>
-      <c r="H296" s="106"/>
+      <c r="C296" s="105"/>
+      <c r="D296" s="107"/>
+      <c r="E296" s="125"/>
+      <c r="F296" s="109"/>
+      <c r="G296" s="111"/>
+      <c r="H296" s="103"/>
     </row>
     <row r="297" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
@@ -11848,7 +11839,7 @@
       <c r="F297" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="G297" s="97">
+      <c r="G297" s="96">
         <v>10</v>
       </c>
       <c r="H297" s="5" t="s">
@@ -11860,126 +11851,302 @@
     <sortCondition ref="A4:A204"/>
   </sortState>
   <mergeCells count="440">
-    <mergeCell ref="H287:H288"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="E289:E290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="G289:G290"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="F287:F288"/>
-    <mergeCell ref="G287:G288"/>
-    <mergeCell ref="H273:H274"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="F275:F276"/>
-    <mergeCell ref="G275:G276"/>
-    <mergeCell ref="H275:H276"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="E273:E274"/>
-    <mergeCell ref="F273:F274"/>
-    <mergeCell ref="G273:G274"/>
-    <mergeCell ref="H277:H278"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="F279:F280"/>
-    <mergeCell ref="G279:G280"/>
-    <mergeCell ref="H279:H280"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="F277:F278"/>
-    <mergeCell ref="G277:G278"/>
-    <mergeCell ref="H283:H284"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="G285:G286"/>
-    <mergeCell ref="H285:H286"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="F283:F284"/>
-    <mergeCell ref="G283:G284"/>
-    <mergeCell ref="H258:H259"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="F260:F261"/>
-    <mergeCell ref="G260:G261"/>
-    <mergeCell ref="H260:H261"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="D258:D259"/>
-    <mergeCell ref="E258:E259"/>
-    <mergeCell ref="F258:F259"/>
-    <mergeCell ref="G258:G259"/>
-    <mergeCell ref="H263:H264"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="E265:E266"/>
-    <mergeCell ref="F265:F266"/>
-    <mergeCell ref="G265:G266"/>
-    <mergeCell ref="H265:H266"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="E263:E264"/>
-    <mergeCell ref="F263:F264"/>
-    <mergeCell ref="G263:G264"/>
-    <mergeCell ref="H267:H268"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="F271:F272"/>
-    <mergeCell ref="G271:G272"/>
-    <mergeCell ref="H271:H272"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="F267:F268"/>
-    <mergeCell ref="E267:E268"/>
-    <mergeCell ref="G267:G268"/>
-    <mergeCell ref="H246:H247"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="E248:E249"/>
-    <mergeCell ref="F248:F249"/>
-    <mergeCell ref="G248:G249"/>
-    <mergeCell ref="H248:H249"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="F246:F247"/>
-    <mergeCell ref="G246:G247"/>
-    <mergeCell ref="H250:H251"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="D252:D253"/>
-    <mergeCell ref="E252:E253"/>
-    <mergeCell ref="F252:F253"/>
-    <mergeCell ref="G252:G253"/>
-    <mergeCell ref="H252:H253"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="E250:E251"/>
-    <mergeCell ref="F250:F251"/>
-    <mergeCell ref="G250:G251"/>
-    <mergeCell ref="H254:H255"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="E256:E257"/>
-    <mergeCell ref="F256:F257"/>
-    <mergeCell ref="G256:G257"/>
-    <mergeCell ref="H256:H257"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="G254:G255"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="H295:H296"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="G295:G296"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="H177:H178"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="H225:H226"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="G223:G224"/>
+    <mergeCell ref="H223:H224"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H235:H236"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="E237:E238"/>
+    <mergeCell ref="F237:F238"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="H237:H238"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="E235:E236"/>
+    <mergeCell ref="F235:F236"/>
+    <mergeCell ref="G235:G236"/>
     <mergeCell ref="H233:H234"/>
     <mergeCell ref="C215:C216"/>
     <mergeCell ref="D215:D216"/>
@@ -12004,302 +12171,126 @@
     <mergeCell ref="E229:E230"/>
     <mergeCell ref="F229:F230"/>
     <mergeCell ref="G229:G230"/>
-    <mergeCell ref="H235:H236"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="E237:E238"/>
-    <mergeCell ref="F237:F238"/>
-    <mergeCell ref="G237:G238"/>
-    <mergeCell ref="H237:H238"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="E235:E236"/>
-    <mergeCell ref="F235:F236"/>
-    <mergeCell ref="G235:G236"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="F223:F224"/>
-    <mergeCell ref="G223:G224"/>
-    <mergeCell ref="H223:H224"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="G221:G222"/>
-    <mergeCell ref="H225:H226"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="F225:F226"/>
-    <mergeCell ref="G225:G226"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H209:H210"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="H177:H178"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="H179:H180"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="H183:H184"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H295:H296"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="E295:E296"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="G295:G296"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H254:H255"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="F256:F257"/>
+    <mergeCell ref="G256:G257"/>
+    <mergeCell ref="H256:H257"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="G254:G255"/>
+    <mergeCell ref="H250:H251"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="D252:D253"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="F252:F253"/>
+    <mergeCell ref="G252:G253"/>
+    <mergeCell ref="H252:H253"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="F250:F251"/>
+    <mergeCell ref="G250:G251"/>
+    <mergeCell ref="H246:H247"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="D248:D249"/>
+    <mergeCell ref="E248:E249"/>
+    <mergeCell ref="F248:F249"/>
+    <mergeCell ref="G248:G249"/>
+    <mergeCell ref="H248:H249"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="F246:F247"/>
+    <mergeCell ref="G246:G247"/>
+    <mergeCell ref="H267:H268"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="F271:F272"/>
+    <mergeCell ref="G271:G272"/>
+    <mergeCell ref="H271:H272"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="F267:F268"/>
+    <mergeCell ref="E267:E268"/>
+    <mergeCell ref="G267:G268"/>
+    <mergeCell ref="H263:H264"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="E265:E266"/>
+    <mergeCell ref="F265:F266"/>
+    <mergeCell ref="G265:G266"/>
+    <mergeCell ref="H265:H266"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="E263:E264"/>
+    <mergeCell ref="F263:F264"/>
+    <mergeCell ref="G263:G264"/>
+    <mergeCell ref="H258:H259"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="F260:F261"/>
+    <mergeCell ref="G260:G261"/>
+    <mergeCell ref="H260:H261"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="D258:D259"/>
+    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="F258:F259"/>
+    <mergeCell ref="G258:G259"/>
+    <mergeCell ref="H283:H284"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="G285:G286"/>
+    <mergeCell ref="H285:H286"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="F283:F284"/>
+    <mergeCell ref="G283:G284"/>
+    <mergeCell ref="H277:H278"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="F279:F280"/>
+    <mergeCell ref="G279:G280"/>
+    <mergeCell ref="H279:H280"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="F277:F278"/>
+    <mergeCell ref="G277:G278"/>
+    <mergeCell ref="H273:H274"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="F275:F276"/>
+    <mergeCell ref="G275:G276"/>
+    <mergeCell ref="H275:H276"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="F273:F274"/>
+    <mergeCell ref="G273:G274"/>
+    <mergeCell ref="H287:H288"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="G289:G290"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
+    <mergeCell ref="F287:F288"/>
+    <mergeCell ref="G287:G288"/>
   </mergeCells>
   <conditionalFormatting sqref="D239">
     <cfRule type="containsText" dxfId="72" priority="57" operator="containsText" text="float">
@@ -12617,12 +12608,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A478" sqref="A478:E478"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -12633,43 +12624,43 @@
     <col min="4" max="4" width="9.140625" style="57"/>
     <col min="5" max="5" width="13.42578125" style="57" customWidth="1"/>
     <col min="6" max="6" width="120" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="98" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="97" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>991</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="112" t="s">
         <v>767</v>
       </c>
     </row>
@@ -12680,12 +12671,12 @@
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="114"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="113"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -12695,20 +12686,20 @@
         <f t="shared" ref="B4:B45" si="0">"0x" &amp; DEC2HEX(A4)</f>
         <v>0x14</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="125" t="s">
+      <c r="E4" s="134"/>
+      <c r="F4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="103">
+      <c r="G4" s="110">
         <v>1</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="102" t="s">
         <v>772</v>
       </c>
     </row>
@@ -12720,12 +12711,12 @@
         <f t="shared" si="0"/>
         <v>0x16</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="106"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="103"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -12747,7 +12738,7 @@
       <c r="F6" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="G6" s="97">
+      <c r="G6" s="96">
         <v>3.34</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -12772,7 +12763,7 @@
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="97">
+      <c r="G7" s="96">
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -12797,7 +12788,7 @@
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="96">
         <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -12824,7 +12815,7 @@
       <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="96">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -12851,7 +12842,7 @@
       <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="96">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -12878,7 +12869,7 @@
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="96">
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -12905,7 +12896,7 @@
       <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="96">
         <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -12932,7 +12923,7 @@
       <c r="F13" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="G13" s="97">
+      <c r="G13" s="96">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -12959,7 +12950,7 @@
       <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="97">
+      <c r="G14" s="96">
         <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -12986,7 +12977,7 @@
       <c r="F15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="97">
+      <c r="G15" s="96">
         <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -13011,7 +13002,7 @@
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="97">
+      <c r="G16" s="96">
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -13036,7 +13027,7 @@
       <c r="F17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="97">
+      <c r="G17" s="96">
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -13061,7 +13052,7 @@
       <c r="F18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="97">
+      <c r="G18" s="96">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -13088,7 +13079,7 @@
       <c r="F19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="97">
+      <c r="G19" s="96">
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -13113,7 +13104,7 @@
       <c r="F20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="97">
+      <c r="G20" s="96">
         <v>3</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -13138,7 +13129,7 @@
       <c r="F21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="97">
+      <c r="G21" s="96">
         <v>3</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -13163,7 +13154,7 @@
       <c r="F22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="97">
+      <c r="G22" s="96">
         <v>3</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -13178,20 +13169,20 @@
         <f t="shared" si="0"/>
         <v>0x84</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="109" t="s">
+      <c r="D23" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="135"/>
-      <c r="F23" s="125" t="s">
+      <c r="E23" s="132"/>
+      <c r="F23" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="103">
+      <c r="G23" s="110">
         <v>3</v>
       </c>
-      <c r="H23" s="105" t="s">
+      <c r="H23" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13203,12 +13194,12 @@
         <f t="shared" si="0"/>
         <v>0x86</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="106"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="103"/>
     </row>
     <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
@@ -13218,20 +13209,20 @@
         <f t="shared" si="0"/>
         <v>0x88</v>
       </c>
-      <c r="C25" s="133" t="s">
+      <c r="C25" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="109" t="s">
+      <c r="D25" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="135"/>
-      <c r="F25" s="125" t="s">
+      <c r="E25" s="132"/>
+      <c r="F25" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="103">
+      <c r="G25" s="110">
         <v>3</v>
       </c>
-      <c r="H25" s="105" t="s">
+      <c r="H25" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13243,12 +13234,12 @@
         <f t="shared" si="0"/>
         <v>0x8A</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="106"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="103"/>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -13268,7 +13259,7 @@
       <c r="F27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="97">
+      <c r="G27" s="96">
         <v>3</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -13293,7 +13284,7 @@
       <c r="F28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="97">
+      <c r="G28" s="96">
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -13308,20 +13299,20 @@
         <f t="shared" si="0"/>
         <v>0x90</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="135"/>
-      <c r="F29" s="125" t="s">
+      <c r="E29" s="132"/>
+      <c r="F29" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="103">
+      <c r="G29" s="110">
         <v>3</v>
       </c>
-      <c r="H29" s="105" t="s">
+      <c r="H29" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13333,12 +13324,12 @@
         <f t="shared" si="0"/>
         <v>0x92</v>
       </c>
-      <c r="C30" s="134"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="106"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="103"/>
     </row>
     <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
@@ -13348,20 +13339,20 @@
         <f t="shared" si="0"/>
         <v>0x94</v>
       </c>
-      <c r="C31" s="133" t="s">
+      <c r="C31" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="135"/>
-      <c r="F31" s="125" t="s">
+      <c r="E31" s="132"/>
+      <c r="F31" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="103">
+      <c r="G31" s="110">
         <v>3</v>
       </c>
-      <c r="H31" s="105" t="s">
+      <c r="H31" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13373,12 +13364,12 @@
         <f t="shared" si="0"/>
         <v>0x96</v>
       </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="106"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="103"/>
     </row>
     <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
@@ -13398,7 +13389,7 @@
       <c r="F33" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="97">
+      <c r="G33" s="96">
         <v>3</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -13423,7 +13414,7 @@
       <c r="F34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="97">
+      <c r="G34" s="96">
         <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -13438,20 +13429,20 @@
         <f t="shared" si="0"/>
         <v>0x9C</v>
       </c>
-      <c r="C35" s="133" t="s">
+      <c r="C35" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="135"/>
-      <c r="F35" s="125" t="s">
+      <c r="E35" s="132"/>
+      <c r="F35" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="103">
+      <c r="G35" s="110">
         <v>3</v>
       </c>
-      <c r="H35" s="105" t="s">
+      <c r="H35" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13463,12 +13454,12 @@
         <f t="shared" si="0"/>
         <v>0x9E</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="106"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="103"/>
     </row>
     <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
@@ -13478,20 +13469,20 @@
         <f t="shared" si="0"/>
         <v>0xA0</v>
       </c>
-      <c r="C37" s="133" t="s">
+      <c r="C37" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="109" t="s">
+      <c r="D37" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="135"/>
-      <c r="F37" s="125" t="s">
+      <c r="E37" s="132"/>
+      <c r="F37" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="103">
+      <c r="G37" s="110">
         <v>3</v>
       </c>
-      <c r="H37" s="105" t="s">
+      <c r="H37" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13503,12 +13494,12 @@
         <f t="shared" si="0"/>
         <v>0xA2</v>
       </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="106"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="103"/>
     </row>
     <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
@@ -13528,7 +13519,7 @@
       <c r="F39" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="97">
+      <c r="G39" s="96">
         <v>3</v>
       </c>
       <c r="H39" s="5" t="s">
@@ -13553,7 +13544,7 @@
       <c r="F40" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="97">
+      <c r="G40" s="96">
         <v>3</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -13568,20 +13559,20 @@
         <f t="shared" si="0"/>
         <v>0xA8</v>
       </c>
-      <c r="C41" s="133" t="s">
+      <c r="C41" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="109" t="s">
+      <c r="D41" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="135"/>
-      <c r="F41" s="125" t="s">
+      <c r="E41" s="132"/>
+      <c r="F41" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="103">
+      <c r="G41" s="110">
         <v>3</v>
       </c>
-      <c r="H41" s="105" t="s">
+      <c r="H41" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13593,12 +13584,12 @@
         <f t="shared" si="0"/>
         <v>0xAA</v>
       </c>
-      <c r="C42" s="134"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="106"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="103"/>
     </row>
     <row r="43" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
@@ -13608,20 +13599,20 @@
         <f t="shared" si="0"/>
         <v>0xAC</v>
       </c>
-      <c r="C43" s="133" t="s">
+      <c r="C43" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="109" t="s">
+      <c r="D43" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="135"/>
-      <c r="F43" s="125" t="s">
+      <c r="E43" s="132"/>
+      <c r="F43" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="103">
+      <c r="G43" s="110">
         <v>3</v>
       </c>
-      <c r="H43" s="105" t="s">
+      <c r="H43" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13633,12 +13624,12 @@
         <f t="shared" si="0"/>
         <v>0xAE</v>
       </c>
-      <c r="C44" s="134"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="106"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -13658,7 +13649,7 @@
       <c r="F45" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="97">
+      <c r="G45" s="96">
         <v>3</v>
       </c>
       <c r="H45" s="5" t="s">
@@ -13670,7 +13661,7 @@
         <v>178</v>
       </c>
       <c r="B46" s="4" t="str">
-        <f t="shared" ref="B46:B92" si="1">"0x" &amp; DEC2HEX(A46)</f>
+        <f t="shared" ref="B46:B88" si="1">"0x" &amp; DEC2HEX(A46)</f>
         <v>0xB2</v>
       </c>
       <c r="C46" s="51" t="s">
@@ -13683,7 +13674,7 @@
       <c r="F46" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G46" s="97">
+      <c r="G46" s="96">
         <v>3</v>
       </c>
       <c r="H46" s="5" t="s">
@@ -13698,20 +13689,20 @@
         <f t="shared" si="1"/>
         <v>0xB4</v>
       </c>
-      <c r="C47" s="133" t="s">
+      <c r="C47" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="109" t="s">
+      <c r="D47" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="135"/>
-      <c r="F47" s="125" t="s">
+      <c r="E47" s="132"/>
+      <c r="F47" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="103">
+      <c r="G47" s="110">
         <v>3</v>
       </c>
-      <c r="H47" s="105" t="s">
+      <c r="H47" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13723,12 +13714,12 @@
         <f t="shared" si="1"/>
         <v>0xB6</v>
       </c>
-      <c r="C48" s="134"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="106"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="103"/>
     </row>
     <row r="49" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
@@ -13738,20 +13729,20 @@
         <f t="shared" si="1"/>
         <v>0xB8</v>
       </c>
-      <c r="C49" s="133" t="s">
+      <c r="C49" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="109" t="s">
+      <c r="D49" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="135"/>
-      <c r="F49" s="125" t="s">
+      <c r="E49" s="132"/>
+      <c r="F49" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="103">
+      <c r="G49" s="110">
         <v>3</v>
       </c>
-      <c r="H49" s="105" t="s">
+      <c r="H49" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13763,12 +13754,12 @@
         <f t="shared" si="1"/>
         <v>0xBA</v>
       </c>
-      <c r="C50" s="134"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="106"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="103"/>
     </row>
     <row r="51" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
@@ -13788,7 +13779,7 @@
       <c r="F51" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="97">
+      <c r="G51" s="96">
         <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -13813,7 +13804,7 @@
       <c r="F52" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="97">
+      <c r="G52" s="96">
         <v>3</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -13828,20 +13819,20 @@
         <f t="shared" si="1"/>
         <v>0xC0</v>
       </c>
-      <c r="C53" s="133" t="s">
+      <c r="C53" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="109" t="s">
+      <c r="D53" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="135"/>
-      <c r="F53" s="125" t="s">
+      <c r="E53" s="132"/>
+      <c r="F53" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="G53" s="103">
+      <c r="G53" s="110">
         <v>3</v>
       </c>
-      <c r="H53" s="105" t="s">
+      <c r="H53" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13853,12 +13844,12 @@
         <f t="shared" si="1"/>
         <v>0xC2</v>
       </c>
-      <c r="C54" s="134"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="106"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="103"/>
     </row>
     <row r="55" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
@@ -13868,20 +13859,20 @@
         <f t="shared" si="1"/>
         <v>0xC4</v>
       </c>
-      <c r="C55" s="133" t="s">
+      <c r="C55" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="109" t="s">
+      <c r="D55" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="135"/>
-      <c r="F55" s="125" t="s">
+      <c r="E55" s="132"/>
+      <c r="F55" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="G55" s="103">
+      <c r="G55" s="110">
         <v>3</v>
       </c>
-      <c r="H55" s="105" t="s">
+      <c r="H55" s="102" t="s">
         <v>769</v>
       </c>
     </row>
@@ -13893,12 +13884,12 @@
         <f t="shared" si="1"/>
         <v>0xC6</v>
       </c>
-      <c r="C56" s="134"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="106"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="103"/>
     </row>
     <row r="57" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
@@ -13918,7 +13909,7 @@
       <c r="F57" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="97">
+      <c r="G57" s="96">
         <v>3</v>
       </c>
       <c r="H57" s="5" t="s">
@@ -13943,7 +13934,7 @@
       <c r="F58" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G58" s="97">
+      <c r="G58" s="96">
         <v>3</v>
       </c>
       <c r="H58" s="5" t="s">
@@ -13958,21 +13949,21 @@
         <f t="shared" si="1"/>
         <v>0xCC</v>
       </c>
-      <c r="C59" s="133" t="s">
+      <c r="C59" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="109" t="s">
+      <c r="D59" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="135"/>
-      <c r="F59" s="125" t="s">
+      <c r="E59" s="132"/>
+      <c r="F59" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="G59" s="103">
+      <c r="G59" s="110">
         <v>3</v>
       </c>
-      <c r="H59" s="105" t="s">
-        <v>771</v>
+      <c r="H59" s="102" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -13983,430 +13974,452 @@
         <f t="shared" si="1"/>
         <v>0xCE</v>
       </c>
-      <c r="C60" s="134"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="106"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="103"/>
     </row>
     <row r="61" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
-        <v>142</v>
-      </c>
-      <c r="B61" s="94" t="str">
+        <v>208</v>
+      </c>
+      <c r="B61" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0x8E</v>
-      </c>
-      <c r="C61" s="129" t="s">
-        <v>984</v>
-      </c>
-      <c r="D61" s="109" t="s">
+        <v>0xD0</v>
+      </c>
+      <c r="C61" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="131"/>
-      <c r="F61" s="107" t="s">
-        <v>986</v>
-      </c>
-      <c r="G61" s="103" t="s">
-        <v>985</v>
-      </c>
-      <c r="H61" s="105" t="s">
-        <v>771</v>
+      <c r="E61" s="132"/>
+      <c r="F61" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" s="110">
+        <v>3</v>
+      </c>
+      <c r="H61" s="102" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
-        <v>144</v>
-      </c>
-      <c r="B62" s="94" t="str">
+        <v>210</v>
+      </c>
+      <c r="B62" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>0x90</v>
-      </c>
-      <c r="C62" s="130"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="106"/>
+        <v>0xD2</v>
+      </c>
+      <c r="C62" s="129"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="103"/>
     </row>
     <row r="63" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
-        <v>146</v>
-      </c>
-      <c r="B63" s="94" t="str">
-        <f t="shared" ref="B63:B64" si="2">"0x" &amp; DEC2HEX(A63)</f>
-        <v>0x92</v>
-      </c>
-      <c r="C63" s="129" t="s">
-        <v>987</v>
-      </c>
-      <c r="D63" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="131"/>
-      <c r="F63" s="107" t="s">
-        <v>988</v>
-      </c>
-      <c r="G63" s="103" t="s">
-        <v>985</v>
-      </c>
-      <c r="H63" s="105" t="s">
-        <v>771</v>
+        <v>212</v>
+      </c>
+      <c r="B63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0xD4</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="54"/>
+      <c r="F63" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="96">
+        <v>3</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
-        <v>148</v>
-      </c>
-      <c r="B64" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>0x94</v>
-      </c>
-      <c r="C64" s="130"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="106"/>
+        <v>214</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0xD6</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="54"/>
+      <c r="F64" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="96">
+        <v>3</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B65" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xD0</v>
-      </c>
-      <c r="C65" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="109" t="s">
+        <v>0xD8</v>
+      </c>
+      <c r="C65" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E65" s="135"/>
-      <c r="F65" s="125" t="s">
-        <v>103</v>
-      </c>
-      <c r="G65" s="103">
+      <c r="E65" s="132"/>
+      <c r="F65" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="110">
         <v>3</v>
       </c>
-      <c r="H65" s="105" t="s">
+      <c r="H65" s="102" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B66" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>0xD2</v>
-      </c>
-      <c r="C66" s="134"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="136"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="104"/>
-      <c r="H66" s="106"/>
+        <v>0xDA</v>
+      </c>
+      <c r="C66" s="129"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="133"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="103"/>
     </row>
     <row r="67" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B67" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xD4</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="54"/>
-      <c r="F67" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" s="97">
+        <v>0xDC</v>
+      </c>
+      <c r="C67" s="128" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="132"/>
+      <c r="F67" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="G67" s="110">
         <v>3</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="102" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
-        <v>214</v>
-      </c>
-      <c r="B68" s="4" t="str">
+        <v>222</v>
+      </c>
+      <c r="B68" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>0xD6</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="54"/>
-      <c r="F68" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G68" s="97">
-        <v>3</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>769</v>
-      </c>
+        <v>0xDE</v>
+      </c>
+      <c r="C68" s="129"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="133"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="103"/>
     </row>
     <row r="69" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xD8</v>
-      </c>
-      <c r="C69" s="133" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="E69" s="135"/>
-      <c r="F69" s="125" t="s">
-        <v>109</v>
-      </c>
-      <c r="G69" s="103">
+        <v>0xE0</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="96">
         <v>3</v>
       </c>
-      <c r="H69" s="105" t="s">
+      <c r="H69" s="5" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <v>218</v>
-      </c>
-      <c r="B70" s="49" t="str">
+        <v>226</v>
+      </c>
+      <c r="B70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xDA</v>
-      </c>
-      <c r="C70" s="134"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="136"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="106"/>
+        <v>0xE2</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="55"/>
+      <c r="F70" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" s="96">
+        <v>3</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xDC</v>
-      </c>
-      <c r="C71" s="133" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" s="109" t="s">
+        <v>0xE4</v>
+      </c>
+      <c r="C71" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E71" s="135"/>
-      <c r="F71" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="G71" s="103">
+      <c r="E71" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="G71" s="110">
         <v>3</v>
       </c>
-      <c r="H71" s="105" t="s">
+      <c r="H71" s="102" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B72" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>0xDE</v>
-      </c>
-      <c r="C72" s="134"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="136"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="106"/>
+        <v>0xE6</v>
+      </c>
+      <c r="C72" s="129"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="103"/>
     </row>
     <row r="73" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B73" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xE0</v>
+        <v>0xE8</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="55" t="s">
-        <v>125</v>
+      <c r="E73" s="52" t="s">
+        <v>11</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" s="97">
+        <v>127</v>
+      </c>
+      <c r="G73" s="96">
         <v>3</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B74" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xE2</v>
+        <v>0xEA</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="55"/>
       <c r="F74" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G74" s="97">
+        <v>129</v>
+      </c>
+      <c r="G74" s="96">
         <v>3</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B75" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xE4</v>
-      </c>
-      <c r="C75" s="133" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="E75" s="131" t="s">
-        <v>124</v>
-      </c>
-      <c r="F75" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="G75" s="103">
+        <v>0xEC</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="96">
         <v>3</v>
       </c>
-      <c r="H75" s="105" t="s">
-        <v>769</v>
+      <c r="H75" s="5" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
-        <v>230</v>
-      </c>
-      <c r="B76" s="49" t="str">
+        <v>238</v>
+      </c>
+      <c r="B76" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xE6</v>
-      </c>
-      <c r="C76" s="134"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="132"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="106"/>
+        <v>0xEE</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="56"/>
+      <c r="F76" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="96">
+        <v>2.27</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B77" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xE8</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>126</v>
+        <v>0xF2</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G77" s="97">
-        <v>3</v>
+      <c r="E77" s="7"/>
+      <c r="F77" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="96">
+        <v>1</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B78" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xEA</v>
+        <v>0xFA</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="55"/>
-      <c r="F78" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G78" s="97">
-        <v>3</v>
+      <c r="E78" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="G78" s="96">
+        <v>1</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B79" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xEC</v>
+        <v>0x100</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="52" t="s">
-        <v>11</v>
-      </c>
+      <c r="E79" s="55"/>
       <c r="F79" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G79" s="97">
+        <v>133</v>
+      </c>
+      <c r="G79" s="96">
         <v>3</v>
       </c>
       <c r="H79" s="5" t="s">
@@ -14415,100 +14428,102 @@
     </row>
     <row r="80" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B80" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xEE</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>38</v>
+        <v>0x102</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>134</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="56"/>
-      <c r="F80" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="97">
-        <v>2.27</v>
+      <c r="E80" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G80" s="96">
+        <v>3</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B81" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xF2</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>40</v>
+        <v>0x104</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>136</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" s="97">
-        <v>1</v>
+      <c r="E81" s="55"/>
+      <c r="F81" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="96">
+        <v>3</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B82" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0xFA</v>
+        <v>0x106</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="G82" s="97">
-        <v>1</v>
+      <c r="E82" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G82" s="96">
+        <v>3</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B83" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0x100</v>
+        <v>0x108</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="55"/>
       <c r="F83" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G83" s="97">
+        <v>141</v>
+      </c>
+      <c r="G83" s="96">
         <v>3</v>
       </c>
       <c r="H83" s="5" t="s">
@@ -14517,14 +14532,14 @@
     </row>
     <row r="84" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B84" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0x102</v>
+        <v>0x118</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>10</v>
@@ -14532,420 +14547,316 @@
       <c r="E84" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G84" s="97">
+      <c r="F84" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" s="96">
         <v>3</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="B85" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0x104</v>
-      </c>
-      <c r="C85" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="55"/>
-      <c r="F85" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G85" s="97">
+        <v>0x15C</v>
+      </c>
+      <c r="C85" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="130"/>
+      <c r="F85" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="G85" s="110">
         <v>3</v>
       </c>
-      <c r="H85" s="5" t="s">
-        <v>770</v>
+      <c r="H85" s="102" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
-        <v>262</v>
-      </c>
-      <c r="B86" s="4" t="str">
+        <v>350</v>
+      </c>
+      <c r="B86" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>0x106</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G86" s="97">
-        <v>3</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>770</v>
-      </c>
+        <v>0x15E</v>
+      </c>
+      <c r="C86" s="129"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="111"/>
+      <c r="H86" s="103"/>
     </row>
     <row r="87" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="B87" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0x108</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="55"/>
-      <c r="F87" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G87" s="97">
+        <v>0x160</v>
+      </c>
+      <c r="C87" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" s="130"/>
+      <c r="F87" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="G87" s="110">
         <v>3</v>
       </c>
-      <c r="H87" s="5" t="s">
-        <v>770</v>
+      <c r="H87" s="102" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
-        <v>280</v>
-      </c>
-      <c r="B88" s="4" t="str">
+        <v>354</v>
+      </c>
+      <c r="B88" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>0x118</v>
-      </c>
-      <c r="C88" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="97">
-        <v>3</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>772</v>
-      </c>
+        <v>0x162</v>
+      </c>
+      <c r="C88" s="129"/>
+      <c r="D88" s="107"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="111"/>
+      <c r="H88" s="103"/>
     </row>
     <row r="89" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
-        <v>348</v>
-      </c>
-      <c r="B89" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>0x15C</v>
-      </c>
-      <c r="C89" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="E89" s="131"/>
-      <c r="F89" s="125" t="s">
-        <v>119</v>
-      </c>
-      <c r="G89" s="103">
+        <v>356</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <f t="shared" ref="B89:B91" si="2">"0x" &amp; DEC2HEX(A89)</f>
+        <v>0x164</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G89" s="96">
         <v>3</v>
       </c>
-      <c r="H89" s="105" t="s">
+      <c r="H89" s="5" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
-        <v>350</v>
-      </c>
-      <c r="B90" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>0x15E</v>
-      </c>
-      <c r="C90" s="134"/>
-      <c r="D90" s="110"/>
-      <c r="E90" s="132"/>
-      <c r="F90" s="126"/>
-      <c r="G90" s="104"/>
-      <c r="H90" s="106"/>
+        <v>480</v>
+      </c>
+      <c r="B90" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>0x1E0</v>
+      </c>
+      <c r="C90" s="85" t="s">
+        <v>949</v>
+      </c>
+      <c r="D90" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="86"/>
+      <c r="F90" s="87" t="s">
+        <v>961</v>
+      </c>
+      <c r="G90" s="96">
+        <v>10</v>
+      </c>
+      <c r="H90" s="5"/>
     </row>
     <row r="91" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
-        <v>352</v>
-      </c>
-      <c r="B91" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>0x160</v>
-      </c>
-      <c r="C91" s="133" t="s">
-        <v>120</v>
-      </c>
-      <c r="D91" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="E91" s="131"/>
-      <c r="F91" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="G91" s="103">
-        <v>3</v>
-      </c>
-      <c r="H91" s="105" t="s">
-        <v>769</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>0x1E2</v>
+      </c>
+      <c r="C91" s="85" t="s">
+        <v>950</v>
+      </c>
+      <c r="D91" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="86"/>
+      <c r="F91" s="87" t="s">
+        <v>962</v>
+      </c>
+      <c r="G91" s="96">
+        <v>10</v>
+      </c>
+      <c r="H91" s="5"/>
     </row>
     <row r="92" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
-        <v>354</v>
-      </c>
-      <c r="B92" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>0x162</v>
-      </c>
-      <c r="C92" s="134"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="132"/>
-      <c r="F92" s="126"/>
-      <c r="G92" s="104"/>
-      <c r="H92" s="106"/>
+        <v>1030</v>
+      </c>
+      <c r="B92" s="5" t="str">
+        <f t="shared" ref="B92:B97" si="3" xml:space="preserve"> "0x" &amp; DEC2HEX(A92)</f>
+        <v>0x406</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="G92" s="96">
+        <v>10</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="93" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
-        <v>356</v>
+        <v>1032</v>
       </c>
       <c r="B93" s="5" t="str">
-        <f t="shared" ref="B93:B95" si="3">"0x" &amp; DEC2HEX(A93)</f>
-        <v>0x164</v>
-      </c>
-      <c r="C93" s="51" t="s">
-        <v>122</v>
+        <f t="shared" si="3"/>
+        <v>0x408</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>831</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G93" s="97">
-        <v>3</v>
+      <c r="E93" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="G93" s="96">
+        <v>10</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>769</v>
+        <v>829</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
-        <v>480</v>
+        <v>1034</v>
       </c>
       <c r="B94" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x1E0</v>
-      </c>
-      <c r="C94" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="D94" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="86"/>
-      <c r="F94" s="87" t="s">
-        <v>961</v>
-      </c>
-      <c r="G94" s="97">
-        <v>10</v>
-      </c>
-      <c r="H94" s="5"/>
-    </row>
-    <row r="95" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0x40A</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="G94" s="96">
+        <v>10</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
-        <v>482</v>
+        <v>1036</v>
       </c>
       <c r="B95" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x1E2</v>
-      </c>
-      <c r="C95" s="85" t="s">
-        <v>950</v>
-      </c>
-      <c r="D95" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="86"/>
-      <c r="F95" s="87" t="s">
-        <v>962</v>
-      </c>
-      <c r="G95" s="97">
-        <v>10</v>
-      </c>
-      <c r="H95" s="5"/>
+        <v>0x40C</v>
+      </c>
+      <c r="C95" s="104" t="s">
+        <v>853</v>
+      </c>
+      <c r="D95" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="124" t="s">
+        <v>835</v>
+      </c>
+      <c r="F95" s="108" t="s">
+        <v>836</v>
+      </c>
+      <c r="G95" s="110">
+        <v>10</v>
+      </c>
+      <c r="H95" s="102" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B96" s="5" t="str">
-        <f t="shared" ref="B96:B101" si="4" xml:space="preserve"> "0x" &amp; DEC2HEX(A96)</f>
-        <v>0x406</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="G96" s="97">
-        <v>10</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>829</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0x40A</v>
+      </c>
+      <c r="C96" s="105"/>
+      <c r="D96" s="107"/>
+      <c r="E96" s="125"/>
+      <c r="F96" s="109"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="103"/>
     </row>
     <row r="97" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="B97" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0x408</v>
+        <f t="shared" si="3"/>
+        <v>0x410</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>831</v>
+        <v>867</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>11</v>
+        <v>839</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>772</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="G97" s="97">
+        <v>837</v>
+      </c>
+      <c r="G97" s="96">
         <v>10</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
-        <v>1034</v>
-      </c>
-      <c r="B98" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0x40A</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="G98" s="97">
-        <v>10</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5">
-        <v>1036</v>
-      </c>
-      <c r="B99" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0x40C</v>
-      </c>
-      <c r="C99" s="125" t="s">
-        <v>853</v>
-      </c>
-      <c r="D99" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="111" t="s">
-        <v>835</v>
-      </c>
-      <c r="F99" s="107" t="s">
-        <v>836</v>
-      </c>
-      <c r="G99" s="103">
-        <v>10</v>
-      </c>
-      <c r="H99" s="105" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5">
-        <v>1034</v>
-      </c>
-      <c r="B100" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0x40A</v>
-      </c>
-      <c r="C100" s="126"/>
-      <c r="D100" s="110"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="108"/>
-      <c r="G100" s="104"/>
-      <c r="H100" s="106"/>
-    </row>
-    <row r="101" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5">
-        <v>1040</v>
-      </c>
-      <c r="B101" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0x410</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="G101" s="97">
-        <v>10</v>
-      </c>
-      <c r="H101" s="5" t="s">
         <v>829</v>
       </c>
     </row>
@@ -14953,55 +14864,69 @@
   <sortState ref="A3:G67">
     <sortCondition ref="A3"/>
   </sortState>
-  <mergeCells count="146">
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
+  <mergeCells count="134">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="C31:C32"/>
@@ -15021,87 +14946,61 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4 D6:D23 D25 D27:D29 D31 D33:D35 D37 D39:D41 D43 D45:D47 D49 D51:D53 D55 D57:D59 D65 D67:D69 D71 D73:D75 D77:D89 D91 D93">
+  <conditionalFormatting sqref="D4 D6:D23 D25 D27:D29 D31 D33:D35 D37 D39:D41 D43 D45:D47 D49 D51:D53 D55 D57:D59 D61 D63:D65 D67 D69:D71 D73:D85 D87 D89">
     <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D4)))</formula>
     </cfRule>
@@ -15109,35 +15008,35 @@
       <formula>NOT(ISERROR(SEARCH("uint16",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4 D102:D1048576 D6:D23 D25 D27:D29 D31 D33:D35 D37 D39:D41 D43 D45:D47 D49 D51:D53 D55 D57:D59 D65 D67:D69 D71 D73:D75 D77:D89 D91 D93">
+  <conditionalFormatting sqref="D2:D4 D98:D1048576 D6:D23 D25 D27:D29 D31 D33:D35 D37 D39:D41 D43 D45:D47 D49 D51:D53 D55 D57:D59 D61 D63:D65 D67 D69:D71 D73:D85 D87 D89">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D96:D99 D101">
+  <conditionalFormatting sqref="D92:D95 D97">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D96)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D92)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D96:D99 D101">
+  <conditionalFormatting sqref="D92:D95 D97">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D96)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D92)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D96)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D92)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94:D95">
+  <conditionalFormatting sqref="D90:D91">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D94)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint32",D90)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94:D95">
+  <conditionalFormatting sqref="D90:D91">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D94)))</formula>
+      <formula>NOT(ISERROR(SEARCH("float",D90)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D94)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uint16",D90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -15146,15 +15045,15 @@
     <hyperlink ref="E12" location="Beacon_Source" display="see notes"/>
     <hyperlink ref="E14" location="Firmware_Version" display="see notes"/>
     <hyperlink ref="E15" location="Firmware_Version" display="see notes"/>
-    <hyperlink ref="E88" location="Region_Code" display="see notes"/>
-    <hyperlink ref="E77" location="Button_Actions" display="see notes"/>
-    <hyperlink ref="E79" location="Button_Actions" display="see notes"/>
-    <hyperlink ref="E84" location="Button_Actions" display="see notes"/>
-    <hyperlink ref="E86" location="Button_Actions" display="see notes"/>
+    <hyperlink ref="E84" location="Region_Code" display="see notes"/>
+    <hyperlink ref="E73" location="Button_Actions" display="see notes"/>
+    <hyperlink ref="E75" location="Button_Actions" display="see notes"/>
+    <hyperlink ref="E80" location="Button_Actions" display="see notes"/>
+    <hyperlink ref="E82" location="Button_Actions" display="see notes"/>
     <hyperlink ref="E13" location="PPS_Edge_Detection" display="see notes"/>
     <hyperlink ref="E19" location="Microcontroller_Types" display="see notes"/>
-    <hyperlink ref="E97" location="'Config Values'!A388" display="see notes"/>
-    <hyperlink ref="E99" location="'Config Values'!A398" display="&gt;= 0x20000"/>
+    <hyperlink ref="E93" location="'Config Values'!A388" display="see notes"/>
+    <hyperlink ref="E95" location="'Config Values'!A398" display="&gt;= 0x20000"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="93" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15165,8 +15064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15179,17 +15078,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="177"/>
+      <c r="B1" s="143"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="144" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="179"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15246,18 +15145,18 @@
       <c r="B9" s="16"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="139" t="s">
         <v>442</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="147"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="141"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="146" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="181"/>
-      <c r="C12" s="182"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="148"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
@@ -15309,18 +15208,18 @@
       <c r="C17" s="28"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="139" t="s">
         <v>459</v>
       </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="141"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="167" t="s">
+      <c r="A20" s="136" t="s">
         <v>457</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="175"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="150"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
@@ -15386,18 +15285,18 @@
       <c r="C27" s="28"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="141"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="167" t="s">
+      <c r="A30" s="136" t="s">
         <v>460</v>
       </c>
-      <c r="B30" s="174"/>
-      <c r="C30" s="175"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
@@ -15433,18 +15332,18 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="145" t="s">
+      <c r="A36" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="146"/>
-      <c r="C36" s="147"/>
+      <c r="B36" s="140"/>
+      <c r="C36" s="141"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="167" t="s">
+      <c r="A37" s="136" t="s">
         <v>463</v>
       </c>
-      <c r="B37" s="174"/>
-      <c r="C37" s="175"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="150"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
@@ -15507,18 +15406,18 @@
       <c r="C43" s="28"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="145" t="s">
+      <c r="A45" s="139" t="s">
         <v>472</v>
       </c>
-      <c r="B45" s="146"/>
-      <c r="C45" s="147"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="141"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="167" t="s">
+      <c r="A46" s="136" t="s">
         <v>473</v>
       </c>
-      <c r="B46" s="174"/>
-      <c r="C46" s="175"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="150"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
@@ -15554,18 +15453,18 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="145" t="s">
+      <c r="A52" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="146"/>
-      <c r="C52" s="147"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="141"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="167" t="s">
+      <c r="A53" s="136" t="s">
         <v>478</v>
       </c>
-      <c r="B53" s="174"/>
-      <c r="C53" s="175"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="150"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
@@ -15634,18 +15533,18 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="145" t="s">
+      <c r="A62" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="146"/>
-      <c r="C62" s="147"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="141"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="167" t="s">
+      <c r="A63" s="136" t="s">
         <v>488</v>
       </c>
-      <c r="B63" s="174"/>
-      <c r="C63" s="175"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="150"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
@@ -15835,18 +15734,18 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="145" t="s">
+      <c r="A83" s="139" t="s">
         <v>521</v>
       </c>
-      <c r="B83" s="146"/>
-      <c r="C83" s="147"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="141"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="167" t="s">
+      <c r="A84" s="136" t="s">
         <v>522</v>
       </c>
-      <c r="B84" s="174"/>
-      <c r="C84" s="175"/>
+      <c r="B84" s="149"/>
+      <c r="C84" s="150"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
@@ -15854,11 +15753,11 @@
       <c r="C85" s="31"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="160" t="s">
+      <c r="A86" s="151" t="s">
         <v>523</v>
       </c>
-      <c r="B86" s="166"/>
-      <c r="C86" s="161"/>
+      <c r="B86" s="152"/>
+      <c r="C86" s="153"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
@@ -15932,11 +15831,11 @@
       <c r="C93" s="26"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="160" t="s">
+      <c r="A94" s="151" t="s">
         <v>534</v>
       </c>
-      <c r="B94" s="166"/>
-      <c r="C94" s="161"/>
+      <c r="B94" s="152"/>
+      <c r="C94" s="153"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
@@ -15994,18 +15893,18 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="145" t="s">
+      <c r="A102" s="139" t="s">
         <v>535</v>
       </c>
-      <c r="B102" s="146"/>
-      <c r="C102" s="147"/>
+      <c r="B102" s="140"/>
+      <c r="C102" s="141"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="167" t="s">
+      <c r="A103" s="136" t="s">
         <v>536</v>
       </c>
-      <c r="B103" s="174"/>
-      <c r="C103" s="175"/>
+      <c r="B103" s="149"/>
+      <c r="C103" s="150"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
@@ -16052,18 +15951,18 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="145" t="s">
+      <c r="A110" s="139" t="s">
         <v>543</v>
       </c>
-      <c r="B110" s="146"/>
-      <c r="C110" s="147"/>
+      <c r="B110" s="140"/>
+      <c r="C110" s="141"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="136" t="s">
         <v>544</v>
       </c>
-      <c r="B111" s="174"/>
-      <c r="C111" s="175"/>
+      <c r="B111" s="149"/>
+      <c r="C111" s="150"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
@@ -16132,18 +16031,18 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="145" t="s">
+      <c r="A120" s="139" t="s">
         <v>555</v>
       </c>
-      <c r="B120" s="146"/>
-      <c r="C120" s="147"/>
+      <c r="B120" s="140"/>
+      <c r="C120" s="141"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="167" t="s">
+      <c r="A121" s="136" t="s">
         <v>556</v>
       </c>
-      <c r="B121" s="174"/>
-      <c r="C121" s="175"/>
+      <c r="B121" s="149"/>
+      <c r="C121" s="150"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
@@ -16277,18 +16176,18 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="145" t="s">
+      <c r="A137" s="139" t="s">
         <v>291</v>
       </c>
-      <c r="B137" s="146"/>
-      <c r="C137" s="147"/>
+      <c r="B137" s="140"/>
+      <c r="C137" s="141"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="167" t="s">
+      <c r="A138" s="136" t="s">
         <v>575</v>
       </c>
-      <c r="B138" s="174"/>
-      <c r="C138" s="175"/>
+      <c r="B138" s="149"/>
+      <c r="C138" s="150"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
@@ -16394,16 +16293,16 @@
       <c r="C149" s="27"/>
     </row>
     <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="176" t="s">
+      <c r="A152" s="142" t="s">
         <v>764</v>
       </c>
-      <c r="B152" s="177"/>
+      <c r="B152" s="143"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="178" t="s">
+      <c r="A153" s="144" t="s">
         <v>763</v>
       </c>
-      <c r="B153" s="179"/>
+      <c r="B153" s="145"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
@@ -16562,16 +16461,16 @@
       <c r="B173" s="63"/>
     </row>
     <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="176" t="s">
+      <c r="A175" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="B175" s="177"/>
+      <c r="B175" s="143"/>
     </row>
     <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="178" t="s">
+      <c r="A176" s="144" t="s">
         <v>587</v>
       </c>
-      <c r="B176" s="179"/>
+      <c r="B176" s="145"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
@@ -16998,16 +16897,16 @@
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="176" t="s">
+      <c r="A232" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="B232" s="177"/>
+      <c r="B232" s="143"/>
     </row>
     <row r="233" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="178" t="s">
+      <c r="A233" s="144" t="s">
         <v>639</v>
       </c>
-      <c r="B233" s="179"/>
+      <c r="B233" s="145"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="s">
@@ -17058,16 +16957,16 @@
       </c>
     </row>
     <row r="242" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="176" t="s">
+      <c r="A242" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="B242" s="177"/>
+      <c r="B242" s="143"/>
     </row>
     <row r="243" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="178" t="s">
+      <c r="A243" s="144" t="s">
         <v>645</v>
       </c>
-      <c r="B243" s="179"/>
+      <c r="B243" s="145"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="s">
@@ -17111,26 +17010,26 @@
       </c>
     </row>
     <row r="251" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="176" t="s">
+      <c r="A251" s="142" t="s">
         <v>434</v>
       </c>
-      <c r="B251" s="177"/>
+      <c r="B251" s="143"/>
     </row>
     <row r="252" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="178" t="s">
+      <c r="A252" s="144" t="s">
         <v>650</v>
       </c>
-      <c r="B252" s="179"/>
+      <c r="B252" s="145"/>
     </row>
     <row r="253" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="32"/>
       <c r="B253" s="33"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="160" t="s">
+      <c r="A254" s="151" t="s">
         <v>651</v>
       </c>
-      <c r="B254" s="161"/>
+      <c r="B254" s="153"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="s">
@@ -17177,10 +17076,10 @@
       <c r="B260" s="13"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="160" t="s">
+      <c r="A261" s="151" t="s">
         <v>655</v>
       </c>
-      <c r="B261" s="161"/>
+      <c r="B261" s="153"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="21" t="s">
@@ -17207,18 +17106,18 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="145" t="s">
+      <c r="A267" s="139" t="s">
         <v>656</v>
       </c>
-      <c r="B267" s="146"/>
-      <c r="C267" s="147"/>
+      <c r="B267" s="140"/>
+      <c r="C267" s="141"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="167" t="s">
+      <c r="A268" s="136" t="s">
         <v>657</v>
       </c>
-      <c r="B268" s="168"/>
-      <c r="C268" s="169"/>
+      <c r="B268" s="137"/>
+      <c r="C268" s="138"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="21" t="s">
@@ -17331,18 +17230,18 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="145" t="s">
+      <c r="A281" s="139" t="s">
         <v>674</v>
       </c>
-      <c r="B281" s="146"/>
-      <c r="C281" s="147"/>
+      <c r="B281" s="140"/>
+      <c r="C281" s="141"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="142" t="s">
+      <c r="A282" s="158" t="s">
         <v>675</v>
       </c>
-      <c r="B282" s="143"/>
-      <c r="C282" s="144"/>
+      <c r="B282" s="159"/>
+      <c r="C282" s="160"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
@@ -17357,25 +17256,25 @@
       <c r="C284" s="26"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="139" t="s">
+      <c r="A285" s="161" t="s">
         <v>676</v>
       </c>
-      <c r="B285" s="140"/>
-      <c r="C285" s="141"/>
+      <c r="B285" s="162"/>
+      <c r="C285" s="163"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="170" t="s">
+      <c r="A286" s="164" t="s">
         <v>677</v>
       </c>
-      <c r="B286" s="171"/>
+      <c r="B286" s="165"/>
       <c r="C286" s="26"/>
     </row>
     <row r="287" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="139" t="s">
+      <c r="A287" s="161" t="s">
         <v>678</v>
       </c>
-      <c r="B287" s="140"/>
-      <c r="C287" s="141"/>
+      <c r="B287" s="162"/>
+      <c r="C287" s="163"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="35" t="s">
@@ -17475,32 +17374,32 @@
       <c r="C302" s="26"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="160" t="s">
+      <c r="A303" s="151" t="s">
         <v>690</v>
       </c>
-      <c r="B303" s="166"/>
+      <c r="B303" s="152"/>
       <c r="C303" s="26"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="139" t="s">
+      <c r="A304" s="161" t="s">
         <v>676</v>
       </c>
-      <c r="B304" s="140"/>
-      <c r="C304" s="141"/>
+      <c r="B304" s="162"/>
+      <c r="C304" s="163"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="172" t="s">
+      <c r="A305" s="166" t="s">
         <v>691</v>
       </c>
-      <c r="B305" s="173"/>
+      <c r="B305" s="167"/>
       <c r="C305" s="26"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="139" t="s">
+      <c r="A306" s="161" t="s">
         <v>692</v>
       </c>
-      <c r="B306" s="140"/>
-      <c r="C306" s="141"/>
+      <c r="B306" s="162"/>
+      <c r="C306" s="163"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="35" t="s">
@@ -17510,10 +17409,10 @@
       <c r="C307" s="26"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="164" t="s">
+      <c r="A308" s="156" t="s">
         <v>693</v>
       </c>
-      <c r="B308" s="165"/>
+      <c r="B308" s="157"/>
       <c r="C308" s="26"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -17522,25 +17421,25 @@
       <c r="C309" s="26"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="164" t="s">
+      <c r="A310" s="156" t="s">
         <v>694</v>
       </c>
-      <c r="B310" s="165"/>
+      <c r="B310" s="157"/>
       <c r="C310" s="26"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="162" t="s">
+      <c r="A311" s="154" t="s">
         <v>695</v>
       </c>
-      <c r="B311" s="163"/>
+      <c r="B311" s="155"/>
       <c r="C311" s="27"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="145" t="s">
+      <c r="A314" s="139" t="s">
         <v>696</v>
       </c>
-      <c r="B314" s="146"/>
-      <c r="C314" s="147"/>
+      <c r="B314" s="140"/>
+      <c r="C314" s="141"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="72" t="s">
@@ -17555,11 +17454,11 @@
       <c r="C316" s="26"/>
     </row>
     <row r="317" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="139" t="s">
+      <c r="A317" s="161" t="s">
         <v>698</v>
       </c>
-      <c r="B317" s="140"/>
-      <c r="C317" s="141"/>
+      <c r="B317" s="162"/>
+      <c r="C317" s="163"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="37" t="s">
@@ -17583,33 +17482,33 @@
       <c r="C320" s="78"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="145" t="s">
+      <c r="A323" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="B323" s="146"/>
-      <c r="C323" s="147"/>
+      <c r="B323" s="140"/>
+      <c r="C323" s="141"/>
     </row>
     <row r="324" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="157" t="s">
+      <c r="A324" s="171" t="s">
         <v>701</v>
       </c>
-      <c r="B324" s="158"/>
-      <c r="C324" s="159"/>
+      <c r="B324" s="172"/>
+      <c r="C324" s="173"/>
     </row>
     <row r="326" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="145" t="s">
+      <c r="A327" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="B327" s="146"/>
-      <c r="C327" s="147"/>
+      <c r="B327" s="140"/>
+      <c r="C327" s="141"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="142" t="s">
+      <c r="A328" s="158" t="s">
         <v>182</v>
       </c>
-      <c r="B328" s="143"/>
-      <c r="C328" s="144"/>
+      <c r="B328" s="159"/>
+      <c r="C328" s="160"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
@@ -17636,11 +17535,11 @@
       <c r="C332" s="26"/>
     </row>
     <row r="333" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="139" t="s">
+      <c r="A333" s="161" t="s">
         <v>704</v>
       </c>
-      <c r="B333" s="140"/>
-      <c r="C333" s="141"/>
+      <c r="B333" s="162"/>
+      <c r="C333" s="163"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="38" t="s">
@@ -17655,11 +17554,11 @@
       <c r="C335" s="26"/>
     </row>
     <row r="336" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="154" t="s">
+      <c r="A336" s="168" t="s">
         <v>707</v>
       </c>
-      <c r="B336" s="155"/>
-      <c r="C336" s="156"/>
+      <c r="B336" s="169"/>
+      <c r="C336" s="170"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="67" t="s">
@@ -17669,18 +17568,18 @@
       <c r="C337" s="69"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="145" t="s">
+      <c r="A340" s="139" t="s">
         <v>708</v>
       </c>
-      <c r="B340" s="146"/>
-      <c r="C340" s="147"/>
+      <c r="B340" s="140"/>
+      <c r="C340" s="141"/>
     </row>
     <row r="341" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="154" t="s">
+      <c r="A341" s="168" t="s">
         <v>709</v>
       </c>
-      <c r="B341" s="155"/>
-      <c r="C341" s="156"/>
+      <c r="B341" s="169"/>
+      <c r="C341" s="170"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
@@ -17700,11 +17599,11 @@
       <c r="C344" s="26"/>
     </row>
     <row r="345" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="154" t="s">
+      <c r="A345" s="168" t="s">
         <v>711</v>
       </c>
-      <c r="B345" s="155"/>
-      <c r="C345" s="156"/>
+      <c r="B345" s="169"/>
+      <c r="C345" s="170"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
@@ -17769,18 +17668,18 @@
       <c r="C353" s="26"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="151" t="s">
+      <c r="A354" s="174" t="s">
         <v>718</v>
       </c>
-      <c r="B354" s="152"/>
-      <c r="C354" s="153"/>
+      <c r="B354" s="175"/>
+      <c r="C354" s="176"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="142" t="s">
+      <c r="A355" s="158" t="s">
         <v>719</v>
       </c>
-      <c r="B355" s="143"/>
-      <c r="C355" s="144"/>
+      <c r="B355" s="159"/>
+      <c r="C355" s="160"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="21" t="s">
@@ -17821,18 +17720,18 @@
       <c r="C359" s="26"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="151" t="s">
+      <c r="A360" s="174" t="s">
         <v>724</v>
       </c>
-      <c r="B360" s="152"/>
-      <c r="C360" s="153"/>
+      <c r="B360" s="175"/>
+      <c r="C360" s="176"/>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="142" t="s">
+      <c r="A361" s="158" t="s">
         <v>725</v>
       </c>
-      <c r="B361" s="143"/>
-      <c r="C361" s="144"/>
+      <c r="B361" s="159"/>
+      <c r="C361" s="160"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="s">
@@ -18709,25 +18608,25 @@
       <c r="C457" s="27"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="145" t="s">
+      <c r="A459" s="139" t="s">
         <v>840</v>
       </c>
-      <c r="B459" s="146"/>
-      <c r="C459" s="147"/>
+      <c r="B459" s="140"/>
+      <c r="C459" s="141"/>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="142" t="s">
+      <c r="A460" s="158" t="s">
         <v>850</v>
       </c>
-      <c r="B460" s="143"/>
-      <c r="C460" s="144"/>
+      <c r="B460" s="159"/>
+      <c r="C460" s="160"/>
     </row>
     <row r="461" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="139" t="s">
+      <c r="A461" s="161" t="s">
         <v>852</v>
       </c>
-      <c r="B461" s="140"/>
-      <c r="C461" s="141"/>
+      <c r="B461" s="162"/>
+      <c r="C461" s="163"/>
     </row>
     <row r="462" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="21" t="s">
@@ -18781,53 +18680,53 @@
     </row>
     <row r="468" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="145" t="s">
+      <c r="A469" s="139" t="s">
         <v>853</v>
       </c>
-      <c r="B469" s="146"/>
-      <c r="C469" s="147"/>
+      <c r="B469" s="140"/>
+      <c r="C469" s="141"/>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="142" t="s">
+      <c r="A470" s="158" t="s">
         <v>854</v>
       </c>
-      <c r="B470" s="143"/>
-      <c r="C470" s="144"/>
+      <c r="B470" s="159"/>
+      <c r="C470" s="160"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="148" t="s">
+      <c r="A471" s="177" t="s">
         <v>859</v>
       </c>
-      <c r="B471" s="149"/>
-      <c r="C471" s="150"/>
+      <c r="B471" s="178"/>
+      <c r="C471" s="179"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="139" t="s">
+      <c r="A472" s="161" t="s">
         <v>855</v>
       </c>
-      <c r="B472" s="140"/>
-      <c r="C472" s="141"/>
+      <c r="B472" s="162"/>
+      <c r="C472" s="163"/>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="139" t="s">
+      <c r="A473" s="161" t="s">
         <v>856</v>
       </c>
-      <c r="B473" s="140"/>
-      <c r="C473" s="141"/>
+      <c r="B473" s="162"/>
+      <c r="C473" s="163"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="139" t="s">
+      <c r="A474" s="161" t="s">
         <v>857</v>
       </c>
-      <c r="B474" s="140"/>
-      <c r="C474" s="141"/>
+      <c r="B474" s="162"/>
+      <c r="C474" s="163"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="139" t="s">
+      <c r="A475" s="161" t="s">
         <v>858</v>
       </c>
-      <c r="B475" s="140"/>
-      <c r="C475" s="141"/>
+      <c r="B475" s="162"/>
+      <c r="C475" s="163"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="79"/>
@@ -18835,22 +18734,22 @@
       <c r="C476" s="81"/>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="145" t="s">
+      <c r="A478" s="139" t="s">
         <v>963</v>
       </c>
-      <c r="B478" s="146"/>
-      <c r="C478" s="146"/>
-      <c r="D478" s="146"/>
-      <c r="E478" s="147"/>
+      <c r="B478" s="140"/>
+      <c r="C478" s="140"/>
+      <c r="D478" s="140"/>
+      <c r="E478" s="141"/>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="167" t="s">
+      <c r="A479" s="136" t="s">
         <v>974</v>
       </c>
-      <c r="B479" s="168"/>
-      <c r="C479" s="168"/>
-      <c r="D479" s="168"/>
-      <c r="E479" s="169"/>
+      <c r="B479" s="137"/>
+      <c r="C479" s="137"/>
+      <c r="D479" s="137"/>
+      <c r="E479" s="138"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="21" t="s">
@@ -18893,13 +18792,13 @@
       <c r="B482" s="17" t="s">
         <v>977</v>
       </c>
-      <c r="C482" s="96">
+      <c r="C482" s="95">
         <v>16</v>
       </c>
-      <c r="D482" s="96">
+      <c r="D482" s="95">
         <v>64</v>
       </c>
-      <c r="E482" s="95">
+      <c r="E482" s="94">
         <v>256</v>
       </c>
     </row>
@@ -18908,6 +18807,71 @@
     <sortCondition descending="1" ref="A164"/>
   </sortState>
   <mergeCells count="81">
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="A471:C471"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="A360:C360"/>
+    <mergeCell ref="A361:C361"/>
+    <mergeCell ref="A459:C459"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
     <mergeCell ref="A479:E479"/>
     <mergeCell ref="A478:E478"/>
     <mergeCell ref="A11:C11"/>
@@ -18924,71 +18888,6 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="A360:C360"/>
-    <mergeCell ref="A361:C361"/>
-    <mergeCell ref="A459:C459"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C470"/>
-    <mergeCell ref="A471:C471"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Wireless/LORD MicroStrain Wireless Configuration.xlsx
+++ b/Wireless/LORD MicroStrain Wireless Configuration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Wireless Node Config" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1003">
   <si>
     <t>EEPROM Address</t>
   </si>
@@ -3524,6 +3524,30 @@
   </si>
   <si>
     <t>raw uint24</t>
+  </si>
+  <si>
+    <t>Hardware Gain 5</t>
+  </si>
+  <si>
+    <t>Hardware Gain 6</t>
+  </si>
+  <si>
+    <t>The hardware gain applied to the Node. (5)</t>
+  </si>
+  <si>
+    <t>The hardware gain applied to the Node. (6)</t>
+  </si>
+  <si>
+    <t>Hardware Gain 7</t>
+  </si>
+  <si>
+    <t>Hardware Gain 8</t>
+  </si>
+  <si>
+    <t>The hardware gain applied to the Node. (7)</t>
+  </si>
+  <si>
+    <t>The hardware gain applied to the Node. (8)</t>
   </si>
 </sst>
 </file>
@@ -4234,18 +4258,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4282,11 +4294,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4300,28 +4330,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4331,90 +4346,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4438,12 +4369,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="85">
+    <dxf>
+      <font>
+        <color rgb="FF003E52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD57E00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003E52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD57E00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD57E00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD57E00"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF003E52"/>
@@ -4482,6 +4536,21 @@
     <dxf>
       <font>
         <color rgb="FF003E52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD57E00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003E52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD57E00"/>
       </font>
     </dxf>
     <dxf>
@@ -4809,6 +4878,21 @@
         <color rgb="FFD57E00"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003E52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD57E00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD57E00"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5097,12 +5181,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A478" sqref="A478:E478"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63:C64"/>
+      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5116,38 +5200,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="116" t="s">
         <v>990</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="126" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="114" t="s">
         <v>767</v>
       </c>
     </row>
@@ -5158,12 +5242,12 @@
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="119"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="115"/>
     </row>
     <row r="4" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5429,7 +5513,7 @@
       <c r="D14" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="110" t="s">
         <v>8</v>
       </c>
@@ -5450,7 +5534,7 @@
       </c>
       <c r="C15" s="111"/>
       <c r="D15" s="109"/>
-      <c r="E15" s="117"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="111"/>
       <c r="G15" s="113"/>
       <c r="H15" s="105"/>
@@ -6628,7 +6712,7 @@
       <c r="D61" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="114"/>
+      <c r="E61" s="126"/>
       <c r="F61" s="110" t="s">
         <v>986</v>
       </c>
@@ -6649,7 +6733,7 @@
       </c>
       <c r="C62" s="111"/>
       <c r="D62" s="109"/>
-      <c r="E62" s="115"/>
+      <c r="E62" s="127"/>
       <c r="F62" s="111"/>
       <c r="G62" s="113"/>
       <c r="H62" s="105"/>
@@ -6668,7 +6752,7 @@
       <c r="D63" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="114"/>
+      <c r="E63" s="126"/>
       <c r="F63" s="110" t="s">
         <v>988</v>
       </c>
@@ -6689,7 +6773,7 @@
       </c>
       <c r="C64" s="111"/>
       <c r="D64" s="109"/>
-      <c r="E64" s="115"/>
+      <c r="E64" s="127"/>
       <c r="F64" s="111"/>
       <c r="G64" s="113"/>
       <c r="H64" s="105"/>
@@ -8861,7 +8945,7 @@
         <v>384</v>
       </c>
       <c r="B157" s="5" t="str">
-        <f t="shared" ref="B157:B274" si="3" xml:space="preserve"> "0x" &amp; DEC2HEX(A157)</f>
+        <f t="shared" ref="B157:B278" si="3" xml:space="preserve"> "0x" &amp; DEC2HEX(A157)</f>
         <v>0x180</v>
       </c>
       <c r="C157" s="6" t="s">
@@ -9152,254 +9236,274 @@
     </row>
     <row r="169" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="B169" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x1E0</v>
-      </c>
-      <c r="C169" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="D169" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E169" s="86"/>
-      <c r="F169" s="87" t="s">
-        <v>951</v>
-      </c>
-      <c r="G169" s="98">
-        <v>10</v>
-      </c>
-      <c r="H169" s="84"/>
+        <v>0x1C8</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="7"/>
+      <c r="F169" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="G169" s="96" t="s">
+        <v>985</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="170" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B170" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x1E2</v>
-      </c>
-      <c r="C170" s="85" t="s">
-        <v>950</v>
-      </c>
-      <c r="D170" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" s="86"/>
-      <c r="F170" s="87" t="s">
-        <v>952</v>
-      </c>
-      <c r="G170" s="98">
-        <v>10</v>
-      </c>
-      <c r="H170" s="84"/>
+        <v>0x1CA</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="7"/>
+      <c r="F170" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="G170" s="96" t="s">
+        <v>985</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="171" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
+        <v>460</v>
+      </c>
+      <c r="B171" s="5" t="str">
+        <f t="shared" ref="B171:B172" si="4" xml:space="preserve"> "0x" &amp; DEC2HEX(A171)</f>
+        <v>0x1CC</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="7"/>
+      <c r="F171" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G171" s="96" t="s">
+        <v>985</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
+        <v>462</v>
+      </c>
+      <c r="B172" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>0x1CE</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="7"/>
+      <c r="F172" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G172" s="96" t="s">
+        <v>985</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
+        <v>480</v>
+      </c>
+      <c r="B173" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>0x1E0</v>
+      </c>
+      <c r="C173" s="85" t="s">
+        <v>949</v>
+      </c>
+      <c r="D173" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="86"/>
+      <c r="F173" s="87" t="s">
+        <v>951</v>
+      </c>
+      <c r="G173" s="98">
+        <v>10</v>
+      </c>
+      <c r="H173" s="84"/>
+    </row>
+    <row r="174" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
+        <v>482</v>
+      </c>
+      <c r="B174" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>0x1E2</v>
+      </c>
+      <c r="C174" s="85" t="s">
+        <v>950</v>
+      </c>
+      <c r="D174" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="86"/>
+      <c r="F174" s="87" t="s">
+        <v>952</v>
+      </c>
+      <c r="G174" s="98">
+        <v>10</v>
+      </c>
+      <c r="H174" s="84"/>
+    </row>
+    <row r="175" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="5">
         <v>504</v>
       </c>
-      <c r="B171" s="5" t="str">
+      <c r="B175" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x1F8</v>
       </c>
-      <c r="C171" s="85" t="s">
+      <c r="C175" s="85" t="s">
         <v>953</v>
       </c>
-      <c r="D171" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" s="86"/>
-      <c r="F171" s="8" t="s">
+      <c r="D175" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="86"/>
+      <c r="F175" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="G171" s="98">
+      <c r="G175" s="98">
         <v>1</v>
       </c>
-      <c r="H171" s="84"/>
-    </row>
-    <row r="172" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="5">
+      <c r="H175" s="84"/>
+    </row>
+    <row r="176" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="5">
         <v>506</v>
       </c>
-      <c r="B172" s="5" t="str">
+      <c r="B176" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x1FA</v>
       </c>
-      <c r="C172" s="85" t="s">
+      <c r="C176" s="85" t="s">
         <v>955</v>
       </c>
-      <c r="D172" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E172" s="86"/>
-      <c r="F172" s="8" t="s">
+      <c r="D176" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="86"/>
+      <c r="F176" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="G172" s="98">
+      <c r="G176" s="98">
         <v>1</v>
       </c>
-      <c r="H172" s="84"/>
-    </row>
-    <row r="173" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="5">
+      <c r="H176" s="84"/>
+    </row>
+    <row r="177" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="5">
         <v>508</v>
       </c>
-      <c r="B173" s="5" t="str">
+      <c r="B177" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x1FC</v>
       </c>
-      <c r="C173" s="85" t="s">
+      <c r="C177" s="85" t="s">
         <v>956</v>
       </c>
-      <c r="D173" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" s="86"/>
-      <c r="F173" s="8" t="s">
+      <c r="D177" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="86"/>
+      <c r="F177" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="G173" s="98">
+      <c r="G177" s="98">
         <v>1</v>
       </c>
-      <c r="H173" s="84"/>
-    </row>
-    <row r="174" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="5">
+      <c r="H177" s="84"/>
+    </row>
+    <row r="178" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
         <v>510</v>
       </c>
-      <c r="B174" s="5" t="str">
+      <c r="B178" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x1FE</v>
       </c>
-      <c r="C174" s="85" t="s">
+      <c r="C178" s="85" t="s">
         <v>957</v>
       </c>
-      <c r="D174" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E174" s="86"/>
-      <c r="F174" s="8" t="s">
+      <c r="D178" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="86"/>
+      <c r="F178" s="8" t="s">
         <v>960</v>
       </c>
-      <c r="G174" s="98">
+      <c r="G178" s="98">
         <v>1</v>
       </c>
-      <c r="H174" s="84"/>
-    </row>
-    <row r="175" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="5">
+      <c r="H178" s="84"/>
+    </row>
+    <row r="179" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
         <v>512</v>
       </c>
-      <c r="B175" s="5" t="str">
+      <c r="B179" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x200</v>
       </c>
-      <c r="C175" s="106" t="s">
+      <c r="C179" s="106" t="s">
         <v>363</v>
       </c>
-      <c r="D175" s="108" t="s">
+      <c r="D179" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E175" s="108"/>
-      <c r="F175" s="110" t="s">
+      <c r="E179" s="108"/>
+      <c r="F179" s="110" t="s">
         <v>365</v>
       </c>
-      <c r="G175" s="112">
+      <c r="G179" s="112">
         <v>1</v>
       </c>
-      <c r="H175" s="104" t="s">
+      <c r="H179" s="104" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="5">
+    <row r="180" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
         <v>514</v>
       </c>
-      <c r="B176" s="5" t="str">
+      <c r="B180" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x202</v>
-      </c>
-      <c r="C176" s="107"/>
-      <c r="D176" s="109"/>
-      <c r="E176" s="109"/>
-      <c r="F176" s="111"/>
-      <c r="G176" s="113"/>
-      <c r="H176" s="105"/>
-    </row>
-    <row r="177" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="5">
-        <v>516</v>
-      </c>
-      <c r="B177" s="5" t="str">
-        <f t="shared" ref="B177:B178" si="4" xml:space="preserve"> "0x" &amp; DEC2HEX(A177)</f>
-        <v>0x204</v>
-      </c>
-      <c r="C177" s="106" t="s">
-        <v>364</v>
-      </c>
-      <c r="D177" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="E177" s="108"/>
-      <c r="F177" s="110" t="s">
-        <v>366</v>
-      </c>
-      <c r="G177" s="112">
-        <v>1</v>
-      </c>
-      <c r="H177" s="104" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="5">
-        <v>518</v>
-      </c>
-      <c r="B178" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0x206</v>
-      </c>
-      <c r="C178" s="107"/>
-      <c r="D178" s="109"/>
-      <c r="E178" s="109"/>
-      <c r="F178" s="111"/>
-      <c r="G178" s="113"/>
-      <c r="H178" s="105"/>
-    </row>
-    <row r="179" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="5">
-        <v>520</v>
-      </c>
-      <c r="B179" s="5" t="str">
-        <f t="shared" ref="B179:B180" si="5" xml:space="preserve"> "0x" &amp; DEC2HEX(A179)</f>
-        <v>0x208</v>
-      </c>
-      <c r="C179" s="106" t="s">
-        <v>367</v>
-      </c>
-      <c r="D179" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="E179" s="108"/>
-      <c r="F179" s="110" t="s">
-        <v>369</v>
-      </c>
-      <c r="G179" s="112">
-        <v>1</v>
-      </c>
-      <c r="H179" s="104" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="5">
-        <v>522</v>
-      </c>
-      <c r="B180" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>0x20A</v>
       </c>
       <c r="C180" s="107"/>
       <c r="D180" s="109"/>
@@ -9410,21 +9514,21 @@
     </row>
     <row r="181" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B181" s="5" t="str">
-        <f t="shared" ref="B181:B186" si="6" xml:space="preserve"> "0x" &amp; DEC2HEX(A181)</f>
-        <v>0x20C</v>
+        <f t="shared" ref="B181:B182" si="5" xml:space="preserve"> "0x" &amp; DEC2HEX(A181)</f>
+        <v>0x204</v>
       </c>
       <c r="C181" s="106" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D181" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E181" s="108"/>
       <c r="F181" s="110" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G181" s="112">
         <v>1</v>
@@ -9435,11 +9539,11 @@
     </row>
     <row r="182" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B182" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>0x20E</v>
+        <f t="shared" si="5"/>
+        <v>0x206</v>
       </c>
       <c r="C182" s="107"/>
       <c r="D182" s="109"/>
@@ -9450,21 +9554,21 @@
     </row>
     <row r="183" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B183" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>0x210</v>
+        <f t="shared" ref="B183:B184" si="6" xml:space="preserve"> "0x" &amp; DEC2HEX(A183)</f>
+        <v>0x208</v>
       </c>
       <c r="C183" s="106" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D183" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E183" s="108"/>
       <c r="F183" s="110" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G183" s="112">
         <v>1</v>
@@ -9475,11 +9579,11 @@
     </row>
     <row r="184" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B184" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>0x212</v>
+        <v>0x20A</v>
       </c>
       <c r="C184" s="107"/>
       <c r="D184" s="109"/>
@@ -9490,21 +9594,21 @@
     </row>
     <row r="185" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B185" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>0x214</v>
+        <f t="shared" ref="B185:B190" si="7" xml:space="preserve"> "0x" &amp; DEC2HEX(A185)</f>
+        <v>0x20C</v>
       </c>
       <c r="C185" s="106" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D185" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E185" s="108"/>
       <c r="F185" s="110" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G185" s="112">
         <v>1</v>
@@ -9515,11 +9619,11 @@
     </row>
     <row r="186" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B186" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>0x216</v>
+        <f t="shared" si="7"/>
+        <v>0x20E</v>
       </c>
       <c r="C186" s="107"/>
       <c r="D186" s="109"/>
@@ -9530,21 +9634,21 @@
     </row>
     <row r="187" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B187" s="5" t="str">
-        <f t="shared" ref="B187:B192" si="7" xml:space="preserve"> "0x" &amp; DEC2HEX(A187)</f>
-        <v>0x218</v>
+        <f t="shared" si="7"/>
+        <v>0x210</v>
       </c>
       <c r="C187" s="106" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D187" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E187" s="108"/>
       <c r="F187" s="110" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G187" s="112">
         <v>1</v>
@@ -9555,11 +9659,11 @@
     </row>
     <row r="188" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B188" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>0x21A</v>
+        <v>0x212</v>
       </c>
       <c r="C188" s="107"/>
       <c r="D188" s="109"/>
@@ -9570,21 +9674,21 @@
     </row>
     <row r="189" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B189" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>0x21C</v>
+        <v>0x214</v>
       </c>
       <c r="C189" s="106" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D189" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E189" s="108"/>
       <c r="F189" s="110" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G189" s="112">
         <v>1</v>
@@ -9595,11 +9699,11 @@
     </row>
     <row r="190" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B190" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>0x21E</v>
+        <v>0x216</v>
       </c>
       <c r="C190" s="107"/>
       <c r="D190" s="109"/>
@@ -9610,21 +9714,21 @@
     </row>
     <row r="191" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B191" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>0x220</v>
+        <f t="shared" ref="B191:B196" si="8" xml:space="preserve"> "0x" &amp; DEC2HEX(A191)</f>
+        <v>0x218</v>
       </c>
       <c r="C191" s="106" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D191" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E191" s="108"/>
       <c r="F191" s="110" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G191" s="112">
         <v>1</v>
@@ -9635,11 +9739,11 @@
     </row>
     <row r="192" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B192" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>0x222</v>
+        <f t="shared" si="8"/>
+        <v>0x21A</v>
       </c>
       <c r="C192" s="107"/>
       <c r="D192" s="109"/>
@@ -9650,21 +9754,21 @@
     </row>
     <row r="193" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B193" s="5" t="str">
-        <f t="shared" ref="B193:B212" si="8" xml:space="preserve"> "0x" &amp; DEC2HEX(A193)</f>
-        <v>0x224</v>
+        <f t="shared" si="8"/>
+        <v>0x21C</v>
       </c>
       <c r="C193" s="106" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D193" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E193" s="108"/>
       <c r="F193" s="110" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G193" s="112">
         <v>1</v>
@@ -9675,11 +9779,11 @@
     </row>
     <row r="194" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B194" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>0x226</v>
+        <v>0x21E</v>
       </c>
       <c r="C194" s="107"/>
       <c r="D194" s="109"/>
@@ -9690,21 +9794,21 @@
     </row>
     <row r="195" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B195" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>0x228</v>
+        <v>0x220</v>
       </c>
       <c r="C195" s="106" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D195" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E195" s="108"/>
       <c r="F195" s="110" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G195" s="112">
         <v>1</v>
@@ -9715,11 +9819,11 @@
     </row>
     <row r="196" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B196" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>0x22A</v>
+        <v>0x222</v>
       </c>
       <c r="C196" s="107"/>
       <c r="D196" s="109"/>
@@ -9730,21 +9834,21 @@
     </row>
     <row r="197" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B197" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x22C</v>
+        <f t="shared" ref="B197:B216" si="9" xml:space="preserve"> "0x" &amp; DEC2HEX(A197)</f>
+        <v>0x224</v>
       </c>
       <c r="C197" s="106" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D197" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E197" s="108"/>
       <c r="F197" s="110" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="G197" s="112">
         <v>1</v>
@@ -9755,11 +9859,11 @@
     </row>
     <row r="198" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B198" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x22E</v>
+        <f t="shared" si="9"/>
+        <v>0x226</v>
       </c>
       <c r="C198" s="107"/>
       <c r="D198" s="109"/>
@@ -9770,21 +9874,21 @@
     </row>
     <row r="199" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B199" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x230</v>
+        <f t="shared" si="9"/>
+        <v>0x228</v>
       </c>
       <c r="C199" s="106" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D199" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E199" s="108"/>
       <c r="F199" s="110" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G199" s="112">
         <v>1</v>
@@ -9795,11 +9899,11 @@
     </row>
     <row r="200" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B200" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x232</v>
+        <f t="shared" si="9"/>
+        <v>0x22A</v>
       </c>
       <c r="C200" s="107"/>
       <c r="D200" s="109"/>
@@ -9810,21 +9914,21 @@
     </row>
     <row r="201" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B201" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x234</v>
+        <f t="shared" si="9"/>
+        <v>0x22C</v>
       </c>
       <c r="C201" s="106" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D201" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E201" s="108"/>
       <c r="F201" s="110" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G201" s="112">
         <v>1</v>
@@ -9835,11 +9939,11 @@
     </row>
     <row r="202" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B202" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x236</v>
+        <f t="shared" si="9"/>
+        <v>0x22E</v>
       </c>
       <c r="C202" s="107"/>
       <c r="D202" s="109"/>
@@ -9850,21 +9954,21 @@
     </row>
     <row r="203" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B203" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x238</v>
+        <f t="shared" si="9"/>
+        <v>0x230</v>
       </c>
       <c r="C203" s="106" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D203" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E203" s="108"/>
       <c r="F203" s="110" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G203" s="112">
         <v>1</v>
@@ -9875,11 +9979,11 @@
     </row>
     <row r="204" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B204" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x23A</v>
+        <f t="shared" si="9"/>
+        <v>0x232</v>
       </c>
       <c r="C204" s="107"/>
       <c r="D204" s="109"/>
@@ -9890,21 +9994,21 @@
     </row>
     <row r="205" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B205" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x23C</v>
+        <f t="shared" si="9"/>
+        <v>0x234</v>
       </c>
       <c r="C205" s="106" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D205" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E205" s="108"/>
       <c r="F205" s="110" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G205" s="112">
         <v>1</v>
@@ -9915,11 +10019,11 @@
     </row>
     <row r="206" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B206" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x23E</v>
+        <f t="shared" si="9"/>
+        <v>0x236</v>
       </c>
       <c r="C206" s="107"/>
       <c r="D206" s="109"/>
@@ -9930,21 +10034,21 @@
     </row>
     <row r="207" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B207" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x240</v>
+        <f t="shared" si="9"/>
+        <v>0x238</v>
       </c>
       <c r="C207" s="106" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D207" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E207" s="108"/>
       <c r="F207" s="110" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G207" s="112">
         <v>1</v>
@@ -9955,11 +10059,11 @@
     </row>
     <row r="208" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B208" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x242</v>
+        <f t="shared" si="9"/>
+        <v>0x23A</v>
       </c>
       <c r="C208" s="107"/>
       <c r="D208" s="109"/>
@@ -9970,21 +10074,21 @@
     </row>
     <row r="209" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B209" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x244</v>
+        <f t="shared" si="9"/>
+        <v>0x23C</v>
       </c>
       <c r="C209" s="106" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D209" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E209" s="108"/>
       <c r="F209" s="110" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G209" s="112">
         <v>1</v>
@@ -9995,11 +10099,11 @@
     </row>
     <row r="210" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B210" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x246</v>
+        <f t="shared" si="9"/>
+        <v>0x23E</v>
       </c>
       <c r="C210" s="107"/>
       <c r="D210" s="109"/>
@@ -10010,21 +10114,21 @@
     </row>
     <row r="211" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B211" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x248</v>
+        <f t="shared" si="9"/>
+        <v>0x240</v>
       </c>
       <c r="C211" s="106" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D211" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E211" s="108"/>
       <c r="F211" s="110" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G211" s="112">
         <v>1</v>
@@ -10035,11 +10139,11 @@
     </row>
     <row r="212" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B212" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>0x24A</v>
+        <f t="shared" si="9"/>
+        <v>0x242</v>
       </c>
       <c r="C212" s="107"/>
       <c r="D212" s="109"/>
@@ -10050,21 +10154,21 @@
     </row>
     <row r="213" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B213" s="5" t="str">
-        <f t="shared" ref="B213:B232" si="9" xml:space="preserve"> "0x" &amp; DEC2HEX(A213)</f>
-        <v>0x24C</v>
+        <f t="shared" si="9"/>
+        <v>0x244</v>
       </c>
       <c r="C213" s="106" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D213" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E213" s="108"/>
       <c r="F213" s="110" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G213" s="112">
         <v>1</v>
@@ -10075,11 +10179,11 @@
     </row>
     <row r="214" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B214" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>0x24E</v>
+        <v>0x246</v>
       </c>
       <c r="C214" s="107"/>
       <c r="D214" s="109"/>
@@ -10090,21 +10194,21 @@
     </row>
     <row r="215" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B215" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>0x250</v>
+        <v>0x248</v>
       </c>
       <c r="C215" s="106" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D215" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E215" s="108"/>
       <c r="F215" s="110" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G215" s="112">
         <v>1</v>
@@ -10115,11 +10219,11 @@
     </row>
     <row r="216" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B216" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>0x252</v>
+        <v>0x24A</v>
       </c>
       <c r="C216" s="107"/>
       <c r="D216" s="109"/>
@@ -10130,21 +10234,21 @@
     </row>
     <row r="217" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B217" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x254</v>
+        <f t="shared" ref="B217:B236" si="10" xml:space="preserve"> "0x" &amp; DEC2HEX(A217)</f>
+        <v>0x24C</v>
       </c>
       <c r="C217" s="106" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D217" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E217" s="108"/>
       <c r="F217" s="110" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G217" s="112">
         <v>1</v>
@@ -10155,11 +10259,11 @@
     </row>
     <row r="218" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B218" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x256</v>
+        <f t="shared" si="10"/>
+        <v>0x24E</v>
       </c>
       <c r="C218" s="107"/>
       <c r="D218" s="109"/>
@@ -10170,21 +10274,21 @@
     </row>
     <row r="219" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B219" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x258</v>
+        <f t="shared" si="10"/>
+        <v>0x250</v>
       </c>
       <c r="C219" s="106" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D219" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E219" s="108"/>
       <c r="F219" s="110" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G219" s="112">
         <v>1</v>
@@ -10195,11 +10299,11 @@
     </row>
     <row r="220" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B220" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x25A</v>
+        <f t="shared" si="10"/>
+        <v>0x252</v>
       </c>
       <c r="C220" s="107"/>
       <c r="D220" s="109"/>
@@ -10210,21 +10314,21 @@
     </row>
     <row r="221" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B221" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x25C</v>
+        <f t="shared" si="10"/>
+        <v>0x254</v>
       </c>
       <c r="C221" s="106" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D221" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E221" s="108"/>
       <c r="F221" s="110" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G221" s="112">
         <v>1</v>
@@ -10235,11 +10339,11 @@
     </row>
     <row r="222" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B222" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x25E</v>
+        <f t="shared" si="10"/>
+        <v>0x256</v>
       </c>
       <c r="C222" s="107"/>
       <c r="D222" s="109"/>
@@ -10250,21 +10354,21 @@
     </row>
     <row r="223" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B223" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x260</v>
+        <f t="shared" si="10"/>
+        <v>0x258</v>
       </c>
       <c r="C223" s="106" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D223" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E223" s="108"/>
       <c r="F223" s="110" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G223" s="112">
         <v>1</v>
@@ -10275,11 +10379,11 @@
     </row>
     <row r="224" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B224" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x262</v>
+        <f t="shared" si="10"/>
+        <v>0x25A</v>
       </c>
       <c r="C224" s="107"/>
       <c r="D224" s="109"/>
@@ -10290,21 +10394,21 @@
     </row>
     <row r="225" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B225" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x264</v>
+        <f t="shared" si="10"/>
+        <v>0x25C</v>
       </c>
       <c r="C225" s="106" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D225" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E225" s="108"/>
       <c r="F225" s="110" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G225" s="112">
         <v>1</v>
@@ -10315,11 +10419,11 @@
     </row>
     <row r="226" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B226" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x266</v>
+        <f t="shared" si="10"/>
+        <v>0x25E</v>
       </c>
       <c r="C226" s="107"/>
       <c r="D226" s="109"/>
@@ -10330,21 +10434,21 @@
     </row>
     <row r="227" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B227" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x268</v>
+        <f t="shared" si="10"/>
+        <v>0x260</v>
       </c>
       <c r="C227" s="106" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D227" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E227" s="108"/>
       <c r="F227" s="110" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G227" s="112">
         <v>1</v>
@@ -10355,11 +10459,11 @@
     </row>
     <row r="228" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B228" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x26A</v>
+        <f t="shared" si="10"/>
+        <v>0x262</v>
       </c>
       <c r="C228" s="107"/>
       <c r="D228" s="109"/>
@@ -10370,21 +10474,21 @@
     </row>
     <row r="229" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B229" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x26C</v>
+        <f t="shared" si="10"/>
+        <v>0x264</v>
       </c>
       <c r="C229" s="106" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D229" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E229" s="108"/>
       <c r="F229" s="110" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G229" s="112">
         <v>1</v>
@@ -10395,11 +10499,11 @@
     </row>
     <row r="230" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B230" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x26E</v>
+        <f t="shared" si="10"/>
+        <v>0x266</v>
       </c>
       <c r="C230" s="107"/>
       <c r="D230" s="109"/>
@@ -10410,21 +10514,21 @@
     </row>
     <row r="231" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B231" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x270</v>
+        <f t="shared" si="10"/>
+        <v>0x268</v>
       </c>
       <c r="C231" s="106" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D231" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E231" s="108"/>
       <c r="F231" s="110" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G231" s="112">
         <v>1</v>
@@ -10435,11 +10539,11 @@
     </row>
     <row r="232" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B232" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>0x272</v>
+        <f t="shared" si="10"/>
+        <v>0x26A</v>
       </c>
       <c r="C232" s="107"/>
       <c r="D232" s="109"/>
@@ -10450,21 +10554,21 @@
     </row>
     <row r="233" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B233" s="5" t="str">
-        <f t="shared" ref="B233:B234" si="10" xml:space="preserve"> "0x" &amp; DEC2HEX(A233)</f>
-        <v>0x274</v>
+        <f t="shared" si="10"/>
+        <v>0x26C</v>
       </c>
       <c r="C233" s="106" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D233" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E233" s="108"/>
       <c r="F233" s="110" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G233" s="112">
         <v>1</v>
@@ -10475,11 +10579,11 @@
     </row>
     <row r="234" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B234" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>0x276</v>
+        <v>0x26E</v>
       </c>
       <c r="C234" s="107"/>
       <c r="D234" s="109"/>
@@ -10490,21 +10594,21 @@
     </row>
     <row r="235" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B235" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0x278</v>
+        <f t="shared" si="10"/>
+        <v>0x270</v>
       </c>
       <c r="C235" s="106" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D235" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E235" s="108"/>
       <c r="F235" s="110" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G235" s="112">
         <v>1</v>
@@ -10515,11 +10619,11 @@
     </row>
     <row r="236" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B236" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0x27A</v>
+        <f t="shared" si="10"/>
+        <v>0x272</v>
       </c>
       <c r="C236" s="107"/>
       <c r="D236" s="109"/>
@@ -10530,21 +10634,21 @@
     </row>
     <row r="237" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B237" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0x27C</v>
+        <f t="shared" ref="B237:B238" si="11" xml:space="preserve"> "0x" &amp; DEC2HEX(A237)</f>
+        <v>0x274</v>
       </c>
       <c r="C237" s="106" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D237" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E237" s="108"/>
       <c r="F237" s="110" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G237" s="112">
         <v>1</v>
@@ -10555,11 +10659,11 @@
     </row>
     <row r="238" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B238" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0x27E</v>
+        <f t="shared" si="11"/>
+        <v>0x276</v>
       </c>
       <c r="C238" s="107"/>
       <c r="D238" s="109"/>
@@ -10570,299 +10674,299 @@
     </row>
     <row r="239" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B239" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x280</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D239" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E239" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F239" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="G239" s="96">
+        <v>0x278</v>
+      </c>
+      <c r="C239" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="D239" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E239" s="108"/>
+      <c r="F239" s="110" t="s">
+        <v>424</v>
+      </c>
+      <c r="G239" s="112">
         <v>1</v>
       </c>
-      <c r="H239" s="5" t="s">
+      <c r="H239" s="104" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B240" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x282</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E240" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F240" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="G240" s="96">
-        <v>1</v>
-      </c>
-      <c r="H240" s="5" t="s">
-        <v>775</v>
-      </c>
+        <v>0x27A</v>
+      </c>
+      <c r="C240" s="107"/>
+      <c r="D240" s="109"/>
+      <c r="E240" s="109"/>
+      <c r="F240" s="111"/>
+      <c r="G240" s="113"/>
+      <c r="H240" s="105"/>
     </row>
     <row r="241" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B241" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x284</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E241" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F241" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="G241" s="96">
+        <v>0x27C</v>
+      </c>
+      <c r="C241" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="D241" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E241" s="108"/>
+      <c r="F241" s="110" t="s">
+        <v>426</v>
+      </c>
+      <c r="G241" s="112">
         <v>1</v>
       </c>
-      <c r="H241" s="5" t="s">
+      <c r="H241" s="104" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
+        <v>638</v>
+      </c>
+      <c r="B242" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>0x27E</v>
+      </c>
+      <c r="C242" s="107"/>
+      <c r="D242" s="109"/>
+      <c r="E242" s="109"/>
+      <c r="F242" s="111"/>
+      <c r="G242" s="113"/>
+      <c r="H242" s="105"/>
+    </row>
+    <row r="243" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="5">
+        <v>640</v>
+      </c>
+      <c r="B243" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>0x280</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F243" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G243" s="96">
+        <v>1</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="5">
+        <v>642</v>
+      </c>
+      <c r="B244" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>0x282</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F244" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G244" s="96">
+        <v>1</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="5">
+        <v>644</v>
+      </c>
+      <c r="B245" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>0x284</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="G245" s="96">
+        <v>1</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="5">
         <v>682</v>
       </c>
-      <c r="B242" s="41" t="str">
+      <c r="B246" s="41" t="str">
         <f t="shared" si="3"/>
         <v>0x2AA</v>
       </c>
-      <c r="C242" s="42" t="s">
+      <c r="C246" s="42" t="s">
         <v>793</v>
       </c>
-      <c r="D242" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E242" s="43"/>
-      <c r="F242" s="44" t="s">
+      <c r="D246" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" s="43"/>
+      <c r="F246" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="G242" s="99">
+      <c r="G246" s="99">
         <v>7</v>
       </c>
-      <c r="H242" s="41" t="s">
+      <c r="H246" s="41" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="5">
+    <row r="247" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="5">
         <v>684</v>
       </c>
-      <c r="B243" s="5" t="str">
+      <c r="B247" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x2AC</v>
       </c>
-      <c r="C243" s="6" t="s">
+      <c r="C247" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="D243" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E243" s="7">
+      <c r="D247" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" s="7">
         <v>1</v>
       </c>
-      <c r="F243" s="8" t="s">
+      <c r="F247" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="G243" s="96">
+      <c r="G247" s="96">
         <v>7</v>
       </c>
-      <c r="H243" s="5" t="s">
+      <c r="H247" s="5" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="5">
+    <row r="248" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="5">
         <v>686</v>
       </c>
-      <c r="B244" s="5" t="str">
+      <c r="B248" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x2AE</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C248" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="D244" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E244" s="7"/>
-      <c r="F244" s="8" t="s">
+      <c r="D248" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248" s="7"/>
+      <c r="F248" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="G244" s="96">
+      <c r="G248" s="96">
         <v>7</v>
       </c>
-      <c r="H244" s="5" t="s">
+      <c r="H248" s="5" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="5">
+    <row r="249" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="5">
         <v>688</v>
       </c>
-      <c r="B245" s="5" t="str">
+      <c r="B249" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x2B0</v>
       </c>
-      <c r="C245" s="6" t="s">
+      <c r="C249" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="D245" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E245" s="7"/>
-      <c r="F245" s="8" t="s">
+      <c r="D249" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E249" s="7"/>
+      <c r="F249" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="G245" s="96">
+      <c r="G249" s="96">
         <v>7</v>
       </c>
-      <c r="H245" s="5" t="s">
+      <c r="H249" s="5" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="5">
+    <row r="250" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="5">
         <v>700</v>
       </c>
-      <c r="B246" s="5" t="str">
+      <c r="B250" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x2BC</v>
       </c>
-      <c r="C246" s="106" t="s">
+      <c r="C250" s="106" t="s">
         <v>799</v>
       </c>
-      <c r="D246" s="108" t="s">
+      <c r="D250" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E246" s="108"/>
-      <c r="F246" s="110" t="s">
+      <c r="E250" s="108"/>
+      <c r="F250" s="110" t="s">
         <v>800</v>
       </c>
-      <c r="G246" s="112">
+      <c r="G250" s="112">
         <v>7</v>
       </c>
-      <c r="H246" s="104" t="s">
+      <c r="H250" s="104" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="5">
+    <row r="251" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="5">
         <v>702</v>
       </c>
-      <c r="B247" s="5" t="str">
+      <c r="B251" s="5" t="str">
         <f t="shared" si="3"/>
         <v>0x2BE</v>
-      </c>
-      <c r="C247" s="107"/>
-      <c r="D247" s="109"/>
-      <c r="E247" s="109"/>
-      <c r="F247" s="111"/>
-      <c r="G247" s="113"/>
-      <c r="H247" s="105"/>
-    </row>
-    <row r="248" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="5">
-        <v>704</v>
-      </c>
-      <c r="B248" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0x2C0</v>
-      </c>
-      <c r="C248" s="106" t="s">
-        <v>801</v>
-      </c>
-      <c r="D248" s="108" t="s">
-        <v>802</v>
-      </c>
-      <c r="E248" s="108"/>
-      <c r="F248" s="110" t="s">
-        <v>803</v>
-      </c>
-      <c r="G248" s="112">
-        <v>7</v>
-      </c>
-      <c r="H248" s="104" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="5">
-        <v>706</v>
-      </c>
-      <c r="B249" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0x2C2</v>
-      </c>
-      <c r="C249" s="107"/>
-      <c r="D249" s="109"/>
-      <c r="E249" s="109"/>
-      <c r="F249" s="111"/>
-      <c r="G249" s="113"/>
-      <c r="H249" s="105"/>
-    </row>
-    <row r="250" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="5">
-        <v>708</v>
-      </c>
-      <c r="B250" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0x2C4</v>
-      </c>
-      <c r="C250" s="106" t="s">
-        <v>804</v>
-      </c>
-      <c r="D250" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="E250" s="108"/>
-      <c r="F250" s="110" t="s">
-        <v>808</v>
-      </c>
-      <c r="G250" s="112">
-        <v>7</v>
-      </c>
-      <c r="H250" s="104" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="5">
-        <v>710</v>
-      </c>
-      <c r="B251" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0x2C6</v>
       </c>
       <c r="C251" s="107"/>
       <c r="D251" s="109"/>
@@ -10873,21 +10977,21 @@
     </row>
     <row r="252" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B252" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2C8</v>
+        <v>0x2C0</v>
       </c>
       <c r="C252" s="106" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D252" s="108" t="s">
         <v>802</v>
       </c>
       <c r="E252" s="108"/>
       <c r="F252" s="110" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="G252" s="112">
         <v>7</v>
@@ -10898,11 +11002,11 @@
     </row>
     <row r="253" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B253" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2CA</v>
+        <v>0x2C2</v>
       </c>
       <c r="C253" s="107"/>
       <c r="D253" s="109"/>
@@ -10913,24 +11017,24 @@
     </row>
     <row r="254" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B254" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2CC</v>
+        <v>0x2C4</v>
       </c>
       <c r="C254" s="106" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D254" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E254" s="108"/>
       <c r="F254" s="110" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G254" s="112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H254" s="104" t="s">
         <v>779</v>
@@ -10938,11 +11042,11 @@
     </row>
     <row r="255" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="B255" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2CE</v>
+        <v>0x2C6</v>
       </c>
       <c r="C255" s="107"/>
       <c r="D255" s="109"/>
@@ -10953,24 +11057,24 @@
     </row>
     <row r="256" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B256" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2D0</v>
+        <v>0x2C8</v>
       </c>
       <c r="C256" s="106" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D256" s="108" t="s">
         <v>802</v>
       </c>
       <c r="E256" s="108"/>
       <c r="F256" s="110" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G256" s="112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H256" s="104" t="s">
         <v>779</v>
@@ -10978,11 +11082,11 @@
     </row>
     <row r="257" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B257" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2D2</v>
+        <v>0x2CA</v>
       </c>
       <c r="C257" s="107"/>
       <c r="D257" s="109"/>
@@ -10993,21 +11097,21 @@
     </row>
     <row r="258" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B258" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2D4</v>
+        <v>0x2CC</v>
       </c>
       <c r="C258" s="106" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D258" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E258" s="108"/>
       <c r="F258" s="110" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G258" s="112">
         <v>10</v>
@@ -11018,11 +11122,11 @@
     </row>
     <row r="259" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B259" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2D6</v>
+        <v>0x2CE</v>
       </c>
       <c r="C259" s="107"/>
       <c r="D259" s="109"/>
@@ -11033,21 +11137,21 @@
     </row>
     <row r="260" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B260" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2D8</v>
+        <v>0x2D0</v>
       </c>
       <c r="C260" s="106" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D260" s="108" t="s">
-        <v>52</v>
+        <v>802</v>
       </c>
       <c r="E260" s="108"/>
       <c r="F260" s="110" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G260" s="112">
         <v>10</v>
@@ -11058,11 +11162,11 @@
     </row>
     <row r="261" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B261" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2DA</v>
+        <v>0x2D2</v>
       </c>
       <c r="C261" s="107"/>
       <c r="D261" s="109"/>
@@ -11073,126 +11177,126 @@
     </row>
     <row r="262" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B262" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2DC</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="D262" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E262" s="7"/>
-      <c r="F262" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="G262" s="96">
-        <v>10</v>
-      </c>
-      <c r="H262" s="5" t="s">
+        <v>0x2D4</v>
+      </c>
+      <c r="C262" s="106" t="s">
+        <v>812</v>
+      </c>
+      <c r="D262" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E262" s="108"/>
+      <c r="F262" s="110" t="s">
+        <v>812</v>
+      </c>
+      <c r="G262" s="112">
+        <v>10</v>
+      </c>
+      <c r="H262" s="104" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B263" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2DE</v>
-      </c>
-      <c r="C263" s="106" t="s">
-        <v>783</v>
-      </c>
-      <c r="D263" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="E263" s="108"/>
-      <c r="F263" s="110" t="s">
-        <v>780</v>
-      </c>
-      <c r="G263" s="112">
-        <v>7</v>
-      </c>
-      <c r="H263" s="104" t="s">
-        <v>779</v>
-      </c>
+        <v>0x2D6</v>
+      </c>
+      <c r="C263" s="107"/>
+      <c r="D263" s="109"/>
+      <c r="E263" s="109"/>
+      <c r="F263" s="111"/>
+      <c r="G263" s="113"/>
+      <c r="H263" s="105"/>
     </row>
     <row r="264" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B264" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2E0</v>
-      </c>
-      <c r="C264" s="107"/>
-      <c r="D264" s="109"/>
-      <c r="E264" s="109"/>
-      <c r="F264" s="111"/>
-      <c r="G264" s="113"/>
-      <c r="H264" s="105"/>
+        <v>0x2D8</v>
+      </c>
+      <c r="C264" s="106" t="s">
+        <v>813</v>
+      </c>
+      <c r="D264" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E264" s="108"/>
+      <c r="F264" s="110" t="s">
+        <v>813</v>
+      </c>
+      <c r="G264" s="112">
+        <v>10</v>
+      </c>
+      <c r="H264" s="104" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="265" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B265" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2E2</v>
-      </c>
-      <c r="C265" s="106" t="s">
-        <v>784</v>
-      </c>
-      <c r="D265" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="E265" s="108"/>
-      <c r="F265" s="110" t="s">
-        <v>781</v>
-      </c>
-      <c r="G265" s="112">
-        <v>7</v>
-      </c>
-      <c r="H265" s="104" t="s">
-        <v>779</v>
-      </c>
+        <v>0x2DA</v>
+      </c>
+      <c r="C265" s="107"/>
+      <c r="D265" s="109"/>
+      <c r="E265" s="109"/>
+      <c r="F265" s="111"/>
+      <c r="G265" s="113"/>
+      <c r="H265" s="105"/>
     </row>
     <row r="266" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B266" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2E4</v>
-      </c>
-      <c r="C266" s="107"/>
-      <c r="D266" s="109"/>
-      <c r="E266" s="109"/>
-      <c r="F266" s="111"/>
-      <c r="G266" s="113"/>
-      <c r="H266" s="105"/>
+        <v>0x2DC</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266" s="7"/>
+      <c r="F266" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="G266" s="96">
+        <v>10</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="267" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B267" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2E6</v>
+        <v>0x2DE</v>
       </c>
       <c r="C267" s="106" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D267" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E267" s="108"/>
       <c r="F267" s="110" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G267" s="112">
         <v>7</v>
@@ -11203,11 +11307,11 @@
     </row>
     <row r="268" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B268" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2E8</v>
+        <v>0x2E0</v>
       </c>
       <c r="C268" s="107"/>
       <c r="D268" s="109"/>
@@ -11218,78 +11322,64 @@
     </row>
     <row r="269" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B269" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2EA</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="D269" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E269" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="F269" s="8" t="s">
-        <v>874</v>
-      </c>
-      <c r="G269" s="96">
-        <v>10</v>
-      </c>
-      <c r="H269" s="5" t="s">
+        <v>0x2E2</v>
+      </c>
+      <c r="C269" s="106" t="s">
+        <v>784</v>
+      </c>
+      <c r="D269" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E269" s="108"/>
+      <c r="F269" s="110" t="s">
+        <v>781</v>
+      </c>
+      <c r="G269" s="112">
+        <v>7</v>
+      </c>
+      <c r="H269" s="104" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B270" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2EC</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E270" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="F270" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="G270" s="96">
-        <v>10</v>
-      </c>
-      <c r="H270" s="5" t="s">
-        <v>779</v>
-      </c>
+        <v>0x2E4</v>
+      </c>
+      <c r="C270" s="107"/>
+      <c r="D270" s="109"/>
+      <c r="E270" s="109"/>
+      <c r="F270" s="111"/>
+      <c r="G270" s="113"/>
+      <c r="H270" s="105"/>
     </row>
     <row r="271" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B271" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2EE</v>
+        <v>0x2E6</v>
       </c>
       <c r="C271" s="106" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D271" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E271" s="108"/>
       <c r="F271" s="110" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G271" s="112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H271" s="104" t="s">
         <v>779</v>
@@ -11297,11 +11387,11 @@
     </row>
     <row r="272" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B272" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2F0</v>
+        <v>0x2E8</v>
       </c>
       <c r="C272" s="107"/>
       <c r="D272" s="109"/>
@@ -11312,61 +11402,75 @@
     </row>
     <row r="273" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B273" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2F2</v>
-      </c>
-      <c r="C273" s="106" t="s">
-        <v>791</v>
-      </c>
-      <c r="D273" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="E273" s="108"/>
-      <c r="F273" s="110" t="s">
-        <v>792</v>
-      </c>
-      <c r="G273" s="112">
-        <v>10</v>
-      </c>
-      <c r="H273" s="104" t="s">
+        <v>0x2EA</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="G273" s="96">
+        <v>10</v>
+      </c>
+      <c r="H273" s="5" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B274" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>0x2F4</v>
-      </c>
-      <c r="C274" s="107"/>
-      <c r="D274" s="109"/>
-      <c r="E274" s="109"/>
-      <c r="F274" s="111"/>
-      <c r="G274" s="113"/>
-      <c r="H274" s="105"/>
+        <v>0x2EC</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="F274" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="G274" s="96">
+        <v>10</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="275" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="B275" s="5" t="str">
-        <f t="shared" ref="B275:B288" si="11" xml:space="preserve"> "0x" &amp; DEC2HEX(A275)</f>
-        <v>0x30E</v>
+        <f t="shared" si="3"/>
+        <v>0x2EE</v>
       </c>
       <c r="C275" s="106" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="D275" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E275" s="108"/>
       <c r="F275" s="110" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="G275" s="112">
         <v>10</v>
@@ -11377,11 +11481,11 @@
     </row>
     <row r="276" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="B276" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x310</v>
+        <f t="shared" si="3"/>
+        <v>0x2F0</v>
       </c>
       <c r="C276" s="107"/>
       <c r="D276" s="109"/>
@@ -11392,21 +11496,21 @@
     </row>
     <row r="277" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B277" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x312</v>
+        <f t="shared" si="3"/>
+        <v>0x2F2</v>
       </c>
       <c r="C277" s="106" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="D277" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E277" s="108"/>
       <c r="F277" s="110" t="s">
-        <v>816</v>
+        <v>792</v>
       </c>
       <c r="G277" s="112">
         <v>10</v>
@@ -11417,11 +11521,11 @@
     </row>
     <row r="278" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="B278" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x314</v>
+        <f t="shared" si="3"/>
+        <v>0x2F4</v>
       </c>
       <c r="C278" s="107"/>
       <c r="D278" s="109"/>
@@ -11432,21 +11536,21 @@
     </row>
     <row r="279" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B279" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x316</v>
+        <f t="shared" ref="B279:B292" si="12" xml:space="preserve"> "0x" &amp; DEC2HEX(A279)</f>
+        <v>0x30E</v>
       </c>
       <c r="C279" s="106" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D279" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E279" s="108"/>
       <c r="F279" s="110" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G279" s="112">
         <v>10</v>
@@ -11457,11 +11561,11 @@
     </row>
     <row r="280" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B280" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x318</v>
+        <f t="shared" si="12"/>
+        <v>0x310</v>
       </c>
       <c r="C280" s="107"/>
       <c r="D280" s="109"/>
@@ -11472,90 +11576,76 @@
     </row>
     <row r="281" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
-        <v>826</v>
+        <v>786</v>
       </c>
       <c r="B281" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x33A</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="D281" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E281" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="F281" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="G281" s="96">
-        <v>10</v>
-      </c>
-      <c r="H281" s="5" t="s">
+        <f t="shared" si="12"/>
+        <v>0x312</v>
+      </c>
+      <c r="C281" s="106" t="s">
+        <v>816</v>
+      </c>
+      <c r="D281" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E281" s="108"/>
+      <c r="F281" s="110" t="s">
+        <v>816</v>
+      </c>
+      <c r="G281" s="112">
+        <v>10</v>
+      </c>
+      <c r="H281" s="104" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5">
-        <v>834</v>
+        <v>788</v>
       </c>
       <c r="B282" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x342</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="D282" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E282" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="F282" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="G282" s="96">
-        <v>10</v>
-      </c>
-      <c r="H282" s="5" t="s">
-        <v>822</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>0x314</v>
+      </c>
+      <c r="C282" s="107"/>
+      <c r="D282" s="109"/>
+      <c r="E282" s="109"/>
+      <c r="F282" s="111"/>
+      <c r="G282" s="113"/>
+      <c r="H282" s="105"/>
     </row>
     <row r="283" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
-        <v>836</v>
+        <v>790</v>
       </c>
       <c r="B283" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x344</v>
+        <f t="shared" si="12"/>
+        <v>0x316</v>
       </c>
       <c r="C283" s="106" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D283" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E283" s="108"/>
       <c r="F283" s="110" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G283" s="112">
         <v>10</v>
       </c>
       <c r="H283" s="104" t="s">
-        <v>822</v>
+        <v>779</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
-        <v>838</v>
+        <v>792</v>
       </c>
       <c r="B284" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x346</v>
+        <f t="shared" si="12"/>
+        <v>0x318</v>
       </c>
       <c r="C284" s="107"/>
       <c r="D284" s="109"/>
@@ -11566,61 +11656,75 @@
     </row>
     <row r="285" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="B285" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x348</v>
-      </c>
-      <c r="C285" s="106" t="s">
-        <v>823</v>
-      </c>
-      <c r="D285" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="E285" s="108"/>
-      <c r="F285" s="110" t="s">
-        <v>824</v>
-      </c>
-      <c r="G285" s="112">
-        <v>10</v>
-      </c>
-      <c r="H285" s="104" t="s">
-        <v>822</v>
+        <f t="shared" si="12"/>
+        <v>0x33A</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="D285" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E285" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F285" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="G285" s="96">
+        <v>10</v>
+      </c>
+      <c r="H285" s="5" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B286" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x34A</v>
-      </c>
-      <c r="C286" s="107"/>
-      <c r="D286" s="109"/>
-      <c r="E286" s="109"/>
-      <c r="F286" s="111"/>
-      <c r="G286" s="113"/>
-      <c r="H286" s="105"/>
+        <f t="shared" si="12"/>
+        <v>0x342</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F286" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="G286" s="96">
+        <v>10</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="287" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B287" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x34C</v>
+        <f t="shared" si="12"/>
+        <v>0x344</v>
       </c>
       <c r="C287" s="106" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D287" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E287" s="108"/>
       <c r="F287" s="110" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G287" s="112">
         <v>10</v>
@@ -11631,11 +11735,11 @@
     </row>
     <row r="288" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B288" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>0x34E</v>
+        <f t="shared" si="12"/>
+        <v>0x346</v>
       </c>
       <c r="C288" s="107"/>
       <c r="D288" s="109"/>
@@ -11646,21 +11750,21 @@
     </row>
     <row r="289" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B289" s="5" t="str">
-        <f xml:space="preserve"> "0x" &amp; DEC2HEX(A289)</f>
-        <v>0x350</v>
+        <f t="shared" si="12"/>
+        <v>0x348</v>
       </c>
       <c r="C289" s="106" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D289" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E289" s="108"/>
       <c r="F289" s="110" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G289" s="112">
         <v>10</v>
@@ -11671,11 +11775,11 @@
     </row>
     <row r="290" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B290" s="5" t="str">
-        <f xml:space="preserve"> "0x" &amp; DEC2HEX(A290)</f>
-        <v>0x352</v>
+        <f t="shared" si="12"/>
+        <v>0x34A</v>
       </c>
       <c r="C290" s="107"/>
       <c r="D290" s="109"/>
@@ -11686,178 +11790,258 @@
     </row>
     <row r="291" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B291" s="5" t="str">
-        <f xml:space="preserve"> "0x" &amp; DEC2HEX(A291)</f>
-        <v>0x354</v>
-      </c>
-      <c r="C291" s="46" t="s">
-        <v>868</v>
-      </c>
-      <c r="D291" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E291" s="47" t="s">
-        <v>776</v>
-      </c>
-      <c r="F291" s="48" t="s">
-        <v>869</v>
-      </c>
-      <c r="G291" s="100">
-        <v>10</v>
-      </c>
-      <c r="H291" s="50" t="s">
-        <v>779</v>
+        <f t="shared" si="12"/>
+        <v>0x34C</v>
+      </c>
+      <c r="C291" s="106" t="s">
+        <v>825</v>
+      </c>
+      <c r="D291" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E291" s="108"/>
+      <c r="F291" s="110" t="s">
+        <v>826</v>
+      </c>
+      <c r="G291" s="112">
+        <v>10</v>
+      </c>
+      <c r="H291" s="104" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
-        <v>1030</v>
+        <v>846</v>
       </c>
       <c r="B292" s="5" t="str">
-        <f t="shared" ref="B292:B297" si="12" xml:space="preserve"> "0x" &amp; DEC2HEX(A292)</f>
-        <v>0x406</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="D292" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E292" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="F292" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="G292" s="96">
-        <v>10</v>
-      </c>
-      <c r="H292" s="5" t="s">
-        <v>829</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>0x34E</v>
+      </c>
+      <c r="C292" s="107"/>
+      <c r="D292" s="109"/>
+      <c r="E292" s="109"/>
+      <c r="F292" s="111"/>
+      <c r="G292" s="113"/>
+      <c r="H292" s="105"/>
     </row>
     <row r="293" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
-        <v>1032</v>
+        <v>848</v>
       </c>
       <c r="B293" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>0x408</v>
-      </c>
-      <c r="C293" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="D293" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E293" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F293" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="G293" s="96">
-        <v>10</v>
-      </c>
-      <c r="H293" s="5" t="s">
-        <v>829</v>
+        <f xml:space="preserve"> "0x" &amp; DEC2HEX(A293)</f>
+        <v>0x350</v>
+      </c>
+      <c r="C293" s="106" t="s">
+        <v>827</v>
+      </c>
+      <c r="D293" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E293" s="108"/>
+      <c r="F293" s="110" t="s">
+        <v>828</v>
+      </c>
+      <c r="G293" s="112">
+        <v>10</v>
+      </c>
+      <c r="H293" s="104" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
-        <v>1034</v>
+        <v>850</v>
       </c>
       <c r="B294" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>0x40A</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="D294" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E294" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="F294" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="G294" s="96">
-        <v>10</v>
-      </c>
-      <c r="H294" s="5" t="s">
-        <v>829</v>
-      </c>
+        <f xml:space="preserve"> "0x" &amp; DEC2HEX(A294)</f>
+        <v>0x352</v>
+      </c>
+      <c r="C294" s="107"/>
+      <c r="D294" s="109"/>
+      <c r="E294" s="109"/>
+      <c r="F294" s="111"/>
+      <c r="G294" s="113"/>
+      <c r="H294" s="105"/>
     </row>
     <row r="295" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
-        <v>1036</v>
+        <v>852</v>
       </c>
       <c r="B295" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>0x40C</v>
-      </c>
-      <c r="C295" s="106" t="s">
-        <v>853</v>
-      </c>
-      <c r="D295" s="108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" s="114" t="s">
-        <v>835</v>
-      </c>
-      <c r="F295" s="110" t="s">
-        <v>836</v>
-      </c>
-      <c r="G295" s="112">
-        <v>10</v>
-      </c>
-      <c r="H295" s="104" t="s">
-        <v>829</v>
+        <f xml:space="preserve"> "0x" &amp; DEC2HEX(A295)</f>
+        <v>0x354</v>
+      </c>
+      <c r="C295" s="46" t="s">
+        <v>868</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E295" s="47" t="s">
+        <v>776</v>
+      </c>
+      <c r="F295" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="G295" s="100">
+        <v>10</v>
+      </c>
+      <c r="H295" s="50" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B296" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>0x40A</v>
-      </c>
-      <c r="C296" s="107"/>
-      <c r="D296" s="109"/>
-      <c r="E296" s="115"/>
-      <c r="F296" s="111"/>
-      <c r="G296" s="113"/>
-      <c r="H296" s="105"/>
+        <f t="shared" ref="B296:B301" si="13" xml:space="preserve"> "0x" &amp; DEC2HEX(A296)</f>
+        <v>0x406</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="F296" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="G296" s="96">
+        <v>10</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="297" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
+        <v>1032</v>
+      </c>
+      <c r="B297" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>0x408</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F297" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="G297" s="96">
+        <v>10</v>
+      </c>
+      <c r="H297" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="5">
+        <v>1034</v>
+      </c>
+      <c r="B298" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>0x40A</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="F298" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="G298" s="96">
+        <v>10</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="5">
+        <v>1036</v>
+      </c>
+      <c r="B299" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>0x40C</v>
+      </c>
+      <c r="C299" s="106" t="s">
+        <v>853</v>
+      </c>
+      <c r="D299" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="126" t="s">
+        <v>835</v>
+      </c>
+      <c r="F299" s="110" t="s">
+        <v>836</v>
+      </c>
+      <c r="G299" s="112">
+        <v>10</v>
+      </c>
+      <c r="H299" s="104" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="5">
+        <v>1034</v>
+      </c>
+      <c r="B300" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>0x40A</v>
+      </c>
+      <c r="C300" s="107"/>
+      <c r="D300" s="109"/>
+      <c r="E300" s="127"/>
+      <c r="F300" s="111"/>
+      <c r="G300" s="113"/>
+      <c r="H300" s="105"/>
+    </row>
+    <row r="301" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="5">
         <v>1040</v>
       </c>
-      <c r="B297" s="5" t="str">
-        <f t="shared" si="12"/>
+      <c r="B301" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>0x410</v>
       </c>
-      <c r="C297" s="6" t="s">
+      <c r="C301" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="D297" s="7" t="s">
+      <c r="D301" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="E297" s="7" t="s">
+      <c r="E301" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="F297" s="8" t="s">
+      <c r="F301" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="G297" s="96">
-        <v>10</v>
-      </c>
-      <c r="H297" s="5" t="s">
+      <c r="G301" s="96">
+        <v>10</v>
+      </c>
+      <c r="H301" s="5" t="s">
         <v>829</v>
       </c>
     </row>
@@ -11866,380 +12050,48 @@
     <sortCondition ref="A4:A204"/>
   </sortState>
   <mergeCells count="440">
-    <mergeCell ref="H287:H288"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="E289:E290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="G289:G290"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="F287:F288"/>
-    <mergeCell ref="G287:G288"/>
-    <mergeCell ref="H273:H274"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="F275:F276"/>
-    <mergeCell ref="G275:G276"/>
-    <mergeCell ref="H275:H276"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="E273:E274"/>
-    <mergeCell ref="F273:F274"/>
-    <mergeCell ref="G273:G274"/>
-    <mergeCell ref="H277:H278"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="F279:F280"/>
-    <mergeCell ref="G279:G280"/>
-    <mergeCell ref="H279:H280"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="F277:F278"/>
-    <mergeCell ref="G277:G278"/>
-    <mergeCell ref="H283:H284"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="G285:G286"/>
-    <mergeCell ref="H285:H286"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="F283:F284"/>
-    <mergeCell ref="G283:G284"/>
-    <mergeCell ref="H258:H259"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="F260:F261"/>
-    <mergeCell ref="G260:G261"/>
-    <mergeCell ref="H260:H261"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="D258:D259"/>
-    <mergeCell ref="E258:E259"/>
-    <mergeCell ref="F258:F259"/>
-    <mergeCell ref="G258:G259"/>
-    <mergeCell ref="H263:H264"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="E265:E266"/>
-    <mergeCell ref="F265:F266"/>
-    <mergeCell ref="G265:G266"/>
-    <mergeCell ref="H265:H266"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="E263:E264"/>
-    <mergeCell ref="F263:F264"/>
-    <mergeCell ref="G263:G264"/>
-    <mergeCell ref="H267:H268"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="F271:F272"/>
-    <mergeCell ref="G271:G272"/>
-    <mergeCell ref="H271:H272"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="F267:F268"/>
-    <mergeCell ref="E267:E268"/>
-    <mergeCell ref="G267:G268"/>
-    <mergeCell ref="H246:H247"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="E248:E249"/>
-    <mergeCell ref="F248:F249"/>
-    <mergeCell ref="G248:G249"/>
-    <mergeCell ref="H248:H249"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="F246:F247"/>
-    <mergeCell ref="G246:G247"/>
-    <mergeCell ref="H250:H251"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="D252:D253"/>
-    <mergeCell ref="E252:E253"/>
-    <mergeCell ref="F252:F253"/>
-    <mergeCell ref="G252:G253"/>
-    <mergeCell ref="H252:H253"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="E250:E251"/>
-    <mergeCell ref="F250:F251"/>
-    <mergeCell ref="G250:G251"/>
-    <mergeCell ref="H254:H255"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="E256:E257"/>
-    <mergeCell ref="F256:F257"/>
-    <mergeCell ref="G256:G257"/>
-    <mergeCell ref="H256:H257"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="G254:G255"/>
-    <mergeCell ref="H233:H234"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="E233:E234"/>
-    <mergeCell ref="F233:F234"/>
-    <mergeCell ref="G233:G234"/>
-    <mergeCell ref="H229:H230"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="F231:F232"/>
-    <mergeCell ref="G231:G232"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="F229:F230"/>
-    <mergeCell ref="G229:G230"/>
-    <mergeCell ref="H235:H236"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="E237:E238"/>
-    <mergeCell ref="F237:F238"/>
-    <mergeCell ref="G237:G238"/>
-    <mergeCell ref="H237:H238"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="E235:E236"/>
-    <mergeCell ref="F235:F236"/>
-    <mergeCell ref="G235:G236"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="F223:F224"/>
-    <mergeCell ref="G223:G224"/>
-    <mergeCell ref="H223:H224"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="G221:G222"/>
-    <mergeCell ref="H225:H226"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="F225:F226"/>
-    <mergeCell ref="G225:G226"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H209:H210"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="H177:H178"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="H179:H180"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="H183:H184"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H299:H300"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="E299:E300"/>
+    <mergeCell ref="F299:F300"/>
+    <mergeCell ref="G299:G300"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G2:G3"/>
@@ -12264,325 +12116,683 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="E73:E74"/>
-    <mergeCell ref="H295:H296"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="E295:E296"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="G295:G296"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="H229:H230"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="F231:F232"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="F229:F230"/>
+    <mergeCell ref="G229:G230"/>
+    <mergeCell ref="H225:H226"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="G223:G224"/>
+    <mergeCell ref="H223:H224"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="H239:H240"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="E241:E242"/>
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="G241:G242"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="E239:E240"/>
+    <mergeCell ref="F239:F240"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="H237:H238"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="E237:E238"/>
+    <mergeCell ref="F237:F238"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="H233:H234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="E235:E236"/>
+    <mergeCell ref="F235:F236"/>
+    <mergeCell ref="G235:G236"/>
+    <mergeCell ref="H235:H236"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="E233:E234"/>
+    <mergeCell ref="F233:F234"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="H258:H259"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="F260:F261"/>
+    <mergeCell ref="G260:G261"/>
+    <mergeCell ref="H260:H261"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="D258:D259"/>
+    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="F258:F259"/>
+    <mergeCell ref="G258:G259"/>
+    <mergeCell ref="H254:H255"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="F256:F257"/>
+    <mergeCell ref="G256:G257"/>
+    <mergeCell ref="H256:H257"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="G254:G255"/>
+    <mergeCell ref="H250:H251"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="D252:D253"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="F252:F253"/>
+    <mergeCell ref="G252:G253"/>
+    <mergeCell ref="H252:H253"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="F250:F251"/>
+    <mergeCell ref="G250:G251"/>
+    <mergeCell ref="H271:H272"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="F275:F276"/>
+    <mergeCell ref="G275:G276"/>
+    <mergeCell ref="H275:H276"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="F271:F272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="G271:G272"/>
+    <mergeCell ref="H267:H268"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="E269:E270"/>
+    <mergeCell ref="F269:F270"/>
+    <mergeCell ref="G269:G270"/>
+    <mergeCell ref="H269:H270"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="E267:E268"/>
+    <mergeCell ref="F267:F268"/>
+    <mergeCell ref="G267:G268"/>
+    <mergeCell ref="H262:H263"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="F264:F265"/>
+    <mergeCell ref="G264:G265"/>
+    <mergeCell ref="H264:H265"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="F262:F263"/>
+    <mergeCell ref="G262:G263"/>
+    <mergeCell ref="H287:H288"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="G289:G290"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
+    <mergeCell ref="F287:F288"/>
+    <mergeCell ref="G287:G288"/>
+    <mergeCell ref="H281:H282"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="F283:F284"/>
+    <mergeCell ref="G283:G284"/>
+    <mergeCell ref="H283:H284"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="F281:F282"/>
+    <mergeCell ref="G281:G282"/>
+    <mergeCell ref="H277:H278"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="F279:F280"/>
+    <mergeCell ref="G279:G280"/>
+    <mergeCell ref="H279:H280"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="F277:F278"/>
+    <mergeCell ref="G277:G278"/>
+    <mergeCell ref="H291:H292"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="E293:E294"/>
+    <mergeCell ref="F293:F294"/>
+    <mergeCell ref="G293:G294"/>
+    <mergeCell ref="H293:H294"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="E291:E292"/>
+    <mergeCell ref="F291:F292"/>
+    <mergeCell ref="G291:G292"/>
   </mergeCells>
-  <conditionalFormatting sqref="D239">
-    <cfRule type="containsText" dxfId="72" priority="57" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D239)))</formula>
+  <conditionalFormatting sqref="D243">
+    <cfRule type="containsText" dxfId="81" priority="63" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D243)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="58" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D239)))</formula>
+    <cfRule type="containsText" dxfId="80" priority="64" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D243)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="containsText" dxfId="70" priority="95" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="79" priority="101" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D14 D16:D61 D68 D70:D71 D73 D75:D76 D78 D80:D81 D83 D85:D86 D88 D90:D91 D93 D95:D96 D98 D100:D101 D103 D105:D124 D65:D66">
-    <cfRule type="containsText" dxfId="69" priority="89" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="78" priority="95" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D14 D16:D61 D68 D70:D71 D73 D75:D76 D78 D80:D81 D83 D85:D86 D88 D90:D91 D93 D95:D96 D98 D100:D101 D103 D105:D124 D65:D66">
-    <cfRule type="containsText" dxfId="68" priority="90" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="77" priority="96" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="91" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="76" priority="97" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D240">
-    <cfRule type="containsText" dxfId="66" priority="53" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D240)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D240">
-    <cfRule type="containsText" dxfId="65" priority="54" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D240)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="55" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D240)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D125:D174">
-    <cfRule type="containsText" dxfId="63" priority="86" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D241">
-    <cfRule type="containsText" dxfId="62" priority="50" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D241)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D125:D174">
-    <cfRule type="containsText" dxfId="61" priority="87" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="88" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D175 D177 D179 D181 D183 D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209 D211 D213 D215 D217 D219 D221 D223 D225 D227 D229 D231 D233">
-    <cfRule type="containsText" dxfId="59" priority="83" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D175)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D175 D177 D179 D181 D183 D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209 D211 D213 D215 D217 D219 D221 D223 D225 D227 D229 D231 D233">
-    <cfRule type="containsText" dxfId="58" priority="84" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D175)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="85" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D175)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D235">
-    <cfRule type="containsText" dxfId="56" priority="62" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D235)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D235">
-    <cfRule type="containsText" dxfId="55" priority="63" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="64" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D235)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D237">
-    <cfRule type="containsText" dxfId="53" priority="59" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D237)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D237">
-    <cfRule type="containsText" dxfId="52" priority="60" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D237)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="61" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D237)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D239">
-    <cfRule type="containsText" dxfId="50" priority="56" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D239)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D241">
-    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D241)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D241)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D242">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D242)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D242">
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D242)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D242)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D243">
-    <cfRule type="containsText" dxfId="44" priority="38" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D243)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D243">
-    <cfRule type="containsText" dxfId="43" priority="39" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D243)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="40" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D243)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D244">
-    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D244">
-    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="73" priority="61" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D244)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D125:D168 D173:D178">
+    <cfRule type="containsText" dxfId="72" priority="92" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D245">
-    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="71" priority="56" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D245)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D125:D168 D173:D178">
+    <cfRule type="containsText" dxfId="70" priority="93" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="94" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D179 D181 D183 D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209 D211 D213 D215 D217 D219 D221 D223 D225 D227 D229 D231 D233 D235 D237">
+    <cfRule type="containsText" dxfId="68" priority="89" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D179 D181 D183 D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209 D211 D213 D215 D217 D219 D221 D223 D225 D227 D229 D231 D233 D235 D237">
+    <cfRule type="containsText" dxfId="67" priority="90" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="91" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D239">
+    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D239)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D239">
+    <cfRule type="containsText" dxfId="64" priority="69" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="70" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D239)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D241">
+    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D241)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D241">
+    <cfRule type="containsText" dxfId="61" priority="66" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D241)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="67" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D241)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D243">
+    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D243)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D245">
-    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D246">
-    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="56" priority="53" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D246">
-    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D246)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D246)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D248 D250 D252 D254">
-    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="uint32">
+  <conditionalFormatting sqref="D247">
+    <cfRule type="containsText" dxfId="53" priority="44" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D247)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D247">
+    <cfRule type="containsText" dxfId="52" priority="45" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D247)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="46" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D247)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D248">
+    <cfRule type="containsText" dxfId="50" priority="41" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D248)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D248 D250 D252 D254">
-    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="float">
+  <conditionalFormatting sqref="D248">
+    <cfRule type="containsText" dxfId="49" priority="42" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="48" priority="43" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D248)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D256 D258 D260 D262:D263 D265 D267 D269:D270">
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D256)))</formula>
+  <conditionalFormatting sqref="D249">
+    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D249)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D256 D258 D260 D262:D263 D265 D267 D269:D270">
-    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D256)))</formula>
+  <conditionalFormatting sqref="D249">
+    <cfRule type="containsText" dxfId="46" priority="39" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D256)))</formula>
+    <cfRule type="containsText" dxfId="45" priority="40" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D249)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D271 D273 D275 D277 D279 D281">
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D271)))</formula>
+  <conditionalFormatting sqref="D250">
+    <cfRule type="containsText" dxfId="44" priority="35" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D250)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D271 D273 D275 D277 D279 D281">
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D271)))</formula>
+  <conditionalFormatting sqref="D250">
+    <cfRule type="containsText" dxfId="43" priority="36" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D250)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D271)))</formula>
+    <cfRule type="containsText" dxfId="42" priority="37" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D250)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D282:D283 D285 D287 D289">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D282)))</formula>
+  <conditionalFormatting sqref="D252 D254 D256 D258">
+    <cfRule type="containsText" dxfId="41" priority="32" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D252)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D282:D283 D285 D287 D289">
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D282)))</formula>
+  <conditionalFormatting sqref="D252 D254 D256 D258">
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D282)))</formula>
+    <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D252)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D292:D294 D297">
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D292)))</formula>
+  <conditionalFormatting sqref="D260 D262 D264 D266:D267 D269 D271 D273:D274">
+    <cfRule type="containsText" dxfId="38" priority="29" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D260)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D292:D294 D297">
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D292)))</formula>
+  <conditionalFormatting sqref="D260 D262 D264 D266:D267 D269 D271 D273:D274">
+    <cfRule type="containsText" dxfId="37" priority="30" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D292)))</formula>
+    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D260)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D275 D277 D279 D281 D283 D285">
+    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D275)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D275 D277 D279 D281 D283 D285">
+    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D275)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D275)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D286:D287 D289 D291 D293">
+    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D286)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D286:D287 D289 D291 D293">
+    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D286)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D286)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D296:D298 D301">
+    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D296)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D296:D298 D301">
+    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D296)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D296)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D299">
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D299)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D299">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D299)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D295)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D295)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D295)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D291">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="uint32">
-      <formula>NOT(ISERROR(SEARCH("uint32",D291)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D291">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="float">
-      <formula>NOT(ISERROR(SEARCH("float",D291)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="uint16">
-      <formula>NOT(ISERROR(SEARCH("uint16",D291)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169:D170">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D169)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169:D170">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D169)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D169)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D171:D172">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D171:D172">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D171)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -12611,12 +12821,15 @@
     <hyperlink ref="E126" location="Region_Code" display="see notes"/>
     <hyperlink ref="E122" location="Retransmission" display="see notes"/>
     <hyperlink ref="E50" location="Microcontroller_Types" display="see notes"/>
-    <hyperlink ref="E293" location="'Config Values'!A388" display="see notes"/>
-    <hyperlink ref="E295" location="'Config Values'!A398" display="&gt;= 0x20000"/>
+    <hyperlink ref="E297" location="'Config Values'!A388" display="see notes"/>
+    <hyperlink ref="E299" location="'Config Values'!A398" display="&gt;= 0x20000"/>
     <hyperlink ref="E58" location="Flash_ID" display="see notes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G169:G172" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -12644,38 +12857,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="116" t="s">
         <v>991</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="126" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="114" t="s">
         <v>767</v>
       </c>
     </row>
@@ -12686,12 +12899,12 @@
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="119"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="115"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -12707,7 +12920,7 @@
       <c r="D4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="134"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="106" t="s">
         <v>8</v>
       </c>
@@ -12728,7 +12941,7 @@
       </c>
       <c r="C5" s="107"/>
       <c r="D5" s="109"/>
-      <c r="E5" s="135"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="107"/>
       <c r="G5" s="113"/>
       <c r="H5" s="105"/>
@@ -13190,7 +13403,7 @@
       <c r="D23" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="132"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="106" t="s">
         <v>53</v>
       </c>
@@ -13211,7 +13424,7 @@
       </c>
       <c r="C24" s="131"/>
       <c r="D24" s="109"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="107"/>
       <c r="G24" s="113"/>
       <c r="H24" s="105"/>
@@ -13230,7 +13443,7 @@
       <c r="D25" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="132"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="106" t="s">
         <v>55</v>
       </c>
@@ -13251,7 +13464,7 @@
       </c>
       <c r="C26" s="131"/>
       <c r="D26" s="109"/>
-      <c r="E26" s="133"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="107"/>
       <c r="G26" s="113"/>
       <c r="H26" s="105"/>
@@ -13320,7 +13533,7 @@
       <c r="D29" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="132"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="106" t="s">
         <v>61</v>
       </c>
@@ -13341,7 +13554,7 @@
       </c>
       <c r="C30" s="131"/>
       <c r="D30" s="109"/>
-      <c r="E30" s="133"/>
+      <c r="E30" s="135"/>
       <c r="F30" s="107"/>
       <c r="G30" s="113"/>
       <c r="H30" s="105"/>
@@ -13360,7 +13573,7 @@
       <c r="D31" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="132"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="106" t="s">
         <v>63</v>
       </c>
@@ -13381,7 +13594,7 @@
       </c>
       <c r="C32" s="131"/>
       <c r="D32" s="109"/>
-      <c r="E32" s="133"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="107"/>
       <c r="G32" s="113"/>
       <c r="H32" s="105"/>
@@ -13450,7 +13663,7 @@
       <c r="D35" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="132"/>
+      <c r="E35" s="134"/>
       <c r="F35" s="106" t="s">
         <v>69</v>
       </c>
@@ -13471,7 +13684,7 @@
       </c>
       <c r="C36" s="131"/>
       <c r="D36" s="109"/>
-      <c r="E36" s="133"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="107"/>
       <c r="G36" s="113"/>
       <c r="H36" s="105"/>
@@ -13490,7 +13703,7 @@
       <c r="D37" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="132"/>
+      <c r="E37" s="134"/>
       <c r="F37" s="106" t="s">
         <v>71</v>
       </c>
@@ -13511,7 +13724,7 @@
       </c>
       <c r="C38" s="131"/>
       <c r="D38" s="109"/>
-      <c r="E38" s="133"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="107"/>
       <c r="G38" s="113"/>
       <c r="H38" s="105"/>
@@ -13580,7 +13793,7 @@
       <c r="D41" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="132"/>
+      <c r="E41" s="134"/>
       <c r="F41" s="106" t="s">
         <v>77</v>
       </c>
@@ -13601,7 +13814,7 @@
       </c>
       <c r="C42" s="131"/>
       <c r="D42" s="109"/>
-      <c r="E42" s="133"/>
+      <c r="E42" s="135"/>
       <c r="F42" s="107"/>
       <c r="G42" s="113"/>
       <c r="H42" s="105"/>
@@ -13620,7 +13833,7 @@
       <c r="D43" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="132"/>
+      <c r="E43" s="134"/>
       <c r="F43" s="106" t="s">
         <v>79</v>
       </c>
@@ -13641,7 +13854,7 @@
       </c>
       <c r="C44" s="131"/>
       <c r="D44" s="109"/>
-      <c r="E44" s="133"/>
+      <c r="E44" s="135"/>
       <c r="F44" s="107"/>
       <c r="G44" s="113"/>
       <c r="H44" s="105"/>
@@ -13710,7 +13923,7 @@
       <c r="D47" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="132"/>
+      <c r="E47" s="134"/>
       <c r="F47" s="106" t="s">
         <v>85</v>
       </c>
@@ -13731,7 +13944,7 @@
       </c>
       <c r="C48" s="131"/>
       <c r="D48" s="109"/>
-      <c r="E48" s="133"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="107"/>
       <c r="G48" s="113"/>
       <c r="H48" s="105"/>
@@ -13750,7 +13963,7 @@
       <c r="D49" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="132"/>
+      <c r="E49" s="134"/>
       <c r="F49" s="106" t="s">
         <v>87</v>
       </c>
@@ -13771,7 +13984,7 @@
       </c>
       <c r="C50" s="131"/>
       <c r="D50" s="109"/>
-      <c r="E50" s="133"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="107"/>
       <c r="G50" s="113"/>
       <c r="H50" s="105"/>
@@ -13840,7 +14053,7 @@
       <c r="D53" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="132"/>
+      <c r="E53" s="134"/>
       <c r="F53" s="106" t="s">
         <v>93</v>
       </c>
@@ -13861,7 +14074,7 @@
       </c>
       <c r="C54" s="131"/>
       <c r="D54" s="109"/>
-      <c r="E54" s="133"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="107"/>
       <c r="G54" s="113"/>
       <c r="H54" s="105"/>
@@ -13880,7 +14093,7 @@
       <c r="D55" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="132"/>
+      <c r="E55" s="134"/>
       <c r="F55" s="106" t="s">
         <v>95</v>
       </c>
@@ -13901,7 +14114,7 @@
       </c>
       <c r="C56" s="131"/>
       <c r="D56" s="109"/>
-      <c r="E56" s="133"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="107"/>
       <c r="G56" s="113"/>
       <c r="H56" s="105"/>
@@ -13970,7 +14183,7 @@
       <c r="D59" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="132"/>
+      <c r="E59" s="134"/>
       <c r="F59" s="106" t="s">
         <v>101</v>
       </c>
@@ -13991,7 +14204,7 @@
       </c>
       <c r="C60" s="131"/>
       <c r="D60" s="109"/>
-      <c r="E60" s="133"/>
+      <c r="E60" s="135"/>
       <c r="F60" s="107"/>
       <c r="G60" s="113"/>
       <c r="H60" s="105"/>
@@ -14010,7 +14223,7 @@
       <c r="D61" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="132"/>
+      <c r="E61" s="134"/>
       <c r="F61" s="106" t="s">
         <v>103</v>
       </c>
@@ -14031,7 +14244,7 @@
       </c>
       <c r="C62" s="131"/>
       <c r="D62" s="109"/>
-      <c r="E62" s="133"/>
+      <c r="E62" s="135"/>
       <c r="F62" s="107"/>
       <c r="G62" s="113"/>
       <c r="H62" s="105"/>
@@ -14100,7 +14313,7 @@
       <c r="D65" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E65" s="132"/>
+      <c r="E65" s="134"/>
       <c r="F65" s="106" t="s">
         <v>109</v>
       </c>
@@ -14121,7 +14334,7 @@
       </c>
       <c r="C66" s="131"/>
       <c r="D66" s="109"/>
-      <c r="E66" s="133"/>
+      <c r="E66" s="135"/>
       <c r="F66" s="107"/>
       <c r="G66" s="113"/>
       <c r="H66" s="105"/>
@@ -14140,7 +14353,7 @@
       <c r="D67" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="132"/>
+      <c r="E67" s="134"/>
       <c r="F67" s="106" t="s">
         <v>111</v>
       </c>
@@ -14161,7 +14374,7 @@
       </c>
       <c r="C68" s="131"/>
       <c r="D68" s="109"/>
-      <c r="E68" s="133"/>
+      <c r="E68" s="135"/>
       <c r="F68" s="107"/>
       <c r="G68" s="113"/>
       <c r="H68" s="105"/>
@@ -14232,7 +14445,7 @@
       <c r="D71" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E71" s="136" t="s">
+      <c r="E71" s="132" t="s">
         <v>124</v>
       </c>
       <c r="F71" s="106" t="s">
@@ -14255,7 +14468,7 @@
       </c>
       <c r="C72" s="131"/>
       <c r="D72" s="109"/>
-      <c r="E72" s="137"/>
+      <c r="E72" s="133"/>
       <c r="F72" s="107"/>
       <c r="G72" s="113"/>
       <c r="H72" s="105"/>
@@ -14586,7 +14799,7 @@
       <c r="D85" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="136"/>
+      <c r="E85" s="132"/>
       <c r="F85" s="106" t="s">
         <v>119</v>
       </c>
@@ -14607,7 +14820,7 @@
       </c>
       <c r="C86" s="131"/>
       <c r="D86" s="109"/>
-      <c r="E86" s="137"/>
+      <c r="E86" s="133"/>
       <c r="F86" s="107"/>
       <c r="G86" s="113"/>
       <c r="H86" s="105"/>
@@ -14626,7 +14839,7 @@
       <c r="D87" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="E87" s="136"/>
+      <c r="E87" s="132"/>
       <c r="F87" s="106" t="s">
         <v>121</v>
       </c>
@@ -14647,7 +14860,7 @@
       </c>
       <c r="C88" s="131"/>
       <c r="D88" s="109"/>
-      <c r="E88" s="137"/>
+      <c r="E88" s="133"/>
       <c r="F88" s="107"/>
       <c r="G88" s="113"/>
       <c r="H88" s="105"/>
@@ -14820,7 +15033,7 @@
       <c r="D95" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="114" t="s">
+      <c r="E95" s="126" t="s">
         <v>835</v>
       </c>
       <c r="F95" s="110" t="s">
@@ -14843,7 +15056,7 @@
       </c>
       <c r="C96" s="107"/>
       <c r="D96" s="109"/>
-      <c r="E96" s="115"/>
+      <c r="E96" s="127"/>
       <c r="F96" s="111"/>
       <c r="G96" s="113"/>
       <c r="H96" s="105"/>
@@ -14880,54 +15093,68 @@
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="134">
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="C31:C32"/>
@@ -14952,105 +15179,91 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
   </mergeCells>
   <conditionalFormatting sqref="D4 D6:D23 D25 D27:D29 D31 D33:D35 D37 D39:D41 D43 D45:D47 D49 D51:D53 D55 D57:D59 D61 D63:D65 D67 D69:D71 D73:D85 D87 D89">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4 D98:D1048576 D6:D23 D25 D27:D29 D31 D33:D35 D37 D39:D41 D43 D45:D47 D49 D51:D53 D55 D57:D59 D61 D63:D65 D67 D69:D71 D73:D85 D87 D89">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D95 D97">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D95 D97">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D91">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D91">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D90)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15079,7 +15292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+    <sheetView topLeftCell="A328" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -15093,17 +15306,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="176"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="146" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="178"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15160,18 +15373,18 @@
       <c r="B9" s="16"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="141" t="s">
         <v>442</v>
       </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="179" t="s">
+      <c r="A12" s="148" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="150"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
@@ -15223,18 +15436,18 @@
       <c r="C17" s="28"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="144" t="s">
+      <c r="A19" s="141" t="s">
         <v>459</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="166" t="s">
+      <c r="A20" s="138" t="s">
         <v>457</v>
       </c>
-      <c r="B20" s="173"/>
-      <c r="C20" s="174"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="152"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
@@ -15300,18 +15513,18 @@
       <c r="C27" s="28"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="146"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="143"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="138" t="s">
         <v>460</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="174"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
@@ -15358,18 +15571,18 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="144" t="s">
+      <c r="A37" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="145"/>
-      <c r="C37" s="146"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="143"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="166" t="s">
+      <c r="A38" s="138" t="s">
         <v>463</v>
       </c>
-      <c r="B38" s="173"/>
-      <c r="C38" s="174"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
@@ -15432,18 +15645,18 @@
       <c r="C44" s="28"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="144" t="s">
+      <c r="A46" s="141" t="s">
         <v>472</v>
       </c>
-      <c r="B46" s="145"/>
-      <c r="C46" s="146"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="166" t="s">
+      <c r="A47" s="138" t="s">
         <v>473</v>
       </c>
-      <c r="B47" s="173"/>
-      <c r="C47" s="174"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="152"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
@@ -15479,18 +15692,18 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="144" t="s">
+      <c r="A53" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="145"/>
-      <c r="C53" s="146"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="143"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="166" t="s">
+      <c r="A54" s="138" t="s">
         <v>478</v>
       </c>
-      <c r="B54" s="173"/>
-      <c r="C54" s="174"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
@@ -15559,18 +15772,18 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="144" t="s">
+      <c r="A63" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="145"/>
-      <c r="C63" s="146"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="143"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="166" t="s">
+      <c r="A64" s="138" t="s">
         <v>488</v>
       </c>
-      <c r="B64" s="173"/>
-      <c r="C64" s="174"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="152"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
@@ -15760,18 +15973,18 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="144" t="s">
+      <c r="A84" s="141" t="s">
         <v>521</v>
       </c>
-      <c r="B84" s="145"/>
-      <c r="C84" s="146"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="143"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="166" t="s">
+      <c r="A85" s="138" t="s">
         <v>522</v>
       </c>
-      <c r="B85" s="173"/>
-      <c r="C85" s="174"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="152"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
@@ -15779,11 +15992,11 @@
       <c r="C86" s="31"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="159" t="s">
+      <c r="A87" s="153" t="s">
         <v>523</v>
       </c>
-      <c r="B87" s="165"/>
-      <c r="C87" s="160"/>
+      <c r="B87" s="154"/>
+      <c r="C87" s="155"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
@@ -15857,11 +16070,11 @@
       <c r="C94" s="26"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="159" t="s">
+      <c r="A95" s="153" t="s">
         <v>534</v>
       </c>
-      <c r="B95" s="165"/>
-      <c r="C95" s="160"/>
+      <c r="B95" s="154"/>
+      <c r="C95" s="155"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
@@ -15919,18 +16132,18 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="144" t="s">
+      <c r="A103" s="141" t="s">
         <v>535</v>
       </c>
-      <c r="B103" s="145"/>
-      <c r="C103" s="146"/>
+      <c r="B103" s="142"/>
+      <c r="C103" s="143"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="166" t="s">
+      <c r="A104" s="138" t="s">
         <v>536</v>
       </c>
-      <c r="B104" s="173"/>
-      <c r="C104" s="174"/>
+      <c r="B104" s="151"/>
+      <c r="C104" s="152"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
@@ -15977,18 +16190,18 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="144" t="s">
+      <c r="A111" s="141" t="s">
         <v>543</v>
       </c>
-      <c r="B111" s="145"/>
-      <c r="C111" s="146"/>
+      <c r="B111" s="142"/>
+      <c r="C111" s="143"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="166" t="s">
+      <c r="A112" s="138" t="s">
         <v>544</v>
       </c>
-      <c r="B112" s="173"/>
-      <c r="C112" s="174"/>
+      <c r="B112" s="151"/>
+      <c r="C112" s="152"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
@@ -16057,18 +16270,18 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="144" t="s">
+      <c r="A121" s="141" t="s">
         <v>555</v>
       </c>
-      <c r="B121" s="145"/>
-      <c r="C121" s="146"/>
+      <c r="B121" s="142"/>
+      <c r="C121" s="143"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="138" t="s">
         <v>556</v>
       </c>
-      <c r="B122" s="173"/>
-      <c r="C122" s="174"/>
+      <c r="B122" s="151"/>
+      <c r="C122" s="152"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
@@ -16202,18 +16415,18 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="144" t="s">
+      <c r="A138" s="141" t="s">
         <v>291</v>
       </c>
-      <c r="B138" s="145"/>
-      <c r="C138" s="146"/>
+      <c r="B138" s="142"/>
+      <c r="C138" s="143"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="166" t="s">
+      <c r="A139" s="138" t="s">
         <v>575</v>
       </c>
-      <c r="B139" s="173"/>
-      <c r="C139" s="174"/>
+      <c r="B139" s="151"/>
+      <c r="C139" s="152"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
@@ -16319,16 +16532,16 @@
       <c r="C150" s="27"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="175" t="s">
+      <c r="A153" s="144" t="s">
         <v>764</v>
       </c>
-      <c r="B153" s="176"/>
+      <c r="B153" s="145"/>
     </row>
     <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="177" t="s">
+      <c r="A154" s="146" t="s">
         <v>763</v>
       </c>
-      <c r="B154" s="178"/>
+      <c r="B154" s="147"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
@@ -16487,16 +16700,16 @@
       <c r="B174" s="63"/>
     </row>
     <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="175" t="s">
+      <c r="A176" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="B176" s="176"/>
+      <c r="B176" s="145"/>
     </row>
     <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="177" t="s">
+      <c r="A177" s="146" t="s">
         <v>587</v>
       </c>
-      <c r="B177" s="178"/>
+      <c r="B177" s="147"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
@@ -16923,16 +17136,16 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="175" t="s">
+      <c r="A233" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="B233" s="176"/>
+      <c r="B233" s="145"/>
     </row>
     <row r="234" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="177" t="s">
+      <c r="A234" s="146" t="s">
         <v>639</v>
       </c>
-      <c r="B234" s="178"/>
+      <c r="B234" s="147"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
@@ -16983,16 +17196,16 @@
       </c>
     </row>
     <row r="243" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="175" t="s">
+      <c r="A243" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="B243" s="176"/>
+      <c r="B243" s="145"/>
     </row>
     <row r="244" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="177" t="s">
+      <c r="A244" s="146" t="s">
         <v>645</v>
       </c>
-      <c r="B244" s="178"/>
+      <c r="B244" s="147"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="s">
@@ -17036,26 +17249,26 @@
       </c>
     </row>
     <row r="252" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="175" t="s">
+      <c r="A252" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="B252" s="176"/>
+      <c r="B252" s="145"/>
     </row>
     <row r="253" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="177" t="s">
+      <c r="A253" s="146" t="s">
         <v>650</v>
       </c>
-      <c r="B253" s="178"/>
+      <c r="B253" s="147"/>
     </row>
     <row r="254" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="32"/>
       <c r="B254" s="33"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="159" t="s">
+      <c r="A255" s="153" t="s">
         <v>651</v>
       </c>
-      <c r="B255" s="160"/>
+      <c r="B255" s="155"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="21" t="s">
@@ -17102,10 +17315,10 @@
       <c r="B261" s="13"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="159" t="s">
+      <c r="A262" s="153" t="s">
         <v>655</v>
       </c>
-      <c r="B262" s="160"/>
+      <c r="B262" s="155"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="21" t="s">
@@ -17132,18 +17345,18 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="144" t="s">
+      <c r="A268" s="141" t="s">
         <v>656</v>
       </c>
-      <c r="B268" s="145"/>
-      <c r="C268" s="146"/>
+      <c r="B268" s="142"/>
+      <c r="C268" s="143"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="166" t="s">
+      <c r="A269" s="138" t="s">
         <v>657</v>
       </c>
-      <c r="B269" s="167"/>
-      <c r="C269" s="168"/>
+      <c r="B269" s="139"/>
+      <c r="C269" s="140"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="s">
@@ -17256,18 +17469,18 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="144" t="s">
+      <c r="A282" s="141" t="s">
         <v>674</v>
       </c>
-      <c r="B282" s="145"/>
-      <c r="C282" s="146"/>
+      <c r="B282" s="142"/>
+      <c r="C282" s="143"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="141" t="s">
+      <c r="A283" s="160" t="s">
         <v>675</v>
       </c>
-      <c r="B283" s="142"/>
-      <c r="C283" s="143"/>
+      <c r="B283" s="161"/>
+      <c r="C283" s="162"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
@@ -17282,25 +17495,25 @@
       <c r="C285" s="26"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="138" t="s">
+      <c r="A286" s="163" t="s">
         <v>676</v>
       </c>
-      <c r="B286" s="139"/>
-      <c r="C286" s="140"/>
+      <c r="B286" s="164"/>
+      <c r="C286" s="165"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="169" t="s">
+      <c r="A287" s="166" t="s">
         <v>677</v>
       </c>
-      <c r="B287" s="170"/>
+      <c r="B287" s="167"/>
       <c r="C287" s="26"/>
     </row>
     <row r="288" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="138" t="s">
+      <c r="A288" s="163" t="s">
         <v>678</v>
       </c>
-      <c r="B288" s="139"/>
-      <c r="C288" s="140"/>
+      <c r="B288" s="164"/>
+      <c r="C288" s="165"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="35" t="s">
@@ -17400,32 +17613,32 @@
       <c r="C303" s="26"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="159" t="s">
+      <c r="A304" s="153" t="s">
         <v>690</v>
       </c>
-      <c r="B304" s="165"/>
+      <c r="B304" s="154"/>
       <c r="C304" s="26"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="138" t="s">
+      <c r="A305" s="163" t="s">
         <v>676</v>
       </c>
-      <c r="B305" s="139"/>
-      <c r="C305" s="140"/>
+      <c r="B305" s="164"/>
+      <c r="C305" s="165"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="171" t="s">
+      <c r="A306" s="168" t="s">
         <v>691</v>
       </c>
-      <c r="B306" s="172"/>
+      <c r="B306" s="169"/>
       <c r="C306" s="26"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="138" t="s">
+      <c r="A307" s="163" t="s">
         <v>692</v>
       </c>
-      <c r="B307" s="139"/>
-      <c r="C307" s="140"/>
+      <c r="B307" s="164"/>
+      <c r="C307" s="165"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="35" t="s">
@@ -17435,10 +17648,10 @@
       <c r="C308" s="26"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="163" t="s">
+      <c r="A309" s="158" t="s">
         <v>693</v>
       </c>
-      <c r="B309" s="164"/>
+      <c r="B309" s="159"/>
       <c r="C309" s="26"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -17447,25 +17660,25 @@
       <c r="C310" s="26"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="163" t="s">
+      <c r="A311" s="158" t="s">
         <v>694</v>
       </c>
-      <c r="B311" s="164"/>
+      <c r="B311" s="159"/>
       <c r="C311" s="26"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="161" t="s">
+      <c r="A312" s="156" t="s">
         <v>695</v>
       </c>
-      <c r="B312" s="162"/>
+      <c r="B312" s="157"/>
       <c r="C312" s="27"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="144" t="s">
+      <c r="A315" s="141" t="s">
         <v>696</v>
       </c>
-      <c r="B315" s="145"/>
-      <c r="C315" s="146"/>
+      <c r="B315" s="142"/>
+      <c r="C315" s="143"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="72" t="s">
@@ -17480,11 +17693,11 @@
       <c r="C317" s="26"/>
     </row>
     <row r="318" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="138" t="s">
+      <c r="A318" s="163" t="s">
         <v>698</v>
       </c>
-      <c r="B318" s="139"/>
-      <c r="C318" s="140"/>
+      <c r="B318" s="164"/>
+      <c r="C318" s="165"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="37" t="s">
@@ -17508,33 +17721,33 @@
       <c r="C321" s="78"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="144" t="s">
+      <c r="A324" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="B324" s="145"/>
-      <c r="C324" s="146"/>
+      <c r="B324" s="142"/>
+      <c r="C324" s="143"/>
     </row>
     <row r="325" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="156" t="s">
+      <c r="A325" s="173" t="s">
         <v>701</v>
       </c>
-      <c r="B325" s="157"/>
-      <c r="C325" s="158"/>
+      <c r="B325" s="174"/>
+      <c r="C325" s="175"/>
     </row>
     <row r="327" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="144" t="s">
+      <c r="A328" s="141" t="s">
         <v>181</v>
       </c>
-      <c r="B328" s="145"/>
-      <c r="C328" s="146"/>
+      <c r="B328" s="142"/>
+      <c r="C328" s="143"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="141" t="s">
+      <c r="A329" s="160" t="s">
         <v>182</v>
       </c>
-      <c r="B329" s="142"/>
-      <c r="C329" s="143"/>
+      <c r="B329" s="161"/>
+      <c r="C329" s="162"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
@@ -17561,11 +17774,11 @@
       <c r="C333" s="26"/>
     </row>
     <row r="334" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="138" t="s">
+      <c r="A334" s="163" t="s">
         <v>704</v>
       </c>
-      <c r="B334" s="139"/>
-      <c r="C334" s="140"/>
+      <c r="B334" s="164"/>
+      <c r="C334" s="165"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="38" t="s">
@@ -17580,11 +17793,11 @@
       <c r="C336" s="26"/>
     </row>
     <row r="337" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="153" t="s">
+      <c r="A337" s="170" t="s">
         <v>707</v>
       </c>
-      <c r="B337" s="154"/>
-      <c r="C337" s="155"/>
+      <c r="B337" s="171"/>
+      <c r="C337" s="172"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="67" t="s">
@@ -17594,18 +17807,18 @@
       <c r="C338" s="69"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="144" t="s">
+      <c r="A341" s="141" t="s">
         <v>708</v>
       </c>
-      <c r="B341" s="145"/>
-      <c r="C341" s="146"/>
+      <c r="B341" s="142"/>
+      <c r="C341" s="143"/>
     </row>
     <row r="342" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="153" t="s">
+      <c r="A342" s="170" t="s">
         <v>709</v>
       </c>
-      <c r="B342" s="154"/>
-      <c r="C342" s="155"/>
+      <c r="B342" s="171"/>
+      <c r="C342" s="172"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
@@ -17625,11 +17838,11 @@
       <c r="C345" s="26"/>
     </row>
     <row r="346" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="153" t="s">
+      <c r="A346" s="170" t="s">
         <v>711</v>
       </c>
-      <c r="B346" s="154"/>
-      <c r="C346" s="155"/>
+      <c r="B346" s="171"/>
+      <c r="C346" s="172"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
@@ -17694,18 +17907,18 @@
       <c r="C354" s="26"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="150" t="s">
+      <c r="A355" s="176" t="s">
         <v>718</v>
       </c>
-      <c r="B355" s="151"/>
-      <c r="C355" s="152"/>
+      <c r="B355" s="177"/>
+      <c r="C355" s="178"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="141" t="s">
+      <c r="A356" s="160" t="s">
         <v>719</v>
       </c>
-      <c r="B356" s="142"/>
-      <c r="C356" s="143"/>
+      <c r="B356" s="161"/>
+      <c r="C356" s="162"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="21" t="s">
@@ -17746,18 +17959,18 @@
       <c r="C360" s="26"/>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="150" t="s">
+      <c r="A361" s="176" t="s">
         <v>724</v>
       </c>
-      <c r="B361" s="151"/>
-      <c r="C361" s="152"/>
+      <c r="B361" s="177"/>
+      <c r="C361" s="178"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="141" t="s">
+      <c r="A362" s="160" t="s">
         <v>725</v>
       </c>
-      <c r="B362" s="142"/>
-      <c r="C362" s="143"/>
+      <c r="B362" s="161"/>
+      <c r="C362" s="162"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="21" t="s">
@@ -18634,25 +18847,25 @@
       <c r="C458" s="27"/>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="144" t="s">
+      <c r="A460" s="141" t="s">
         <v>840</v>
       </c>
-      <c r="B460" s="145"/>
-      <c r="C460" s="146"/>
+      <c r="B460" s="142"/>
+      <c r="C460" s="143"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="141" t="s">
+      <c r="A461" s="160" t="s">
         <v>850</v>
       </c>
-      <c r="B461" s="142"/>
-      <c r="C461" s="143"/>
+      <c r="B461" s="161"/>
+      <c r="C461" s="162"/>
     </row>
     <row r="462" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="138" t="s">
+      <c r="A462" s="163" t="s">
         <v>852</v>
       </c>
-      <c r="B462" s="139"/>
-      <c r="C462" s="140"/>
+      <c r="B462" s="164"/>
+      <c r="C462" s="165"/>
     </row>
     <row r="463" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="21" t="s">
@@ -18706,53 +18919,53 @@
     </row>
     <row r="469" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="144" t="s">
+      <c r="A470" s="141" t="s">
         <v>853</v>
       </c>
-      <c r="B470" s="145"/>
-      <c r="C470" s="146"/>
+      <c r="B470" s="142"/>
+      <c r="C470" s="143"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="141" t="s">
+      <c r="A471" s="160" t="s">
         <v>854</v>
       </c>
-      <c r="B471" s="142"/>
-      <c r="C471" s="143"/>
+      <c r="B471" s="161"/>
+      <c r="C471" s="162"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="147" t="s">
+      <c r="A472" s="179" t="s">
         <v>859</v>
       </c>
-      <c r="B472" s="148"/>
-      <c r="C472" s="149"/>
+      <c r="B472" s="180"/>
+      <c r="C472" s="181"/>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="138" t="s">
+      <c r="A473" s="163" t="s">
         <v>855</v>
       </c>
-      <c r="B473" s="139"/>
-      <c r="C473" s="140"/>
+      <c r="B473" s="164"/>
+      <c r="C473" s="165"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="138" t="s">
+      <c r="A474" s="163" t="s">
         <v>856</v>
       </c>
-      <c r="B474" s="139"/>
-      <c r="C474" s="140"/>
+      <c r="B474" s="164"/>
+      <c r="C474" s="165"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="138" t="s">
+      <c r="A475" s="163" t="s">
         <v>857</v>
       </c>
-      <c r="B475" s="139"/>
-      <c r="C475" s="140"/>
+      <c r="B475" s="164"/>
+      <c r="C475" s="165"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="138" t="s">
+      <c r="A476" s="163" t="s">
         <v>858</v>
       </c>
-      <c r="B476" s="139"/>
-      <c r="C476" s="140"/>
+      <c r="B476" s="164"/>
+      <c r="C476" s="165"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="79"/>
@@ -18760,22 +18973,22 @@
       <c r="C477" s="81"/>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="144" t="s">
+      <c r="A479" s="141" t="s">
         <v>963</v>
       </c>
-      <c r="B479" s="145"/>
-      <c r="C479" s="145"/>
-      <c r="D479" s="145"/>
-      <c r="E479" s="146"/>
+      <c r="B479" s="142"/>
+      <c r="C479" s="142"/>
+      <c r="D479" s="142"/>
+      <c r="E479" s="143"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="166" t="s">
+      <c r="A480" s="138" t="s">
         <v>974</v>
       </c>
-      <c r="B480" s="167"/>
-      <c r="C480" s="167"/>
-      <c r="D480" s="167"/>
-      <c r="E480" s="168"/>
+      <c r="B480" s="139"/>
+      <c r="C480" s="139"/>
+      <c r="D480" s="139"/>
+      <c r="E480" s="140"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="21" t="s">
@@ -18833,6 +19046,71 @@
     <sortCondition descending="1" ref="A164"/>
   </sortState>
   <mergeCells count="81">
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="A476:C476"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="A471:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A361:C361"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A346:C346"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
     <mergeCell ref="A480:E480"/>
     <mergeCell ref="A479:E479"/>
     <mergeCell ref="A11:C11"/>
@@ -18849,71 +19127,6 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A361:C361"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="A476:C476"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A470:C470"/>
-    <mergeCell ref="A471:C471"/>
-    <mergeCell ref="A472:C472"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Wireless/LORD MicroStrain Wireless Configuration.xlsx
+++ b/Wireless/LORD MicroStrain Wireless Configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\GitHub\Protocols\Wireless\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Protocols\Wireless\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13432D0-522C-45E9-BF94-E62033E98456}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99D2C8F4-7DAF-4154-9741-6ED8916060F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wireless Node Config" sheetId="3" r:id="rId1"/>
@@ -48,23 +48,17 @@
     <definedName name="Trigger_Type">'Config Values'!$A$120</definedName>
     <definedName name="UpgradeFlags">'Config Values'!$A$471</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1202">
   <si>
     <t>EEPROM Address</t>
   </si>
@@ -4017,6 +4011,150 @@
   </si>
   <si>
     <t>Temperature Sensor Config 16</t>
+  </si>
+  <si>
+    <t>Factory Calibration Action ID - Ch1</t>
+  </si>
+  <si>
+    <t>The factory calibration action id (unit and equation) for channel 1.</t>
+  </si>
+  <si>
+    <t>Factory Calibration Slope - Ch1</t>
+  </si>
+  <si>
+    <t>Factory Calibration Offset - Ch1</t>
+  </si>
+  <si>
+    <t>Factory Calibration Action ID - Ch2</t>
+  </si>
+  <si>
+    <t>Factory Calibration Slope - Ch2</t>
+  </si>
+  <si>
+    <t>Factory Calibration Offset - Ch2</t>
+  </si>
+  <si>
+    <t>Factory Calibration Action ID - Ch3</t>
+  </si>
+  <si>
+    <t>Factory Calibration Slope - Ch3</t>
+  </si>
+  <si>
+    <t>Factory Calibration Offset - Ch3</t>
+  </si>
+  <si>
+    <t>Factory Calibration Action ID - Ch4</t>
+  </si>
+  <si>
+    <t>Factory Calibration Slope - Ch4</t>
+  </si>
+  <si>
+    <t>Factory Calibration Offset - Ch4</t>
+  </si>
+  <si>
+    <t>Factory Calibration Action ID - Ch5</t>
+  </si>
+  <si>
+    <t>Factory Calibration Slope - Ch5</t>
+  </si>
+  <si>
+    <t>Factory Calibration Offset - Ch5</t>
+  </si>
+  <si>
+    <t>Factory Calibration Action ID - Ch6</t>
+  </si>
+  <si>
+    <t>Factory Calibration Slope - Ch6</t>
+  </si>
+  <si>
+    <t>Factory Calibration Offset - Ch6</t>
+  </si>
+  <si>
+    <t>Factory Calibration Action ID - Ch7</t>
+  </si>
+  <si>
+    <t>Factory Calibration Slope - Ch7</t>
+  </si>
+  <si>
+    <t>Factory Calibration Offset - Ch7</t>
+  </si>
+  <si>
+    <t>Factory Calibration Action ID - Ch8</t>
+  </si>
+  <si>
+    <t>Factory Calibration Slope - Ch8</t>
+  </si>
+  <si>
+    <t>Factory Calibration Offset - Ch8</t>
+  </si>
+  <si>
+    <t>The factory calibration slope for channel 1.</t>
+  </si>
+  <si>
+    <t>The factory calibration offset for channel 1.</t>
+  </si>
+  <si>
+    <t>The factory calibration action id (unit and equation) for channel 2.</t>
+  </si>
+  <si>
+    <t>The factory calibration slope for channel 2.</t>
+  </si>
+  <si>
+    <t>The factory calibration offset for channel 2.</t>
+  </si>
+  <si>
+    <t>The factory calibration action id (unit and equation) for channel 3.</t>
+  </si>
+  <si>
+    <t>The factory calibration slope for channel 3.</t>
+  </si>
+  <si>
+    <t>The factory calibration offset for channel 3.</t>
+  </si>
+  <si>
+    <t>The factory calibration action id (unit and equation) for channel 4.</t>
+  </si>
+  <si>
+    <t>The factory calibration slope for channel 4.</t>
+  </si>
+  <si>
+    <t>The factory calibration offset for channel 4.</t>
+  </si>
+  <si>
+    <t>The factory calibration action id (unit and equation) for channel 5.</t>
+  </si>
+  <si>
+    <t>The factory calibration slope for channel 5.</t>
+  </si>
+  <si>
+    <t>The factory calibration offset for channel 5.</t>
+  </si>
+  <si>
+    <t>The factory calibration action id (unit and equation) for channel 6.</t>
+  </si>
+  <si>
+    <t>The factory calibration slope for channel 6.</t>
+  </si>
+  <si>
+    <t>The factory calibration offset for channel 6.</t>
+  </si>
+  <si>
+    <t>The factory calibration action id (unit and equation) for channel 7.</t>
+  </si>
+  <si>
+    <t>The factory calibration slope for channel 7.</t>
+  </si>
+  <si>
+    <t>The factory calibration offset for channel 7.</t>
+  </si>
+  <si>
+    <t>The factory calibration action id (unit and equation) for channel 8.</t>
+  </si>
+  <si>
+    <t>The factory calibration slope for channel 8.</t>
+  </si>
+  <si>
+    <t>The factory calibration offset for channel 8.</t>
   </si>
 </sst>
 </file>
@@ -4885,23 +5023,41 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4939,44 +5095,32 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5032,12 +5176,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5045,114 +5183,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5176,12 +5206,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="229">
+  <dxfs count="232">
+    <dxf>
+      <font>
+        <color rgb="FF003E52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD57E00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD57E00"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFD57E00"/>
@@ -6615,12 +6768,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H394"/>
+  <dimension ref="A1:H434"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A478" sqref="A478:E478"/>
-      <selection pane="bottomLeft" activeCell="I329" sqref="I329"/>
+      <selection pane="bottomLeft" activeCell="F284" sqref="F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6636,38 +6789,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="154" t="s">
         <v>992</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="154" t="s">
+      <c r="D2" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="156" t="s">
+      <c r="E2" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="150" t="s">
+      <c r="G2" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="152" t="s">
         <v>767</v>
       </c>
     </row>
@@ -6678,12 +6831,12 @@
       <c r="B3" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="147"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="153"/>
     </row>
     <row r="4" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="102">
@@ -6943,14 +7096,14 @@
         <f t="shared" si="0"/>
         <v>0x14</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="149" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="141" t="s">
+      <c r="E14" s="166"/>
+      <c r="F14" s="149" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="136">
@@ -6970,7 +7123,7 @@
       </c>
       <c r="C15" s="135"/>
       <c r="D15" s="133"/>
-      <c r="E15" s="145"/>
+      <c r="E15" s="167"/>
       <c r="F15" s="135"/>
       <c r="G15" s="137"/>
       <c r="H15" s="139"/>
@@ -8190,14 +8343,14 @@
         <f t="shared" si="0"/>
         <v>0x8E</v>
       </c>
-      <c r="C63" s="141" t="s">
+      <c r="C63" s="149" t="s">
         <v>975</v>
       </c>
       <c r="D63" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="142"/>
-      <c r="F63" s="141" t="s">
+      <c r="E63" s="164"/>
+      <c r="F63" s="149" t="s">
         <v>977</v>
       </c>
       <c r="G63" s="136" t="s">
@@ -8217,7 +8370,7 @@
       </c>
       <c r="C64" s="135"/>
       <c r="D64" s="133"/>
-      <c r="E64" s="143"/>
+      <c r="E64" s="165"/>
       <c r="F64" s="135"/>
       <c r="G64" s="137"/>
       <c r="H64" s="139"/>
@@ -8230,14 +8383,14 @@
         <f t="shared" ref="B65:B66" si="2" xml:space="preserve"> "0x" &amp; DEC2HEX(A65)</f>
         <v>0x92</v>
       </c>
-      <c r="C65" s="141" t="s">
+      <c r="C65" s="149" t="s">
         <v>978</v>
       </c>
       <c r="D65" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="142"/>
-      <c r="F65" s="141" t="s">
+      <c r="E65" s="164"/>
+      <c r="F65" s="149" t="s">
         <v>979</v>
       </c>
       <c r="G65" s="136" t="s">
@@ -8257,7 +8410,7 @@
       </c>
       <c r="C66" s="135"/>
       <c r="D66" s="133"/>
-      <c r="E66" s="143"/>
+      <c r="E66" s="165"/>
       <c r="F66" s="135"/>
       <c r="G66" s="137"/>
       <c r="H66" s="139"/>
@@ -8297,14 +8450,14 @@
         <f t="shared" si="0"/>
         <v>0x98</v>
       </c>
-      <c r="C68" s="140" t="s">
+      <c r="C68" s="151" t="s">
         <v>212</v>
       </c>
       <c r="D68" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E68" s="132"/>
-      <c r="F68" s="141" t="s">
+      <c r="F68" s="149" t="s">
         <v>213</v>
       </c>
       <c r="G68" s="136">
@@ -8337,14 +8490,14 @@
         <f t="shared" si="0"/>
         <v>0x9C</v>
       </c>
-      <c r="C70" s="140" t="s">
+      <c r="C70" s="151" t="s">
         <v>214</v>
       </c>
       <c r="D70" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E70" s="132"/>
-      <c r="F70" s="141" t="s">
+      <c r="F70" s="149" t="s">
         <v>215</v>
       </c>
       <c r="G70" s="136">
@@ -8404,14 +8557,14 @@
         <f t="shared" si="0"/>
         <v>0xA2</v>
       </c>
-      <c r="C73" s="140" t="s">
+      <c r="C73" s="151" t="s">
         <v>218</v>
       </c>
       <c r="D73" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="132"/>
-      <c r="F73" s="141" t="s">
+      <c r="F73" s="149" t="s">
         <v>219</v>
       </c>
       <c r="G73" s="136">
@@ -8444,14 +8597,14 @@
         <f t="shared" si="0"/>
         <v>0xA6</v>
       </c>
-      <c r="C75" s="140" t="s">
+      <c r="C75" s="151" t="s">
         <v>220</v>
       </c>
       <c r="D75" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E75" s="132"/>
-      <c r="F75" s="141" t="s">
+      <c r="F75" s="149" t="s">
         <v>221</v>
       </c>
       <c r="G75" s="136">
@@ -8511,14 +8664,14 @@
         <f t="shared" si="0"/>
         <v>0xAC</v>
       </c>
-      <c r="C78" s="140" t="s">
+      <c r="C78" s="151" t="s">
         <v>224</v>
       </c>
       <c r="D78" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E78" s="132"/>
-      <c r="F78" s="141" t="s">
+      <c r="F78" s="149" t="s">
         <v>225</v>
       </c>
       <c r="G78" s="136">
@@ -8551,14 +8704,14 @@
         <f t="shared" si="0"/>
         <v>0xB0</v>
       </c>
-      <c r="C80" s="140" t="s">
+      <c r="C80" s="151" t="s">
         <v>226</v>
       </c>
       <c r="D80" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E80" s="132"/>
-      <c r="F80" s="141" t="s">
+      <c r="F80" s="149" t="s">
         <v>227</v>
       </c>
       <c r="G80" s="136">
@@ -8618,14 +8771,14 @@
         <f t="shared" si="0"/>
         <v>0xB6</v>
       </c>
-      <c r="C83" s="140" t="s">
+      <c r="C83" s="151" t="s">
         <v>230</v>
       </c>
       <c r="D83" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E83" s="132"/>
-      <c r="F83" s="141" t="s">
+      <c r="F83" s="149" t="s">
         <v>231</v>
       </c>
       <c r="G83" s="136">
@@ -8658,14 +8811,14 @@
         <f t="shared" ref="B85:B166" si="3" xml:space="preserve"> "0x" &amp; DEC2HEX(A85)</f>
         <v>0xBA</v>
       </c>
-      <c r="C85" s="140" t="s">
+      <c r="C85" s="151" t="s">
         <v>232</v>
       </c>
       <c r="D85" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="132"/>
-      <c r="F85" s="141" t="s">
+      <c r="F85" s="149" t="s">
         <v>233</v>
       </c>
       <c r="G85" s="136">
@@ -8725,14 +8878,14 @@
         <f t="shared" si="3"/>
         <v>0xC0</v>
       </c>
-      <c r="C88" s="140" t="s">
+      <c r="C88" s="151" t="s">
         <v>236</v>
       </c>
       <c r="D88" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E88" s="132"/>
-      <c r="F88" s="141" t="s">
+      <c r="F88" s="149" t="s">
         <v>237</v>
       </c>
       <c r="G88" s="136">
@@ -8765,14 +8918,14 @@
         <f t="shared" si="3"/>
         <v>0xC4</v>
       </c>
-      <c r="C90" s="140" t="s">
+      <c r="C90" s="151" t="s">
         <v>238</v>
       </c>
       <c r="D90" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E90" s="132"/>
-      <c r="F90" s="141" t="s">
+      <c r="F90" s="149" t="s">
         <v>239</v>
       </c>
       <c r="G90" s="136">
@@ -8832,14 +8985,14 @@
         <f t="shared" si="3"/>
         <v>0xCA</v>
       </c>
-      <c r="C93" s="140" t="s">
+      <c r="C93" s="151" t="s">
         <v>242</v>
       </c>
       <c r="D93" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E93" s="132"/>
-      <c r="F93" s="141" t="s">
+      <c r="F93" s="149" t="s">
         <v>243</v>
       </c>
       <c r="G93" s="136">
@@ -8872,14 +9025,14 @@
         <f t="shared" si="3"/>
         <v>0xCE</v>
       </c>
-      <c r="C95" s="140" t="s">
+      <c r="C95" s="151" t="s">
         <v>244</v>
       </c>
       <c r="D95" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E95" s="132"/>
-      <c r="F95" s="141" t="s">
+      <c r="F95" s="149" t="s">
         <v>245</v>
       </c>
       <c r="G95" s="136">
@@ -8939,14 +9092,14 @@
         <f t="shared" si="3"/>
         <v>0xD4</v>
       </c>
-      <c r="C98" s="140" t="s">
+      <c r="C98" s="151" t="s">
         <v>248</v>
       </c>
       <c r="D98" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E98" s="132"/>
-      <c r="F98" s="141" t="s">
+      <c r="F98" s="149" t="s">
         <v>249</v>
       </c>
       <c r="G98" s="136">
@@ -8979,14 +9132,14 @@
         <f t="shared" si="3"/>
         <v>0xD8</v>
       </c>
-      <c r="C100" s="140" t="s">
+      <c r="C100" s="151" t="s">
         <v>250</v>
       </c>
       <c r="D100" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E100" s="132"/>
-      <c r="F100" s="141" t="s">
+      <c r="F100" s="149" t="s">
         <v>251</v>
       </c>
       <c r="G100" s="136">
@@ -9046,14 +9199,14 @@
         <f t="shared" si="3"/>
         <v>0xDE</v>
       </c>
-      <c r="C103" s="140" t="s">
+      <c r="C103" s="151" t="s">
         <v>254</v>
       </c>
       <c r="D103" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E103" s="132"/>
-      <c r="F103" s="141" t="s">
+      <c r="F103" s="149" t="s">
         <v>255</v>
       </c>
       <c r="G103" s="136">
@@ -9086,14 +9239,14 @@
         <f t="shared" si="3"/>
         <v>0xE2</v>
       </c>
-      <c r="C105" s="140" t="s">
+      <c r="C105" s="151" t="s">
         <v>256</v>
       </c>
       <c r="D105" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E105" s="132"/>
-      <c r="F105" s="141" t="s">
+      <c r="F105" s="149" t="s">
         <v>257</v>
       </c>
       <c r="G105" s="136">
@@ -11334,14 +11487,14 @@
         <f t="shared" si="4"/>
         <v>0x200</v>
       </c>
-      <c r="C197" s="140" t="s">
+      <c r="C197" s="151" t="s">
         <v>363</v>
       </c>
       <c r="D197" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E197" s="132"/>
-      <c r="F197" s="141" t="s">
+      <c r="F197" s="149" t="s">
         <v>365</v>
       </c>
       <c r="G197" s="136">
@@ -11374,14 +11527,14 @@
         <f t="shared" ref="B199:B200" si="9" xml:space="preserve"> "0x" &amp; DEC2HEX(A199)</f>
         <v>0x204</v>
       </c>
-      <c r="C199" s="140" t="s">
+      <c r="C199" s="151" t="s">
         <v>364</v>
       </c>
       <c r="D199" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E199" s="132"/>
-      <c r="F199" s="141" t="s">
+      <c r="F199" s="149" t="s">
         <v>366</v>
       </c>
       <c r="G199" s="136">
@@ -11414,14 +11567,14 @@
         <f t="shared" ref="B201:B202" si="10" xml:space="preserve"> "0x" &amp; DEC2HEX(A201)</f>
         <v>0x208</v>
       </c>
-      <c r="C201" s="140" t="s">
+      <c r="C201" s="151" t="s">
         <v>367</v>
       </c>
       <c r="D201" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E201" s="132"/>
-      <c r="F201" s="141" t="s">
+      <c r="F201" s="149" t="s">
         <v>369</v>
       </c>
       <c r="G201" s="136">
@@ -11454,14 +11607,14 @@
         <f t="shared" ref="B203:B208" si="11" xml:space="preserve"> "0x" &amp; DEC2HEX(A203)</f>
         <v>0x20C</v>
       </c>
-      <c r="C203" s="140" t="s">
+      <c r="C203" s="151" t="s">
         <v>368</v>
       </c>
       <c r="D203" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E203" s="132"/>
-      <c r="F203" s="141" t="s">
+      <c r="F203" s="149" t="s">
         <v>376</v>
       </c>
       <c r="G203" s="136">
@@ -11494,14 +11647,14 @@
         <f t="shared" si="11"/>
         <v>0x210</v>
       </c>
-      <c r="C205" s="140" t="s">
+      <c r="C205" s="151" t="s">
         <v>370</v>
       </c>
       <c r="D205" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E205" s="132"/>
-      <c r="F205" s="141" t="s">
+      <c r="F205" s="149" t="s">
         <v>377</v>
       </c>
       <c r="G205" s="136">
@@ -11534,14 +11687,14 @@
         <f t="shared" si="11"/>
         <v>0x214</v>
       </c>
-      <c r="C207" s="140" t="s">
+      <c r="C207" s="151" t="s">
         <v>371</v>
       </c>
       <c r="D207" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E207" s="132"/>
-      <c r="F207" s="141" t="s">
+      <c r="F207" s="149" t="s">
         <v>378</v>
       </c>
       <c r="G207" s="136">
@@ -11574,14 +11727,14 @@
         <f t="shared" ref="B209:B214" si="12" xml:space="preserve"> "0x" &amp; DEC2HEX(A209)</f>
         <v>0x218</v>
       </c>
-      <c r="C209" s="140" t="s">
+      <c r="C209" s="151" t="s">
         <v>372</v>
       </c>
       <c r="D209" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E209" s="132"/>
-      <c r="F209" s="141" t="s">
+      <c r="F209" s="149" t="s">
         <v>379</v>
       </c>
       <c r="G209" s="136">
@@ -11614,14 +11767,14 @@
         <f t="shared" si="12"/>
         <v>0x21C</v>
       </c>
-      <c r="C211" s="140" t="s">
+      <c r="C211" s="151" t="s">
         <v>373</v>
       </c>
       <c r="D211" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E211" s="132"/>
-      <c r="F211" s="141" t="s">
+      <c r="F211" s="149" t="s">
         <v>380</v>
       </c>
       <c r="G211" s="136">
@@ -11654,14 +11807,14 @@
         <f t="shared" si="12"/>
         <v>0x220</v>
       </c>
-      <c r="C213" s="140" t="s">
+      <c r="C213" s="151" t="s">
         <v>374</v>
       </c>
       <c r="D213" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E213" s="132"/>
-      <c r="F213" s="141" t="s">
+      <c r="F213" s="149" t="s">
         <v>381</v>
       </c>
       <c r="G213" s="136">
@@ -11694,14 +11847,14 @@
         <f t="shared" ref="B215:B234" si="13" xml:space="preserve"> "0x" &amp; DEC2HEX(A215)</f>
         <v>0x224</v>
       </c>
-      <c r="C215" s="140" t="s">
+      <c r="C215" s="151" t="s">
         <v>375</v>
       </c>
       <c r="D215" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E215" s="132"/>
-      <c r="F215" s="141" t="s">
+      <c r="F215" s="149" t="s">
         <v>382</v>
       </c>
       <c r="G215" s="136">
@@ -11734,14 +11887,14 @@
         <f t="shared" si="13"/>
         <v>0x228</v>
       </c>
-      <c r="C217" s="140" t="s">
+      <c r="C217" s="151" t="s">
         <v>383</v>
       </c>
       <c r="D217" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E217" s="132"/>
-      <c r="F217" s="141" t="s">
+      <c r="F217" s="149" t="s">
         <v>384</v>
       </c>
       <c r="G217" s="136">
@@ -11774,14 +11927,14 @@
         <f t="shared" si="13"/>
         <v>0x22C</v>
       </c>
-      <c r="C219" s="140" t="s">
+      <c r="C219" s="151" t="s">
         <v>385</v>
       </c>
       <c r="D219" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E219" s="132"/>
-      <c r="F219" s="141" t="s">
+      <c r="F219" s="149" t="s">
         <v>402</v>
       </c>
       <c r="G219" s="136">
@@ -11814,14 +11967,14 @@
         <f t="shared" si="13"/>
         <v>0x230</v>
       </c>
-      <c r="C221" s="140" t="s">
+      <c r="C221" s="151" t="s">
         <v>386</v>
       </c>
       <c r="D221" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E221" s="132"/>
-      <c r="F221" s="141" t="s">
+      <c r="F221" s="149" t="s">
         <v>394</v>
       </c>
       <c r="G221" s="136">
@@ -11854,14 +12007,14 @@
         <f t="shared" si="13"/>
         <v>0x234</v>
       </c>
-      <c r="C223" s="140" t="s">
+      <c r="C223" s="151" t="s">
         <v>387</v>
       </c>
       <c r="D223" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E223" s="132"/>
-      <c r="F223" s="141" t="s">
+      <c r="F223" s="149" t="s">
         <v>395</v>
       </c>
       <c r="G223" s="136">
@@ -11894,14 +12047,14 @@
         <f t="shared" si="13"/>
         <v>0x238</v>
       </c>
-      <c r="C225" s="140" t="s">
+      <c r="C225" s="151" t="s">
         <v>388</v>
       </c>
       <c r="D225" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E225" s="132"/>
-      <c r="F225" s="141" t="s">
+      <c r="F225" s="149" t="s">
         <v>396</v>
       </c>
       <c r="G225" s="136">
@@ -11934,14 +12087,14 @@
         <f t="shared" si="13"/>
         <v>0x23C</v>
       </c>
-      <c r="C227" s="140" t="s">
+      <c r="C227" s="151" t="s">
         <v>389</v>
       </c>
       <c r="D227" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E227" s="132"/>
-      <c r="F227" s="141" t="s">
+      <c r="F227" s="149" t="s">
         <v>397</v>
       </c>
       <c r="G227" s="136">
@@ -11974,14 +12127,14 @@
         <f t="shared" si="13"/>
         <v>0x240</v>
       </c>
-      <c r="C229" s="140" t="s">
+      <c r="C229" s="151" t="s">
         <v>390</v>
       </c>
       <c r="D229" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E229" s="132"/>
-      <c r="F229" s="141" t="s">
+      <c r="F229" s="149" t="s">
         <v>398</v>
       </c>
       <c r="G229" s="136">
@@ -12014,14 +12167,14 @@
         <f t="shared" si="13"/>
         <v>0x244</v>
       </c>
-      <c r="C231" s="140" t="s">
+      <c r="C231" s="151" t="s">
         <v>391</v>
       </c>
       <c r="D231" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E231" s="132"/>
-      <c r="F231" s="141" t="s">
+      <c r="F231" s="149" t="s">
         <v>399</v>
       </c>
       <c r="G231" s="136">
@@ -12054,14 +12207,14 @@
         <f t="shared" si="13"/>
         <v>0x248</v>
       </c>
-      <c r="C233" s="140" t="s">
+      <c r="C233" s="151" t="s">
         <v>392</v>
       </c>
       <c r="D233" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E233" s="132"/>
-      <c r="F233" s="141" t="s">
+      <c r="F233" s="149" t="s">
         <v>400</v>
       </c>
       <c r="G233" s="136">
@@ -12094,14 +12247,14 @@
         <f t="shared" ref="B235:B254" si="14" xml:space="preserve"> "0x" &amp; DEC2HEX(A235)</f>
         <v>0x24C</v>
       </c>
-      <c r="C235" s="140" t="s">
+      <c r="C235" s="151" t="s">
         <v>393</v>
       </c>
       <c r="D235" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E235" s="132"/>
-      <c r="F235" s="141" t="s">
+      <c r="F235" s="149" t="s">
         <v>401</v>
       </c>
       <c r="G235" s="136">
@@ -12134,14 +12287,14 @@
         <f t="shared" si="14"/>
         <v>0x250</v>
       </c>
-      <c r="C237" s="140" t="s">
+      <c r="C237" s="151" t="s">
         <v>403</v>
       </c>
       <c r="D237" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E237" s="132"/>
-      <c r="F237" s="141" t="s">
+      <c r="F237" s="149" t="s">
         <v>404</v>
       </c>
       <c r="G237" s="136">
@@ -12174,14 +12327,14 @@
         <f t="shared" si="14"/>
         <v>0x254</v>
       </c>
-      <c r="C239" s="140" t="s">
+      <c r="C239" s="151" t="s">
         <v>405</v>
       </c>
       <c r="D239" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E239" s="132"/>
-      <c r="F239" s="141" t="s">
+      <c r="F239" s="149" t="s">
         <v>414</v>
       </c>
       <c r="G239" s="136">
@@ -12214,14 +12367,14 @@
         <f t="shared" si="14"/>
         <v>0x258</v>
       </c>
-      <c r="C241" s="140" t="s">
+      <c r="C241" s="151" t="s">
         <v>406</v>
       </c>
       <c r="D241" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E241" s="132"/>
-      <c r="F241" s="141" t="s">
+      <c r="F241" s="149" t="s">
         <v>415</v>
       </c>
       <c r="G241" s="136">
@@ -12254,14 +12407,14 @@
         <f t="shared" si="14"/>
         <v>0x25C</v>
       </c>
-      <c r="C243" s="140" t="s">
+      <c r="C243" s="151" t="s">
         <v>407</v>
       </c>
       <c r="D243" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E243" s="132"/>
-      <c r="F243" s="141" t="s">
+      <c r="F243" s="149" t="s">
         <v>416</v>
       </c>
       <c r="G243" s="136">
@@ -12294,14 +12447,14 @@
         <f t="shared" si="14"/>
         <v>0x260</v>
       </c>
-      <c r="C245" s="140" t="s">
+      <c r="C245" s="151" t="s">
         <v>408</v>
       </c>
       <c r="D245" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E245" s="132"/>
-      <c r="F245" s="141" t="s">
+      <c r="F245" s="149" t="s">
         <v>417</v>
       </c>
       <c r="G245" s="136">
@@ -12334,14 +12487,14 @@
         <f t="shared" si="14"/>
         <v>0x264</v>
       </c>
-      <c r="C247" s="140" t="s">
+      <c r="C247" s="151" t="s">
         <v>409</v>
       </c>
       <c r="D247" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E247" s="132"/>
-      <c r="F247" s="141" t="s">
+      <c r="F247" s="149" t="s">
         <v>418</v>
       </c>
       <c r="G247" s="136">
@@ -12374,14 +12527,14 @@
         <f t="shared" si="14"/>
         <v>0x268</v>
       </c>
-      <c r="C249" s="140" t="s">
+      <c r="C249" s="151" t="s">
         <v>410</v>
       </c>
       <c r="D249" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E249" s="132"/>
-      <c r="F249" s="141" t="s">
+      <c r="F249" s="149" t="s">
         <v>419</v>
       </c>
       <c r="G249" s="136">
@@ -12414,14 +12567,14 @@
         <f t="shared" si="14"/>
         <v>0x26C</v>
       </c>
-      <c r="C251" s="140" t="s">
+      <c r="C251" s="151" t="s">
         <v>411</v>
       </c>
       <c r="D251" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E251" s="132"/>
-      <c r="F251" s="141" t="s">
+      <c r="F251" s="149" t="s">
         <v>420</v>
       </c>
       <c r="G251" s="136">
@@ -12454,14 +12607,14 @@
         <f t="shared" si="14"/>
         <v>0x270</v>
       </c>
-      <c r="C253" s="140" t="s">
+      <c r="C253" s="151" t="s">
         <v>412</v>
       </c>
       <c r="D253" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E253" s="132"/>
-      <c r="F253" s="141" t="s">
+      <c r="F253" s="149" t="s">
         <v>421</v>
       </c>
       <c r="G253" s="136">
@@ -12494,14 +12647,14 @@
         <f t="shared" ref="B255:B256" si="15" xml:space="preserve"> "0x" &amp; DEC2HEX(A255)</f>
         <v>0x274</v>
       </c>
-      <c r="C255" s="140" t="s">
+      <c r="C255" s="151" t="s">
         <v>413</v>
       </c>
       <c r="D255" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E255" s="132"/>
-      <c r="F255" s="141" t="s">
+      <c r="F255" s="149" t="s">
         <v>422</v>
       </c>
       <c r="G255" s="136">
@@ -12534,14 +12687,14 @@
         <f t="shared" si="4"/>
         <v>0x278</v>
       </c>
-      <c r="C257" s="140" t="s">
+      <c r="C257" s="151" t="s">
         <v>423</v>
       </c>
       <c r="D257" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E257" s="132"/>
-      <c r="F257" s="141" t="s">
+      <c r="F257" s="149" t="s">
         <v>424</v>
       </c>
       <c r="G257" s="136">
@@ -12574,14 +12727,14 @@
         <f t="shared" si="4"/>
         <v>0x27C</v>
       </c>
-      <c r="C259" s="140" t="s">
+      <c r="C259" s="151" t="s">
         <v>425</v>
       </c>
       <c r="D259" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E259" s="132"/>
-      <c r="F259" s="141" t="s">
+      <c r="F259" s="149" t="s">
         <v>426</v>
       </c>
       <c r="G259" s="136">
@@ -12797,14 +12950,14 @@
         <f t="shared" si="4"/>
         <v>0x2BC</v>
       </c>
-      <c r="C268" s="140" t="s">
+      <c r="C268" s="151" t="s">
         <v>799</v>
       </c>
       <c r="D268" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E268" s="132"/>
-      <c r="F268" s="141" t="s">
+      <c r="F268" s="149" t="s">
         <v>800</v>
       </c>
       <c r="G268" s="136">
@@ -12837,14 +12990,14 @@
         <f t="shared" si="4"/>
         <v>0x2C0</v>
       </c>
-      <c r="C270" s="140" t="s">
+      <c r="C270" s="151" t="s">
         <v>801</v>
       </c>
       <c r="D270" s="132" t="s">
         <v>802</v>
       </c>
       <c r="E270" s="132"/>
-      <c r="F270" s="141" t="s">
+      <c r="F270" s="149" t="s">
         <v>803</v>
       </c>
       <c r="G270" s="136">
@@ -12877,14 +13030,14 @@
         <f t="shared" si="4"/>
         <v>0x2C4</v>
       </c>
-      <c r="C272" s="140" t="s">
+      <c r="C272" s="151" t="s">
         <v>804</v>
       </c>
       <c r="D272" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E272" s="132"/>
-      <c r="F272" s="141" t="s">
+      <c r="F272" s="149" t="s">
         <v>808</v>
       </c>
       <c r="G272" s="136">
@@ -12917,14 +13070,14 @@
         <f t="shared" si="4"/>
         <v>0x2C8</v>
       </c>
-      <c r="C274" s="140" t="s">
+      <c r="C274" s="151" t="s">
         <v>805</v>
       </c>
       <c r="D274" s="132" t="s">
         <v>802</v>
       </c>
       <c r="E274" s="132"/>
-      <c r="F274" s="141" t="s">
+      <c r="F274" s="149" t="s">
         <v>809</v>
       </c>
       <c r="G274" s="136">
@@ -12957,14 +13110,14 @@
         <f t="shared" si="4"/>
         <v>0x2CC</v>
       </c>
-      <c r="C276" s="140" t="s">
+      <c r="C276" s="151" t="s">
         <v>806</v>
       </c>
       <c r="D276" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E276" s="132"/>
-      <c r="F276" s="141" t="s">
+      <c r="F276" s="149" t="s">
         <v>810</v>
       </c>
       <c r="G276" s="136">
@@ -12997,14 +13150,14 @@
         <f t="shared" si="4"/>
         <v>0x2D0</v>
       </c>
-      <c r="C278" s="140" t="s">
+      <c r="C278" s="151" t="s">
         <v>807</v>
       </c>
       <c r="D278" s="132" t="s">
         <v>802</v>
       </c>
       <c r="E278" s="132"/>
-      <c r="F278" s="141" t="s">
+      <c r="F278" s="149" t="s">
         <v>811</v>
       </c>
       <c r="G278" s="136">
@@ -13037,14 +13190,14 @@
         <f t="shared" si="4"/>
         <v>0x2D4</v>
       </c>
-      <c r="C280" s="140" t="s">
+      <c r="C280" s="151" t="s">
         <v>812</v>
       </c>
       <c r="D280" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E280" s="132"/>
-      <c r="F280" s="141" t="s">
+      <c r="F280" s="149" t="s">
         <v>812</v>
       </c>
       <c r="G280" s="136">
@@ -13077,14 +13230,14 @@
         <f t="shared" si="4"/>
         <v>0x2D8</v>
       </c>
-      <c r="C282" s="140" t="s">
+      <c r="C282" s="151" t="s">
         <v>813</v>
       </c>
       <c r="D282" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E282" s="132"/>
-      <c r="F282" s="141" t="s">
+      <c r="F282" s="149" t="s">
         <v>813</v>
       </c>
       <c r="G282" s="136">
@@ -13142,14 +13295,14 @@
         <f t="shared" si="4"/>
         <v>0x2DE</v>
       </c>
-      <c r="C285" s="140" t="s">
+      <c r="C285" s="151" t="s">
         <v>783</v>
       </c>
       <c r="D285" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E285" s="132"/>
-      <c r="F285" s="141" t="s">
+      <c r="F285" s="149" t="s">
         <v>780</v>
       </c>
       <c r="G285" s="136">
@@ -13182,14 +13335,14 @@
         <f t="shared" si="4"/>
         <v>0x2E2</v>
       </c>
-      <c r="C287" s="140" t="s">
+      <c r="C287" s="151" t="s">
         <v>784</v>
       </c>
       <c r="D287" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E287" s="132"/>
-      <c r="F287" s="141" t="s">
+      <c r="F287" s="149" t="s">
         <v>781</v>
       </c>
       <c r="G287" s="136">
@@ -13222,14 +13375,14 @@
         <f t="shared" si="4"/>
         <v>0x2E6</v>
       </c>
-      <c r="C289" s="140" t="s">
+      <c r="C289" s="151" t="s">
         <v>785</v>
       </c>
       <c r="D289" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E289" s="132"/>
-      <c r="F289" s="141" t="s">
+      <c r="F289" s="149" t="s">
         <v>782</v>
       </c>
       <c r="G289" s="136">
@@ -13316,14 +13469,14 @@
         <f t="shared" si="4"/>
         <v>0x2EE</v>
       </c>
-      <c r="C293" s="140" t="s">
+      <c r="C293" s="151" t="s">
         <v>789</v>
       </c>
       <c r="D293" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E293" s="132"/>
-      <c r="F293" s="141" t="s">
+      <c r="F293" s="149" t="s">
         <v>790</v>
       </c>
       <c r="G293" s="136">
@@ -13356,14 +13509,14 @@
         <f t="shared" si="4"/>
         <v>0x2F2</v>
       </c>
-      <c r="C295" s="140" t="s">
+      <c r="C295" s="151" t="s">
         <v>791</v>
       </c>
       <c r="D295" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E295" s="132"/>
-      <c r="F295" s="141" t="s">
+      <c r="F295" s="149" t="s">
         <v>792</v>
       </c>
       <c r="G295" s="136">
@@ -13396,14 +13549,14 @@
         <f t="shared" ref="B297:B304" si="16" xml:space="preserve"> "0x" &amp; DEC2HEX(A297)</f>
         <v>0x2F6</v>
       </c>
-      <c r="C297" s="140" t="s">
+      <c r="C297" s="151" t="s">
         <v>1064</v>
       </c>
       <c r="D297" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E297" s="132"/>
-      <c r="F297" s="141" t="s">
+      <c r="F297" s="149" t="s">
         <v>1065</v>
       </c>
       <c r="G297" s="136">
@@ -13436,14 +13589,14 @@
         <f t="shared" si="16"/>
         <v>0x2FA</v>
       </c>
-      <c r="C299" s="140" t="s">
+      <c r="C299" s="151" t="s">
         <v>1066</v>
       </c>
       <c r="D299" s="132" t="s">
         <v>802</v>
       </c>
       <c r="E299" s="132"/>
-      <c r="F299" s="141" t="s">
+      <c r="F299" s="149" t="s">
         <v>1067</v>
       </c>
       <c r="G299" s="136">
@@ -13476,14 +13629,14 @@
         <f t="shared" si="16"/>
         <v>0x2FE</v>
       </c>
-      <c r="C301" s="140" t="s">
+      <c r="C301" s="151" t="s">
         <v>1068</v>
       </c>
       <c r="D301" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E301" s="132"/>
-      <c r="F301" s="141" t="s">
+      <c r="F301" s="149" t="s">
         <v>1070</v>
       </c>
       <c r="G301" s="136">
@@ -13516,14 +13669,14 @@
         <f t="shared" si="16"/>
         <v>0x302</v>
       </c>
-      <c r="C303" s="140" t="s">
+      <c r="C303" s="151" t="s">
         <v>1069</v>
       </c>
       <c r="D303" s="132" t="s">
         <v>802</v>
       </c>
       <c r="E303" s="132"/>
-      <c r="F303" s="141" t="s">
+      <c r="F303" s="149" t="s">
         <v>1071</v>
       </c>
       <c r="G303" s="136">
@@ -13556,14 +13709,14 @@
         <f t="shared" ref="B305:B318" si="17" xml:space="preserve"> "0x" &amp; DEC2HEX(A305)</f>
         <v>0x30E</v>
       </c>
-      <c r="C305" s="140" t="s">
+      <c r="C305" s="151" t="s">
         <v>815</v>
       </c>
       <c r="D305" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E305" s="132"/>
-      <c r="F305" s="141" t="s">
+      <c r="F305" s="149" t="s">
         <v>815</v>
       </c>
       <c r="G305" s="136">
@@ -13596,14 +13749,14 @@
         <f t="shared" si="17"/>
         <v>0x312</v>
       </c>
-      <c r="C307" s="140" t="s">
+      <c r="C307" s="151" t="s">
         <v>816</v>
       </c>
       <c r="D307" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E307" s="132"/>
-      <c r="F307" s="141" t="s">
+      <c r="F307" s="149" t="s">
         <v>816</v>
       </c>
       <c r="G307" s="136">
@@ -13636,14 +13789,14 @@
         <f t="shared" si="17"/>
         <v>0x316</v>
       </c>
-      <c r="C309" s="140" t="s">
+      <c r="C309" s="151" t="s">
         <v>817</v>
       </c>
       <c r="D309" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E309" s="132"/>
-      <c r="F309" s="141" t="s">
+      <c r="F309" s="149" t="s">
         <v>817</v>
       </c>
       <c r="G309" s="136">
@@ -13730,14 +13883,14 @@
         <f t="shared" si="17"/>
         <v>0x344</v>
       </c>
-      <c r="C313" s="140" t="s">
+      <c r="C313" s="151" t="s">
         <v>820</v>
       </c>
       <c r="D313" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E313" s="132"/>
-      <c r="F313" s="141" t="s">
+      <c r="F313" s="149" t="s">
         <v>821</v>
       </c>
       <c r="G313" s="136">
@@ -13770,14 +13923,14 @@
         <f t="shared" si="17"/>
         <v>0x348</v>
       </c>
-      <c r="C315" s="140" t="s">
+      <c r="C315" s="151" t="s">
         <v>823</v>
       </c>
       <c r="D315" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E315" s="132"/>
-      <c r="F315" s="141" t="s">
+      <c r="F315" s="149" t="s">
         <v>824</v>
       </c>
       <c r="G315" s="136">
@@ -13810,14 +13963,14 @@
         <f t="shared" si="17"/>
         <v>0x34C</v>
       </c>
-      <c r="C317" s="140" t="s">
+      <c r="C317" s="151" t="s">
         <v>825</v>
       </c>
       <c r="D317" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E317" s="132"/>
-      <c r="F317" s="141" t="s">
+      <c r="F317" s="149" t="s">
         <v>826</v>
       </c>
       <c r="G317" s="136">
@@ -13850,14 +14003,14 @@
         <f t="shared" ref="B319:B336" si="18" xml:space="preserve"> "0x" &amp; DEC2HEX(A319)</f>
         <v>0x350</v>
       </c>
-      <c r="C319" s="140" t="s">
+      <c r="C319" s="151" t="s">
         <v>827</v>
       </c>
       <c r="D319" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E319" s="132"/>
-      <c r="F319" s="141" t="s">
+      <c r="F319" s="149" t="s">
         <v>828</v>
       </c>
       <c r="G319" s="136">
@@ -13936,14 +14089,14 @@
         <f t="shared" si="18"/>
         <v>0x358</v>
       </c>
-      <c r="C323" s="141" t="s">
+      <c r="C323" s="149" t="s">
         <v>1061</v>
       </c>
       <c r="D323" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E323" s="118"/>
-      <c r="F323" s="141" t="s">
+      <c r="F323" s="149" t="s">
         <v>1076</v>
       </c>
       <c r="G323" s="136" t="s">
@@ -13964,7 +14117,7 @@
       <c r="C324" s="135"/>
       <c r="D324" s="133"/>
       <c r="E324" s="118"/>
-      <c r="F324" s="158"/>
+      <c r="F324" s="150"/>
       <c r="G324" s="137"/>
       <c r="H324" s="139"/>
     </row>
@@ -13976,14 +14129,14 @@
         <f t="shared" si="18"/>
         <v>0x35C</v>
       </c>
-      <c r="C325" s="141" t="s">
+      <c r="C325" s="149" t="s">
         <v>1074</v>
       </c>
       <c r="D325" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E325" s="132"/>
-      <c r="F325" s="141" t="s">
+      <c r="F325" s="149" t="s">
         <v>1075</v>
       </c>
       <c r="G325" s="136" t="s">
@@ -14046,19 +14199,19 @@
       <c r="C328" s="134" t="s">
         <v>1077</v>
       </c>
-      <c r="D328" s="160" t="s">
+      <c r="D328" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E328" s="162" t="s">
+      <c r="E328" s="143" t="s">
         <v>11</v>
       </c>
       <c r="F328" s="134" t="s">
         <v>1077</v>
       </c>
-      <c r="G328" s="164" t="s">
+      <c r="G328" s="145" t="s">
         <v>1088</v>
       </c>
-      <c r="H328" s="166" t="s">
+      <c r="H328" s="147" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -14070,12 +14223,12 @@
         <f t="shared" si="18"/>
         <v>0x364</v>
       </c>
-      <c r="C329" s="159"/>
-      <c r="D329" s="161"/>
-      <c r="E329" s="163"/>
-      <c r="F329" s="159"/>
-      <c r="G329" s="165"/>
-      <c r="H329" s="167"/>
+      <c r="C329" s="140"/>
+      <c r="D329" s="142"/>
+      <c r="E329" s="144"/>
+      <c r="F329" s="140"/>
+      <c r="G329" s="146"/>
+      <c r="H329" s="148"/>
     </row>
     <row r="330" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
@@ -14088,19 +14241,19 @@
       <c r="C330" s="134" t="s">
         <v>1078</v>
       </c>
-      <c r="D330" s="160" t="s">
+      <c r="D330" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E330" s="162" t="s">
+      <c r="E330" s="143" t="s">
         <v>11</v>
       </c>
       <c r="F330" s="134" t="s">
         <v>1078</v>
       </c>
-      <c r="G330" s="164" t="s">
+      <c r="G330" s="145" t="s">
         <v>1088</v>
       </c>
-      <c r="H330" s="166" t="s">
+      <c r="H330" s="147" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -14112,12 +14265,12 @@
         <f t="shared" si="18"/>
         <v>0x368</v>
       </c>
-      <c r="C331" s="159"/>
-      <c r="D331" s="161"/>
-      <c r="E331" s="163"/>
-      <c r="F331" s="159"/>
-      <c r="G331" s="165"/>
-      <c r="H331" s="167"/>
+      <c r="C331" s="140"/>
+      <c r="D331" s="142"/>
+      <c r="E331" s="144"/>
+      <c r="F331" s="140"/>
+      <c r="G331" s="146"/>
+      <c r="H331" s="148"/>
     </row>
     <row r="332" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="102">
@@ -15091,16 +15244,16 @@
         <f t="shared" si="25"/>
         <v>0x40C</v>
       </c>
-      <c r="C376" s="140" t="s">
+      <c r="C376" s="151" t="s">
         <v>853</v>
       </c>
       <c r="D376" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="E376" s="142" t="s">
+      <c r="E376" s="164" t="s">
         <v>835</v>
       </c>
-      <c r="F376" s="141" t="s">
+      <c r="F376" s="149" t="s">
         <v>836</v>
       </c>
       <c r="G376" s="136">
@@ -15120,7 +15273,7 @@
       </c>
       <c r="C377" s="131"/>
       <c r="D377" s="133"/>
-      <c r="E377" s="143"/>
+      <c r="E377" s="165"/>
       <c r="F377" s="135"/>
       <c r="G377" s="137"/>
       <c r="H377" s="139"/>
@@ -15157,7 +15310,7 @@
         <v>1100</v>
       </c>
       <c r="B379" s="102" t="str">
-        <f t="shared" ref="B379:B394" si="26" xml:space="preserve"> "0x" &amp; DEC2HEX(A379)</f>
+        <f t="shared" ref="B379:B434" si="26" xml:space="preserve"> "0x" &amp; DEC2HEX(A379)</f>
         <v>0x44C</v>
       </c>
       <c r="C379" s="4" t="s">
@@ -15518,130 +15671,1403 @@
       <c r="G394" s="106"/>
       <c r="H394" s="102"/>
     </row>
+    <row r="395" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="102">
+        <v>1140</v>
+      </c>
+      <c r="B395" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x474</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D395" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E395" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F395" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G395" s="106">
+        <v>1</v>
+      </c>
+      <c r="H395" s="102" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="102">
+        <v>1142</v>
+      </c>
+      <c r="B396" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x476</v>
+      </c>
+      <c r="C396" s="130" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D396" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E396" s="132"/>
+      <c r="F396" s="134" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G396" s="136">
+        <v>1</v>
+      </c>
+      <c r="H396" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="102">
+        <v>1144</v>
+      </c>
+      <c r="B397" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x478</v>
+      </c>
+      <c r="C397" s="131"/>
+      <c r="D397" s="133"/>
+      <c r="E397" s="133"/>
+      <c r="F397" s="135"/>
+      <c r="G397" s="137"/>
+      <c r="H397" s="139"/>
+    </row>
+    <row r="398" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="102">
+        <v>1146</v>
+      </c>
+      <c r="B398" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x47A</v>
+      </c>
+      <c r="C398" s="130" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D398" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E398" s="132"/>
+      <c r="F398" s="134" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G398" s="136">
+        <v>1</v>
+      </c>
+      <c r="H398" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="102">
+        <v>1148</v>
+      </c>
+      <c r="B399" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x47C</v>
+      </c>
+      <c r="C399" s="131"/>
+      <c r="D399" s="133"/>
+      <c r="E399" s="133"/>
+      <c r="F399" s="135"/>
+      <c r="G399" s="137"/>
+      <c r="H399" s="139"/>
+    </row>
+    <row r="400" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="102">
+        <v>1150</v>
+      </c>
+      <c r="B400" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x47E</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D400" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E400" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F400" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G400" s="106">
+        <v>1</v>
+      </c>
+      <c r="H400" s="102" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="102">
+        <v>1152</v>
+      </c>
+      <c r="B401" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x480</v>
+      </c>
+      <c r="C401" s="130" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D401" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E401" s="132"/>
+      <c r="F401" s="134" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G401" s="136">
+        <v>1</v>
+      </c>
+      <c r="H401" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="102">
+        <v>1154</v>
+      </c>
+      <c r="B402" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x482</v>
+      </c>
+      <c r="C402" s="131"/>
+      <c r="D402" s="133"/>
+      <c r="E402" s="133"/>
+      <c r="F402" s="135"/>
+      <c r="G402" s="137"/>
+      <c r="H402" s="139"/>
+    </row>
+    <row r="403" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="102">
+        <v>1156</v>
+      </c>
+      <c r="B403" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x484</v>
+      </c>
+      <c r="C403" s="130" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D403" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E403" s="132"/>
+      <c r="F403" s="134" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G403" s="136">
+        <v>1</v>
+      </c>
+      <c r="H403" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="102">
+        <v>1158</v>
+      </c>
+      <c r="B404" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x486</v>
+      </c>
+      <c r="C404" s="131"/>
+      <c r="D404" s="133"/>
+      <c r="E404" s="133"/>
+      <c r="F404" s="135"/>
+      <c r="G404" s="137"/>
+      <c r="H404" s="139"/>
+    </row>
+    <row r="405" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="102">
+        <v>1160</v>
+      </c>
+      <c r="B405" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x488</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D405" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E405" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F405" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G405" s="106">
+        <v>1</v>
+      </c>
+      <c r="H405" s="102" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="102">
+        <v>1162</v>
+      </c>
+      <c r="B406" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x48A</v>
+      </c>
+      <c r="C406" s="130" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D406" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E406" s="132"/>
+      <c r="F406" s="134" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G406" s="136">
+        <v>1</v>
+      </c>
+      <c r="H406" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="102">
+        <v>1164</v>
+      </c>
+      <c r="B407" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x48C</v>
+      </c>
+      <c r="C407" s="131"/>
+      <c r="D407" s="133"/>
+      <c r="E407" s="133"/>
+      <c r="F407" s="135"/>
+      <c r="G407" s="137"/>
+      <c r="H407" s="139"/>
+    </row>
+    <row r="408" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="102">
+        <v>1166</v>
+      </c>
+      <c r="B408" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x48E</v>
+      </c>
+      <c r="C408" s="130" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D408" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E408" s="132"/>
+      <c r="F408" s="134" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G408" s="136">
+        <v>1</v>
+      </c>
+      <c r="H408" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="102">
+        <v>1168</v>
+      </c>
+      <c r="B409" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x490</v>
+      </c>
+      <c r="C409" s="131"/>
+      <c r="D409" s="133"/>
+      <c r="E409" s="133"/>
+      <c r="F409" s="135"/>
+      <c r="G409" s="137"/>
+      <c r="H409" s="139"/>
+    </row>
+    <row r="410" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="102">
+        <v>1170</v>
+      </c>
+      <c r="B410" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x492</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D410" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E410" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F410" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G410" s="106">
+        <v>1</v>
+      </c>
+      <c r="H410" s="102" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="102">
+        <v>1172</v>
+      </c>
+      <c r="B411" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x494</v>
+      </c>
+      <c r="C411" s="130" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D411" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E411" s="132"/>
+      <c r="F411" s="134" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G411" s="136">
+        <v>1</v>
+      </c>
+      <c r="H411" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="102">
+        <v>1174</v>
+      </c>
+      <c r="B412" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x496</v>
+      </c>
+      <c r="C412" s="131"/>
+      <c r="D412" s="133"/>
+      <c r="E412" s="133"/>
+      <c r="F412" s="135"/>
+      <c r="G412" s="137"/>
+      <c r="H412" s="139"/>
+    </row>
+    <row r="413" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="102">
+        <v>1176</v>
+      </c>
+      <c r="B413" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x498</v>
+      </c>
+      <c r="C413" s="130" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D413" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E413" s="132"/>
+      <c r="F413" s="134" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G413" s="136">
+        <v>1</v>
+      </c>
+      <c r="H413" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="102">
+        <v>1178</v>
+      </c>
+      <c r="B414" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x49A</v>
+      </c>
+      <c r="C414" s="131"/>
+      <c r="D414" s="133"/>
+      <c r="E414" s="133"/>
+      <c r="F414" s="135"/>
+      <c r="G414" s="137"/>
+      <c r="H414" s="139"/>
+    </row>
+    <row r="415" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="102">
+        <v>1180</v>
+      </c>
+      <c r="B415" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x49C</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D415" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E415" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F415" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G415" s="106">
+        <v>1</v>
+      </c>
+      <c r="H415" s="102" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="102">
+        <v>1182</v>
+      </c>
+      <c r="B416" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x49E</v>
+      </c>
+      <c r="C416" s="130" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D416" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E416" s="132"/>
+      <c r="F416" s="134" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G416" s="136">
+        <v>1</v>
+      </c>
+      <c r="H416" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="102">
+        <v>1184</v>
+      </c>
+      <c r="B417" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4A0</v>
+      </c>
+      <c r="C417" s="131"/>
+      <c r="D417" s="133"/>
+      <c r="E417" s="133"/>
+      <c r="F417" s="135"/>
+      <c r="G417" s="137"/>
+      <c r="H417" s="139"/>
+    </row>
+    <row r="418" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="102">
+        <v>1186</v>
+      </c>
+      <c r="B418" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4A2</v>
+      </c>
+      <c r="C418" s="130" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D418" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E418" s="132"/>
+      <c r="F418" s="134" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G418" s="136">
+        <v>1</v>
+      </c>
+      <c r="H418" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="102">
+        <v>1188</v>
+      </c>
+      <c r="B419" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4A4</v>
+      </c>
+      <c r="C419" s="131"/>
+      <c r="D419" s="133"/>
+      <c r="E419" s="133"/>
+      <c r="F419" s="135"/>
+      <c r="G419" s="137"/>
+      <c r="H419" s="139"/>
+    </row>
+    <row r="420" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="102">
+        <v>1190</v>
+      </c>
+      <c r="B420" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4A6</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D420" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E420" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F420" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G420" s="106">
+        <v>1</v>
+      </c>
+      <c r="H420" s="102" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="102">
+        <v>1192</v>
+      </c>
+      <c r="B421" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4A8</v>
+      </c>
+      <c r="C421" s="130" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D421" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E421" s="132"/>
+      <c r="F421" s="134" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G421" s="136">
+        <v>1</v>
+      </c>
+      <c r="H421" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="102">
+        <v>1194</v>
+      </c>
+      <c r="B422" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4AA</v>
+      </c>
+      <c r="C422" s="131"/>
+      <c r="D422" s="133"/>
+      <c r="E422" s="133"/>
+      <c r="F422" s="135"/>
+      <c r="G422" s="137"/>
+      <c r="H422" s="139"/>
+    </row>
+    <row r="423" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="102">
+        <v>1196</v>
+      </c>
+      <c r="B423" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4AC</v>
+      </c>
+      <c r="C423" s="130" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D423" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E423" s="132"/>
+      <c r="F423" s="134" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G423" s="136">
+        <v>1</v>
+      </c>
+      <c r="H423" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="102">
+        <v>1198</v>
+      </c>
+      <c r="B424" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4AE</v>
+      </c>
+      <c r="C424" s="131"/>
+      <c r="D424" s="133"/>
+      <c r="E424" s="133"/>
+      <c r="F424" s="135"/>
+      <c r="G424" s="137"/>
+      <c r="H424" s="139"/>
+    </row>
+    <row r="425" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="102">
+        <v>1200</v>
+      </c>
+      <c r="B425" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4B0</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D425" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E425" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F425" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G425" s="106">
+        <v>1</v>
+      </c>
+      <c r="H425" s="102" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="102">
+        <v>1202</v>
+      </c>
+      <c r="B426" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4B2</v>
+      </c>
+      <c r="C426" s="130" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D426" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E426" s="132"/>
+      <c r="F426" s="134" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G426" s="136">
+        <v>1</v>
+      </c>
+      <c r="H426" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="102">
+        <v>1204</v>
+      </c>
+      <c r="B427" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4B4</v>
+      </c>
+      <c r="C427" s="131"/>
+      <c r="D427" s="133"/>
+      <c r="E427" s="133"/>
+      <c r="F427" s="135"/>
+      <c r="G427" s="137"/>
+      <c r="H427" s="139"/>
+    </row>
+    <row r="428" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="102">
+        <v>1206</v>
+      </c>
+      <c r="B428" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4B6</v>
+      </c>
+      <c r="C428" s="130" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D428" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E428" s="132"/>
+      <c r="F428" s="134" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G428" s="136">
+        <v>1</v>
+      </c>
+      <c r="H428" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="102">
+        <v>1208</v>
+      </c>
+      <c r="B429" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4B8</v>
+      </c>
+      <c r="C429" s="131"/>
+      <c r="D429" s="133"/>
+      <c r="E429" s="133"/>
+      <c r="F429" s="135"/>
+      <c r="G429" s="137"/>
+      <c r="H429" s="139"/>
+    </row>
+    <row r="430" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="102">
+        <v>1210</v>
+      </c>
+      <c r="B430" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4BA</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D430" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E430" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F430" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G430" s="106">
+        <v>1</v>
+      </c>
+      <c r="H430" s="102" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="102">
+        <v>1212</v>
+      </c>
+      <c r="B431" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4BC</v>
+      </c>
+      <c r="C431" s="130" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D431" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E431" s="132"/>
+      <c r="F431" s="134" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G431" s="136">
+        <v>1</v>
+      </c>
+      <c r="H431" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="102">
+        <v>1214</v>
+      </c>
+      <c r="B432" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4BE</v>
+      </c>
+      <c r="C432" s="131"/>
+      <c r="D432" s="133"/>
+      <c r="E432" s="133"/>
+      <c r="F432" s="135"/>
+      <c r="G432" s="137"/>
+      <c r="H432" s="139"/>
+    </row>
+    <row r="433" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="102">
+        <v>1216</v>
+      </c>
+      <c r="B433" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4C0</v>
+      </c>
+      <c r="C433" s="130" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D433" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E433" s="132"/>
+      <c r="F433" s="134" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G433" s="136">
+        <v>1</v>
+      </c>
+      <c r="H433" s="138" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="102">
+        <v>1218</v>
+      </c>
+      <c r="B434" s="102" t="str">
+        <f t="shared" si="26"/>
+        <v>0x4C2</v>
+      </c>
+      <c r="C434" s="131"/>
+      <c r="D434" s="133"/>
+      <c r="E434" s="133"/>
+      <c r="F434" s="135"/>
+      <c r="G434" s="137"/>
+      <c r="H434" s="139"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H206">
+  <sortState ref="A4:H206">
     <sortCondition ref="A4:A206"/>
   </sortState>
-  <mergeCells count="583">
-    <mergeCell ref="C368:C369"/>
-    <mergeCell ref="D368:D369"/>
-    <mergeCell ref="E368:E369"/>
-    <mergeCell ref="F368:F369"/>
-    <mergeCell ref="G368:G369"/>
-    <mergeCell ref="H368:H369"/>
-    <mergeCell ref="C370:C371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="E370:E371"/>
-    <mergeCell ref="F370:F371"/>
-    <mergeCell ref="G370:G371"/>
-    <mergeCell ref="H370:H371"/>
-    <mergeCell ref="C363:C364"/>
-    <mergeCell ref="D363:D364"/>
-    <mergeCell ref="E363:E364"/>
-    <mergeCell ref="F363:F364"/>
-    <mergeCell ref="G363:G364"/>
-    <mergeCell ref="H363:H364"/>
-    <mergeCell ref="C365:C366"/>
-    <mergeCell ref="D365:D366"/>
-    <mergeCell ref="E365:E366"/>
-    <mergeCell ref="F365:F366"/>
-    <mergeCell ref="G365:G366"/>
-    <mergeCell ref="H365:H366"/>
-    <mergeCell ref="C358:C359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="E358:E359"/>
-    <mergeCell ref="F358:F359"/>
-    <mergeCell ref="G358:G359"/>
-    <mergeCell ref="H358:H359"/>
-    <mergeCell ref="C360:C361"/>
-    <mergeCell ref="D360:D361"/>
-    <mergeCell ref="E360:E361"/>
-    <mergeCell ref="F360:F361"/>
-    <mergeCell ref="G360:G361"/>
-    <mergeCell ref="H360:H361"/>
-    <mergeCell ref="C353:C354"/>
-    <mergeCell ref="D353:D354"/>
-    <mergeCell ref="E353:E354"/>
-    <mergeCell ref="F353:F354"/>
-    <mergeCell ref="G353:G354"/>
-    <mergeCell ref="H353:H354"/>
-    <mergeCell ref="C355:C356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="E355:E356"/>
-    <mergeCell ref="F355:F356"/>
-    <mergeCell ref="G355:G356"/>
-    <mergeCell ref="H355:H356"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="D348:D349"/>
-    <mergeCell ref="E348:E349"/>
-    <mergeCell ref="F348:F349"/>
-    <mergeCell ref="G348:G349"/>
-    <mergeCell ref="H348:H349"/>
-    <mergeCell ref="C350:C351"/>
-    <mergeCell ref="D350:D351"/>
-    <mergeCell ref="E350:E351"/>
-    <mergeCell ref="F350:F351"/>
-    <mergeCell ref="G350:G351"/>
-    <mergeCell ref="H350:H351"/>
-    <mergeCell ref="C343:C344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="E343:E344"/>
-    <mergeCell ref="F343:F344"/>
-    <mergeCell ref="G343:G344"/>
-    <mergeCell ref="H343:H344"/>
-    <mergeCell ref="C345:C346"/>
-    <mergeCell ref="D345:D346"/>
-    <mergeCell ref="E345:E346"/>
-    <mergeCell ref="F345:F346"/>
-    <mergeCell ref="G345:G346"/>
-    <mergeCell ref="H345:H346"/>
-    <mergeCell ref="C338:C339"/>
-    <mergeCell ref="D338:D339"/>
-    <mergeCell ref="E338:E339"/>
-    <mergeCell ref="F338:F339"/>
-    <mergeCell ref="G338:G339"/>
-    <mergeCell ref="H338:H339"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="E340:E341"/>
-    <mergeCell ref="F340:F341"/>
-    <mergeCell ref="G340:G341"/>
-    <mergeCell ref="H340:H341"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="D330:D331"/>
-    <mergeCell ref="E330:E331"/>
-    <mergeCell ref="F330:F331"/>
-    <mergeCell ref="G330:G331"/>
-    <mergeCell ref="H330:H331"/>
-    <mergeCell ref="C328:C329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="E328:E329"/>
-    <mergeCell ref="F328:F329"/>
-    <mergeCell ref="G328:G329"/>
-    <mergeCell ref="H328:H329"/>
-    <mergeCell ref="D323:D324"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="G323:G324"/>
-    <mergeCell ref="H323:H324"/>
-    <mergeCell ref="C325:C326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="F325:F326"/>
-    <mergeCell ref="F323:F324"/>
-    <mergeCell ref="E325:E326"/>
-    <mergeCell ref="G325:G326"/>
-    <mergeCell ref="H325:H326"/>
-    <mergeCell ref="H317:H318"/>
-    <mergeCell ref="C319:C320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="E319:E320"/>
-    <mergeCell ref="F319:F320"/>
-    <mergeCell ref="G319:G320"/>
-    <mergeCell ref="H319:H320"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="D317:D318"/>
-    <mergeCell ref="E317:E318"/>
-    <mergeCell ref="F317:F318"/>
-    <mergeCell ref="G317:G318"/>
+  <mergeCells count="679">
+    <mergeCell ref="C431:C432"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:E432"/>
+    <mergeCell ref="F431:F432"/>
+    <mergeCell ref="G431:G432"/>
+    <mergeCell ref="H431:H432"/>
+    <mergeCell ref="C433:C434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="E433:E434"/>
+    <mergeCell ref="F433:F434"/>
+    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="H433:H434"/>
+    <mergeCell ref="C426:C427"/>
+    <mergeCell ref="D426:D427"/>
+    <mergeCell ref="E426:E427"/>
+    <mergeCell ref="F426:F427"/>
+    <mergeCell ref="G426:G427"/>
+    <mergeCell ref="H426:H427"/>
+    <mergeCell ref="C428:C429"/>
+    <mergeCell ref="D428:D429"/>
+    <mergeCell ref="E428:E429"/>
+    <mergeCell ref="F428:F429"/>
+    <mergeCell ref="G428:G429"/>
+    <mergeCell ref="H428:H429"/>
+    <mergeCell ref="C421:C422"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="E421:E422"/>
+    <mergeCell ref="F421:F422"/>
+    <mergeCell ref="G421:G422"/>
+    <mergeCell ref="H421:H422"/>
+    <mergeCell ref="C423:C424"/>
+    <mergeCell ref="D423:D424"/>
+    <mergeCell ref="E423:E424"/>
+    <mergeCell ref="F423:F424"/>
+    <mergeCell ref="G423:G424"/>
+    <mergeCell ref="H423:H424"/>
+    <mergeCell ref="C416:C417"/>
+    <mergeCell ref="D416:D417"/>
+    <mergeCell ref="E416:E417"/>
+    <mergeCell ref="F416:F417"/>
+    <mergeCell ref="G416:G417"/>
+    <mergeCell ref="H416:H417"/>
+    <mergeCell ref="C418:C419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="E418:E419"/>
+    <mergeCell ref="F418:F419"/>
+    <mergeCell ref="G418:G419"/>
+    <mergeCell ref="H418:H419"/>
+    <mergeCell ref="C411:C412"/>
+    <mergeCell ref="D411:D412"/>
+    <mergeCell ref="E411:E412"/>
+    <mergeCell ref="F411:F412"/>
+    <mergeCell ref="G411:G412"/>
+    <mergeCell ref="H411:H412"/>
+    <mergeCell ref="C413:C414"/>
+    <mergeCell ref="D413:D414"/>
+    <mergeCell ref="E413:E414"/>
+    <mergeCell ref="F413:F414"/>
+    <mergeCell ref="G413:G414"/>
+    <mergeCell ref="H413:H414"/>
+    <mergeCell ref="C406:C407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="E406:E407"/>
+    <mergeCell ref="F406:F407"/>
+    <mergeCell ref="G406:G407"/>
+    <mergeCell ref="H406:H407"/>
+    <mergeCell ref="C408:C409"/>
+    <mergeCell ref="D408:D409"/>
+    <mergeCell ref="E408:E409"/>
+    <mergeCell ref="F408:F409"/>
+    <mergeCell ref="G408:G409"/>
+    <mergeCell ref="H408:H409"/>
+    <mergeCell ref="C401:C402"/>
+    <mergeCell ref="D401:D402"/>
+    <mergeCell ref="E401:E402"/>
+    <mergeCell ref="F401:F402"/>
+    <mergeCell ref="G401:G402"/>
+    <mergeCell ref="H401:H402"/>
+    <mergeCell ref="C403:C404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="E403:E404"/>
+    <mergeCell ref="F403:F404"/>
+    <mergeCell ref="G403:G404"/>
+    <mergeCell ref="H403:H404"/>
+    <mergeCell ref="C396:C397"/>
+    <mergeCell ref="D396:D397"/>
+    <mergeCell ref="E396:E397"/>
+    <mergeCell ref="F396:F397"/>
+    <mergeCell ref="G396:G397"/>
+    <mergeCell ref="H396:H397"/>
+    <mergeCell ref="C398:C399"/>
+    <mergeCell ref="D398:D399"/>
+    <mergeCell ref="E398:E399"/>
+    <mergeCell ref="F398:F399"/>
+    <mergeCell ref="G398:G399"/>
+    <mergeCell ref="H398:H399"/>
+    <mergeCell ref="C333:C334"/>
+    <mergeCell ref="D333:D334"/>
+    <mergeCell ref="E333:E334"/>
+    <mergeCell ref="F333:F334"/>
+    <mergeCell ref="G333:G334"/>
+    <mergeCell ref="H333:H334"/>
+    <mergeCell ref="C335:C336"/>
+    <mergeCell ref="D335:D336"/>
+    <mergeCell ref="E335:E336"/>
+    <mergeCell ref="F335:F336"/>
+    <mergeCell ref="G335:G336"/>
+    <mergeCell ref="H335:H336"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="E301:E302"/>
+    <mergeCell ref="F301:F302"/>
+    <mergeCell ref="G301:G302"/>
+    <mergeCell ref="H301:H302"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="D303:D304"/>
+    <mergeCell ref="E303:E304"/>
+    <mergeCell ref="F303:F304"/>
+    <mergeCell ref="G303:G304"/>
+    <mergeCell ref="H303:H304"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H376:H377"/>
+    <mergeCell ref="C376:C377"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="E376:E377"/>
+    <mergeCell ref="F376:F377"/>
+    <mergeCell ref="G376:G377"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="H235:H236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="E235:E236"/>
+    <mergeCell ref="F235:F236"/>
+    <mergeCell ref="G235:G236"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="E233:E234"/>
+    <mergeCell ref="F233:F234"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="H233:H234"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="F231:F232"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="F229:F230"/>
+    <mergeCell ref="G229:G230"/>
+    <mergeCell ref="H229:H230"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="H223:H224"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="H225:H226"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="G223:G224"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="F249:F250"/>
+    <mergeCell ref="G249:G250"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="E247:E248"/>
+    <mergeCell ref="F247:F248"/>
+    <mergeCell ref="G247:G248"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="E245:E246"/>
+    <mergeCell ref="F245:F246"/>
+    <mergeCell ref="G245:G246"/>
+    <mergeCell ref="H245:H246"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="H239:H240"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="E241:E242"/>
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="G241:G242"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="E239:E240"/>
+    <mergeCell ref="F239:F240"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="H257:H258"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="E259:E260"/>
+    <mergeCell ref="F259:F260"/>
+    <mergeCell ref="G259:G260"/>
+    <mergeCell ref="H259:H260"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="E257:E258"/>
+    <mergeCell ref="F257:F258"/>
+    <mergeCell ref="G257:G258"/>
+    <mergeCell ref="H255:H256"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="E237:E238"/>
+    <mergeCell ref="F237:F238"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="H237:H238"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="F255:F256"/>
+    <mergeCell ref="G255:G256"/>
+    <mergeCell ref="H251:H252"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="F253:F254"/>
+    <mergeCell ref="G253:G254"/>
+    <mergeCell ref="H253:H254"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="F251:F252"/>
+    <mergeCell ref="G251:G252"/>
+    <mergeCell ref="H276:H277"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="E278:E279"/>
+    <mergeCell ref="F278:F279"/>
+    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="D276:D277"/>
+    <mergeCell ref="E276:E277"/>
+    <mergeCell ref="F276:F277"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="H272:H273"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="F274:F275"/>
+    <mergeCell ref="G274:G275"/>
+    <mergeCell ref="H274:H275"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="D272:D273"/>
+    <mergeCell ref="E272:E273"/>
+    <mergeCell ref="F272:F273"/>
+    <mergeCell ref="G272:G273"/>
+    <mergeCell ref="H268:H269"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="D270:D271"/>
+    <mergeCell ref="E270:E271"/>
+    <mergeCell ref="F270:F271"/>
+    <mergeCell ref="G270:G271"/>
+    <mergeCell ref="H270:H271"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="F268:F269"/>
+    <mergeCell ref="G268:G269"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="E293:E294"/>
+    <mergeCell ref="F293:F294"/>
+    <mergeCell ref="G293:G294"/>
+    <mergeCell ref="H293:H294"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="G289:G290"/>
+    <mergeCell ref="H285:H286"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
+    <mergeCell ref="F287:F288"/>
+    <mergeCell ref="G287:G288"/>
+    <mergeCell ref="H287:H288"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="G285:G286"/>
+    <mergeCell ref="H280:H281"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="D282:D283"/>
+    <mergeCell ref="E282:E283"/>
+    <mergeCell ref="F282:F283"/>
+    <mergeCell ref="G282:G283"/>
+    <mergeCell ref="H282:H283"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="F280:F281"/>
+    <mergeCell ref="G280:G281"/>
+    <mergeCell ref="H313:H314"/>
+    <mergeCell ref="C315:C316"/>
+    <mergeCell ref="D315:D316"/>
+    <mergeCell ref="E315:E316"/>
+    <mergeCell ref="F315:F316"/>
+    <mergeCell ref="G315:G316"/>
+    <mergeCell ref="H315:H316"/>
+    <mergeCell ref="C313:C314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="E313:E314"/>
+    <mergeCell ref="F313:F314"/>
+    <mergeCell ref="G313:G314"/>
+    <mergeCell ref="H307:H308"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="D309:D310"/>
+    <mergeCell ref="E309:E310"/>
+    <mergeCell ref="F309:F310"/>
+    <mergeCell ref="G309:G310"/>
+    <mergeCell ref="H309:H310"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="G307:G308"/>
     <mergeCell ref="H295:H296"/>
     <mergeCell ref="C305:C306"/>
     <mergeCell ref="D305:D306"/>
@@ -15666,1360 +17092,1052 @@
     <mergeCell ref="F299:F300"/>
     <mergeCell ref="G299:G300"/>
     <mergeCell ref="H299:H300"/>
-    <mergeCell ref="H307:H308"/>
-    <mergeCell ref="C309:C310"/>
-    <mergeCell ref="D309:D310"/>
-    <mergeCell ref="E309:E310"/>
-    <mergeCell ref="F309:F310"/>
-    <mergeCell ref="G309:G310"/>
-    <mergeCell ref="H309:H310"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="E307:E308"/>
-    <mergeCell ref="F307:F308"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="H313:H314"/>
-    <mergeCell ref="C315:C316"/>
-    <mergeCell ref="D315:D316"/>
-    <mergeCell ref="E315:E316"/>
-    <mergeCell ref="F315:F316"/>
-    <mergeCell ref="G315:G316"/>
-    <mergeCell ref="H315:H316"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="E313:E314"/>
-    <mergeCell ref="F313:F314"/>
-    <mergeCell ref="G313:G314"/>
-    <mergeCell ref="H280:H281"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="D282:D283"/>
-    <mergeCell ref="E282:E283"/>
-    <mergeCell ref="F282:F283"/>
-    <mergeCell ref="G282:G283"/>
-    <mergeCell ref="H282:H283"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="E280:E281"/>
-    <mergeCell ref="F280:F281"/>
-    <mergeCell ref="G280:G281"/>
-    <mergeCell ref="H285:H286"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="F287:F288"/>
-    <mergeCell ref="G287:G288"/>
-    <mergeCell ref="H287:H288"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="G285:G286"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="D293:D294"/>
-    <mergeCell ref="E293:E294"/>
-    <mergeCell ref="F293:F294"/>
-    <mergeCell ref="G293:G294"/>
-    <mergeCell ref="H293:H294"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="E289:E290"/>
-    <mergeCell ref="G289:G290"/>
-    <mergeCell ref="H268:H269"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="D270:D271"/>
-    <mergeCell ref="E270:E271"/>
-    <mergeCell ref="F270:F271"/>
-    <mergeCell ref="G270:G271"/>
-    <mergeCell ref="H270:H271"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="F268:F269"/>
-    <mergeCell ref="G268:G269"/>
-    <mergeCell ref="H272:H273"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="E274:E275"/>
-    <mergeCell ref="F274:F275"/>
-    <mergeCell ref="G274:G275"/>
-    <mergeCell ref="H274:H275"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="D272:D273"/>
-    <mergeCell ref="E272:E273"/>
-    <mergeCell ref="F272:F273"/>
-    <mergeCell ref="G272:G273"/>
-    <mergeCell ref="H276:H277"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="E278:E279"/>
-    <mergeCell ref="F278:F279"/>
-    <mergeCell ref="G278:G279"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="D276:D277"/>
-    <mergeCell ref="E276:E277"/>
-    <mergeCell ref="F276:F277"/>
-    <mergeCell ref="G276:G277"/>
-    <mergeCell ref="H255:H256"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="E237:E238"/>
-    <mergeCell ref="F237:F238"/>
-    <mergeCell ref="G237:G238"/>
-    <mergeCell ref="H237:H238"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="F255:F256"/>
-    <mergeCell ref="G255:G256"/>
-    <mergeCell ref="H251:H252"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="F253:F254"/>
-    <mergeCell ref="G253:G254"/>
-    <mergeCell ref="H253:H254"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="E251:E252"/>
-    <mergeCell ref="F251:F252"/>
-    <mergeCell ref="G251:G252"/>
-    <mergeCell ref="H257:H258"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="E259:E260"/>
-    <mergeCell ref="F259:F260"/>
-    <mergeCell ref="G259:G260"/>
-    <mergeCell ref="H259:H260"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="E257:E258"/>
-    <mergeCell ref="F257:F258"/>
-    <mergeCell ref="G257:G258"/>
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="E241:E242"/>
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="G241:G242"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="E239:E240"/>
-    <mergeCell ref="F239:F240"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="E245:E246"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="G245:G246"/>
-    <mergeCell ref="H245:H246"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="H247:H248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="E249:E250"/>
-    <mergeCell ref="F249:F250"/>
-    <mergeCell ref="G249:G250"/>
-    <mergeCell ref="H249:H250"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="E247:E248"/>
-    <mergeCell ref="F247:F248"/>
-    <mergeCell ref="G247:G248"/>
-    <mergeCell ref="H223:H224"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="F225:F226"/>
-    <mergeCell ref="G225:G226"/>
-    <mergeCell ref="H225:H226"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="F223:F224"/>
-    <mergeCell ref="G223:G224"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="F229:F230"/>
-    <mergeCell ref="G229:G230"/>
-    <mergeCell ref="H229:H230"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="H235:H236"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="E235:E236"/>
-    <mergeCell ref="F235:F236"/>
-    <mergeCell ref="G235:G236"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="E233:E234"/>
-    <mergeCell ref="F233:F234"/>
-    <mergeCell ref="G233:G234"/>
-    <mergeCell ref="H233:H234"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="F231:F232"/>
-    <mergeCell ref="G231:G232"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="G221:G222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="H209:H210"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="H376:H377"/>
-    <mergeCell ref="C376:C377"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="E376:E377"/>
-    <mergeCell ref="F376:F377"/>
-    <mergeCell ref="G376:G377"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="E301:E302"/>
-    <mergeCell ref="F301:F302"/>
-    <mergeCell ref="G301:G302"/>
-    <mergeCell ref="H301:H302"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="D303:D304"/>
-    <mergeCell ref="E303:E304"/>
-    <mergeCell ref="F303:F304"/>
-    <mergeCell ref="G303:G304"/>
-    <mergeCell ref="H303:H304"/>
-    <mergeCell ref="C333:C334"/>
-    <mergeCell ref="D333:D334"/>
-    <mergeCell ref="E333:E334"/>
-    <mergeCell ref="F333:F334"/>
-    <mergeCell ref="G333:G334"/>
-    <mergeCell ref="H333:H334"/>
-    <mergeCell ref="C335:C336"/>
-    <mergeCell ref="D335:D336"/>
-    <mergeCell ref="E335:E336"/>
-    <mergeCell ref="F335:F336"/>
-    <mergeCell ref="G335:G336"/>
-    <mergeCell ref="H335:H336"/>
+    <mergeCell ref="H317:H318"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="E319:E320"/>
+    <mergeCell ref="F319:F320"/>
+    <mergeCell ref="G319:G320"/>
+    <mergeCell ref="H319:H320"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="D317:D318"/>
+    <mergeCell ref="E317:E318"/>
+    <mergeCell ref="F317:F318"/>
+    <mergeCell ref="G317:G318"/>
+    <mergeCell ref="D323:D324"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="G323:G324"/>
+    <mergeCell ref="H323:H324"/>
+    <mergeCell ref="C325:C326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="F325:F326"/>
+    <mergeCell ref="F323:F324"/>
+    <mergeCell ref="E325:E326"/>
+    <mergeCell ref="G325:G326"/>
+    <mergeCell ref="H325:H326"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="D330:D331"/>
+    <mergeCell ref="E330:E331"/>
+    <mergeCell ref="F330:F331"/>
+    <mergeCell ref="G330:G331"/>
+    <mergeCell ref="H330:H331"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="E328:E329"/>
+    <mergeCell ref="F328:F329"/>
+    <mergeCell ref="G328:G329"/>
+    <mergeCell ref="H328:H329"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="D338:D339"/>
+    <mergeCell ref="E338:E339"/>
+    <mergeCell ref="F338:F339"/>
+    <mergeCell ref="G338:G339"/>
+    <mergeCell ref="H338:H339"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="E340:E341"/>
+    <mergeCell ref="F340:F341"/>
+    <mergeCell ref="G340:G341"/>
+    <mergeCell ref="H340:H341"/>
+    <mergeCell ref="C343:C344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="E343:E344"/>
+    <mergeCell ref="F343:F344"/>
+    <mergeCell ref="G343:G344"/>
+    <mergeCell ref="H343:H344"/>
+    <mergeCell ref="C345:C346"/>
+    <mergeCell ref="D345:D346"/>
+    <mergeCell ref="E345:E346"/>
+    <mergeCell ref="F345:F346"/>
+    <mergeCell ref="G345:G346"/>
+    <mergeCell ref="H345:H346"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="D348:D349"/>
+    <mergeCell ref="E348:E349"/>
+    <mergeCell ref="F348:F349"/>
+    <mergeCell ref="G348:G349"/>
+    <mergeCell ref="H348:H349"/>
+    <mergeCell ref="C350:C351"/>
+    <mergeCell ref="D350:D351"/>
+    <mergeCell ref="E350:E351"/>
+    <mergeCell ref="F350:F351"/>
+    <mergeCell ref="G350:G351"/>
+    <mergeCell ref="H350:H351"/>
+    <mergeCell ref="C353:C354"/>
+    <mergeCell ref="D353:D354"/>
+    <mergeCell ref="E353:E354"/>
+    <mergeCell ref="F353:F354"/>
+    <mergeCell ref="G353:G354"/>
+    <mergeCell ref="H353:H354"/>
+    <mergeCell ref="C355:C356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="E355:E356"/>
+    <mergeCell ref="F355:F356"/>
+    <mergeCell ref="G355:G356"/>
+    <mergeCell ref="H355:H356"/>
+    <mergeCell ref="C358:C359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="E358:E359"/>
+    <mergeCell ref="F358:F359"/>
+    <mergeCell ref="G358:G359"/>
+    <mergeCell ref="H358:H359"/>
+    <mergeCell ref="C360:C361"/>
+    <mergeCell ref="D360:D361"/>
+    <mergeCell ref="E360:E361"/>
+    <mergeCell ref="F360:F361"/>
+    <mergeCell ref="G360:G361"/>
+    <mergeCell ref="H360:H361"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="D363:D364"/>
+    <mergeCell ref="E363:E364"/>
+    <mergeCell ref="F363:F364"/>
+    <mergeCell ref="G363:G364"/>
+    <mergeCell ref="H363:H364"/>
+    <mergeCell ref="C365:C366"/>
+    <mergeCell ref="D365:D366"/>
+    <mergeCell ref="E365:E366"/>
+    <mergeCell ref="F365:F366"/>
+    <mergeCell ref="G365:G366"/>
+    <mergeCell ref="H365:H366"/>
+    <mergeCell ref="C368:C369"/>
+    <mergeCell ref="D368:D369"/>
+    <mergeCell ref="E368:E369"/>
+    <mergeCell ref="F368:F369"/>
+    <mergeCell ref="G368:G369"/>
+    <mergeCell ref="H368:H369"/>
+    <mergeCell ref="C370:C371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="E370:E371"/>
+    <mergeCell ref="F370:F371"/>
+    <mergeCell ref="G370:G371"/>
+    <mergeCell ref="H370:H371"/>
   </mergeCells>
   <conditionalFormatting sqref="D261">
-    <cfRule type="containsText" dxfId="228" priority="225" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="231" priority="228" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="226" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="230" priority="229" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="containsText" dxfId="226" priority="263" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="229" priority="266" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D14 D16:D51 D70 D72:D73 D75 D77:D78 D80 D82:D83 D85 D87:D88 D90 D92:D93 D95 D97:D98 D100 D102:D103 D105 D107:D126 D67:D68 D54:D63">
-    <cfRule type="containsText" dxfId="225" priority="257" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="228" priority="260" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D14 D16:D51 D70 D72:D73 D75 D77:D78 D80 D82:D83 D85 D87:D88 D90 D92:D93 D95 D97:D98 D100 D102:D103 D105 D107:D126 D67:D68 D54:D63">
-    <cfRule type="containsText" dxfId="224" priority="258" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="227" priority="261" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="259" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="226" priority="262" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D262">
-    <cfRule type="containsText" dxfId="222" priority="221" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="225" priority="224" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D262">
-    <cfRule type="containsText" dxfId="221" priority="222" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="224" priority="225" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="223" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="223" priority="226" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D191:D196 D127:D182">
-    <cfRule type="containsText" dxfId="219" priority="254" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="222" priority="257" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D263">
-    <cfRule type="containsText" dxfId="218" priority="218" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="221" priority="221" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D191:D196 D127:D182">
-    <cfRule type="containsText" dxfId="217" priority="255" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="220" priority="258" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="256" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="219" priority="259" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D197 D199 D201 D203 D205 D207 D209 D211 D213 D215 D217 D219 D221 D223 D225 D227 D229 D231 D233 D235 D237 D239 D241 D243 D245 D247 D249 D251 D253 D255">
-    <cfRule type="containsText" dxfId="215" priority="251" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="218" priority="254" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D197 D199 D201 D203 D205 D207 D209 D211 D213 D215 D217 D219 D221 D223 D225 D227 D229 D231 D233 D235 D237 D239 D241 D243 D245 D247 D249 D251 D253 D255">
-    <cfRule type="containsText" dxfId="214" priority="252" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="217" priority="255" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="253" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="216" priority="256" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D257">
-    <cfRule type="containsText" dxfId="212" priority="230" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="215" priority="233" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D257">
-    <cfRule type="containsText" dxfId="211" priority="231" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="214" priority="234" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D257)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="232" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="213" priority="235" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D259">
-    <cfRule type="containsText" dxfId="209" priority="227" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="212" priority="230" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D259">
-    <cfRule type="containsText" dxfId="208" priority="228" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="211" priority="231" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="229" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="210" priority="232" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D261">
-    <cfRule type="containsText" dxfId="206" priority="224" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="209" priority="227" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D263">
-    <cfRule type="containsText" dxfId="205" priority="219" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="208" priority="222" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D263)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="220" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="207" priority="223" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D264">
-    <cfRule type="containsText" dxfId="203" priority="215" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="206" priority="218" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D264">
-    <cfRule type="containsText" dxfId="202" priority="216" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="205" priority="219" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="217" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="204" priority="220" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D265">
-    <cfRule type="containsText" dxfId="200" priority="206" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="203" priority="209" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D265">
-    <cfRule type="containsText" dxfId="199" priority="207" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="202" priority="210" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D265)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="208" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="201" priority="211" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D266">
-    <cfRule type="containsText" dxfId="197" priority="203" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="200" priority="206" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D266">
-    <cfRule type="containsText" dxfId="196" priority="204" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="199" priority="207" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D266)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="205" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="198" priority="208" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D267">
-    <cfRule type="containsText" dxfId="194" priority="200" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="197" priority="203" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D267">
-    <cfRule type="containsText" dxfId="193" priority="201" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="196" priority="204" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D267)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="202" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="195" priority="205" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="containsText" dxfId="191" priority="197" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="194" priority="200" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="containsText" dxfId="190" priority="198" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="193" priority="201" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D268)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="199" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="192" priority="202" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270 D272 D274 D276">
-    <cfRule type="containsText" dxfId="188" priority="194" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="191" priority="197" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270 D272 D274 D276">
-    <cfRule type="containsText" dxfId="187" priority="195" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="190" priority="198" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D270)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="196" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="189" priority="199" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D278 D280 D282 D284:D285 D287 D289 D291:D292">
-    <cfRule type="containsText" dxfId="185" priority="191" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="188" priority="194" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D278 D280 D282 D284:D285 D287 D289 D291:D292">
-    <cfRule type="containsText" dxfId="184" priority="192" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="187" priority="195" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D278)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="193" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="186" priority="196" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293 D295 D305 D307 D309 D311">
-    <cfRule type="containsText" dxfId="182" priority="188" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="185" priority="191" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293 D295 D305 D307 D309 D311">
-    <cfRule type="containsText" dxfId="181" priority="189" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="184" priority="192" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="190" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="183" priority="193" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D312:D313 D315 D317 D319">
-    <cfRule type="containsText" dxfId="179" priority="185" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="182" priority="188" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D312:D313 D315 D317 D319">
-    <cfRule type="containsText" dxfId="178" priority="186" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="181" priority="189" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="187" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="180" priority="190" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D373:D375 D378">
-    <cfRule type="containsText" dxfId="176" priority="179" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="179" priority="182" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D373:D375 D378">
-    <cfRule type="containsText" dxfId="175" priority="180" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="178" priority="183" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D373)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="181" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="177" priority="184" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D376">
-    <cfRule type="containsText" dxfId="173" priority="176" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="176" priority="179" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D376">
-    <cfRule type="containsText" dxfId="172" priority="177" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="175" priority="180" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="178" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="174" priority="181" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D321:D323">
-    <cfRule type="containsText" dxfId="170" priority="172" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="173" priority="175" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D321)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D321:D323">
-    <cfRule type="containsText" dxfId="169" priority="173" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="172" priority="176" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D321)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="174" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="171" priority="177" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D321)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="containsText" dxfId="167" priority="169" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="170" priority="172" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="containsText" dxfId="166" priority="170" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="169" priority="173" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="171" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="168" priority="174" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D183:D184">
-    <cfRule type="containsText" dxfId="164" priority="166" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="167" priority="169" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D183:D184">
-    <cfRule type="containsText" dxfId="163" priority="167" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="166" priority="170" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="168" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="165" priority="171" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D185:D190">
-    <cfRule type="containsText" dxfId="161" priority="163" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="164" priority="166" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D185)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D185:D190">
-    <cfRule type="containsText" dxfId="160" priority="164" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="163" priority="167" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D185)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="165" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="162" priority="168" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D185)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="158" priority="161" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="161" priority="164" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="162" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="160" priority="165" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="156" priority="160" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="159" priority="163" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D297">
-    <cfRule type="containsText" dxfId="155" priority="151" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="158" priority="154" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D297)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D297">
-    <cfRule type="containsText" dxfId="154" priority="152" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="157" priority="155" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D297)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="156" priority="156" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D297)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D299 D301 D303">
-    <cfRule type="containsText" dxfId="152" priority="148" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="155" priority="151" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D299 D301 D303">
-    <cfRule type="containsText" dxfId="151" priority="149" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="154" priority="152" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="150" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D325">
-    <cfRule type="containsText" dxfId="149" priority="145" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="152" priority="148" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D325)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D325">
-    <cfRule type="containsText" dxfId="148" priority="146" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="151" priority="149" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D325)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="150" priority="150" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D325)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327">
-    <cfRule type="containsText" dxfId="146" priority="127" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="149" priority="130" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D327)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327">
-    <cfRule type="containsText" dxfId="145" priority="128" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="148" priority="131" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D327)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="129" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="147" priority="132" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D327)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D328">
-    <cfRule type="containsText" dxfId="143" priority="124" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="146" priority="127" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D328)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D328">
-    <cfRule type="containsText" dxfId="142" priority="125" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="145" priority="128" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D328)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="126" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="144" priority="129" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D328)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D330">
-    <cfRule type="containsText" dxfId="140" priority="121" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="143" priority="124" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D330)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D330">
-    <cfRule type="containsText" dxfId="139" priority="122" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="142" priority="125" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D330)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="123" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="141" priority="126" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D330)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D332">
-    <cfRule type="containsText" dxfId="137" priority="118" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="140" priority="121" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D332)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D332">
-    <cfRule type="containsText" dxfId="136" priority="119" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="139" priority="122" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D332)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="120" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="138" priority="123" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D332)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D333">
-    <cfRule type="containsText" dxfId="134" priority="115" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="137" priority="118" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D333)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D333">
-    <cfRule type="containsText" dxfId="133" priority="116" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="136" priority="119" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D333)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="117" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="135" priority="120" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D333)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335">
-    <cfRule type="containsText" dxfId="131" priority="112" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="134" priority="115" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D335)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335">
-    <cfRule type="containsText" dxfId="130" priority="113" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="133" priority="116" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D335)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="114" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="132" priority="117" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D335)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D337">
-    <cfRule type="containsText" dxfId="128" priority="109" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="131" priority="112" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D337">
-    <cfRule type="containsText" dxfId="127" priority="110" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="130" priority="113" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="111" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="129" priority="114" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D338">
-    <cfRule type="containsText" dxfId="125" priority="106" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="128" priority="109" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D338)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D338">
-    <cfRule type="containsText" dxfId="124" priority="107" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="127" priority="110" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D338)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="108" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="126" priority="111" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D338)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D340">
-    <cfRule type="containsText" dxfId="122" priority="103" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="125" priority="106" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D340">
-    <cfRule type="containsText" dxfId="121" priority="104" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="124" priority="107" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D340)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="105" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="123" priority="108" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D342">
-    <cfRule type="containsText" dxfId="119" priority="100" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="122" priority="103" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D342">
-    <cfRule type="containsText" dxfId="118" priority="101" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="121" priority="104" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D342)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="102" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="120" priority="105" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D343">
-    <cfRule type="containsText" dxfId="116" priority="97" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="119" priority="100" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D343">
-    <cfRule type="containsText" dxfId="115" priority="98" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="118" priority="101" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D343)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="99" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="117" priority="102" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D345">
-    <cfRule type="containsText" dxfId="113" priority="94" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="116" priority="97" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D345">
-    <cfRule type="containsText" dxfId="112" priority="95" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="115" priority="98" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="96" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="114" priority="99" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D347">
-    <cfRule type="containsText" dxfId="110" priority="91" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="113" priority="94" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D347">
-    <cfRule type="containsText" dxfId="109" priority="92" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="112" priority="95" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="93" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="111" priority="96" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D348">
-    <cfRule type="containsText" dxfId="107" priority="88" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="110" priority="91" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D348)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D348">
-    <cfRule type="containsText" dxfId="106" priority="89" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="109" priority="92" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D348)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="90" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="108" priority="93" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D348)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D350">
-    <cfRule type="containsText" dxfId="104" priority="85" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="107" priority="88" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D350">
-    <cfRule type="containsText" dxfId="103" priority="86" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="106" priority="89" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="87" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="105" priority="90" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D352">
-    <cfRule type="containsText" dxfId="101" priority="82" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="104" priority="85" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D352)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D352">
-    <cfRule type="containsText" dxfId="100" priority="83" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="103" priority="86" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="84" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="102" priority="87" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D352)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D353">
-    <cfRule type="containsText" dxfId="98" priority="79" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="101" priority="82" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D353)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D353">
-    <cfRule type="containsText" dxfId="97" priority="80" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="100" priority="83" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="81" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="99" priority="84" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D353)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D355">
-    <cfRule type="containsText" dxfId="95" priority="76" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="98" priority="79" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D355)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D355">
-    <cfRule type="containsText" dxfId="94" priority="77" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="97" priority="80" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="78" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="96" priority="81" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D355)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D357">
-    <cfRule type="containsText" dxfId="92" priority="73" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="95" priority="76" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D357)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D357">
-    <cfRule type="containsText" dxfId="91" priority="74" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="94" priority="77" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D357)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="93" priority="78" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D357)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D358">
-    <cfRule type="containsText" dxfId="89" priority="70" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="92" priority="73" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D358)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D358">
-    <cfRule type="containsText" dxfId="88" priority="71" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="91" priority="74" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D358)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="72" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D358)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D360">
-    <cfRule type="containsText" dxfId="86" priority="67" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="89" priority="70" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D360)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D360">
-    <cfRule type="containsText" dxfId="85" priority="68" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="88" priority="71" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D360)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="87" priority="72" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D360)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D362">
-    <cfRule type="containsText" dxfId="83" priority="64" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="86" priority="67" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D362)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D362">
-    <cfRule type="containsText" dxfId="82" priority="65" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="85" priority="68" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D362)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="66" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D362)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D363">
-    <cfRule type="containsText" dxfId="80" priority="61" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="83" priority="64" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D363">
-    <cfRule type="containsText" dxfId="79" priority="62" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="82" priority="65" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="81" priority="66" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D365">
-    <cfRule type="containsText" dxfId="77" priority="58" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="80" priority="61" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D365)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D365">
-    <cfRule type="containsText" dxfId="76" priority="59" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="79" priority="62" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="60" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D365)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D367">
-    <cfRule type="containsText" dxfId="74" priority="55" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="77" priority="58" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D367">
-    <cfRule type="containsText" dxfId="73" priority="56" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="76" priority="59" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="57" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="75" priority="60" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D368">
-    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="74" priority="55" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D368">
-    <cfRule type="containsText" dxfId="70" priority="53" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="73" priority="56" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D368)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="54" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="72" priority="57" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D370">
-    <cfRule type="containsText" dxfId="68" priority="49" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D370">
-    <cfRule type="containsText" dxfId="67" priority="50" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="70" priority="53" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D370)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="51" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="69" priority="54" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379">
-    <cfRule type="containsText" dxfId="65" priority="46" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="68" priority="49" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379">
-    <cfRule type="containsText" dxfId="64" priority="47" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="67" priority="50" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D379)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="48" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="66" priority="51" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D380">
-    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="65" priority="46" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D380">
-    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="64" priority="47" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="45" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="63" priority="48" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D381">
-    <cfRule type="containsText" dxfId="59" priority="40" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D381">
-    <cfRule type="containsText" dxfId="58" priority="41" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D381)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="42" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="60" priority="45" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D382">
-    <cfRule type="containsText" dxfId="56" priority="37" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="59" priority="40" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D382">
-    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="58" priority="41" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D382)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="57" priority="42" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D383">
-    <cfRule type="containsText" dxfId="53" priority="34" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="56" priority="37" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D383">
-    <cfRule type="containsText" dxfId="52" priority="35" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="36" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D384">
-    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="53" priority="34" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D384)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D384">
-    <cfRule type="containsText" dxfId="49" priority="32" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="52" priority="35" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D384)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="51" priority="36" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D384)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D385">
-    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D385)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D385">
-    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="49" priority="32" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D385)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D385)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D386">
-    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D386)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D386">
-    <cfRule type="containsText" dxfId="43" priority="26" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D386)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D386)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D387">
-    <cfRule type="containsText" dxfId="41" priority="22" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D387)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D387">
-    <cfRule type="containsText" dxfId="40" priority="23" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="43" priority="26" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D387)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="24" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D387)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D388">
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="41" priority="22" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D388)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D388">
-    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="40" priority="23" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D388)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="21" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="39" priority="24" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D388)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D389">
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D389)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D389">
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D389)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="36" priority="21" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D389)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D390">
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D390)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D390">
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D390)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D390)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D391">
-    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D391)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D391">
-    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D391)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D391)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D392">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D392)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D392">
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D392)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D392)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D393">
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D393)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D393">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D393)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D393)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D394">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D394">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D394)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D394)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D398 D400:D401 D403 D405:D406 D408 D410:D411 D413 D415:D416 D418 D420:D421 D423 D425:D426 D428 D430:D431 D433 D395:D396">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="uint32">
+      <formula>NOT(ISERROR(SEARCH("uint32",D395)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D398 D400:D401 D403 D405:D406 D408 D410:D411 D413 D415:D416 D418 D420:D421 D423 D425:D426 D428 D430:D431 D433 D395:D396">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="float">
+      <formula>NOT(ISERROR(SEARCH("float",D395)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="uint16">
+      <formula>NOT(ISERROR(SEARCH("uint16",D395)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -17061,6 +18179,14 @@
     <hyperlink ref="E357" location="Calibration_Coefficients" display="see notes" xr:uid="{04B66E88-32B3-47B4-9596-6430D057EC81}"/>
     <hyperlink ref="E362" location="Calibration_Coefficients" display="see notes" xr:uid="{647475B4-6A05-49A1-873E-39E491B247FA}"/>
     <hyperlink ref="E367" location="Calibration_Coefficients" display="see notes" xr:uid="{7A0A38C0-2EC2-4D10-880D-81EA552821F0}"/>
+    <hyperlink ref="E395" location="Calibration_Coefficients" display="see notes" xr:uid="{D299083D-E362-4F34-A671-7B9D9548C878}"/>
+    <hyperlink ref="E400" location="Calibration_Coefficients" display="see notes" xr:uid="{B53886EC-3D9B-4254-899E-6020BF9F7034}"/>
+    <hyperlink ref="E405" location="Calibration_Coefficients" display="see notes" xr:uid="{C7BA1BFC-2BA6-465E-BDE3-9C36AABD5BEC}"/>
+    <hyperlink ref="E410" location="Calibration_Coefficients" display="see notes" xr:uid="{1B869D72-8C57-45DF-ABF8-F2239B520518}"/>
+    <hyperlink ref="E415" location="Calibration_Coefficients" display="see notes" xr:uid="{D7695FE1-B287-416E-9029-B088AEC1E1F8}"/>
+    <hyperlink ref="E420" location="Calibration_Coefficients" display="see notes" xr:uid="{D9435030-CE28-40B2-B34F-9EB1D9AED7C7}"/>
+    <hyperlink ref="E425" location="Calibration_Coefficients" display="see notes" xr:uid="{B57284AA-2765-42E6-A2B0-73020B84542B}"/>
+    <hyperlink ref="E430" location="Calibration_Coefficients" display="see notes" xr:uid="{7B45FC75-562C-4689-B352-668D4B27CA3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17071,7 +18197,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="157" operator="containsText" text="uint32" id="{62879CD0-8A43-471B-82B2-CA08FDA37990}">
+          <x14:cfRule type="containsText" priority="160" operator="containsText" text="uint32" id="{62879CD0-8A43-471B-82B2-CA08FDA37990}">
             <xm:f>NOT(ISERROR(SEARCH("uint32",'Base Station Config'!D313)))</xm:f>
             <x14:dxf>
               <font>
@@ -17082,7 +18208,7 @@
           <xm:sqref>D372</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="158" operator="containsText" text="float" id="{33876443-1021-4668-83B7-4D00B274D413}">
+          <x14:cfRule type="containsText" priority="161" operator="containsText" text="float" id="{33876443-1021-4668-83B7-4D00B274D413}">
             <xm:f>NOT(ISERROR(SEARCH("float",'Base Station Config'!D313)))</xm:f>
             <x14:dxf>
               <font>
@@ -17090,7 +18216,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="159" operator="containsText" text="uint16" id="{92B9D4C7-F92E-4095-A873-CD1DE59D19E4}">
+          <x14:cfRule type="containsText" priority="162" operator="containsText" text="uint16" id="{92B9D4C7-F92E-4095-A873-CD1DE59D19E4}">
             <xm:f>NOT(ISERROR(SEARCH("uint16",'Base Station Config'!D313)))</xm:f>
             <x14:dxf>
               <font>
@@ -17101,7 +18227,7 @@
           <xm:sqref>D372</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="155" operator="containsText" text="float" id="{2FC10D21-5F7B-4BAC-A858-BA0C6944DA07}">
+          <x14:cfRule type="containsText" priority="158" operator="containsText" text="float" id="{2FC10D21-5F7B-4BAC-A858-BA0C6944DA07}">
             <xm:f>NOT(ISERROR(SEARCH("float",'Base Station Config'!D53)))</xm:f>
             <x14:dxf>
               <font>
@@ -17109,7 +18235,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="156" operator="containsText" text="uint16" id="{53C111A9-5D1A-4A84-9396-7EA08D44EF2A}">
+          <x14:cfRule type="containsText" priority="159" operator="containsText" text="uint16" id="{53C111A9-5D1A-4A84-9396-7EA08D44EF2A}">
             <xm:f>NOT(ISERROR(SEARCH("uint16",'Base Station Config'!D53)))</xm:f>
             <x14:dxf>
               <font>
@@ -17120,7 +18246,7 @@
           <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="154" operator="containsText" text="uint32" id="{631949CC-5473-49F7-9D1D-F495E8D5B175}">
+          <x14:cfRule type="containsText" priority="157" operator="containsText" text="uint32" id="{631949CC-5473-49F7-9D1D-F495E8D5B175}">
             <xm:f>NOT(ISERROR(SEARCH("uint32",'Base Station Config'!D53)))</xm:f>
             <x14:dxf>
               <font>
@@ -17160,38 +18286,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="177" t="s">
         <v>993</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="181" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="183" t="s">
+      <c r="E2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="183" t="s">
+      <c r="F2" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="177" t="s">
+      <c r="G2" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="173" t="s">
+      <c r="H2" s="175" t="s">
         <v>767</v>
       </c>
     </row>
@@ -17202,12 +18328,12 @@
       <c r="B3" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="174"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -17220,17 +18346,17 @@
       <c r="C4" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="187"/>
+      <c r="E4" s="189"/>
       <c r="F4" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="164">
+      <c r="G4" s="145">
         <v>1</v>
       </c>
-      <c r="H4" s="166" t="s">
+      <c r="H4" s="147" t="s">
         <v>772</v>
       </c>
     </row>
@@ -17242,12 +18368,12 @@
         <f t="shared" si="0"/>
         <v>0x16</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="167"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="148"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -17750,20 +18876,20 @@
         <f t="shared" si="0"/>
         <v>0x84</v>
       </c>
-      <c r="C25" s="169" t="s">
+      <c r="C25" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="160" t="s">
+      <c r="D25" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="171"/>
+      <c r="E25" s="173"/>
       <c r="F25" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="164">
+      <c r="G25" s="145">
         <v>3</v>
       </c>
-      <c r="H25" s="166" t="s">
+      <c r="H25" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -17775,12 +18901,12 @@
         <f t="shared" si="0"/>
         <v>0x86</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="167"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="148"/>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -17790,20 +18916,20 @@
         <f t="shared" si="0"/>
         <v>0x88</v>
       </c>
-      <c r="C27" s="169" t="s">
+      <c r="C27" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="171"/>
+      <c r="E27" s="173"/>
       <c r="F27" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="164">
+      <c r="G27" s="145">
         <v>3</v>
       </c>
-      <c r="H27" s="166" t="s">
+      <c r="H27" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -17815,12 +18941,12 @@
         <f t="shared" si="0"/>
         <v>0x8A</v>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="167"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="148"/>
     </row>
     <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -17880,20 +19006,20 @@
         <f t="shared" si="0"/>
         <v>0x90</v>
       </c>
-      <c r="C31" s="169" t="s">
+      <c r="C31" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="160" t="s">
+      <c r="D31" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="171"/>
+      <c r="E31" s="173"/>
       <c r="F31" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="164">
+      <c r="G31" s="145">
         <v>3</v>
       </c>
-      <c r="H31" s="166" t="s">
+      <c r="H31" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -17905,12 +19031,12 @@
         <f t="shared" si="0"/>
         <v>0x92</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="167"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="148"/>
     </row>
     <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -17920,20 +19046,20 @@
         <f t="shared" si="0"/>
         <v>0x94</v>
       </c>
-      <c r="C33" s="169" t="s">
+      <c r="C33" s="168" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="160" t="s">
+      <c r="D33" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="171"/>
+      <c r="E33" s="173"/>
       <c r="F33" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="164">
+      <c r="G33" s="145">
         <v>3</v>
       </c>
-      <c r="H33" s="166" t="s">
+      <c r="H33" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -17945,12 +19071,12 @@
         <f t="shared" si="0"/>
         <v>0x96</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="148"/>
     </row>
     <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
@@ -18010,20 +19136,20 @@
         <f t="shared" si="0"/>
         <v>0x9C</v>
       </c>
-      <c r="C37" s="169" t="s">
+      <c r="C37" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="160" t="s">
+      <c r="D37" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="171"/>
+      <c r="E37" s="173"/>
       <c r="F37" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="164">
+      <c r="G37" s="145">
         <v>3</v>
       </c>
-      <c r="H37" s="166" t="s">
+      <c r="H37" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18035,12 +19161,12 @@
         <f t="shared" si="0"/>
         <v>0x9E</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="165"/>
-      <c r="H38" s="167"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="148"/>
     </row>
     <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -18050,20 +19176,20 @@
         <f t="shared" si="0"/>
         <v>0xA0</v>
       </c>
-      <c r="C39" s="169" t="s">
+      <c r="C39" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="160" t="s">
+      <c r="D39" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="171"/>
+      <c r="E39" s="173"/>
       <c r="F39" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="164">
+      <c r="G39" s="145">
         <v>3</v>
       </c>
-      <c r="H39" s="166" t="s">
+      <c r="H39" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18075,12 +19201,12 @@
         <f t="shared" si="0"/>
         <v>0xA2</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="167"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="148"/>
     </row>
     <row r="41" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -18140,20 +19266,20 @@
         <f t="shared" si="0"/>
         <v>0xA8</v>
       </c>
-      <c r="C43" s="169" t="s">
+      <c r="C43" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="160" t="s">
+      <c r="D43" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="171"/>
+      <c r="E43" s="173"/>
       <c r="F43" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="164">
+      <c r="G43" s="145">
         <v>3</v>
       </c>
-      <c r="H43" s="166" t="s">
+      <c r="H43" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18165,12 +19291,12 @@
         <f t="shared" si="0"/>
         <v>0xAA</v>
       </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="161"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="167"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="174"/>
+      <c r="F44" s="172"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="148"/>
     </row>
     <row r="45" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -18180,20 +19306,20 @@
         <f t="shared" si="0"/>
         <v>0xAC</v>
       </c>
-      <c r="C45" s="169" t="s">
+      <c r="C45" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="160" t="s">
+      <c r="D45" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="171"/>
+      <c r="E45" s="173"/>
       <c r="F45" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="164">
+      <c r="G45" s="145">
         <v>3</v>
       </c>
-      <c r="H45" s="166" t="s">
+      <c r="H45" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18205,12 +19331,12 @@
         <f t="shared" si="0"/>
         <v>0xAE</v>
       </c>
-      <c r="C46" s="170"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="172"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="165"/>
-      <c r="H46" s="167"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="174"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="148"/>
     </row>
     <row r="47" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -18270,20 +19396,20 @@
         <f t="shared" si="2"/>
         <v>0xB4</v>
       </c>
-      <c r="C49" s="169" t="s">
+      <c r="C49" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="160" t="s">
+      <c r="D49" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="171"/>
+      <c r="E49" s="173"/>
       <c r="F49" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="G49" s="164">
+      <c r="G49" s="145">
         <v>3</v>
       </c>
-      <c r="H49" s="166" t="s">
+      <c r="H49" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18295,12 +19421,12 @@
         <f t="shared" si="2"/>
         <v>0xB6</v>
       </c>
-      <c r="C50" s="170"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="167"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="174"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="148"/>
     </row>
     <row r="51" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -18310,20 +19436,20 @@
         <f t="shared" si="2"/>
         <v>0xB8</v>
       </c>
-      <c r="C51" s="169" t="s">
+      <c r="C51" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="160" t="s">
+      <c r="D51" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="171"/>
+      <c r="E51" s="173"/>
       <c r="F51" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="164">
+      <c r="G51" s="145">
         <v>3</v>
       </c>
-      <c r="H51" s="166" t="s">
+      <c r="H51" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18335,12 +19461,12 @@
         <f t="shared" si="2"/>
         <v>0xBA</v>
       </c>
-      <c r="C52" s="170"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="172"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="165"/>
-      <c r="H52" s="167"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="174"/>
+      <c r="F52" s="172"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="148"/>
     </row>
     <row r="53" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
@@ -18400,20 +19526,20 @@
         <f t="shared" si="2"/>
         <v>0xC0</v>
       </c>
-      <c r="C55" s="169" t="s">
+      <c r="C55" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="160" t="s">
+      <c r="D55" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="171"/>
+      <c r="E55" s="173"/>
       <c r="F55" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="G55" s="164">
+      <c r="G55" s="145">
         <v>3</v>
       </c>
-      <c r="H55" s="166" t="s">
+      <c r="H55" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18425,12 +19551,12 @@
         <f t="shared" si="2"/>
         <v>0xC2</v>
       </c>
-      <c r="C56" s="170"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="172"/>
-      <c r="F56" s="168"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="167"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="174"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="148"/>
     </row>
     <row r="57" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -18440,20 +19566,20 @@
         <f t="shared" si="2"/>
         <v>0xC4</v>
       </c>
-      <c r="C57" s="169" t="s">
+      <c r="C57" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="160" t="s">
+      <c r="D57" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="171"/>
+      <c r="E57" s="173"/>
       <c r="F57" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="164">
+      <c r="G57" s="145">
         <v>3</v>
       </c>
-      <c r="H57" s="166" t="s">
+      <c r="H57" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18465,12 +19591,12 @@
         <f t="shared" si="2"/>
         <v>0xC6</v>
       </c>
-      <c r="C58" s="170"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="172"/>
-      <c r="F58" s="168"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="167"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="174"/>
+      <c r="F58" s="172"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="148"/>
     </row>
     <row r="59" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
@@ -18530,20 +19656,20 @@
         <f t="shared" si="2"/>
         <v>0xCC</v>
       </c>
-      <c r="C61" s="169" t="s">
+      <c r="C61" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="160" t="s">
+      <c r="D61" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="171"/>
+      <c r="E61" s="173"/>
       <c r="F61" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="164">
+      <c r="G61" s="145">
         <v>3</v>
       </c>
-      <c r="H61" s="166" t="s">
+      <c r="H61" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18555,12 +19681,12 @@
         <f t="shared" si="2"/>
         <v>0xCE</v>
       </c>
-      <c r="C62" s="170"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="172"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="167"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="174"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="148"/>
     </row>
     <row r="63" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
@@ -18570,20 +19696,20 @@
         <f t="shared" si="2"/>
         <v>0xD0</v>
       </c>
-      <c r="C63" s="169" t="s">
+      <c r="C63" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="160" t="s">
+      <c r="D63" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="171"/>
+      <c r="E63" s="173"/>
       <c r="F63" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="G63" s="164">
+      <c r="G63" s="145">
         <v>3</v>
       </c>
-      <c r="H63" s="166" t="s">
+      <c r="H63" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18595,12 +19721,12 @@
         <f t="shared" si="2"/>
         <v>0xD2</v>
       </c>
-      <c r="C64" s="170"/>
-      <c r="D64" s="161"/>
-      <c r="E64" s="172"/>
-      <c r="F64" s="168"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="167"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="174"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="146"/>
+      <c r="H64" s="148"/>
     </row>
     <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -18660,20 +19786,20 @@
         <f t="shared" si="2"/>
         <v>0xD8</v>
       </c>
-      <c r="C67" s="169" t="s">
+      <c r="C67" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="160" t="s">
+      <c r="D67" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="171"/>
+      <c r="E67" s="173"/>
       <c r="F67" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="G67" s="164">
+      <c r="G67" s="145">
         <v>3</v>
       </c>
-      <c r="H67" s="166" t="s">
+      <c r="H67" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18685,12 +19811,12 @@
         <f t="shared" si="2"/>
         <v>0xDA</v>
       </c>
-      <c r="C68" s="170"/>
-      <c r="D68" s="161"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="168"/>
-      <c r="G68" s="165"/>
-      <c r="H68" s="167"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="174"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="146"/>
+      <c r="H68" s="148"/>
     </row>
     <row r="69" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
@@ -18700,20 +19826,20 @@
         <f t="shared" si="2"/>
         <v>0xDC</v>
       </c>
-      <c r="C69" s="169" t="s">
+      <c r="C69" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="160" t="s">
+      <c r="D69" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E69" s="171"/>
+      <c r="E69" s="173"/>
       <c r="F69" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="G69" s="164">
+      <c r="G69" s="145">
         <v>3</v>
       </c>
-      <c r="H69" s="166" t="s">
+      <c r="H69" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18725,12 +19851,12 @@
         <f t="shared" si="2"/>
         <v>0xDE</v>
       </c>
-      <c r="C70" s="170"/>
-      <c r="D70" s="161"/>
-      <c r="E70" s="172"/>
-      <c r="F70" s="168"/>
-      <c r="G70" s="165"/>
-      <c r="H70" s="167"/>
+      <c r="C70" s="169"/>
+      <c r="D70" s="142"/>
+      <c r="E70" s="174"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="146"/>
+      <c r="H70" s="148"/>
     </row>
     <row r="71" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
@@ -18792,22 +19918,22 @@
         <f t="shared" si="2"/>
         <v>0xE4</v>
       </c>
-      <c r="C73" s="169" t="s">
+      <c r="C73" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="160" t="s">
+      <c r="D73" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="189" t="s">
+      <c r="E73" s="170" t="s">
         <v>124</v>
       </c>
       <c r="F73" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="G73" s="164">
+      <c r="G73" s="145">
         <v>3</v>
       </c>
-      <c r="H73" s="166" t="s">
+      <c r="H73" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -18819,12 +19945,12 @@
         <f t="shared" si="2"/>
         <v>0xE6</v>
       </c>
-      <c r="C74" s="170"/>
-      <c r="D74" s="161"/>
-      <c r="E74" s="190"/>
-      <c r="F74" s="168"/>
-      <c r="G74" s="165"/>
-      <c r="H74" s="167"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="171"/>
+      <c r="F74" s="172"/>
+      <c r="G74" s="146"/>
+      <c r="H74" s="148"/>
     </row>
     <row r="75" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
@@ -19146,20 +20272,20 @@
         <f t="shared" si="2"/>
         <v>0x15C</v>
       </c>
-      <c r="C87" s="169" t="s">
+      <c r="C87" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="D87" s="160" t="s">
+      <c r="D87" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E87" s="189"/>
+      <c r="E87" s="170"/>
       <c r="F87" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="G87" s="164">
+      <c r="G87" s="145">
         <v>3</v>
       </c>
-      <c r="H87" s="166" t="s">
+      <c r="H87" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -19171,12 +20297,12 @@
         <f t="shared" si="2"/>
         <v>0x15E</v>
       </c>
-      <c r="C88" s="170"/>
-      <c r="D88" s="161"/>
-      <c r="E88" s="190"/>
-      <c r="F88" s="168"/>
-      <c r="G88" s="165"/>
-      <c r="H88" s="167"/>
+      <c r="C88" s="169"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="171"/>
+      <c r="F88" s="172"/>
+      <c r="G88" s="146"/>
+      <c r="H88" s="148"/>
     </row>
     <row r="89" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
@@ -19186,20 +20312,20 @@
         <f t="shared" si="2"/>
         <v>0x160</v>
       </c>
-      <c r="C89" s="169" t="s">
+      <c r="C89" s="168" t="s">
         <v>120</v>
       </c>
-      <c r="D89" s="160" t="s">
+      <c r="D89" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E89" s="189"/>
+      <c r="E89" s="170"/>
       <c r="F89" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="G89" s="164">
+      <c r="G89" s="145">
         <v>3</v>
       </c>
-      <c r="H89" s="166" t="s">
+      <c r="H89" s="147" t="s">
         <v>769</v>
       </c>
     </row>
@@ -19211,12 +20337,12 @@
         <f t="shared" si="2"/>
         <v>0x162</v>
       </c>
-      <c r="C90" s="170"/>
-      <c r="D90" s="161"/>
-      <c r="E90" s="190"/>
-      <c r="F90" s="168"/>
-      <c r="G90" s="165"/>
-      <c r="H90" s="167"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="142"/>
+      <c r="E90" s="171"/>
+      <c r="F90" s="172"/>
+      <c r="G90" s="146"/>
+      <c r="H90" s="148"/>
     </row>
     <row r="91" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
@@ -19435,19 +20561,19 @@
       <c r="C99" s="130" t="s">
         <v>853</v>
       </c>
-      <c r="D99" s="160" t="s">
+      <c r="D99" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="185" t="s">
+      <c r="E99" s="187" t="s">
         <v>835</v>
       </c>
       <c r="F99" s="134" t="s">
         <v>836</v>
       </c>
-      <c r="G99" s="164" t="s">
+      <c r="G99" s="145" t="s">
         <v>772</v>
       </c>
-      <c r="H99" s="166" t="s">
+      <c r="H99" s="147" t="s">
         <v>829</v>
       </c>
     </row>
@@ -19459,12 +20585,12 @@
         <f t="shared" si="4"/>
         <v>0x40A</v>
       </c>
-      <c r="C100" s="168"/>
-      <c r="D100" s="161"/>
-      <c r="E100" s="186"/>
-      <c r="F100" s="159"/>
-      <c r="G100" s="165"/>
-      <c r="H100" s="167"/>
+      <c r="C100" s="172"/>
+      <c r="D100" s="142"/>
+      <c r="E100" s="188"/>
+      <c r="F100" s="140"/>
+      <c r="G100" s="146"/>
+      <c r="H100" s="148"/>
     </row>
     <row r="101" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
@@ -19494,58 +20620,72 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G68">
+  <sortState ref="A3:G68">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="134">
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="C33:C34"/>
@@ -19570,118 +20710,104 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
   </mergeCells>
   <conditionalFormatting sqref="D4 D27 D29:D31 D33 D35:D37 D39 D41:D43 D45 D47:D49 D51 D53:D55 D57 D59:D61 D63 D65:D67 D69 D71:D73 D75:D87 D89 D91 D6:D21 D23:D25">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4 D102:D1048576 D27 D29:D31 D33 D35:D37 D39 D41:D43 D45 D47:D49 D51 D53:D55 D57 D59:D61 D63 D65:D67 D69 D71:D73 D75:D87 D89 D91 D6:D21 D23:D25">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:D99 D101">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:D99 D101">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D95">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D95">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="float">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="float">
       <formula>NOT(ISERROR(SEARCH("float",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="uint16">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="uint16">
       <formula>NOT(ISERROR(SEARCH("uint16",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="uint32">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="uint32">
       <formula>NOT(ISERROR(SEARCH("uint32",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19710,7 +20836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496:C496"/>
     </sheetView>
   </sheetViews>
@@ -19724,17 +20850,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="196" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="233"/>
+      <c r="B2" s="197"/>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -19798,11 +20924,11 @@
       <c r="C11" s="193"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="234" t="s">
+      <c r="A12" s="198" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="236"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="200"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -19861,11 +20987,11 @@
       <c r="C19" s="193"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="199" t="s">
+      <c r="A20" s="201" t="s">
         <v>457</v>
       </c>
-      <c r="B20" s="228"/>
-      <c r="C20" s="229"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="203"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -20013,11 +21139,11 @@
       <c r="C36" s="193"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="199" t="s">
+      <c r="A37" s="201" t="s">
         <v>460</v>
       </c>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
+      <c r="B37" s="202"/>
+      <c r="C37" s="203"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
@@ -20093,11 +21219,11 @@
       <c r="C46" s="193"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="199" t="s">
+      <c r="A47" s="201" t="s">
         <v>463</v>
       </c>
-      <c r="B47" s="228"/>
-      <c r="C47" s="229"/>
+      <c r="B47" s="202"/>
+      <c r="C47" s="203"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
@@ -20167,11 +21293,11 @@
       <c r="C55" s="193"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="199" t="s">
+      <c r="A56" s="201" t="s">
         <v>473</v>
       </c>
-      <c r="B56" s="228"/>
-      <c r="C56" s="229"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="203"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
@@ -20214,11 +21340,11 @@
       <c r="C62" s="193"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="199" t="s">
+      <c r="A63" s="201" t="s">
         <v>478</v>
       </c>
-      <c r="B63" s="228"/>
-      <c r="C63" s="229"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="203"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
@@ -20294,11 +21420,11 @@
       <c r="C72" s="193"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="199" t="s">
+      <c r="A73" s="201" t="s">
         <v>488</v>
       </c>
-      <c r="B73" s="228"/>
-      <c r="C73" s="229"/>
+      <c r="B73" s="202"/>
+      <c r="C73" s="203"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
@@ -20495,11 +21621,11 @@
       <c r="C93" s="193"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="199" t="s">
+      <c r="A94" s="201" t="s">
         <v>522</v>
       </c>
-      <c r="B94" s="228"/>
-      <c r="C94" s="229"/>
+      <c r="B94" s="202"/>
+      <c r="C94" s="203"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
@@ -20507,11 +21633,11 @@
       <c r="C95" s="27"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="217" t="s">
+      <c r="A96" s="204" t="s">
         <v>523</v>
       </c>
-      <c r="B96" s="223"/>
-      <c r="C96" s="218"/>
+      <c r="B96" s="205"/>
+      <c r="C96" s="206"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
@@ -20585,11 +21711,11 @@
       <c r="C103" s="22"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="217" t="s">
+      <c r="A104" s="204" t="s">
         <v>534</v>
       </c>
-      <c r="B104" s="223"/>
-      <c r="C104" s="218"/>
+      <c r="B104" s="205"/>
+      <c r="C104" s="206"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
@@ -20654,11 +21780,11 @@
       <c r="C112" s="193"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="199" t="s">
+      <c r="A113" s="201" t="s">
         <v>536</v>
       </c>
-      <c r="B113" s="228"/>
-      <c r="C113" s="229"/>
+      <c r="B113" s="202"/>
+      <c r="C113" s="203"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
@@ -20712,11 +21838,11 @@
       <c r="C120" s="193"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="199" t="s">
+      <c r="A121" s="201" t="s">
         <v>544</v>
       </c>
-      <c r="B121" s="228"/>
-      <c r="C121" s="229"/>
+      <c r="B121" s="202"/>
+      <c r="C121" s="203"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
@@ -20792,11 +21918,11 @@
       <c r="C130" s="193"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="199" t="s">
+      <c r="A131" s="201" t="s">
         <v>556</v>
       </c>
-      <c r="B131" s="228"/>
-      <c r="C131" s="229"/>
+      <c r="B131" s="202"/>
+      <c r="C131" s="203"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
@@ -20937,11 +22063,11 @@
       <c r="C147" s="193"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="199" t="s">
+      <c r="A148" s="201" t="s">
         <v>575</v>
       </c>
-      <c r="B148" s="228"/>
-      <c r="C148" s="229"/>
+      <c r="B148" s="202"/>
+      <c r="C148" s="203"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
@@ -21047,16 +22173,16 @@
       <c r="C159" s="23"/>
     </row>
     <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="230" t="s">
+      <c r="A162" s="194" t="s">
         <v>764</v>
       </c>
-      <c r="B162" s="231"/>
+      <c r="B162" s="195"/>
     </row>
     <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="232" t="s">
+      <c r="A163" s="196" t="s">
         <v>763</v>
       </c>
-      <c r="B163" s="233"/>
+      <c r="B163" s="197"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
@@ -21215,16 +22341,16 @@
       <c r="B183" s="50"/>
     </row>
     <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="230" t="s">
+      <c r="A185" s="194" t="s">
         <v>185</v>
       </c>
-      <c r="B185" s="231"/>
+      <c r="B185" s="195"/>
     </row>
     <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="232" t="s">
+      <c r="A186" s="196" t="s">
         <v>587</v>
       </c>
-      <c r="B186" s="233"/>
+      <c r="B186" s="197"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
@@ -21667,16 +22793,16 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="230" t="s">
+      <c r="A244" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="B244" s="231"/>
+      <c r="B244" s="195"/>
     </row>
     <row r="245" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="232" t="s">
+      <c r="A245" s="196" t="s">
         <v>639</v>
       </c>
-      <c r="B245" s="233"/>
+      <c r="B245" s="197"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="17" t="s">
@@ -21727,16 +22853,16 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="230" t="s">
+      <c r="A254" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="B254" s="231"/>
+      <c r="B254" s="195"/>
     </row>
     <row r="255" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="232" t="s">
+      <c r="A255" s="196" t="s">
         <v>645</v>
       </c>
-      <c r="B255" s="233"/>
+      <c r="B255" s="197"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="17" t="s">
@@ -21780,26 +22906,26 @@
       </c>
     </row>
     <row r="263" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="230" t="s">
+      <c r="A263" s="194" t="s">
         <v>434</v>
       </c>
-      <c r="B263" s="231"/>
+      <c r="B263" s="195"/>
     </row>
     <row r="264" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="232" t="s">
+      <c r="A264" s="196" t="s">
         <v>650</v>
       </c>
-      <c r="B264" s="233"/>
+      <c r="B264" s="197"/>
     </row>
     <row r="265" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="28"/>
       <c r="B265" s="29"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="217" t="s">
+      <c r="A266" s="204" t="s">
         <v>651</v>
       </c>
-      <c r="B266" s="218"/>
+      <c r="B266" s="206"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="17" t="s">
@@ -21846,10 +22972,10 @@
       <c r="B272" s="9"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="217" t="s">
+      <c r="A273" s="204" t="s">
         <v>655</v>
       </c>
-      <c r="B273" s="218"/>
+      <c r="B273" s="206"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="s">
@@ -21883,11 +23009,11 @@
       <c r="C279" s="193"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="199" t="s">
+      <c r="A280" s="201" t="s">
         <v>657</v>
       </c>
-      <c r="B280" s="200"/>
-      <c r="C280" s="201"/>
+      <c r="B280" s="211"/>
+      <c r="C280" s="212"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="s">
@@ -22007,11 +23133,11 @@
       <c r="C293" s="193"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="202" t="s">
+      <c r="A294" s="213" t="s">
         <v>675</v>
       </c>
-      <c r="B294" s="203"/>
-      <c r="C294" s="204"/>
+      <c r="B294" s="214"/>
+      <c r="C294" s="215"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="19"/>
@@ -22026,25 +23152,25 @@
       <c r="C296" s="22"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="196" t="s">
+      <c r="A297" s="216" t="s">
         <v>676</v>
       </c>
-      <c r="B297" s="197"/>
-      <c r="C297" s="198"/>
+      <c r="B297" s="217"/>
+      <c r="C297" s="218"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="224" t="s">
+      <c r="A298" s="219" t="s">
         <v>677</v>
       </c>
-      <c r="B298" s="225"/>
+      <c r="B298" s="220"/>
       <c r="C298" s="22"/>
     </row>
     <row r="299" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="196" t="s">
+      <c r="A299" s="216" t="s">
         <v>678</v>
       </c>
-      <c r="B299" s="197"/>
-      <c r="C299" s="198"/>
+      <c r="B299" s="217"/>
+      <c r="C299" s="218"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="31" t="s">
@@ -22144,32 +23270,32 @@
       <c r="C314" s="22"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="217" t="s">
+      <c r="A315" s="204" t="s">
         <v>690</v>
       </c>
-      <c r="B315" s="223"/>
+      <c r="B315" s="205"/>
       <c r="C315" s="22"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="196" t="s">
+      <c r="A316" s="216" t="s">
         <v>676</v>
       </c>
-      <c r="B316" s="197"/>
-      <c r="C316" s="198"/>
+      <c r="B316" s="217"/>
+      <c r="C316" s="218"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="226" t="s">
+      <c r="A317" s="221" t="s">
         <v>691</v>
       </c>
-      <c r="B317" s="227"/>
+      <c r="B317" s="222"/>
       <c r="C317" s="22"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="196" t="s">
+      <c r="A318" s="216" t="s">
         <v>692</v>
       </c>
-      <c r="B318" s="197"/>
-      <c r="C318" s="198"/>
+      <c r="B318" s="217"/>
+      <c r="C318" s="218"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="31" t="s">
@@ -22179,10 +23305,10 @@
       <c r="C319" s="22"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="221" t="s">
+      <c r="A320" s="209" t="s">
         <v>693</v>
       </c>
-      <c r="B320" s="222"/>
+      <c r="B320" s="210"/>
       <c r="C320" s="22"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -22191,17 +23317,17 @@
       <c r="C321" s="22"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="221" t="s">
+      <c r="A322" s="209" t="s">
         <v>694</v>
       </c>
-      <c r="B322" s="222"/>
+      <c r="B322" s="210"/>
       <c r="C322" s="22"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="219" t="s">
+      <c r="A323" s="207" t="s">
         <v>695</v>
       </c>
-      <c r="B323" s="220"/>
+      <c r="B323" s="208"/>
       <c r="C323" s="23"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -22224,11 +23350,11 @@
       <c r="C328" s="22"/>
     </row>
     <row r="329" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="196" t="s">
+      <c r="A329" s="216" t="s">
         <v>698</v>
       </c>
-      <c r="B329" s="197"/>
-      <c r="C329" s="198"/>
+      <c r="B329" s="217"/>
+      <c r="C329" s="218"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="33" t="s">
@@ -22259,11 +23385,11 @@
       <c r="C335" s="193"/>
     </row>
     <row r="336" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="214" t="s">
+      <c r="A336" s="226" t="s">
         <v>701</v>
       </c>
-      <c r="B336" s="215"/>
-      <c r="C336" s="216"/>
+      <c r="B336" s="227"/>
+      <c r="C336" s="228"/>
     </row>
     <row r="338" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -22274,11 +23400,11 @@
       <c r="C339" s="193"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="202" t="s">
+      <c r="A340" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="B340" s="203"/>
-      <c r="C340" s="204"/>
+      <c r="B340" s="214"/>
+      <c r="C340" s="215"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="19"/>
@@ -22305,11 +23431,11 @@
       <c r="C344" s="22"/>
     </row>
     <row r="345" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="196" t="s">
+      <c r="A345" s="216" t="s">
         <v>704</v>
       </c>
-      <c r="B345" s="197"/>
-      <c r="C345" s="198"/>
+      <c r="B345" s="217"/>
+      <c r="C345" s="218"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="34" t="s">
@@ -22324,11 +23450,11 @@
       <c r="C347" s="22"/>
     </row>
     <row r="348" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="211" t="s">
+      <c r="A348" s="223" t="s">
         <v>707</v>
       </c>
-      <c r="B348" s="212"/>
-      <c r="C348" s="213"/>
+      <c r="B348" s="224"/>
+      <c r="C348" s="225"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="54" t="s">
@@ -22345,11 +23471,11 @@
       <c r="C352" s="193"/>
     </row>
     <row r="353" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="211" t="s">
+      <c r="A353" s="223" t="s">
         <v>709</v>
       </c>
-      <c r="B353" s="212"/>
-      <c r="C353" s="213"/>
+      <c r="B353" s="224"/>
+      <c r="C353" s="225"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="19"/>
@@ -22369,11 +23495,11 @@
       <c r="C356" s="22"/>
     </row>
     <row r="357" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="211" t="s">
+      <c r="A357" s="223" t="s">
         <v>711</v>
       </c>
-      <c r="B357" s="212"/>
-      <c r="C357" s="213"/>
+      <c r="B357" s="224"/>
+      <c r="C357" s="225"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="19"/>
@@ -22438,18 +23564,18 @@
       <c r="C365" s="22"/>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="208" t="s">
+      <c r="A366" s="229" t="s">
         <v>718</v>
       </c>
-      <c r="B366" s="209"/>
-      <c r="C366" s="210"/>
+      <c r="B366" s="230"/>
+      <c r="C366" s="231"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="202" t="s">
+      <c r="A367" s="213" t="s">
         <v>719</v>
       </c>
-      <c r="B367" s="203"/>
-      <c r="C367" s="204"/>
+      <c r="B367" s="214"/>
+      <c r="C367" s="215"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="17" t="s">
@@ -22490,18 +23616,18 @@
       <c r="C371" s="22"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="208" t="s">
+      <c r="A372" s="229" t="s">
         <v>724</v>
       </c>
-      <c r="B372" s="209"/>
-      <c r="C372" s="210"/>
+      <c r="B372" s="230"/>
+      <c r="C372" s="231"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="202" t="s">
+      <c r="A373" s="213" t="s">
         <v>725</v>
       </c>
-      <c r="B373" s="203"/>
-      <c r="C373" s="204"/>
+      <c r="B373" s="214"/>
+      <c r="C373" s="215"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="17" t="s">
@@ -23385,18 +24511,18 @@
       <c r="C471" s="193"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" s="202" t="s">
+      <c r="A472" s="213" t="s">
         <v>850</v>
       </c>
-      <c r="B472" s="203"/>
-      <c r="C472" s="204"/>
+      <c r="B472" s="214"/>
+      <c r="C472" s="215"/>
     </row>
     <row r="473" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="196" t="s">
+      <c r="A473" s="216" t="s">
         <v>852</v>
       </c>
-      <c r="B473" s="197"/>
-      <c r="C473" s="198"/>
+      <c r="B473" s="217"/>
+      <c r="C473" s="218"/>
     </row>
     <row r="474" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
@@ -23457,46 +24583,46 @@
       <c r="C481" s="193"/>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="202" t="s">
+      <c r="A482" s="213" t="s">
         <v>854</v>
       </c>
-      <c r="B482" s="203"/>
-      <c r="C482" s="204"/>
+      <c r="B482" s="214"/>
+      <c r="C482" s="215"/>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="205" t="s">
+      <c r="A483" s="232" t="s">
         <v>859</v>
       </c>
-      <c r="B483" s="206"/>
-      <c r="C483" s="207"/>
+      <c r="B483" s="233"/>
+      <c r="C483" s="234"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="196" t="s">
+      <c r="A484" s="216" t="s">
         <v>855</v>
       </c>
-      <c r="B484" s="197"/>
-      <c r="C484" s="198"/>
+      <c r="B484" s="217"/>
+      <c r="C484" s="218"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="196" t="s">
+      <c r="A485" s="216" t="s">
         <v>856</v>
       </c>
-      <c r="B485" s="197"/>
-      <c r="C485" s="198"/>
+      <c r="B485" s="217"/>
+      <c r="C485" s="218"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="196" t="s">
+      <c r="A486" s="216" t="s">
         <v>857</v>
       </c>
-      <c r="B486" s="197"/>
-      <c r="C486" s="198"/>
+      <c r="B486" s="217"/>
+      <c r="C486" s="218"/>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="196" t="s">
+      <c r="A487" s="216" t="s">
         <v>858</v>
       </c>
-      <c r="B487" s="197"/>
-      <c r="C487" s="198"/>
+      <c r="B487" s="217"/>
+      <c r="C487" s="218"/>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="66"/>
@@ -23513,13 +24639,13 @@
       <c r="E490" s="193"/>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="199" t="s">
+      <c r="A491" s="201" t="s">
         <v>965</v>
       </c>
-      <c r="B491" s="200"/>
-      <c r="C491" s="200"/>
-      <c r="D491" s="200"/>
-      <c r="E491" s="201"/>
+      <c r="B491" s="211"/>
+      <c r="C491" s="211"/>
+      <c r="D491" s="211"/>
+      <c r="E491" s="212"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
@@ -23580,80 +24706,101 @@
       <c r="C496" s="193"/>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="194" t="s">
+      <c r="A497" s="235" t="s">
         <v>1080</v>
       </c>
-      <c r="B497" s="195"/>
-      <c r="C497" s="195"/>
+      <c r="B497" s="236"/>
+      <c r="C497" s="236"/>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" s="195"/>
-      <c r="B498" s="195"/>
-      <c r="C498" s="195"/>
+      <c r="A498" s="236"/>
+      <c r="B498" s="236"/>
+      <c r="C498" s="236"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499" s="195"/>
-      <c r="B499" s="195"/>
-      <c r="C499" s="195"/>
+      <c r="A499" s="236"/>
+      <c r="B499" s="236"/>
+      <c r="C499" s="236"/>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500" s="195"/>
-      <c r="B500" s="195"/>
-      <c r="C500" s="195"/>
+      <c r="A500" s="236"/>
+      <c r="B500" s="236"/>
+      <c r="C500" s="236"/>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="195"/>
-      <c r="B501" s="195"/>
-      <c r="C501" s="195"/>
+      <c r="A501" s="236"/>
+      <c r="B501" s="236"/>
+      <c r="C501" s="236"/>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" s="195"/>
-      <c r="B502" s="195"/>
-      <c r="C502" s="195"/>
+      <c r="A502" s="236"/>
+      <c r="B502" s="236"/>
+      <c r="C502" s="236"/>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="195"/>
-      <c r="B503" s="195"/>
-      <c r="C503" s="195"/>
+      <c r="A503" s="236"/>
+      <c r="B503" s="236"/>
+      <c r="C503" s="236"/>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="195"/>
-      <c r="B504" s="195"/>
-      <c r="C504" s="195"/>
+      <c r="A504" s="236"/>
+      <c r="B504" s="236"/>
+      <c r="C504" s="236"/>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505" s="195"/>
-      <c r="B505" s="195"/>
-      <c r="C505" s="195"/>
+      <c r="A505" s="236"/>
+      <c r="B505" s="236"/>
+      <c r="C505" s="236"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A155:B164">
+  <sortState ref="A155:B164">
     <sortCondition descending="1" ref="A164"/>
   </sortState>
   <mergeCells count="83">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C505"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="A487:C487"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A490:E490"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A481:C481"/>
+    <mergeCell ref="A482:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A471:C471"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A316:C316"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A293:C293"/>
     <mergeCell ref="A121:C121"/>
     <mergeCell ref="A266:B266"/>
     <mergeCell ref="A131:C131"/>
@@ -23670,50 +24817,29 @@
     <mergeCell ref="A264:B264"/>
     <mergeCell ref="A163:B163"/>
     <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="A322:B322"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A316:C316"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A471:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A481:C481"/>
-    <mergeCell ref="A482:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C505"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="A487:C487"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A490:E490"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
